--- a/engine_data.xlsx
+++ b/engine_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxwe\Downloads\FSAE\2023-2024 Car\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4D5A10-955E-4EC5-B868-EDABD3073CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D777AA2-5D2C-49DE-9A80-43400EAE1F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2819ED3D-E80A-4DFB-B512-B4F78C4B24A5}"/>
   </bookViews>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>10.035 on SolidWorks = 10 HP on Excel</t>
-  </si>
-  <si>
-    <t>Actual Torque (lb-ft)</t>
   </si>
   <si>
     <t>Gearing:</t>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>Adjusted Gearing</t>
+  </si>
+  <si>
+    <t>Dyno Torque (lb-ft)</t>
   </si>
 </sst>
 </file>
@@ -2323,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BAF9BE-4D21-4E54-A3DD-A372646D3216}">
   <dimension ref="B1:AO128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="57" zoomScaleNormal="36" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2333,7 +2333,7 @@
     <col min="3" max="3" width="20.6328125" customWidth="1"/>
     <col min="4" max="4" width="10.6328125" customWidth="1"/>
     <col min="5" max="5" width="20.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6328125" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" customWidth="1"/>
     <col min="7" max="7" width="26.54296875" customWidth="1"/>
     <col min="8" max="8" width="26.90625" customWidth="1"/>
     <col min="9" max="9" width="27.81640625" customWidth="1"/>
@@ -2352,6 +2352,8 @@
     <col min="22" max="22" width="25" customWidth="1"/>
     <col min="23" max="23" width="24.26953125" customWidth="1"/>
     <col min="24" max="24" width="24.54296875" customWidth="1"/>
+    <col min="30" max="30" width="15.1796875" customWidth="1"/>
+    <col min="31" max="31" width="11.08984375" customWidth="1"/>
     <col min="36" max="36" width="11.6328125" customWidth="1"/>
     <col min="38" max="38" width="15.90625" customWidth="1"/>
   </cols>
@@ -2364,67 +2366,67 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.35">
@@ -2442,36 +2444,36 @@
         <v>32.239205439999999</v>
       </c>
       <c r="F2" cm="1">
-        <f t="array" ref="F2:F128">(E2:E128)*5252/(D2:D128)</f>
-        <v>33.864061394175998</v>
+        <f t="array" ref="F2:F128">(E2:E128)*5252/(D2:D128/(AL9*AK10))</f>
+        <v>277.9101607999005</v>
       </c>
       <c r="G2" cm="1">
-        <f t="array" ref="G2:G128">(F2:F128)*AL4*AK10</f>
-        <v>703.01655998063791</v>
+        <f t="array" ref="G2:G128">(F2:F128)*AK4/AK9</f>
+        <v>703.01655998063802</v>
       </c>
       <c r="H2" cm="1">
-        <f t="array" ref="H2:H128">(F2:F128)*AL5*AK10</f>
+        <f t="array" ref="H2:H128">(F2:F128)*AK5/AK9</f>
         <v>511.63855798004744</v>
       </c>
       <c r="I2" cm="1">
-        <f t="array" ref="I2:I128">(F2:F128)*AL6*AK10</f>
-        <v>406.79271477876699</v>
+        <f t="array" ref="I2:I128">(F2:F128)*AK6/AK9</f>
+        <v>406.79271477876705</v>
       </c>
       <c r="J2" cm="1">
-        <f t="array" ref="J2:J128">(F2:F128)*AL7*AK10</f>
-        <v>347.96000363743724</v>
+        <f t="array" ref="J2:J128">(F2:F128)*AK7/AK9</f>
+        <v>347.96000363743718</v>
       </c>
       <c r="K2" cm="1">
-        <f t="array" ref="K2:K128">(F2:F128)*AL8*AK10</f>
+        <f t="array" ref="K2:K128">(F2:F128)*AK8/AK9</f>
         <v>305.15176634783143</v>
       </c>
       <c r="L2" cm="1">
-        <f t="array" ref="L2:L128">(F2:F128)*AL9*AK10</f>
+        <f t="array" ref="L2:L128">(F2:F128)</f>
         <v>277.9101607999005</v>
       </c>
       <c r="M2" cm="1">
         <f t="array" ref="M2:M128">(G2:G128)/(AO4/12/2)</f>
-        <v>823.04377753830784</v>
+        <v>823.04377753830795</v>
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:N128">(H2:H128)/(AO4/12/2)</f>
@@ -2479,11 +2481,11 @@
       </c>
       <c r="O2" cm="1">
         <f t="array" ref="O2:O128">(I2:I128)/(AO4/12/2)</f>
-        <v>476.2451294970931</v>
+        <v>476.24512949709316</v>
       </c>
       <c r="P2" cm="1">
         <f t="array" ref="P2:P128">(J2:J128)/(AO4/12/2)</f>
-        <v>407.36780913651188</v>
+        <v>407.36780913651182</v>
       </c>
       <c r="Q2" cm="1">
         <f t="array" ref="Q2:Q128">(K2:K128)/(AO4/12/2)</f>
@@ -2494,7 +2496,7 @@
         <v>325.35823703402986</v>
       </c>
       <c r="S2" cm="1">
-        <f t="array" ref="S2:S128">(D2:D128)*AO4*0.002975/(AL4*AK10)</f>
+        <f t="array" ref="S2:S128">(D2:D128)/(AL4*AK10)*AO4*0.002975</f>
         <v>14.688732540910484</v>
       </c>
       <c r="T2" cm="1">
@@ -2518,7 +2520,7 @@
         <v>37.157411559420176</v>
       </c>
       <c r="AJ2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.35">
@@ -2535,7 +2537,7 @@
         <v>32.762504440000001</v>
       </c>
       <c r="F3">
-        <v>34.073004617599999</v>
+        <v>279.62488261498083</v>
       </c>
       <c r="G3">
         <v>707.35421294119124</v>
@@ -2574,7 +2576,7 @@
         <v>327.3657162321727</v>
       </c>
       <c r="S3">
-        <v>14.835619866319588</v>
+        <v>14.83561986631959</v>
       </c>
       <c r="T3">
         <v>20.384871861059267</v>
@@ -2592,13 +2594,13 @@
         <v>37.528985675014376</v>
       </c>
       <c r="AJ3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AO3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.35">
@@ -2612,40 +2614,40 @@
         <v>33.32766736</v>
       </c>
       <c r="F4">
-        <v>34.320962544062745</v>
+        <v>281.65978405260711</v>
       </c>
       <c r="G4">
-        <v>712.50180957624082</v>
+        <v>712.50180957624093</v>
       </c>
       <c r="H4">
-        <v>518.5416946932263</v>
+        <v>518.54169469322642</v>
       </c>
       <c r="I4">
-        <v>412.28124897980456</v>
+        <v>412.28124897980462</v>
       </c>
       <c r="J4">
-        <v>352.6547543327535</v>
+        <v>352.65475433275355</v>
       </c>
       <c r="K4">
-        <v>309.26893916155291</v>
+        <v>309.26893916155296</v>
       </c>
       <c r="L4">
         <v>281.65978405260711</v>
       </c>
       <c r="M4">
-        <v>834.14845999169665</v>
+        <v>834.14845999169677</v>
       </c>
       <c r="N4">
-        <v>607.07320354328931</v>
+        <v>607.07320354328954</v>
       </c>
       <c r="O4">
-        <v>482.67073051294193</v>
+        <v>482.67073051294199</v>
       </c>
       <c r="P4">
-        <v>412.86410263346755</v>
+        <v>412.86410263346761</v>
       </c>
       <c r="Q4">
-        <v>362.07095316474488</v>
+        <v>362.07095316474494</v>
       </c>
       <c r="R4">
         <v>329.74803986646685</v>
@@ -2669,7 +2671,7 @@
         <v>37.900559790608582</v>
       </c>
       <c r="AJ4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK4">
         <v>3.0710000000000002</v>
@@ -2693,40 +2695,40 @@
         <v>33.92273308</v>
       </c>
       <c r="F5">
-        <v>34.594600803137865</v>
+        <v>283.90543473506335</v>
       </c>
       <c r="G5">
-        <v>718.1825288891099</v>
+        <v>718.18252888911002</v>
       </c>
       <c r="H5">
-        <v>522.67598569428867</v>
+        <v>522.67598569428878</v>
       </c>
       <c r="I5">
-        <v>415.56833403970961</v>
+        <v>415.56833403970973</v>
       </c>
       <c r="J5">
         <v>355.4664421724022</v>
       </c>
       <c r="K5">
-        <v>311.73471540513953</v>
+        <v>311.73471540513958</v>
       </c>
       <c r="L5">
         <v>283.90543473506335</v>
       </c>
       <c r="M5">
-        <v>840.79905821164095</v>
+        <v>840.79905821164107</v>
       </c>
       <c r="N5">
-        <v>611.9133491055087</v>
+        <v>611.91334910550881</v>
       </c>
       <c r="O5">
-        <v>486.51902521722104</v>
+        <v>486.51902521722116</v>
       </c>
       <c r="P5">
         <v>416.15583473842213</v>
       </c>
       <c r="Q5">
-        <v>364.95771559626093</v>
+        <v>364.95771559626098</v>
       </c>
       <c r="R5">
         <v>332.37709432397662</v>
@@ -2750,7 +2752,7 @@
         <v>38.272133906202789</v>
       </c>
       <c r="AJ5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK5">
         <v>2.2349999999999999</v>
@@ -2770,7 +2772,7 @@
         <v>34.493876560000004</v>
       </c>
       <c r="F6">
-        <v>34.838815325600002</v>
+        <v>285.90961540368198</v>
       </c>
       <c r="G6">
         <v>723.252412606843</v>
@@ -2785,7 +2787,7 @@
         <v>357.97579523360514</v>
       </c>
       <c r="K6">
-        <v>313.93535200420769</v>
+        <v>313.93535200420763</v>
       </c>
       <c r="L6">
         <v>285.90961540368198</v>
@@ -2803,7 +2805,7 @@
         <v>419.09361393202556</v>
       </c>
       <c r="Q6">
-        <v>367.53407063907241</v>
+        <v>367.53407063907235</v>
       </c>
       <c r="R6">
         <v>334.7234521799204</v>
@@ -2827,7 +2829,7 @@
         <v>38.643708021796989</v>
       </c>
       <c r="AJ6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK6">
         <v>1.7769999999999999</v>
@@ -2847,40 +2849,40 @@
         <v>35.221511360000001</v>
       </c>
       <c r="F7">
-        <v>35.234929078613334</v>
+        <v>289.16037837371135</v>
       </c>
       <c r="G7">
-        <v>731.47571827484967</v>
+        <v>731.47571827484978</v>
       </c>
       <c r="H7">
         <v>532.35044947713743</v>
       </c>
       <c r="I7">
-        <v>423.2602902554242</v>
+        <v>423.26029025542431</v>
       </c>
       <c r="J7">
-        <v>362.04594326856773</v>
+        <v>362.04594326856778</v>
       </c>
       <c r="K7">
-        <v>317.50476472171101</v>
+        <v>317.50476472171107</v>
       </c>
       <c r="L7">
         <v>289.16037837371135</v>
       </c>
       <c r="M7">
-        <v>856.36181651689719</v>
+        <v>856.36181651689731</v>
       </c>
       <c r="N7">
         <v>623.23955060738047</v>
       </c>
       <c r="O7">
-        <v>495.52424225025271</v>
+        <v>495.52424225025288</v>
       </c>
       <c r="P7">
-        <v>423.8586652900305</v>
+        <v>423.85866529003061</v>
       </c>
       <c r="Q7">
-        <v>371.71289528395437</v>
+        <v>371.71289528395442</v>
       </c>
       <c r="R7">
         <v>338.52922346190599</v>
@@ -2904,7 +2906,7 @@
         <v>39.015282137391189</v>
       </c>
       <c r="AJ7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK7">
         <v>1.52</v>
@@ -2924,16 +2926,16 @@
         <v>35.949146160000005</v>
       </c>
       <c r="F8">
-        <v>35.623568987230193</v>
+        <v>292.34980619336278</v>
       </c>
       <c r="G8">
         <v>739.54386723213929</v>
       </c>
       <c r="H8">
-        <v>538.22225440046611</v>
+        <v>538.222254400466</v>
       </c>
       <c r="I8">
-        <v>427.92883493048237</v>
+        <v>427.92883493048242</v>
       </c>
       <c r="J8">
         <v>366.03929605758771</v>
@@ -2948,10 +2950,10 @@
         <v>865.80745432055335</v>
       </c>
       <c r="N8">
-        <v>630.11385881030185</v>
+        <v>630.11385881030174</v>
       </c>
       <c r="O8">
-        <v>500.98985552836962</v>
+        <v>500.98985552836967</v>
       </c>
       <c r="P8">
         <v>428.53381001863926</v>
@@ -2981,7 +2983,7 @@
         <v>39.386856252985389</v>
       </c>
       <c r="AJ8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK8">
         <v>1.333</v>
@@ -3001,46 +3003,46 @@
         <v>37.392454640000004</v>
       </c>
       <c r="F9">
-        <v>36.707508741921501</v>
+        <v>301.24530954180261</v>
       </c>
       <c r="G9">
-        <v>762.04641318194069</v>
+        <v>762.04641318194058</v>
       </c>
       <c r="H9">
-        <v>554.59906657819511</v>
+        <v>554.59906657819499</v>
       </c>
       <c r="I9">
         <v>440.94968291250683</v>
       </c>
       <c r="J9">
-        <v>377.17699382499183</v>
+        <v>377.17699382499177</v>
       </c>
       <c r="K9">
-        <v>330.774297874154</v>
+        <v>330.77429787415394</v>
       </c>
       <c r="L9">
-        <v>301.24530954180267</v>
+        <v>301.24530954180261</v>
       </c>
       <c r="M9">
-        <v>892.1518983593453</v>
+        <v>892.15189835934507</v>
       </c>
       <c r="N9">
-        <v>649.2867120915455</v>
+        <v>649.28671209154538</v>
       </c>
       <c r="O9">
         <v>516.23377511708122</v>
       </c>
       <c r="P9">
-        <v>441.57306594145388</v>
+        <v>441.57306594145382</v>
       </c>
       <c r="Q9">
-        <v>387.24795848681447</v>
+        <v>387.24795848681441</v>
       </c>
       <c r="R9">
-        <v>352.67743556113487</v>
+        <v>352.67743556113476</v>
       </c>
       <c r="S9">
-        <v>15.716943818774219</v>
+        <v>15.716943818774221</v>
       </c>
       <c r="T9">
         <v>21.595854347854868</v>
@@ -3058,7 +3060,7 @@
         <v>39.758430368579596</v>
       </c>
       <c r="AJ9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK9">
         <v>1.214</v>
@@ -3078,7 +3080,7 @@
         <v>38.114108879999996</v>
       </c>
       <c r="F10">
-        <v>37.069499969955551</v>
+        <v>304.21604123343604</v>
       </c>
       <c r="G10">
         <v>769.56133659627847</v>
@@ -3087,13 +3089,13 @@
         <v>560.06824724607043</v>
       </c>
       <c r="I10">
-        <v>445.2981097790904</v>
+        <v>445.29810977909045</v>
       </c>
       <c r="J10">
-        <v>380.89652609128728</v>
+        <v>380.89652609128734</v>
       </c>
       <c r="K10">
-        <v>334.03622978926705</v>
+        <v>334.03622978926711</v>
       </c>
       <c r="L10">
         <v>304.21604123343604</v>
@@ -3105,13 +3107,13 @@
         <v>655.68965531247272</v>
       </c>
       <c r="O10">
-        <v>521.32461632673994</v>
+        <v>521.32461632674006</v>
       </c>
       <c r="P10">
-        <v>445.92764030199487</v>
+        <v>445.92764030199498</v>
       </c>
       <c r="Q10">
-        <v>391.06680560694679</v>
+        <v>391.0668056069469</v>
       </c>
       <c r="R10">
         <v>356.15536534646174</v>
@@ -3135,7 +3137,7 @@
         <v>40.130004484173796</v>
       </c>
       <c r="AJ10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK10">
         <v>4</v>
@@ -3152,16 +3154,16 @@
         <v>38.634417599999999</v>
       </c>
       <c r="F11">
-        <v>37.230818575266056</v>
+        <v>305.5399249525214</v>
       </c>
       <c r="G11">
         <v>772.91030438978032</v>
       </c>
       <c r="H11">
-        <v>562.50554552626465</v>
+        <v>562.50554552626477</v>
       </c>
       <c r="I11">
-        <v>447.23595275175495</v>
+        <v>447.23595275175501</v>
       </c>
       <c r="J11">
         <v>382.5541070245738</v>
@@ -3170,16 +3172,16 @@
         <v>335.48988464720844</v>
       </c>
       <c r="L11">
-        <v>305.53992495252146</v>
+        <v>305.5399249525214</v>
       </c>
       <c r="M11">
         <v>904.87060026120628</v>
       </c>
       <c r="N11">
-        <v>658.5430776892855</v>
+        <v>658.54307768928561</v>
       </c>
       <c r="O11">
-        <v>523.59331053863991</v>
+        <v>523.59331053864003</v>
       </c>
       <c r="P11">
         <v>447.86822285803765</v>
@@ -3188,7 +3190,7 @@
         <v>392.76864544063432</v>
       </c>
       <c r="R11">
-        <v>357.70527799319586</v>
+        <v>357.70527799319581</v>
       </c>
       <c r="S11">
         <v>16.01071846959243</v>
@@ -3209,7 +3211,7 @@
         <v>40.501578599767996</v>
       </c>
       <c r="AJ11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK11">
         <v>1.69</v>
@@ -3226,43 +3228,43 @@
         <v>39.700950799999994</v>
       </c>
       <c r="F12">
-        <v>37.910798836654536</v>
+        <v>311.12027816484266</v>
       </c>
       <c r="G12">
-        <v>787.02666741699466</v>
+        <v>787.026667416995</v>
       </c>
       <c r="H12">
-        <v>572.7790953034787</v>
+        <v>572.77909530347881</v>
       </c>
       <c r="I12">
-        <v>455.40422924128927</v>
+        <v>455.4042292412895</v>
       </c>
       <c r="J12">
-        <v>389.54104020639267</v>
+        <v>389.54104020639278</v>
       </c>
       <c r="K12">
-        <v>341.61724118100096</v>
+        <v>341.61724118100108</v>
       </c>
       <c r="L12">
-        <v>311.1202781648426</v>
+        <v>311.12027816484266</v>
       </c>
       <c r="M12">
-        <v>921.39707404916453</v>
+        <v>921.39707404916487</v>
       </c>
       <c r="N12">
-        <v>670.57064816017021</v>
+        <v>670.57064816017032</v>
       </c>
       <c r="O12">
-        <v>533.15617081907044</v>
+        <v>533.15617081907067</v>
       </c>
       <c r="P12">
-        <v>456.04804707089875</v>
+        <v>456.04804707089886</v>
       </c>
       <c r="Q12">
-        <v>399.94213601678166</v>
+        <v>399.94213601678177</v>
       </c>
       <c r="R12">
-        <v>364.23837443688893</v>
+        <v>364.23837443688899</v>
       </c>
       <c r="S12">
         <v>16.157605795001533</v>
@@ -3294,19 +3296,19 @@
         <v>40.399679559999996</v>
       </c>
       <c r="F13">
-        <v>38.230471540381977</v>
+        <v>313.74371696216036</v>
       </c>
       <c r="G13">
-        <v>793.66305995946823</v>
+        <v>793.66305995946834</v>
       </c>
       <c r="H13">
         <v>577.60890231501514</v>
       </c>
       <c r="I13">
-        <v>459.24430398826922</v>
+        <v>459.24430398826934</v>
       </c>
       <c r="J13">
-        <v>392.82574117173289</v>
+        <v>392.82574117173294</v>
       </c>
       <c r="K13">
         <v>344.49783748810523</v>
@@ -3315,16 +3317,16 @@
         <v>313.74371696216036</v>
       </c>
       <c r="M13">
-        <v>929.16650922084091</v>
+        <v>929.16650922084102</v>
       </c>
       <c r="N13">
         <v>676.22505636879828</v>
       </c>
       <c r="O13">
-        <v>537.65186808382737</v>
+        <v>537.65186808382759</v>
       </c>
       <c r="P13">
-        <v>459.89355064007754</v>
+        <v>459.89355064007759</v>
       </c>
       <c r="Q13">
         <v>403.31454144948907</v>
@@ -3362,10 +3364,10 @@
         <v>41.12731436</v>
       </c>
       <c r="F14">
-        <v>38.571545539057141</v>
+        <v>316.54278848264789</v>
       </c>
       <c r="G14">
-        <v>800.74374252900463</v>
+        <v>800.74374252900475</v>
       </c>
       <c r="H14">
         <v>582.76205293139867</v>
@@ -3383,7 +3385,7 @@
         <v>316.54278848264789</v>
       </c>
       <c r="M14">
-        <v>937.45608881444446</v>
+        <v>937.45608881444457</v>
       </c>
       <c r="N14">
         <v>682.25801318797892</v>
@@ -3401,7 +3403,7 @@
         <v>370.58667919919753</v>
       </c>
       <c r="S14">
-        <v>16.451380445819744</v>
+        <v>16.451380445819741</v>
       </c>
       <c r="T14">
         <v>22.605006420184534</v>
@@ -3430,43 +3432,43 @@
         <v>41.528011879999994</v>
       </c>
       <c r="F15">
-        <v>38.60267582190442</v>
+        <v>316.79826350707373</v>
       </c>
       <c r="G15">
-        <v>801.3900059557028</v>
+        <v>801.39000595570303</v>
       </c>
       <c r="H15">
-        <v>583.23238792282507</v>
+        <v>583.23238792282518</v>
       </c>
       <c r="I15">
-        <v>463.71541536414321</v>
+        <v>463.71541536414333</v>
       </c>
       <c r="J15">
-        <v>396.65021460523229</v>
+        <v>396.65021460523235</v>
       </c>
       <c r="K15">
-        <v>347.85180004524648</v>
+        <v>347.85180004524653</v>
       </c>
       <c r="L15">
-        <v>316.79826350707367</v>
+        <v>316.79826350707373</v>
       </c>
       <c r="M15">
-        <v>938.21268989935948</v>
+        <v>938.2126898993597</v>
       </c>
       <c r="N15">
-        <v>682.8086492755026</v>
+        <v>682.80864927550272</v>
       </c>
       <c r="O15">
-        <v>542.8863399385092</v>
+        <v>542.88633993850931</v>
       </c>
       <c r="P15">
-        <v>464.3709829524671</v>
+        <v>464.37098295246716</v>
       </c>
       <c r="Q15">
-        <v>407.24113176028857</v>
+        <v>407.24113176028862</v>
       </c>
       <c r="R15">
-        <v>370.88577191072039</v>
+        <v>370.88577191072045</v>
       </c>
       <c r="S15">
         <v>16.598267771228848</v>
@@ -3498,10 +3500,10 @@
         <v>41.839001000000003</v>
       </c>
       <c r="F16">
-        <v>38.550602324912283</v>
+        <v>316.37091506371814</v>
       </c>
       <c r="G16">
-        <v>800.30896224108596</v>
+        <v>800.30896224108608</v>
       </c>
       <c r="H16">
         <v>582.44563028616972</v>
@@ -3519,7 +3521,7 @@
         <v>316.37091506371814</v>
       </c>
       <c r="M16">
-        <v>936.94707774566166</v>
+        <v>936.94707774566177</v>
       </c>
       <c r="N16">
         <v>681.88756716429623</v>
@@ -3537,7 +3539,7 @@
         <v>370.3854615380115</v>
       </c>
       <c r="S16">
-        <v>16.745155096637951</v>
+        <v>16.745155096637955</v>
       </c>
       <c r="T16">
         <v>23.008667249116399</v>
@@ -3566,46 +3568,46 @@
         <v>42.049317359999996</v>
       </c>
       <c r="F17">
-        <v>38.407480830386085</v>
+        <v>315.19636848187963</v>
       </c>
       <c r="G17">
-        <v>797.33776573958187</v>
+        <v>797.33776573958198</v>
       </c>
       <c r="H17">
         <v>580.28326487397112</v>
       </c>
       <c r="I17">
-        <v>461.37063162462937</v>
+        <v>461.37063162462943</v>
       </c>
       <c r="J17">
         <v>394.6445470283831</v>
       </c>
       <c r="K17">
-        <v>346.09288236107545</v>
+        <v>346.0928823610754</v>
       </c>
       <c r="L17">
-        <v>315.19636848187969</v>
+        <v>315.19636848187963</v>
       </c>
       <c r="M17">
-        <v>933.46860379268128</v>
+        <v>933.46860379268139</v>
       </c>
       <c r="N17">
         <v>679.35601741342964</v>
       </c>
       <c r="O17">
-        <v>540.14122726785877</v>
+        <v>540.14122726785888</v>
       </c>
       <c r="P17">
         <v>462.02288432591195</v>
       </c>
       <c r="Q17">
-        <v>405.18191105686884</v>
+        <v>405.18191105686878</v>
       </c>
       <c r="R17">
-        <v>369.01038261293235</v>
+        <v>369.01038261293229</v>
       </c>
       <c r="S17">
-        <v>16.892042422047059</v>
+        <v>16.892042422047055</v>
       </c>
       <c r="T17">
         <v>23.210497663582334</v>
@@ -3634,7 +3636,7 @@
         <v>42.244682319999995</v>
       </c>
       <c r="F18">
-        <v>38.253288197351722</v>
+        <v>313.93096505191454</v>
       </c>
       <c r="G18">
         <v>794.13673284549384</v>
@@ -3673,7 +3675,7 @@
         <v>367.52893469492437</v>
       </c>
       <c r="S18">
-        <v>17.038929747456162</v>
+        <v>17.038929747456166</v>
       </c>
       <c r="T18">
         <v>23.412328078048265</v>
@@ -3705,40 +3707,40 @@
         <v>42.379244920000005</v>
       </c>
       <c r="F19">
-        <v>38.047144328177787</v>
+        <v>312.23921652939697</v>
       </c>
       <c r="G19">
-        <v>789.85719436719774</v>
+        <v>789.85719436719785</v>
       </c>
       <c r="H19">
         <v>574.83908479670686</v>
       </c>
       <c r="I19">
-        <v>457.04208218512218</v>
+        <v>457.04208218512224</v>
       </c>
       <c r="J19">
         <v>390.94201740089238</v>
       </c>
       <c r="K19">
-        <v>342.84586131275626</v>
+        <v>342.84586131275631</v>
       </c>
       <c r="L19">
         <v>312.23921652939697</v>
       </c>
       <c r="M19">
-        <v>924.71086169818273</v>
+        <v>924.71086169818284</v>
       </c>
       <c r="N19">
         <v>672.98234317663241</v>
       </c>
       <c r="O19">
-        <v>535.07365719233815</v>
+        <v>535.07365719233826</v>
       </c>
       <c r="P19">
         <v>457.68821549372768</v>
       </c>
       <c r="Q19">
-        <v>401.38052056127566</v>
+        <v>401.38052056127572</v>
       </c>
       <c r="R19">
         <v>365.54835105880625</v>
@@ -3776,7 +3778,7 @@
         <v>42.556668199999997</v>
       </c>
       <c r="F20">
-        <v>37.882647692610171</v>
+        <v>310.88925186008231</v>
       </c>
       <c r="G20">
         <v>786.44225079267937</v>
@@ -3844,28 +3846,28 @@
         <v>42.753029920000003</v>
       </c>
       <c r="F21">
-        <v>37.737632460477315</v>
+        <v>309.69916405545155</v>
       </c>
       <c r="G21">
-        <v>783.43174037421056</v>
+        <v>783.43174037421068</v>
       </c>
       <c r="H21">
         <v>570.16279379236755</v>
       </c>
       <c r="I21">
-        <v>453.32406468413291</v>
+        <v>453.32406468413296</v>
       </c>
       <c r="J21">
         <v>387.76172105789652</v>
       </c>
       <c r="K21">
-        <v>340.05682511195789</v>
+        <v>340.05682511195795</v>
       </c>
       <c r="L21">
         <v>309.69916405545155</v>
       </c>
       <c r="M21">
-        <v>917.18837897468552</v>
+        <v>917.18837897468575</v>
       </c>
       <c r="N21">
         <v>667.50766102521084</v>
@@ -3877,7 +3879,7 @@
         <v>453.96494172631787</v>
       </c>
       <c r="Q21">
-        <v>398.11530744814581</v>
+        <v>398.11530744814593</v>
       </c>
       <c r="R21">
         <v>362.57463108930915</v>
@@ -3915,46 +3917,46 @@
         <v>42.942414319999997</v>
       </c>
       <c r="F22">
-        <v>37.588926668106666</v>
+        <v>308.47878915155093</v>
       </c>
       <c r="G22">
-        <v>780.34461407282765</v>
+        <v>780.34461407282788</v>
       </c>
       <c r="H22">
-        <v>567.91605745775632</v>
+        <v>567.91605745775644</v>
       </c>
       <c r="I22">
-        <v>451.53773337916465</v>
+        <v>451.53773337916476</v>
       </c>
       <c r="J22">
-        <v>386.23373930012963</v>
+        <v>386.23373930012968</v>
       </c>
       <c r="K22">
-        <v>338.71682532044258</v>
+        <v>338.71682532044264</v>
       </c>
       <c r="L22">
-        <v>308.47878915155087</v>
+        <v>308.47878915155093</v>
       </c>
       <c r="M22">
-        <v>913.57418232916416</v>
+        <v>913.57418232916439</v>
       </c>
       <c r="N22">
-        <v>664.87733556030014</v>
+        <v>664.87733556030025</v>
       </c>
       <c r="O22">
-        <v>528.62954151707083</v>
+        <v>528.62954151707095</v>
       </c>
       <c r="P22">
-        <v>452.17608503429813</v>
+        <v>452.17608503429818</v>
       </c>
       <c r="Q22">
-        <v>396.54652720442061</v>
+        <v>396.54652720442067</v>
       </c>
       <c r="R22">
-        <v>361.14589949449862</v>
+        <v>361.14589949449868</v>
       </c>
       <c r="S22">
-        <v>17.62647904909258</v>
+        <v>17.626479049092584</v>
       </c>
       <c r="T22">
         <v>24.219649735912</v>
@@ -3987,7 +3989,7 @@
         <v>43.109870000000001</v>
       </c>
       <c r="F23">
-        <v>37.423642519008268</v>
+        <v>307.12236164219399</v>
       </c>
       <c r="G23">
         <v>776.9133217489109</v>
@@ -4026,7 +4028,7 @@
         <v>359.55788680061738</v>
       </c>
       <c r="S23">
-        <v>17.773366374501684</v>
+        <v>17.773366374501688</v>
       </c>
       <c r="T23">
         <v>24.421480150377931</v>
@@ -4055,40 +4057,40 @@
         <v>43.537480039999998</v>
       </c>
       <c r="F24">
-        <v>37.485056585259017</v>
+        <v>307.62636477485006</v>
       </c>
       <c r="G24">
-        <v>778.18827530771375</v>
+        <v>778.18827530771387</v>
       </c>
       <c r="H24">
         <v>566.34672592404434</v>
       </c>
       <c r="I24">
-        <v>450.28999193155556</v>
+        <v>450.28999193155562</v>
       </c>
       <c r="J24">
         <v>385.16645342485344</v>
       </c>
       <c r="K24">
-        <v>337.78084369429581</v>
+        <v>337.78084369429587</v>
       </c>
       <c r="L24">
         <v>307.62636477485006</v>
       </c>
       <c r="M24">
-        <v>911.04968816512837</v>
+        <v>911.04968816512849</v>
       </c>
       <c r="N24">
         <v>663.04006937449094</v>
       </c>
       <c r="O24">
-        <v>527.16877104182117</v>
+        <v>527.16877104182129</v>
       </c>
       <c r="P24">
         <v>450.92657961934066</v>
       </c>
       <c r="Q24">
-        <v>395.45074383722437</v>
+        <v>395.45074383722442</v>
       </c>
       <c r="R24">
         <v>360.14793924860498</v>
@@ -4123,19 +4125,19 @@
         <v>44.170422639999998</v>
       </c>
       <c r="F25">
-        <v>37.72082271630569</v>
+        <v>309.56121253654294</v>
       </c>
       <c r="G25">
-        <v>783.08277075759747</v>
+        <v>783.08277075759759</v>
       </c>
       <c r="H25">
-        <v>569.9088220915761</v>
+        <v>569.90882209157621</v>
       </c>
       <c r="I25">
-        <v>453.1221372960764</v>
+        <v>453.12213729607646</v>
       </c>
       <c r="J25">
-        <v>387.5889975745842</v>
+        <v>387.58899757458425</v>
       </c>
       <c r="K25">
         <v>339.90535116244786</v>
@@ -4144,16 +4146,16 @@
         <v>309.56121253654294</v>
       </c>
       <c r="M25">
-        <v>916.7798291796264</v>
+        <v>916.77982917962652</v>
       </c>
       <c r="N25">
-        <v>667.21032830233298</v>
+        <v>667.21032830233321</v>
       </c>
       <c r="O25">
-        <v>530.48445341979675</v>
+        <v>530.48445341979686</v>
       </c>
       <c r="P25">
-        <v>453.76272886780589</v>
+        <v>453.762728867806</v>
       </c>
       <c r="Q25">
         <v>397.93797209262192</v>
@@ -4191,46 +4193,46 @@
         <v>44.817319879999999</v>
       </c>
       <c r="F26">
-        <v>37.964607098348381</v>
+        <v>311.56186319758979</v>
       </c>
       <c r="G26">
-        <v>788.14372477742847</v>
+        <v>788.14372477742859</v>
       </c>
       <c r="H26">
         <v>573.59206280610636</v>
       </c>
       <c r="I26">
-        <v>456.05060206105185</v>
+        <v>456.0506020610519</v>
       </c>
       <c r="J26">
-        <v>390.09393085694927</v>
+        <v>390.09393085694933</v>
       </c>
       <c r="K26">
-        <v>342.1021117317851</v>
+        <v>342.10211173178516</v>
       </c>
       <c r="L26">
         <v>311.56186319758979</v>
       </c>
       <c r="M26">
-        <v>922.70484851991625</v>
+        <v>922.70484851991648</v>
       </c>
       <c r="N26">
         <v>671.52241499251477</v>
       </c>
       <c r="O26">
-        <v>533.91289997391436</v>
+        <v>533.91289997391448</v>
       </c>
       <c r="P26">
-        <v>456.69533368618454</v>
+        <v>456.6953336861846</v>
       </c>
       <c r="Q26">
-        <v>400.50978934452894</v>
+        <v>400.509789344529</v>
       </c>
       <c r="R26">
         <v>364.75535203620268</v>
       </c>
       <c r="S26">
-        <v>18.214028350728999</v>
+        <v>18.214028350729002</v>
       </c>
       <c r="T26">
         <v>25.026971393775732</v>
@@ -4259,40 +4261,40 @@
         <v>45.697458959999999</v>
       </c>
       <c r="F27">
-        <v>38.400488713267201</v>
+        <v>315.13898669384713</v>
       </c>
       <c r="G27">
-        <v>797.19260966787851</v>
+        <v>797.19260966787863</v>
       </c>
       <c r="H27">
         <v>580.17762377326881</v>
       </c>
       <c r="I27">
-        <v>461.28663867789646</v>
+        <v>461.28663867789652</v>
       </c>
       <c r="J27">
-        <v>394.57270162656312</v>
+        <v>394.57270162656317</v>
       </c>
       <c r="K27">
-        <v>346.02987583434782</v>
+        <v>346.02987583434776</v>
       </c>
       <c r="L27">
         <v>315.13898669384713</v>
       </c>
       <c r="M27">
-        <v>933.29866497702858</v>
+        <v>933.29866497702869</v>
       </c>
       <c r="N27">
         <v>679.23234002724155</v>
       </c>
       <c r="O27">
-        <v>540.04289406192754</v>
+        <v>540.04289406192765</v>
       </c>
       <c r="P27">
-        <v>461.93877263597636</v>
+        <v>461.93877263597642</v>
       </c>
       <c r="Q27">
-        <v>405.10814731826088</v>
+        <v>405.10814731826082</v>
       </c>
       <c r="R27">
         <v>368.94320393426005</v>
@@ -4327,46 +4329,46 @@
         <v>46.606504080000001</v>
       </c>
       <c r="F28">
-        <v>38.853549115580954</v>
+        <v>318.85709031389126</v>
       </c>
       <c r="G28">
-        <v>806.59812549749597</v>
+        <v>806.59812549749608</v>
       </c>
       <c r="H28">
-        <v>587.02273216766639</v>
+        <v>587.02273216766628</v>
       </c>
       <c r="I28">
-        <v>466.72903582189844</v>
+        <v>466.72903582189849</v>
       </c>
       <c r="J28">
         <v>399.22798787241743</v>
       </c>
       <c r="K28">
-        <v>350.11243936442924</v>
+        <v>350.11243936442918</v>
       </c>
       <c r="L28">
         <v>318.85709031389126</v>
       </c>
       <c r="M28">
-        <v>944.31000058243433</v>
+        <v>944.31000058243444</v>
       </c>
       <c r="N28">
-        <v>687.24612546458502</v>
+        <v>687.24612546458491</v>
       </c>
       <c r="O28">
-        <v>546.41448096222257</v>
+        <v>546.41448096222268</v>
       </c>
       <c r="P28">
         <v>467.38886385063506</v>
       </c>
       <c r="Q28">
-        <v>409.88773389006349</v>
+        <v>409.88773389006343</v>
       </c>
       <c r="R28">
         <v>373.29610573333611</v>
       </c>
       <c r="S28">
-        <v>18.507803001547213</v>
+        <v>18.507803001547209</v>
       </c>
       <c r="T28">
         <v>25.430632222707601</v>
@@ -4395,31 +4397,31 @@
         <v>47.773710040000005</v>
       </c>
       <c r="F29">
-        <v>39.512996083477169</v>
+        <v>324.2689341785071</v>
       </c>
       <c r="G29">
-        <v>820.2882181731427</v>
+        <v>820.28821817314281</v>
       </c>
       <c r="H29">
-        <v>596.98605262682315</v>
+        <v>596.98605262682327</v>
       </c>
       <c r="I29">
-        <v>474.6506557126911</v>
+        <v>474.65065571269116</v>
       </c>
       <c r="J29">
         <v>406.00393735694462</v>
       </c>
       <c r="K29">
-        <v>356.05476874789946</v>
+        <v>356.05476874789952</v>
       </c>
       <c r="L29">
         <v>324.2689341785071</v>
       </c>
       <c r="M29">
-        <v>960.33742615392316</v>
+        <v>960.33742615392327</v>
       </c>
       <c r="N29">
-        <v>698.91050063628074</v>
+        <v>698.91050063628097</v>
       </c>
       <c r="O29">
         <v>555.68857254168722</v>
@@ -4428,7 +4430,7 @@
         <v>475.32168275934981</v>
       </c>
       <c r="Q29">
-        <v>416.844607314614</v>
+        <v>416.84460731461411</v>
       </c>
       <c r="R29">
         <v>379.63192294069125</v>
@@ -4463,10 +4465,10 @@
         <v>48.907026160000001</v>
       </c>
       <c r="F30">
-        <v>40.134328342549999</v>
+        <v>329.36798434910452</v>
       </c>
       <c r="G30">
-        <v>833.18705101820422</v>
+        <v>833.18705101820433</v>
       </c>
       <c r="H30">
         <v>606.37351319625088</v>
@@ -4484,7 +4486,7 @@
         <v>329.36798434910452</v>
       </c>
       <c r="M30">
-        <v>975.43849875301964</v>
+        <v>975.43849875301976</v>
       </c>
       <c r="N30">
         <v>709.9006983760986</v>
@@ -4502,7 +4504,7 @@
         <v>385.60154265261019</v>
       </c>
       <c r="S30">
-        <v>18.80157765236542</v>
+        <v>18.801577652365424</v>
       </c>
       <c r="T30">
         <v>25.834293051639467</v>
@@ -4531,19 +4533,19 @@
         <v>49.773210599999999</v>
       </c>
       <c r="F31">
-        <v>40.528511949023255</v>
+        <v>332.60290730133221</v>
       </c>
       <c r="G31">
-        <v>841.37028692124477</v>
+        <v>841.37028692124488</v>
       </c>
       <c r="H31">
         <v>612.32907563301274</v>
       </c>
       <c r="I31">
-        <v>486.84956035788076</v>
+        <v>486.84956035788082</v>
       </c>
       <c r="J31">
-        <v>416.43856597860372</v>
+        <v>416.43856597860378</v>
       </c>
       <c r="K31">
         <v>365.20566345360447</v>
@@ -4552,16 +4554,16 @@
         <v>332.60290730133221</v>
       </c>
       <c r="M31">
-        <v>985.01887249316462</v>
+        <v>985.01887249316474</v>
       </c>
       <c r="N31">
         <v>716.8730641557222</v>
       </c>
       <c r="O31">
-        <v>569.97021700434823</v>
+        <v>569.97021700434834</v>
       </c>
       <c r="P31">
-        <v>487.53783334080435</v>
+        <v>487.53783334080447</v>
       </c>
       <c r="Q31">
         <v>427.55784989690284</v>
@@ -4570,7 +4572,7 @@
         <v>389.38876952351092</v>
       </c>
       <c r="S31">
-        <v>18.948464977774528</v>
+        <v>18.948464977774524</v>
       </c>
       <c r="T31">
         <v>26.036123466105401</v>
@@ -4599,10 +4601,10 @@
         <v>50.440043039999999</v>
       </c>
       <c r="F32">
-        <v>40.755554776320004</v>
+        <v>334.4661660495388</v>
       </c>
       <c r="G32">
-        <v>846.08368693421221</v>
+        <v>846.08368693421232</v>
       </c>
       <c r="H32">
         <v>615.75937489350838</v>
@@ -4611,16 +4613,16 @@
         <v>489.57691686163952</v>
       </c>
       <c r="J32">
-        <v>418.77147643764329</v>
+        <v>418.77147643764334</v>
       </c>
       <c r="K32">
-        <v>367.25156453380163</v>
+        <v>367.25156453380168</v>
       </c>
       <c r="L32">
         <v>334.4661660495388</v>
       </c>
       <c r="M32">
-        <v>990.53699933761436</v>
+        <v>990.53699933761447</v>
       </c>
       <c r="N32">
         <v>720.88902426557081</v>
@@ -4629,10 +4631,10 @@
         <v>573.16321974045604</v>
       </c>
       <c r="P32">
-        <v>490.2690455855336</v>
+        <v>490.26904558553372</v>
       </c>
       <c r="Q32">
-        <v>429.95305116152389</v>
+        <v>429.95305116152394</v>
       </c>
       <c r="R32">
         <v>391.57014561897228</v>
@@ -4667,7 +4669,7 @@
         <v>51.128804199999998</v>
       </c>
       <c r="F33">
-        <v>40.996714451664126</v>
+        <v>336.44527668760486</v>
       </c>
       <c r="G33">
         <v>851.09015214796921</v>
@@ -4679,10 +4681,10 @@
         <v>492.4738522849043</v>
       </c>
       <c r="J33">
-        <v>421.24944033373924</v>
+        <v>421.24944033373919</v>
       </c>
       <c r="K33">
-        <v>369.42467366110156</v>
+        <v>369.42467366110151</v>
       </c>
       <c r="L33">
         <v>336.44527668760486</v>
@@ -4697,10 +4699,10 @@
         <v>576.55475389452215</v>
       </c>
       <c r="P33">
-        <v>493.17007648828013</v>
+        <v>493.17007648828002</v>
       </c>
       <c r="Q33">
-        <v>432.49717892031407</v>
+        <v>432.49717892031396</v>
       </c>
       <c r="R33">
         <v>393.88715319524471</v>
@@ -4735,7 +4737,7 @@
         <v>51.679015720000002</v>
       </c>
       <c r="F34">
-        <v>41.123968266884852</v>
+        <v>337.48960293774786</v>
       </c>
       <c r="G34">
         <v>853.73193626179886</v>
@@ -4747,13 +4749,13 @@
         <v>494.00249128531954</v>
       </c>
       <c r="J34">
-        <v>422.55699873589521</v>
+        <v>422.55699873589515</v>
       </c>
       <c r="K34">
         <v>370.57136797036071</v>
       </c>
       <c r="L34">
-        <v>337.48960293774792</v>
+        <v>337.48960293774786</v>
       </c>
       <c r="M34">
         <v>999.49104733088654</v>
@@ -4765,13 +4767,13 @@
         <v>578.34438004134972</v>
       </c>
       <c r="P34">
-        <v>494.70087656885295</v>
+        <v>494.70087656885289</v>
       </c>
       <c r="Q34">
         <v>433.83965030676376</v>
       </c>
       <c r="R34">
-        <v>395.10977904907077</v>
+        <v>395.10977904907071</v>
       </c>
       <c r="S34">
         <v>19.389126954001842</v>
@@ -4803,7 +4805,7 @@
         <v>51.868400119999997</v>
       </c>
       <c r="F35">
-        <v>40.964336455675188</v>
+        <v>336.17956213060222</v>
       </c>
       <c r="G35">
         <v>850.41798624635862</v>
@@ -4812,7 +4814,7 @@
         <v>618.91377377421406</v>
       </c>
       <c r="I35">
-        <v>492.08491096052722</v>
+        <v>492.08491096052728</v>
       </c>
       <c r="J35">
         <v>420.91674994935369</v>
@@ -4871,28 +4873,28 @@
         <v>52.044826639999997</v>
       </c>
       <c r="F36">
-        <v>40.796929778101493</v>
+        <v>334.80571579415886</v>
       </c>
       <c r="G36">
-        <v>846.94263031619585</v>
+        <v>846.94263031619596</v>
       </c>
       <c r="H36">
         <v>616.38449324542421</v>
       </c>
       <c r="I36">
-        <v>490.07393489803968</v>
+        <v>490.07393489803974</v>
       </c>
       <c r="J36">
-        <v>419.19661285594844</v>
+        <v>419.1966128559485</v>
       </c>
       <c r="K36">
-        <v>367.6243979848548</v>
+        <v>367.62439798485485</v>
       </c>
       <c r="L36">
         <v>334.80571579415886</v>
       </c>
       <c r="M36">
-        <v>991.54259158969273</v>
+        <v>991.54259158969285</v>
       </c>
       <c r="N36">
         <v>721.62087014098449</v>
@@ -4901,10 +4903,10 @@
         <v>573.7450945147782</v>
       </c>
       <c r="P36">
-        <v>490.7667662703787</v>
+        <v>490.76676627037875</v>
       </c>
       <c r="Q36">
-        <v>430.38953910422026</v>
+        <v>430.38953910422032</v>
       </c>
       <c r="R36">
         <v>391.96766727121036</v>
@@ -4939,40 +4941,40 @@
         <v>52.17739572</v>
       </c>
       <c r="F37">
-        <v>40.597878862435557</v>
+        <v>333.17217658761814</v>
       </c>
       <c r="G37">
-        <v>842.81034126900761</v>
+        <v>842.81034126900772</v>
       </c>
       <c r="H37">
         <v>613.37711258099387</v>
       </c>
       <c r="I37">
-        <v>487.6828317925843</v>
+        <v>487.68283179258435</v>
       </c>
       <c r="J37">
         <v>417.15132488729785</v>
       </c>
       <c r="K37">
-        <v>365.83073425971577</v>
+        <v>365.83073425971583</v>
       </c>
       <c r="L37">
         <v>333.17217658761814</v>
       </c>
       <c r="M37">
-        <v>986.70478977835046</v>
+        <v>986.70478977835057</v>
       </c>
       <c r="N37">
         <v>718.1000342411636</v>
       </c>
       <c r="O37">
-        <v>570.9457542937572</v>
+        <v>570.94575429375732</v>
       </c>
       <c r="P37">
         <v>488.37228279488528</v>
       </c>
       <c r="Q37">
-        <v>428.28964010893554</v>
+        <v>428.2896401089356</v>
       </c>
       <c r="R37">
         <v>390.05523112696761</v>
@@ -5007,43 +5009,43 @@
         <v>52.269097639999998</v>
       </c>
       <c r="F38">
-        <v>40.370191294894113</v>
+        <v>331.30362668832987</v>
       </c>
       <c r="G38">
-        <v>838.08355647434996</v>
+        <v>838.08355647435019</v>
       </c>
       <c r="H38">
-        <v>609.93707219803719</v>
+        <v>609.9370721980373</v>
       </c>
       <c r="I38">
-        <v>484.94773033374139</v>
+        <v>484.94773033374156</v>
       </c>
       <c r="J38">
-        <v>414.811789593296</v>
+        <v>414.81178959329611</v>
       </c>
       <c r="K38">
-        <v>363.77902337359444</v>
+        <v>363.7790233735945</v>
       </c>
       <c r="L38">
-        <v>331.30362668832981</v>
+        <v>331.30362668832987</v>
       </c>
       <c r="M38">
-        <v>981.17099294558045</v>
+        <v>981.17099294558079</v>
       </c>
       <c r="N38">
-        <v>714.07266989038499</v>
+        <v>714.07266989038521</v>
       </c>
       <c r="O38">
-        <v>567.74368429316064</v>
+        <v>567.74368429316087</v>
       </c>
       <c r="P38">
-        <v>485.63331464580995</v>
+        <v>485.63331464581012</v>
       </c>
       <c r="Q38">
-        <v>425.88763712030573</v>
+        <v>425.88763712030578</v>
       </c>
       <c r="R38">
-        <v>387.86766051316664</v>
+        <v>387.8676605131667</v>
       </c>
       <c r="S38">
         <v>19.97667625563826</v>
@@ -5075,40 +5077,40 @@
         <v>52.523271440000002</v>
       </c>
       <c r="F39">
-        <v>40.270397314289049</v>
+        <v>330.48465341533711</v>
       </c>
       <c r="G39">
-        <v>836.01183742874809</v>
+        <v>836.01183742874821</v>
       </c>
       <c r="H39">
         <v>608.4293248626675</v>
       </c>
       <c r="I39">
-        <v>483.74895314584342</v>
+        <v>483.74895314584353</v>
       </c>
       <c r="J39">
-        <v>413.78638648378285</v>
+        <v>413.78638648378291</v>
       </c>
       <c r="K39">
-        <v>362.87977183084377</v>
+        <v>362.87977183084382</v>
       </c>
       <c r="L39">
         <v>330.48465341533711</v>
       </c>
       <c r="M39">
-        <v>978.74556577024168</v>
+        <v>978.7455657702418</v>
       </c>
       <c r="N39">
         <v>712.3075022782449</v>
       </c>
       <c r="O39">
-        <v>566.34023782928011</v>
+        <v>566.34023782928023</v>
       </c>
       <c r="P39">
-        <v>484.43284271272142</v>
+        <v>484.43284271272148</v>
       </c>
       <c r="Q39">
-        <v>424.83485482635371</v>
+        <v>424.83485482635376</v>
       </c>
       <c r="R39">
         <v>386.90886253502885</v>
@@ -5143,16 +5145,16 @@
         <v>52.663814600000002</v>
       </c>
       <c r="F40">
-        <v>40.085558591188409</v>
+        <v>328.96774855679047</v>
       </c>
       <c r="G40">
-        <v>832.17459293072773</v>
+        <v>832.17459293072784</v>
       </c>
       <c r="H40">
         <v>605.63667053082918</v>
       </c>
       <c r="I40">
-        <v>481.52857428782255</v>
+        <v>481.52857428782261</v>
       </c>
       <c r="J40">
         <v>411.88713163617916</v>
@@ -5164,7 +5166,7 @@
         <v>328.96774855679047</v>
       </c>
       <c r="M40">
-        <v>974.25318196768126</v>
+        <v>974.25318196768137</v>
       </c>
       <c r="N40">
         <v>709.03805330438536</v>
@@ -5211,43 +5213,43 @@
         <v>52.911011079999994</v>
       </c>
       <c r="F41">
-        <v>39.983975567217264</v>
+        <v>328.13409324894786</v>
       </c>
       <c r="G41">
         <v>830.06573341640774</v>
       </c>
       <c r="H41">
-        <v>604.10189325485874</v>
+        <v>604.10189325485862</v>
       </c>
       <c r="I41">
-        <v>480.30830618070866</v>
+        <v>480.30830618070871</v>
       </c>
       <c r="J41">
-        <v>410.84334574827085</v>
+        <v>410.84334574827079</v>
       </c>
       <c r="K41">
         <v>360.29880255424013</v>
       </c>
       <c r="L41">
-        <v>328.13409324894792</v>
+        <v>328.13409324894786</v>
       </c>
       <c r="M41">
         <v>971.78427326798953</v>
       </c>
       <c r="N41">
-        <v>707.24124088373708</v>
+        <v>707.24124088373696</v>
       </c>
       <c r="O41">
-        <v>562.31216333351256</v>
+        <v>562.31216333351267</v>
       </c>
       <c r="P41">
-        <v>480.98733160773173</v>
+        <v>480.98733160773168</v>
       </c>
       <c r="Q41">
         <v>421.81323225862258</v>
       </c>
       <c r="R41">
-        <v>384.15698721828051</v>
+        <v>384.15698721828045</v>
       </c>
       <c r="S41">
         <v>20.417338231865575</v>
@@ -5282,19 +5284,19 @@
         <v>53.127307999999999</v>
       </c>
       <c r="F42">
-        <v>39.860660230857142</v>
+        <v>327.12208867696148</v>
       </c>
       <c r="G42">
-        <v>827.505711966185</v>
+        <v>827.50571196618512</v>
       </c>
       <c r="H42">
-        <v>602.23877116392816</v>
+        <v>602.23877116392828</v>
       </c>
       <c r="I42">
-        <v>478.82697823637596</v>
+        <v>478.82697823637608</v>
       </c>
       <c r="J42">
-        <v>409.5762560041033</v>
+        <v>409.57625600410336</v>
       </c>
       <c r="K42">
         <v>359.18759819307218</v>
@@ -5303,16 +5305,16 @@
         <v>327.12208867696148</v>
       </c>
       <c r="M42">
-        <v>968.78717498480205</v>
+        <v>968.78717498480216</v>
       </c>
       <c r="N42">
-        <v>705.0600247772818</v>
+        <v>705.06002477728191</v>
       </c>
       <c r="O42">
-        <v>560.57792574014752</v>
+        <v>560.57792574014763</v>
       </c>
       <c r="P42">
-        <v>479.50390946821852</v>
+        <v>479.50390946821858</v>
       </c>
       <c r="Q42">
         <v>420.51231007969426</v>
@@ -5321,7 +5323,7 @@
         <v>382.97220137790612</v>
       </c>
       <c r="S42">
-        <v>20.564225557274678</v>
+        <v>20.564225557274682</v>
       </c>
       <c r="T42">
         <v>28.256258025230668</v>
@@ -5351,16 +5353,16 @@
         <v>53.312705359999995</v>
       </c>
       <c r="F43">
-        <v>39.716074971733327</v>
+        <v>325.9355295060256</v>
       </c>
       <c r="G43">
-        <v>824.50412777018494</v>
+        <v>824.50412777018505</v>
       </c>
       <c r="H43">
         <v>600.05429031793017</v>
       </c>
       <c r="I43">
-        <v>477.09014491944595</v>
+        <v>477.090144919446</v>
       </c>
       <c r="J43">
         <v>408.09061354955429</v>
@@ -5372,13 +5374,13 @@
         <v>325.9355295060256</v>
       </c>
       <c r="M43">
-        <v>965.27312519436293</v>
+        <v>965.27312519436305</v>
       </c>
       <c r="N43">
         <v>702.50258378684509</v>
       </c>
       <c r="O43">
-        <v>558.54455990569284</v>
+        <v>558.54455990569295</v>
       </c>
       <c r="P43">
         <v>477.76462074094161</v>
@@ -5419,40 +5421,40 @@
         <v>53.482154559999998</v>
       </c>
       <c r="F44">
-        <v>39.561728978749294</v>
+        <v>324.66886750616311</v>
       </c>
       <c r="G44">
-        <v>821.29991112967616</v>
+        <v>821.29991112967627</v>
       </c>
       <c r="H44">
         <v>597.72233844833158</v>
       </c>
       <c r="I44">
-        <v>475.23606059180543</v>
+        <v>475.23606059180548</v>
       </c>
       <c r="J44">
-        <v>406.50467760244476</v>
+        <v>406.50467760244481</v>
       </c>
       <c r="K44">
-        <v>356.49390476582818</v>
+        <v>356.49390476582823</v>
       </c>
       <c r="L44">
         <v>324.66886750616311</v>
       </c>
       <c r="M44">
-        <v>961.52184717620628</v>
+        <v>961.52184717620639</v>
       </c>
       <c r="N44">
         <v>699.77249379316868</v>
       </c>
       <c r="O44">
-        <v>556.37392459528439</v>
+        <v>556.37392459528451</v>
       </c>
       <c r="P44">
-        <v>475.90791524188654</v>
+        <v>475.90791524188666</v>
       </c>
       <c r="Q44">
-        <v>417.35871777462813</v>
+        <v>417.35871777462819</v>
       </c>
       <c r="R44">
         <v>380.10013756819097</v>
@@ -5487,16 +5489,16 @@
         <v>53.639642639999998</v>
       </c>
       <c r="F45">
-        <v>39.400755684654541</v>
+        <v>323.34781763191336</v>
       </c>
       <c r="G45">
-        <v>817.95811198320087</v>
+        <v>817.95811198320098</v>
       </c>
       <c r="H45">
         <v>595.29025733717162</v>
       </c>
       <c r="I45">
-        <v>473.30236567702633</v>
+        <v>473.30236567702639</v>
       </c>
       <c r="J45">
         <v>404.85064481096236</v>
@@ -5508,7 +5510,7 @@
         <v>323.34781763191336</v>
       </c>
       <c r="M45">
-        <v>957.60949695594252</v>
+        <v>957.60949695594263</v>
       </c>
       <c r="N45">
         <v>696.92517932156682</v>
@@ -5555,46 +5557,46 @@
         <v>53.748289480000004</v>
       </c>
       <c r="F46">
-        <v>39.206391159577777</v>
+        <v>321.7527379458374</v>
       </c>
       <c r="G46">
-        <v>813.92311221718819</v>
+        <v>813.92311221718842</v>
       </c>
       <c r="H46">
         <v>592.35368147359679</v>
       </c>
       <c r="I46">
-        <v>470.96755793225117</v>
+        <v>470.96755793225128</v>
       </c>
       <c r="J46">
-        <v>402.85351044289359</v>
+        <v>402.85351044289365</v>
       </c>
       <c r="K46">
-        <v>353.29192725024808</v>
+        <v>353.29192725024814</v>
       </c>
       <c r="L46">
         <v>321.7527379458374</v>
       </c>
       <c r="M46">
-        <v>952.8855947908545</v>
+        <v>952.88559479085473</v>
       </c>
       <c r="N46">
         <v>693.48723684713775</v>
       </c>
       <c r="O46">
-        <v>551.376653188977</v>
+        <v>551.37665318897712</v>
       </c>
       <c r="P46">
-        <v>471.63337807948523</v>
+        <v>471.63337807948528</v>
       </c>
       <c r="Q46">
-        <v>413.61006117102215</v>
+        <v>413.61006117102221</v>
       </c>
       <c r="R46">
         <v>376.68613222927308</v>
       </c>
       <c r="S46">
-        <v>21.151774858911097</v>
+        <v>21.1517748589111</v>
       </c>
       <c r="T46">
         <v>29.0635796830944</v>
@@ -5623,16 +5625,16 @@
         <v>53.908767840000003</v>
       </c>
       <c r="F47">
-        <v>39.052254992507592</v>
+        <v>320.48779791171251</v>
       </c>
       <c r="G47">
-        <v>810.7232515542579</v>
+        <v>810.72325155425801</v>
       </c>
       <c r="H47">
         <v>590.02489977980019</v>
       </c>
       <c r="I47">
-        <v>469.11599414259723</v>
+        <v>469.11599414259729</v>
       </c>
       <c r="J47">
         <v>401.26973049901403</v>
@@ -5644,7 +5646,7 @@
         <v>320.48779791171251</v>
       </c>
       <c r="M47">
-        <v>949.13941645376542</v>
+        <v>949.13941645376553</v>
       </c>
       <c r="N47">
         <v>690.76085827879047</v>
@@ -5662,7 +5664,7 @@
         <v>375.20522682346831</v>
       </c>
       <c r="S47">
-        <v>21.298662184320204</v>
+        <v>21.2986621843202</v>
       </c>
       <c r="T47">
         <v>29.265410097560331</v>
@@ -5691,7 +5693,7 @@
         <v>54.21576992</v>
       </c>
       <c r="F48">
-        <v>39.005647071210959</v>
+        <v>320.10530348048269</v>
       </c>
       <c r="G48">
         <v>809.75567297245664</v>
@@ -5700,7 +5702,7 @@
         <v>589.32071934009787</v>
       </c>
       <c r="I48">
-        <v>468.55611555586302</v>
+        <v>468.55611555586307</v>
       </c>
       <c r="J48">
         <v>400.79082478610684</v>
@@ -5748,7 +5750,7 @@
         <v>54.249820876753461</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C49">
         <v>54.947000000000003</v>
       </c>
@@ -5759,46 +5761,46 @@
         <v>54.768971720000003</v>
       </c>
       <c r="F49">
-        <v>39.135597207270749</v>
+        <v>321.17175746507644</v>
       </c>
       <c r="G49">
-        <v>812.45343259905246</v>
+        <v>812.45343259905258</v>
       </c>
       <c r="H49">
         <v>591.28408396577083</v>
       </c>
       <c r="I49">
-        <v>470.11714416428396</v>
+        <v>470.11714416428407</v>
       </c>
       <c r="J49">
-        <v>402.12608842414841</v>
+        <v>402.12608842414846</v>
       </c>
       <c r="K49">
-        <v>352.65399728249326</v>
+        <v>352.65399728249332</v>
       </c>
       <c r="L49">
         <v>321.17175746507644</v>
       </c>
       <c r="M49">
-        <v>951.16499426230541</v>
+        <v>951.16499426230553</v>
       </c>
       <c r="N49">
         <v>692.23502513065853</v>
       </c>
       <c r="O49">
-        <v>550.38104682647884</v>
+        <v>550.38104682647895</v>
       </c>
       <c r="P49">
-        <v>470.78176205753959</v>
+        <v>470.78176205753971</v>
       </c>
       <c r="Q49">
-        <v>412.86321633072384</v>
+        <v>412.8632163307239</v>
       </c>
       <c r="R49">
         <v>376.00595995911391</v>
       </c>
       <c r="S49">
-        <v>21.592436835138411</v>
+        <v>21.592436835138415</v>
       </c>
       <c r="T49">
         <v>29.6690709264922</v>
@@ -5815,8 +5817,10 @@
       <c r="X49">
         <v>54.62139499234766</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C50">
         <v>55.5</v>
       </c>
@@ -5827,19 +5831,19 @@
         <v>55.320180000000001</v>
       </c>
       <c r="F50">
-        <v>39.262376400000001</v>
+        <v>322.21218865929603</v>
       </c>
       <c r="G50">
-        <v>815.08536356894399</v>
+        <v>815.08536356894422</v>
       </c>
       <c r="H50">
-        <v>593.19954007703996</v>
+        <v>593.19954007704007</v>
       </c>
       <c r="I50">
-        <v>471.64008175252798</v>
+        <v>471.64008175252803</v>
       </c>
       <c r="J50">
-        <v>403.42876998527998</v>
+        <v>403.4287699852801</v>
       </c>
       <c r="K50">
         <v>353.79641473051203</v>
@@ -5848,16 +5852,16 @@
         <v>322.21218865929603</v>
       </c>
       <c r="M50">
-        <v>954.24627930022712</v>
+        <v>954.24627930022746</v>
       </c>
       <c r="N50">
-        <v>694.47751033409554</v>
+        <v>694.47751033409577</v>
       </c>
       <c r="O50">
-        <v>552.16399814930105</v>
+        <v>552.16399814930116</v>
       </c>
       <c r="P50">
-        <v>472.30685266569367</v>
+        <v>472.30685266569378</v>
       </c>
       <c r="Q50">
         <v>414.20068066011169</v>
@@ -5866,7 +5870,7 @@
         <v>377.22402574746854</v>
       </c>
       <c r="S50">
-        <v>21.739324160547515</v>
+        <v>21.739324160547518</v>
       </c>
       <c r="T50">
         <v>29.870901340958131</v>
@@ -5884,7 +5888,7 @@
         <v>54.99296910794186</v>
       </c>
     </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C51">
         <v>55.982999999999997</v>
       </c>
@@ -5895,10 +5899,10 @@
         <v>55.801615079999998</v>
       </c>
       <c r="F51">
-        <v>39.338266093981204</v>
+        <v>322.83498805750992</v>
       </c>
       <c r="G51">
-        <v>816.66083058040601</v>
+        <v>816.66083058040613</v>
       </c>
       <c r="H51">
         <v>594.34612710752435</v>
@@ -5916,7 +5920,7 @@
         <v>322.83498805750992</v>
       </c>
       <c r="M51">
-        <v>956.09072848437779</v>
+        <v>956.09072848437791</v>
       </c>
       <c r="N51">
         <v>695.81985612588221</v>
@@ -5952,7 +5956,7 @@
         <v>55.364543223536067</v>
       </c>
     </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C52">
         <v>56.438000000000002</v>
       </c>
@@ -5963,7 +5967,7 @@
         <v>56.255140879999999</v>
       </c>
       <c r="F52">
-        <v>39.393599986901336</v>
+        <v>323.28909339650397</v>
       </c>
       <c r="G52">
         <v>817.80955998407228</v>
@@ -5972,10 +5976,10 @@
         <v>595.18214476209744</v>
       </c>
       <c r="I52">
-        <v>473.21640771465195</v>
+        <v>473.21640771465201</v>
       </c>
       <c r="J52">
-        <v>404.77711858540857</v>
+        <v>404.77711858540863</v>
       </c>
       <c r="K52">
         <v>354.97888096996689</v>
@@ -5993,7 +5997,7 @@
         <v>554.00945293422672</v>
       </c>
       <c r="P52">
-        <v>473.88540712438078</v>
+        <v>473.88540712438083</v>
       </c>
       <c r="Q52">
         <v>415.58503137947343</v>
@@ -6002,7 +6006,7 @@
         <v>378.48479226907784</v>
       </c>
       <c r="S52">
-        <v>22.033098811365729</v>
+        <v>22.033098811365726</v>
       </c>
       <c r="T52">
         <v>30.27456216989</v>
@@ -6020,7 +6024,7 @@
         <v>55.736117339130274</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C53">
         <v>56.628</v>
       </c>
@@ -6031,16 +6035,16 @@
         <v>56.444525280000001</v>
       </c>
       <c r="F53">
-        <v>39.264456525901991</v>
+        <v>322.22925950372831</v>
       </c>
       <c r="G53">
-        <v>815.12854689946425</v>
+        <v>815.12854689946437</v>
       </c>
       <c r="H53">
         <v>593.23096786724284</v>
       </c>
       <c r="I53">
-        <v>471.66506930652815</v>
+        <v>471.66506930652821</v>
       </c>
       <c r="J53">
         <v>403.45014369494811</v>
@@ -6052,13 +6056,13 @@
         <v>322.22925950372831</v>
       </c>
       <c r="M53">
-        <v>954.29683539449479</v>
+        <v>954.29683539449491</v>
       </c>
       <c r="N53">
         <v>694.51430384457706</v>
       </c>
       <c r="O53">
-        <v>552.19325187105733</v>
+        <v>552.19325187105744</v>
       </c>
       <c r="P53">
         <v>472.33187554530514</v>
@@ -6088,7 +6092,7 @@
         <v>56.107691454724474</v>
       </c>
     </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C54">
         <v>56.844000000000001</v>
       </c>
@@ -6099,7 +6103,7 @@
         <v>56.659825439999999</v>
       </c>
       <c r="F54">
-        <v>39.154921475115792</v>
+        <v>321.33034477454424</v>
       </c>
       <c r="G54">
         <v>812.85460362654487</v>
@@ -6108,13 +6112,13 @@
         <v>591.57604659893445</v>
       </c>
       <c r="I54">
-        <v>470.34927731825792</v>
+        <v>470.34927731825786</v>
       </c>
       <c r="J54">
         <v>402.32464914110977</v>
       </c>
       <c r="K54">
-        <v>352.82812980598641</v>
+        <v>352.82812980598635</v>
       </c>
       <c r="L54">
         <v>321.33034477454424</v>
@@ -6132,7 +6136,7 @@
         <v>471.01422338471389</v>
       </c>
       <c r="Q54">
-        <v>413.06707879725241</v>
+        <v>413.06707879725235</v>
       </c>
       <c r="R54">
         <v>376.19162315068598</v>
@@ -6156,7 +6160,7 @@
         <v>56.479265570318674</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C55">
         <v>57.097000000000001</v>
       </c>
@@ -6167,16 +6171,16 @@
         <v>56.912005720000003</v>
       </c>
       <c r="F55">
-        <v>39.072137783194769</v>
+        <v>320.65096881707751</v>
       </c>
       <c r="G55">
-        <v>811.13601749361203</v>
+        <v>811.13601749361214</v>
       </c>
       <c r="H55">
         <v>590.32530091117644</v>
       </c>
       <c r="I55">
-        <v>469.35483656338278</v>
+        <v>469.35483656338283</v>
       </c>
       <c r="J55">
         <v>401.47403014988288</v>
@@ -6188,7 +6192,7 @@
         <v>320.65096881707751</v>
       </c>
       <c r="M55">
-        <v>949.62265462666778</v>
+        <v>949.6226546266679</v>
       </c>
       <c r="N55">
         <v>691.11254740820664</v>
@@ -6206,7 +6210,7 @@
         <v>375.39625617609079</v>
       </c>
       <c r="S55">
-        <v>22.473760787593044</v>
+        <v>22.47376078759304</v>
       </c>
       <c r="T55">
         <v>30.880053413287801</v>
@@ -6224,7 +6228,7 @@
         <v>56.850839685912874</v>
       </c>
     </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C56">
         <v>57.517000000000003</v>
       </c>
@@ -6235,19 +6239,19 @@
         <v>57.330644920000005</v>
       </c>
       <c r="F56">
-        <v>39.103967158420787</v>
+        <v>320.91218104098238</v>
       </c>
       <c r="G56">
-        <v>811.79679405012917</v>
+        <v>811.79679405012928</v>
       </c>
       <c r="H56">
         <v>590.80619820971629</v>
       </c>
       <c r="I56">
-        <v>469.73718756987279</v>
+        <v>469.7371875698729</v>
       </c>
       <c r="J56">
-        <v>401.80108334620525</v>
+        <v>401.8010833462053</v>
       </c>
       <c r="K56">
         <v>352.36897638190237</v>
@@ -6256,16 +6260,16 @@
         <v>320.91218104098238</v>
       </c>
       <c r="M56">
-        <v>950.39624669283421</v>
+        <v>950.39624669283432</v>
       </c>
       <c r="N56">
         <v>691.67554912357036</v>
       </c>
       <c r="O56">
-        <v>549.93621959399741</v>
+        <v>549.93621959399752</v>
       </c>
       <c r="P56">
-        <v>470.4012683077525</v>
+        <v>470.40126830775256</v>
       </c>
       <c r="Q56">
         <v>412.52953332515403</v>
@@ -6292,7 +6296,7 @@
         <v>57.222413801507074</v>
       </c>
     </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C57">
         <v>57.962000000000003</v>
       </c>
@@ -6303,43 +6307,43 @@
         <v>57.774203120000003</v>
       </c>
       <c r="F57">
-        <v>39.152272875643874</v>
+        <v>321.3086086721741</v>
       </c>
       <c r="G57">
-        <v>812.79961880745179</v>
+        <v>812.79961880745202</v>
       </c>
       <c r="H57">
-        <v>591.53602996895302</v>
+        <v>591.53602996895313</v>
       </c>
       <c r="I57">
-        <v>470.31746096412951</v>
+        <v>470.31746096412962</v>
       </c>
       <c r="J57">
-        <v>402.2974342518159</v>
+        <v>402.29743425181601</v>
       </c>
       <c r="K57">
-        <v>352.80426306425699</v>
+        <v>352.80426306425704</v>
       </c>
       <c r="L57">
-        <v>321.30860867217405</v>
+        <v>321.3086086721741</v>
       </c>
       <c r="M57">
-        <v>951.57028543311435</v>
+        <v>951.57028543311458</v>
       </c>
       <c r="N57">
-        <v>692.52998630511581</v>
+        <v>692.52998630511593</v>
       </c>
       <c r="O57">
-        <v>550.61556405556632</v>
+        <v>550.61556405556644</v>
       </c>
       <c r="P57">
-        <v>470.98236205090643</v>
+        <v>470.9823620509066</v>
       </c>
       <c r="Q57">
-        <v>413.03913724595941</v>
+        <v>413.03913724595947</v>
       </c>
       <c r="R57">
-        <v>376.1661760064477</v>
+        <v>376.16617600644776</v>
       </c>
       <c r="S57">
         <v>22.767535438411251</v>
@@ -6360,7 +6364,7 @@
         <v>57.593987917101281</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C58">
         <v>58.515000000000001</v>
       </c>
@@ -6371,10 +6375,10 @@
         <v>58.3254114</v>
       </c>
       <c r="F58">
-        <v>39.272443676000002</v>
+        <v>322.29480716920864</v>
       </c>
       <c r="G58">
-        <v>815.29435981601296</v>
+        <v>815.29435981601307</v>
       </c>
       <c r="H58">
         <v>593.35164252321363</v>
@@ -6392,7 +6396,7 @@
         <v>322.29480716920864</v>
       </c>
       <c r="M58">
-        <v>954.49095783338112</v>
+        <v>954.49095783338123</v>
       </c>
       <c r="N58">
         <v>694.65558149059154</v>
@@ -6428,7 +6432,7 @@
         <v>57.96556203269548</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C59">
         <v>59.308</v>
       </c>
@@ -6439,19 +6443,19 @@
         <v>59.11584208</v>
       </c>
       <c r="F59">
-        <v>39.551134089701911</v>
+        <v>324.58191906591128</v>
       </c>
       <c r="G59">
-        <v>821.07996165684801</v>
+        <v>821.07996165684813</v>
       </c>
       <c r="H59">
-        <v>597.56226450767031</v>
+        <v>597.56226450767019</v>
       </c>
       <c r="I59">
         <v>475.10878927522594</v>
       </c>
       <c r="J59">
-        <v>406.39581299850505</v>
+        <v>406.39581299850511</v>
       </c>
       <c r="K59">
         <v>356.39843337303108</v>
@@ -6460,16 +6464,16 @@
         <v>324.58191906591128</v>
       </c>
       <c r="M59">
-        <v>961.26434535435874</v>
+        <v>961.26434535435885</v>
       </c>
       <c r="N59">
-        <v>699.58509015532138</v>
+        <v>699.58509015532127</v>
       </c>
       <c r="O59">
         <v>556.22492402953287</v>
       </c>
       <c r="P59">
-        <v>475.78046399824984</v>
+        <v>475.7804639982499</v>
       </c>
       <c r="Q59">
         <v>417.24694638793886</v>
@@ -6478,7 +6482,7 @@
         <v>379.99834427228637</v>
       </c>
       <c r="S59">
-        <v>23.061310089229462</v>
+        <v>23.061310089229458</v>
       </c>
       <c r="T59">
         <v>31.687375071151536</v>
@@ -6496,7 +6500,7 @@
         <v>58.33713614828968</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C60">
         <v>59.506</v>
       </c>
@@ -6507,16 +6511,16 @@
         <v>59.313200559999999</v>
       </c>
       <c r="F60">
-        <v>39.432016372293674</v>
+        <v>323.60436284152013</v>
       </c>
       <c r="G60">
         <v>818.60708260816182</v>
       </c>
       <c r="H60">
-        <v>595.76256256243619</v>
+        <v>595.76256256243607</v>
       </c>
       <c r="I60">
-        <v>473.67788531250517</v>
+        <v>473.67788531250511</v>
       </c>
       <c r="J60">
         <v>405.17185462859197</v>
@@ -6525,13 +6529,13 @@
         <v>355.32505409204805</v>
       </c>
       <c r="L60">
-        <v>323.60436284152019</v>
+        <v>323.60436284152013</v>
       </c>
       <c r="M60">
         <v>958.36926744370169</v>
       </c>
       <c r="N60">
-        <v>697.47812202431555</v>
+        <v>697.47812202431544</v>
       </c>
       <c r="O60">
         <v>554.54971939024995</v>
@@ -6543,7 +6547,7 @@
         <v>415.9903072297148</v>
       </c>
       <c r="R60">
-        <v>378.85388820470655</v>
+        <v>378.85388820470649</v>
       </c>
       <c r="S60">
         <v>23.208197414638565</v>
@@ -6564,7 +6568,7 @@
         <v>58.70871026388388</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C61">
         <v>59.686999999999998</v>
       </c>
@@ -6575,16 +6579,16 @@
         <v>59.493614119999997</v>
       </c>
       <c r="F61">
-        <v>39.057557669779996</v>
+        <v>320.5313150751233</v>
       </c>
       <c r="G61">
-        <v>810.83333492232589</v>
+        <v>810.833334922326</v>
       </c>
       <c r="H61">
         <v>590.10501580963796</v>
       </c>
       <c r="I61">
-        <v>469.17969265938552</v>
+        <v>469.17969265938558</v>
       </c>
       <c r="J61">
         <v>401.32421656852341</v>
@@ -6596,13 +6600,13 @@
         <v>320.5313150751233</v>
       </c>
       <c r="M61">
-        <v>949.2682945432108</v>
+        <v>949.26829454321103</v>
       </c>
       <c r="N61">
         <v>690.85465265518599</v>
       </c>
       <c r="O61">
-        <v>549.28354262562209</v>
+        <v>549.2835426256222</v>
       </c>
       <c r="P61">
         <v>469.84298525095426</v>
@@ -6632,7 +6636,7 @@
         <v>59.451858495072287</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C62">
         <v>60.142000000000003</v>
       </c>
@@ -6644,19 +6648,19 @@
         <v>59.947139920000005</v>
       </c>
       <c r="F62">
-        <v>39.110854516750315</v>
+        <v>320.96870311134381</v>
       </c>
       <c r="G62">
-        <v>811.93977533355587</v>
+        <v>811.93977533355599</v>
       </c>
       <c r="H62">
-        <v>590.91025655177373</v>
+        <v>590.91025655177384</v>
       </c>
       <c r="I62">
-        <v>469.81992209955342</v>
+        <v>469.81992209955348</v>
       </c>
       <c r="J62">
-        <v>401.87185233051281</v>
+        <v>401.87185233051287</v>
       </c>
       <c r="K62">
         <v>352.43103891879844</v>
@@ -6665,16 +6669,16 @@
         <v>320.96870311134381</v>
       </c>
       <c r="M62">
-        <v>950.56363941489474</v>
+        <v>950.56363941489485</v>
       </c>
       <c r="N62">
-        <v>691.79737352402776</v>
+        <v>691.79737352402799</v>
       </c>
       <c r="O62">
-        <v>550.03307953118451</v>
+        <v>550.03307953118463</v>
       </c>
       <c r="P62">
-        <v>470.48411980157601</v>
+        <v>470.48411980157607</v>
       </c>
       <c r="Q62">
         <v>412.60219190493478</v>
@@ -6701,7 +6705,7 @@
         <v>59.823432610666487</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C63">
         <v>60.472000000000001</v>
       </c>
@@ -6712,28 +6716,28 @@
         <v>60.27607072</v>
       </c>
       <c r="F63">
-        <v>39.082706595239507</v>
+        <v>320.73770325275638</v>
       </c>
       <c r="G63">
-        <v>811.35542560890838</v>
+        <v>811.35542560890849</v>
       </c>
       <c r="H63">
         <v>590.48498086483562</v>
       </c>
       <c r="I63">
-        <v>469.48179462944643</v>
+        <v>469.48179462944648</v>
       </c>
       <c r="J63">
         <v>401.58262680740501</v>
       </c>
       <c r="K63">
-        <v>352.17739574623079</v>
+        <v>352.17739574623084</v>
       </c>
       <c r="L63">
         <v>320.73770325275638</v>
       </c>
       <c r="M63">
-        <v>949.87952266408786</v>
+        <v>949.87952266408809</v>
       </c>
       <c r="N63">
         <v>691.29948979297831</v>
@@ -6745,7 +6749,7 @@
         <v>470.14551431110834</v>
       </c>
       <c r="Q63">
-        <v>412.30524380046535</v>
+        <v>412.30524380046541</v>
       </c>
       <c r="R63">
         <v>375.49779893005626</v>
@@ -6769,7 +6773,7 @@
         <v>60.195006726260686</v>
       </c>
     </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C64">
         <v>60.997999999999998</v>
       </c>
@@ -6780,7 +6784,7 @@
         <v>60.800366479999994</v>
       </c>
       <c r="F64">
-        <v>39.180800583185274</v>
+        <v>321.54272529799158</v>
       </c>
       <c r="G64">
         <v>813.39185287490295</v>
@@ -6795,7 +6799,7 @@
         <v>402.59056215234534</v>
       </c>
       <c r="K64">
-        <v>353.06132851912918</v>
+        <v>353.06132851912912</v>
       </c>
       <c r="L64">
         <v>321.54272529799158</v>
@@ -6813,7 +6817,7 @@
         <v>471.32553617835555</v>
       </c>
       <c r="Q64">
-        <v>413.34009192483416</v>
+        <v>413.3400919248341</v>
       </c>
       <c r="R64">
         <v>376.44026376350234</v>
@@ -6848,16 +6852,16 @@
         <v>61.343600679999994</v>
       </c>
       <c r="F65">
-        <v>39.289828142848776</v>
+        <v>322.43747523022847</v>
       </c>
       <c r="G65">
         <v>815.65526065241488</v>
       </c>
       <c r="H65">
-        <v>593.61429747904504</v>
+        <v>593.61429747904492</v>
       </c>
       <c r="I65">
-        <v>471.9698463625337</v>
+        <v>471.96984636253376</v>
       </c>
       <c r="J65">
         <v>403.71084213339975</v>
@@ -6872,10 +6876,10 @@
         <v>954.913475885754</v>
       </c>
       <c r="N65">
-        <v>694.96307997546739</v>
+        <v>694.96307997546728</v>
       </c>
       <c r="O65">
-        <v>552.55006403418577</v>
+        <v>552.55006403418588</v>
       </c>
       <c r="P65">
         <v>472.63708347324854</v>
@@ -6916,10 +6920,10 @@
         <v>61.965578919999999</v>
       </c>
       <c r="F66">
-        <v>39.447663089435153</v>
+        <v>323.73276981628209</v>
       </c>
       <c r="G66">
-        <v>818.93190783015018</v>
+        <v>818.93190783015029</v>
       </c>
       <c r="H66">
         <v>595.99896255303997</v>
@@ -6928,7 +6932,7 @@
         <v>473.86584181510153</v>
       </c>
       <c r="J66">
-        <v>405.3326277765641</v>
+        <v>405.33262777656404</v>
       </c>
       <c r="K66">
         <v>355.46604791194733</v>
@@ -6937,7 +6941,7 @@
         <v>323.73276981628209</v>
       </c>
       <c r="M66">
-        <v>958.74955063041978</v>
+        <v>958.74955063041989</v>
       </c>
       <c r="N66">
         <v>697.75488298892492</v>
@@ -6946,7 +6950,7 @@
         <v>554.76976602743594</v>
       </c>
       <c r="P66">
-        <v>474.53575934817263</v>
+        <v>474.53575934817258</v>
       </c>
       <c r="Q66">
         <v>416.15537316520664</v>
@@ -6984,19 +6988,19 @@
         <v>62.480903839999996</v>
       </c>
       <c r="F67">
-        <v>39.53610927321445</v>
+        <v>324.45861580593265</v>
       </c>
       <c r="G67">
-        <v>820.76804706756104</v>
+        <v>820.76804706756116</v>
       </c>
       <c r="H67">
         <v>597.33526056528785</v>
       </c>
       <c r="I67">
-        <v>474.92830336667396</v>
+        <v>474.92830336667413</v>
       </c>
       <c r="J67">
-        <v>406.24143000413312</v>
+        <v>406.24143000413318</v>
       </c>
       <c r="K67">
         <v>356.26304354967726</v>
@@ -7005,16 +7009,16 @@
         <v>324.45861580593265</v>
       </c>
       <c r="M67">
-        <v>960.89917705470566</v>
+        <v>960.89917705470577</v>
       </c>
       <c r="N67">
         <v>699.31932944228822</v>
       </c>
       <c r="O67">
-        <v>556.01362345366715</v>
+        <v>556.01362345366726</v>
       </c>
       <c r="P67">
-        <v>475.59972293166805</v>
+        <v>475.59972293166811</v>
       </c>
       <c r="Q67">
         <v>417.08844122889047</v>
@@ -7023,7 +7027,7 @@
         <v>379.85398923621386</v>
       </c>
       <c r="S67">
-        <v>24.383296017911405</v>
+        <v>24.383296017911402</v>
       </c>
       <c r="T67">
         <v>33.50384880134493</v>
@@ -7052,19 +7056,19 @@
         <v>62.952371319999997</v>
       </c>
       <c r="F68">
-        <v>39.595910679358084</v>
+        <v>324.94938441764725</v>
       </c>
       <c r="G68">
-        <v>822.0095218670466</v>
+        <v>822.00952186704683</v>
       </c>
       <c r="H68">
-        <v>598.23877609014949</v>
+        <v>598.2387760901496</v>
       </c>
       <c r="I68">
-        <v>475.64666895400251</v>
+        <v>475.64666895400262</v>
       </c>
       <c r="J68">
-        <v>406.85590141254016</v>
+        <v>406.85590141254022</v>
       </c>
       <c r="K68">
         <v>356.80191880455004</v>
@@ -7073,16 +7077,16 @@
         <v>324.94938441764725</v>
       </c>
       <c r="M68">
-        <v>962.35261096629847</v>
+        <v>962.35261096629881</v>
       </c>
       <c r="N68">
-        <v>700.37710371529704</v>
+        <v>700.37710371529715</v>
       </c>
       <c r="O68">
-        <v>556.85463682419811</v>
+        <v>556.85463682419822</v>
       </c>
       <c r="P68">
-        <v>476.31910409272996</v>
+        <v>476.31910409273002</v>
       </c>
       <c r="Q68">
         <v>417.71931957605858</v>
@@ -7120,40 +7124,40 @@
         <v>63.423838799999999</v>
       </c>
       <c r="F69">
-        <v>39.655000164</v>
+        <v>325.43431054588899</v>
       </c>
       <c r="G69">
-        <v>823.23621720463348</v>
+        <v>823.23621720463359</v>
       </c>
       <c r="H69">
-        <v>599.13153547781042</v>
+        <v>599.13153547781053</v>
       </c>
       <c r="I69">
-        <v>476.35648257005323</v>
+        <v>476.35648257005329</v>
       </c>
       <c r="J69">
-        <v>407.46305768513281</v>
+        <v>407.46305768513287</v>
       </c>
       <c r="K69">
-        <v>357.33437887781713</v>
+        <v>357.33437887781719</v>
       </c>
       <c r="L69">
         <v>325.43431054588899</v>
       </c>
       <c r="M69">
-        <v>963.78874209322953</v>
+        <v>963.78874209322964</v>
       </c>
       <c r="N69">
-        <v>701.42228543743659</v>
+        <v>701.4222854374367</v>
       </c>
       <c r="O69">
-        <v>557.68563813079402</v>
+        <v>557.68563813079413</v>
       </c>
       <c r="P69">
-        <v>477.02992119235063</v>
+        <v>477.02992119235068</v>
       </c>
       <c r="Q69">
-        <v>418.34268746671273</v>
+        <v>418.34268746671285</v>
       </c>
       <c r="R69">
         <v>380.99626600494321</v>
@@ -7188,16 +7192,16 @@
         <v>63.539462960000002</v>
       </c>
       <c r="F70">
-        <v>39.492220055138461</v>
+        <v>324.09843279330153</v>
       </c>
       <c r="G70">
-        <v>819.85690865587219</v>
+        <v>819.85690865587242</v>
       </c>
       <c r="H70">
-        <v>596.67215592506489</v>
+        <v>596.672155925065</v>
       </c>
       <c r="I70">
-        <v>474.4010832567518</v>
+        <v>474.40108325675192</v>
       </c>
       <c r="J70">
         <v>405.79045951055872</v>
@@ -7209,13 +7213,13 @@
         <v>324.09843279330153</v>
       </c>
       <c r="M70">
-        <v>959.83247842638696</v>
+        <v>959.8324784263873</v>
       </c>
       <c r="N70">
-        <v>698.5430118147101</v>
+        <v>698.54301181471033</v>
       </c>
       <c r="O70">
-        <v>555.39639015424609</v>
+        <v>555.39639015424621</v>
       </c>
       <c r="P70">
         <v>475.07175747577611</v>
@@ -7227,7 +7231,7 @@
         <v>379.43231156288959</v>
       </c>
       <c r="S70">
-        <v>24.82395799413872</v>
+        <v>24.823957994138716</v>
       </c>
       <c r="T70">
         <v>34.10934004474273</v>
@@ -7256,46 +7260,46 @@
         <v>63.744795519999997</v>
       </c>
       <c r="F71">
-        <v>39.386784243651761</v>
+        <v>323.23315904532234</v>
       </c>
       <c r="G71">
-        <v>817.66806542684083</v>
+        <v>817.66806542684094</v>
       </c>
       <c r="H71">
-        <v>595.07916842363693</v>
+        <v>595.07916842363716</v>
       </c>
       <c r="I71">
-        <v>473.13453346255159</v>
+        <v>473.13453346255164</v>
       </c>
       <c r="J71">
-        <v>404.70708546037059</v>
+        <v>404.70708546037065</v>
       </c>
       <c r="K71">
-        <v>354.91746376228548</v>
+        <v>354.91746376228554</v>
       </c>
       <c r="L71">
-        <v>323.23315904532228</v>
+        <v>323.23315904532234</v>
       </c>
       <c r="M71">
-        <v>957.26993025581373</v>
+        <v>957.26993025581385</v>
       </c>
       <c r="N71">
-        <v>696.6780508374286</v>
+        <v>696.67805083742894</v>
       </c>
       <c r="O71">
         <v>553.91360015127998</v>
       </c>
       <c r="P71">
-        <v>473.80341712433631</v>
+        <v>473.80341712433636</v>
       </c>
       <c r="Q71">
-        <v>415.51312830706593</v>
+        <v>415.51312830706598</v>
       </c>
       <c r="R71">
-        <v>378.41930815062125</v>
+        <v>378.4193081506213</v>
       </c>
       <c r="S71">
-        <v>24.970845319547827</v>
+        <v>24.970845319547823</v>
       </c>
       <c r="T71">
         <v>34.311170459208668</v>
@@ -7324,43 +7328,43 @@
         <v>63.967072999999999</v>
       </c>
       <c r="F72">
-        <v>39.292990338713444</v>
+        <v>322.46342623329934</v>
       </c>
       <c r="G72">
-        <v>815.72090771207752</v>
+        <v>815.72090771207775</v>
       </c>
       <c r="H72">
-        <v>593.66207383148594</v>
+        <v>593.66207383148605</v>
       </c>
       <c r="I72">
-        <v>472.00783230360196</v>
+        <v>472.00783230360207</v>
       </c>
       <c r="J72">
-        <v>403.7433343283484</v>
+        <v>403.74333432834845</v>
       </c>
       <c r="K72">
         <v>354.07227938137396</v>
       </c>
       <c r="L72">
-        <v>322.46342623329929</v>
+        <v>322.46342623329934</v>
       </c>
       <c r="M72">
-        <v>954.99033097999325</v>
+        <v>954.99033097999347</v>
       </c>
       <c r="N72">
-        <v>695.01901326612995</v>
+        <v>695.01901326613006</v>
       </c>
       <c r="O72">
-        <v>552.59453537982665</v>
+        <v>552.59453537982688</v>
       </c>
       <c r="P72">
-        <v>472.67512311611523</v>
+        <v>472.67512311611529</v>
       </c>
       <c r="Q72">
         <v>414.52364415380367</v>
       </c>
       <c r="R72">
-        <v>377.51815754142359</v>
+        <v>377.51815754142365</v>
       </c>
       <c r="S72">
         <v>25.117732644956927</v>
@@ -7392,7 +7396,7 @@
         <v>64.15745416</v>
       </c>
       <c r="F73">
-        <v>39.180808052130232</v>
+        <v>321.54278659293402</v>
       </c>
       <c r="G73">
         <v>813.39200792990152</v>
@@ -7401,7 +7405,7 @@
         <v>591.96715653641479</v>
       </c>
       <c r="I73">
-        <v>470.6602403423754</v>
+        <v>470.66024034237535</v>
       </c>
       <c r="J73">
         <v>402.59063889724854</v>
@@ -7460,19 +7464,19 @@
         <v>64.347835320000002</v>
       </c>
       <c r="F74">
-        <v>39.069922670594217</v>
+        <v>320.63279018540533</v>
       </c>
       <c r="G74">
-        <v>811.09003184462904</v>
+        <v>811.09003184462927</v>
       </c>
       <c r="H74">
         <v>590.2918336609398</v>
       </c>
       <c r="I74">
-        <v>469.32822747896637</v>
+        <v>469.32822747896643</v>
       </c>
       <c r="J74">
-        <v>401.45126942488969</v>
+        <v>401.45126942488974</v>
       </c>
       <c r="K74">
         <v>352.06219877853812</v>
@@ -7481,16 +7485,16 @@
         <v>320.63279018540533</v>
       </c>
       <c r="M74">
-        <v>949.56881776932187</v>
+        <v>949.5688177693221</v>
       </c>
       <c r="N74">
         <v>691.07336623719789</v>
       </c>
       <c r="O74">
-        <v>549.45743704854601</v>
+        <v>549.45743704854613</v>
       </c>
       <c r="P74">
-        <v>469.99173005840748</v>
+        <v>469.99173005840754</v>
       </c>
       <c r="Q74">
         <v>412.17037905780074</v>
@@ -7499,7 +7503,7 @@
         <v>375.37497387559648</v>
       </c>
       <c r="S74">
-        <v>25.411507295775138</v>
+        <v>25.411507295775142</v>
       </c>
       <c r="T74">
         <v>34.916661702606461</v>
@@ -7528,10 +7532,10 @@
         <v>64.672779079999998</v>
       </c>
       <c r="F75">
-        <v>39.041544336570112</v>
+        <v>320.39989941426973</v>
       </c>
       <c r="G75">
-        <v>810.50089876542199</v>
+        <v>810.50089876542211</v>
       </c>
       <c r="H75">
         <v>589.86307676350316</v>
@@ -7549,7 +7553,7 @@
         <v>320.39989941426973</v>
       </c>
       <c r="M75">
-        <v>948.87910099366479</v>
+        <v>948.87910099366491</v>
       </c>
       <c r="N75">
         <v>690.57140694263785</v>
@@ -7596,19 +7600,19 @@
         <v>64.981774680000001</v>
       </c>
       <c r="F76">
-        <v>39.00391778506971</v>
+        <v>320.09111185166449</v>
       </c>
       <c r="G76">
-        <v>809.71977306133579</v>
+        <v>809.7197730613359</v>
       </c>
       <c r="H76">
-        <v>589.29459224750417</v>
+        <v>589.29459224750428</v>
       </c>
       <c r="I76">
         <v>468.53534247150554</v>
       </c>
       <c r="J76">
-        <v>400.77305602514826</v>
+        <v>400.77305602514832</v>
       </c>
       <c r="K76">
         <v>351.46742347468597</v>
@@ -7617,16 +7621,16 @@
         <v>320.09111185166449</v>
       </c>
       <c r="M76">
-        <v>947.96461236449068</v>
+        <v>947.9646123644909</v>
       </c>
       <c r="N76">
-        <v>689.90586409463901</v>
+        <v>689.90586409463924</v>
       </c>
       <c r="O76">
         <v>548.52918143005525</v>
       </c>
       <c r="P76">
-        <v>469.19772412700286</v>
+        <v>469.19772412700291</v>
       </c>
       <c r="Q76">
         <v>411.4740567508519</v>
@@ -7635,7 +7639,7 @@
         <v>374.74081387511944</v>
       </c>
       <c r="S76">
-        <v>25.705281946593345</v>
+        <v>25.705281946593352</v>
       </c>
       <c r="T76">
         <v>35.320322531538331</v>
@@ -7664,43 +7668,43 @@
         <v>65.117334039999989</v>
       </c>
       <c r="F77">
-        <v>38.863208906599993</v>
+        <v>318.93636474125981</v>
       </c>
       <c r="G77">
-        <v>806.79866237265958</v>
+        <v>806.79866237265981</v>
       </c>
       <c r="H77">
-        <v>587.16867808625659</v>
+        <v>587.1686780862567</v>
       </c>
       <c r="I77">
-        <v>466.84507425471048</v>
+        <v>466.8450742547106</v>
       </c>
       <c r="J77">
-        <v>399.32724415709623</v>
+        <v>399.32724415709629</v>
       </c>
       <c r="K77">
-        <v>350.19948451408504</v>
+        <v>350.1994845140851</v>
       </c>
       <c r="L77">
-        <v>318.93636474125975</v>
+        <v>318.93636474125981</v>
       </c>
       <c r="M77">
-        <v>944.54477546067471</v>
+        <v>944.54477546067494</v>
       </c>
       <c r="N77">
-        <v>687.41698897903211</v>
+        <v>687.41698897903223</v>
       </c>
       <c r="O77">
-        <v>546.55033083478304</v>
+        <v>546.55033083478315</v>
       </c>
       <c r="P77">
-        <v>467.50506633025901</v>
+        <v>467.50506633025907</v>
       </c>
       <c r="Q77">
-        <v>409.98964040673371</v>
+        <v>409.98964040673377</v>
       </c>
       <c r="R77">
-        <v>373.38891481903585</v>
+        <v>373.3889148190359</v>
       </c>
       <c r="S77">
         <v>25.852169272002453</v>
@@ -7732,46 +7736,46 @@
         <v>65.50008987999999</v>
       </c>
       <c r="F78">
-        <v>38.870787802232762</v>
+        <v>318.99856200931549</v>
       </c>
       <c r="G78">
-        <v>806.95599994283998</v>
+        <v>806.95599994284021</v>
       </c>
       <c r="H78">
         <v>587.28318458881392</v>
       </c>
       <c r="I78">
-        <v>466.93611589007702</v>
+        <v>466.93611589007708</v>
       </c>
       <c r="J78">
         <v>399.40511882550209</v>
       </c>
       <c r="K78">
-        <v>350.26777854894357</v>
+        <v>350.26777854894362</v>
       </c>
       <c r="L78">
         <v>318.99856200931549</v>
       </c>
       <c r="M78">
-        <v>944.72897554283713</v>
+        <v>944.72897554283736</v>
       </c>
       <c r="N78">
         <v>687.55104537226998</v>
       </c>
       <c r="O78">
-        <v>546.65691616399261</v>
+        <v>546.65691616399272</v>
       </c>
       <c r="P78">
         <v>467.59623667375854</v>
       </c>
       <c r="Q78">
-        <v>410.06959439876323</v>
+        <v>410.06959439876329</v>
       </c>
       <c r="R78">
         <v>373.46173113285715</v>
       </c>
       <c r="S78">
-        <v>25.999056597411556</v>
+        <v>25.99905659741156</v>
       </c>
       <c r="T78">
         <v>35.7239833604702</v>
@@ -7800,7 +7804,7 @@
         <v>65.747286360000004</v>
       </c>
       <c r="F79">
-        <v>38.79828628794607</v>
+        <v>318.40356818210972</v>
       </c>
       <c r="G79">
         <v>805.45087140630892</v>
@@ -7809,13 +7813,13 @@
         <v>586.18778821006197</v>
       </c>
       <c r="I79">
-        <v>466.06518999967784</v>
+        <v>466.0651899996779</v>
       </c>
       <c r="J79">
         <v>398.66015126590344</v>
       </c>
       <c r="K79">
-        <v>349.61446160358508</v>
+        <v>349.61446160358503</v>
       </c>
       <c r="L79">
         <v>318.40356818210972</v>
@@ -7827,13 +7831,13 @@
         <v>686.26863009958481</v>
       </c>
       <c r="O79">
-        <v>545.63729560937895</v>
+        <v>545.63729560937907</v>
       </c>
       <c r="P79">
         <v>466.72407953081381</v>
       </c>
       <c r="Q79">
-        <v>409.30473553590451</v>
+        <v>409.30473553590446</v>
       </c>
       <c r="R79">
         <v>372.76515299368947</v>
@@ -7868,7 +7872,7 @@
         <v>65.870884599999997</v>
       </c>
       <c r="F80">
-        <v>38.654065465832396</v>
+        <v>317.21999981451876</v>
       </c>
       <c r="G80">
         <v>802.45685290806193</v>
@@ -7880,7 +7884,7 @@
         <v>464.33273448962092</v>
       </c>
       <c r="J80">
-        <v>397.17825347452106</v>
+        <v>397.178253474521</v>
       </c>
       <c r="K80">
         <v>348.31487623785296</v>
@@ -7898,7 +7902,7 @@
         <v>543.6090550122392</v>
       </c>
       <c r="P80">
-        <v>464.9891747994393</v>
+        <v>464.98917479943924</v>
       </c>
       <c r="Q80">
         <v>407.78326974187667</v>
@@ -7907,7 +7911,7 @@
         <v>371.37951197797321</v>
       </c>
       <c r="S80">
-        <v>26.292831248229767</v>
+        <v>26.292831248229771</v>
       </c>
       <c r="T80">
         <v>36.127644189402062</v>
@@ -7936,13 +7940,13 @@
         <v>66.033356480000009</v>
       </c>
       <c r="F81">
-        <v>38.534132025884453</v>
+        <v>316.23574924890437</v>
       </c>
       <c r="G81">
         <v>799.96703949208018</v>
       </c>
       <c r="H81">
-        <v>582.19678712627785</v>
+        <v>582.19678712627774</v>
       </c>
       <c r="I81">
         <v>462.89203164357747</v>
@@ -7951,7 +7955,7 @@
         <v>395.94591339236791</v>
       </c>
       <c r="K81">
-        <v>347.23414641580689</v>
+        <v>347.23414641580683</v>
       </c>
       <c r="L81">
         <v>316.23574924890437</v>
@@ -7960,7 +7964,7 @@
         <v>936.54677794194754</v>
       </c>
       <c r="N81">
-        <v>681.59623858686189</v>
+        <v>681.59623858686177</v>
       </c>
       <c r="O81">
         <v>541.92237850955416</v>
@@ -7969,13 +7973,13 @@
         <v>463.54643519106492</v>
       </c>
       <c r="Q81">
-        <v>406.51802507216416</v>
+        <v>406.51802507216411</v>
       </c>
       <c r="R81">
         <v>370.2272186328637</v>
       </c>
       <c r="S81">
-        <v>26.439718573638874</v>
+        <v>26.439718573638878</v>
       </c>
       <c r="T81">
         <v>36.329474603868</v>
@@ -8004,7 +8008,7 @@
         <v>65.870884599999997</v>
       </c>
       <c r="F82">
-        <v>38.22694872035359</v>
+        <v>313.71480644640258</v>
       </c>
       <c r="G82">
         <v>793.58992635659172</v>
@@ -8016,7 +8020,7 @@
         <v>459.20198604222185</v>
       </c>
       <c r="J82">
-        <v>392.78954349137723</v>
+        <v>392.78954349137717</v>
       </c>
       <c r="K82">
         <v>344.46609307500381</v>
@@ -8034,7 +8038,7 @@
         <v>537.6023251226012</v>
       </c>
       <c r="P82">
-        <v>459.85117286795384</v>
+        <v>459.85117286795378</v>
       </c>
       <c r="Q82">
         <v>403.27737725854109</v>
@@ -8043,7 +8047,7 @@
         <v>367.27587096164206</v>
       </c>
       <c r="S82">
-        <v>26.586605899047974</v>
+        <v>26.586605899047978</v>
       </c>
       <c r="T82">
         <v>36.531305018333931</v>
@@ -8073,19 +8077,19 @@
         <v>65.832010960000005</v>
       </c>
       <c r="F83">
-        <v>37.994474896914291</v>
+        <v>311.80697746801269</v>
       </c>
       <c r="G83">
-        <v>788.7637790809448</v>
+        <v>788.76377908094491</v>
       </c>
       <c r="H83">
         <v>574.04332342751923</v>
       </c>
       <c r="I83">
-        <v>456.40938958868082</v>
+        <v>456.40938958868088</v>
       </c>
       <c r="J83">
-        <v>390.40082846077371</v>
+        <v>390.40082846077377</v>
       </c>
       <c r="K83">
         <v>342.37125285408644</v>
@@ -8094,7 +8098,7 @@
         <v>311.80697746801269</v>
       </c>
       <c r="M83">
-        <v>923.43076575330122</v>
+        <v>923.43076575330144</v>
       </c>
       <c r="N83">
         <v>672.05072011026641</v>
@@ -8103,7 +8107,7 @@
         <v>534.33294390869958</v>
       </c>
       <c r="P83">
-        <v>457.05462844188145</v>
+        <v>457.0546284418815</v>
       </c>
       <c r="Q83">
         <v>400.82488139014998</v>
@@ -8112,7 +8116,7 @@
         <v>365.04231508450266</v>
       </c>
       <c r="S83">
-        <v>26.733493224457082</v>
+        <v>26.733493224457085</v>
       </c>
       <c r="T83">
         <v>36.73313543279987</v>
@@ -8141,40 +8145,40 @@
         <v>65.832010960000005</v>
       </c>
       <c r="F84">
-        <v>37.786854815510381</v>
+        <v>310.10311420316015</v>
       </c>
       <c r="G84">
-        <v>784.45359449580292</v>
+        <v>784.45359449580303</v>
       </c>
       <c r="H84">
-        <v>570.90647466562007</v>
+        <v>570.90647466562018</v>
       </c>
       <c r="I84">
-        <v>453.91534920841468</v>
+        <v>453.9153492084148</v>
       </c>
       <c r="J84">
-        <v>388.26749060033228</v>
+        <v>388.26749060033234</v>
       </c>
       <c r="K84">
-        <v>340.50037169094929</v>
+        <v>340.50037169094935</v>
       </c>
       <c r="L84">
         <v>310.10311420316015</v>
       </c>
       <c r="M84">
-        <v>918.38469599508642</v>
+        <v>918.38469599508653</v>
       </c>
       <c r="N84">
-        <v>668.37831180365276</v>
+        <v>668.37831180365288</v>
       </c>
       <c r="O84">
-        <v>531.41309175619278</v>
+        <v>531.4130917561929</v>
       </c>
       <c r="P84">
-        <v>454.5570621662427</v>
+        <v>454.55706216624276</v>
       </c>
       <c r="Q84">
-        <v>398.63458149184311</v>
+        <v>398.63458149184316</v>
       </c>
       <c r="R84">
         <v>363.04754833540704</v>
@@ -8209,10 +8213,10 @@
         <v>65.988502280000006</v>
       </c>
       <c r="F85">
-        <v>37.670827605930441</v>
+        <v>309.15092066393299</v>
       </c>
       <c r="G85">
-        <v>782.04487426601167</v>
+        <v>782.04487426601179</v>
       </c>
       <c r="H85">
         <v>569.15346596696065</v>
@@ -8230,7 +8234,7 @@
         <v>309.15092066393299</v>
       </c>
       <c r="M85">
-        <v>915.56473084801371</v>
+        <v>915.56473084801382</v>
       </c>
       <c r="N85">
         <v>666.32600893692961</v>
@@ -8248,7 +8252,7 @@
         <v>361.93278516753134</v>
       </c>
       <c r="S85">
-        <v>27.027267875275292</v>
+        <v>27.027267875275296</v>
       </c>
       <c r="T85">
         <v>37.136796261731732</v>
@@ -8277,46 +8281,46 @@
         <v>66.314442799999995</v>
       </c>
       <c r="F86">
-        <v>37.652265252497294</v>
+        <v>308.99858611175443</v>
       </c>
       <c r="G86">
-        <v>781.65952055123375</v>
+        <v>781.65952055123387</v>
       </c>
       <c r="H86">
-        <v>568.87301479388054</v>
+        <v>568.87301479388066</v>
       </c>
       <c r="I86">
-        <v>452.29858939092873</v>
+        <v>452.2985893909289</v>
       </c>
       <c r="J86">
-        <v>386.88455592246021</v>
+        <v>386.88455592246027</v>
       </c>
       <c r="K86">
-        <v>339.28757437147328</v>
+        <v>339.28757437147334</v>
       </c>
       <c r="L86">
-        <v>308.99858611175438</v>
+        <v>308.99858611175443</v>
       </c>
       <c r="M86">
-        <v>915.11358503559075</v>
+        <v>915.11358503559086</v>
       </c>
       <c r="N86">
-        <v>665.99767585625045</v>
+        <v>665.99767585625057</v>
       </c>
       <c r="O86">
-        <v>529.52029977474581</v>
+        <v>529.52029977474604</v>
       </c>
       <c r="P86">
-        <v>452.93801668970951</v>
+        <v>452.93801668970957</v>
       </c>
       <c r="Q86">
-        <v>397.21472121538335</v>
+        <v>397.21472121538346</v>
       </c>
       <c r="R86">
-        <v>361.75444227717588</v>
+        <v>361.75444227717594</v>
       </c>
       <c r="S86">
-        <v>27.1741552006844</v>
+        <v>27.174155200684396</v>
       </c>
       <c r="T86">
         <v>37.33862667619767</v>
@@ -8345,13 +8349,13 @@
         <v>66.641380080000005</v>
       </c>
       <c r="F87">
-        <v>37.634465395716134</v>
+        <v>308.85250909509983</v>
       </c>
       <c r="G87">
-        <v>781.28999623645109</v>
+        <v>781.2899962364512</v>
       </c>
       <c r="H87">
-        <v>568.60408387771679</v>
+        <v>568.60408387771668</v>
       </c>
       <c r="I87">
         <v>452.08476825534791</v>
@@ -8366,10 +8370,10 @@
         <v>308.85250909509983</v>
       </c>
       <c r="M87">
-        <v>914.68097120365007</v>
+        <v>914.68097120365019</v>
       </c>
       <c r="N87">
-        <v>665.68282990561966</v>
+        <v>665.68282990561954</v>
       </c>
       <c r="O87">
         <v>529.26997259162681</v>
@@ -8384,7 +8388,7 @@
         <v>361.58342528206811</v>
       </c>
       <c r="S87">
-        <v>27.3210425260935</v>
+        <v>27.321042526093503</v>
       </c>
       <c r="T87">
         <v>37.540457090663601</v>
@@ -8413,46 +8417,46 @@
         <v>66.758000999999993</v>
       </c>
       <c r="F88">
-        <v>37.498718850481275</v>
+        <v>307.73848606711368</v>
       </c>
       <c r="G88">
-        <v>778.47190338723726</v>
+        <v>778.47190338723738</v>
       </c>
       <c r="H88">
         <v>566.55314362438139</v>
       </c>
       <c r="I88">
-        <v>450.45411016578328</v>
+        <v>450.45411016578333</v>
       </c>
       <c r="J88">
         <v>385.30683593246522</v>
       </c>
       <c r="K88">
-        <v>337.90395545919478</v>
+        <v>337.90395545919489</v>
       </c>
       <c r="L88">
         <v>307.73848606711368</v>
       </c>
       <c r="M88">
-        <v>911.3817405509119</v>
+        <v>911.38174055091213</v>
       </c>
       <c r="N88">
         <v>663.28172912122704</v>
       </c>
       <c r="O88">
-        <v>527.36090946238039</v>
+        <v>527.3609094623805</v>
       </c>
       <c r="P88">
         <v>451.09092987215445</v>
       </c>
       <c r="Q88">
-        <v>395.59487468393536</v>
+        <v>395.59487468393547</v>
       </c>
       <c r="R88">
         <v>360.27920320052334</v>
       </c>
       <c r="S88">
-        <v>27.46792985150261</v>
+        <v>27.467929851502607</v>
       </c>
       <c r="T88">
         <v>37.742287505129539</v>
@@ -8481,7 +8485,7 @@
         <v>66.758000999999993</v>
       </c>
       <c r="F89">
-        <v>37.299257579999995</v>
+        <v>306.10157922633113</v>
       </c>
       <c r="G89">
         <v>774.33109539049667</v>
@@ -8493,13 +8497,13 @@
         <v>448.05807766490148</v>
       </c>
       <c r="J89">
-        <v>383.25733148601597</v>
+        <v>383.25733148601591</v>
       </c>
       <c r="K89">
-        <v>336.10659399398634</v>
+        <v>336.10659399398628</v>
       </c>
       <c r="L89">
-        <v>306.10157922633118</v>
+        <v>306.10157922633113</v>
       </c>
       <c r="M89">
         <v>906.53396533521561</v>
@@ -8511,16 +8515,16 @@
         <v>524.55579824183587</v>
       </c>
       <c r="P89">
-        <v>448.69151003240898</v>
+        <v>448.69151003240887</v>
       </c>
       <c r="Q89">
-        <v>393.49064662710595</v>
+        <v>393.49064662710589</v>
       </c>
       <c r="R89">
-        <v>358.36282446009506</v>
+        <v>358.362824460095</v>
       </c>
       <c r="S89">
-        <v>27.614817176911711</v>
+        <v>27.614817176911714</v>
       </c>
       <c r="T89">
         <v>37.944117919595463</v>
@@ -8549,7 +8553,7 @@
         <v>66.758000999999993</v>
       </c>
       <c r="F90">
-        <v>37.101907010793646</v>
+        <v>304.48199415105955</v>
       </c>
       <c r="G90">
         <v>770.23410546779564</v>
@@ -8561,7 +8565,7 @@
         <v>445.68740000529885</v>
       </c>
       <c r="J90">
-        <v>381.22951491730686</v>
+        <v>381.22951491730691</v>
       </c>
       <c r="K90">
         <v>334.32825222682237</v>
@@ -8579,7 +8583,7 @@
         <v>521.78037073791086</v>
       </c>
       <c r="P90">
-        <v>446.31748087879828</v>
+        <v>446.31748087879834</v>
       </c>
       <c r="Q90">
         <v>391.40868553384087</v>
@@ -8588,7 +8592,7 @@
         <v>356.46672485977706</v>
       </c>
       <c r="S90">
-        <v>27.761704502320818</v>
+        <v>27.761704502320814</v>
       </c>
       <c r="T90">
         <v>38.145948334061401</v>
@@ -8617,19 +8621,19 @@
         <v>66.758000999999993</v>
       </c>
       <c r="F91">
-        <v>36.906633815999996</v>
+        <v>302.87945733973822</v>
       </c>
       <c r="G91">
-        <v>766.1802417548073</v>
+        <v>766.18024175480741</v>
       </c>
       <c r="H91">
         <v>557.60756767241753</v>
       </c>
       <c r="I91">
-        <v>443.34167684737622</v>
+        <v>443.34167684737628</v>
       </c>
       <c r="J91">
-        <v>379.22304378616315</v>
+        <v>379.2230437861632</v>
       </c>
       <c r="K91">
         <v>332.56862984668123</v>
@@ -8638,16 +8642,16 @@
         <v>302.87945733973822</v>
       </c>
       <c r="M91">
-        <v>896.99150254221342</v>
+        <v>896.99150254221354</v>
       </c>
       <c r="N91">
         <v>652.80885971404985</v>
       </c>
       <c r="O91">
-        <v>519.03415826034291</v>
+        <v>519.03415826034302</v>
       </c>
       <c r="P91">
-        <v>443.96844150575197</v>
+        <v>443.96844150575208</v>
       </c>
       <c r="Q91">
         <v>389.3486398205049</v>
@@ -8656,7 +8660,7 @@
         <v>354.59058420262039</v>
       </c>
       <c r="S91">
-        <v>27.908591827729921</v>
+        <v>27.908591827729918</v>
       </c>
       <c r="T91">
         <v>38.347778748527332</v>
@@ -8685,28 +8689,28 @@
         <v>66.758000999999993</v>
       </c>
       <c r="F92">
-        <v>36.713405366701565</v>
+        <v>301.29370101858774</v>
       </c>
       <c r="G92">
-        <v>762.1688268765098</v>
+        <v>762.16882687650991</v>
       </c>
       <c r="H92">
         <v>554.68815632334724</v>
       </c>
       <c r="I92">
-        <v>441.02051623560982</v>
+        <v>441.02051623560988</v>
       </c>
       <c r="J92">
-        <v>377.23758282393192</v>
+        <v>377.23758282393197</v>
       </c>
       <c r="K92">
-        <v>330.82743283177712</v>
+        <v>330.82743283177717</v>
       </c>
       <c r="L92">
         <v>301.29370101858774</v>
       </c>
       <c r="M92">
-        <v>892.29521195298707</v>
+        <v>892.2952119529873</v>
       </c>
       <c r="N92">
         <v>649.39101228099196</v>
@@ -8715,16 +8719,16 @@
         <v>516.31670193437253</v>
       </c>
       <c r="P92">
-        <v>441.64399940362762</v>
+        <v>441.64399940362767</v>
       </c>
       <c r="Q92">
-        <v>387.31016526647079</v>
+        <v>387.31016526647085</v>
       </c>
       <c r="R92">
         <v>352.73408899737103</v>
       </c>
       <c r="S92">
-        <v>28.055479153139029</v>
+        <v>28.055479153139025</v>
       </c>
       <c r="T92">
         <v>38.549609162993271</v>
@@ -8753,46 +8757,46 @@
         <v>66.641380080000005</v>
       </c>
       <c r="F93">
-        <v>36.458388352100002</v>
+        <v>299.20086818587799</v>
       </c>
       <c r="G93">
-        <v>756.87468385406191</v>
+        <v>756.87468385406203</v>
       </c>
       <c r="H93">
         <v>550.83520625653807</v>
       </c>
       <c r="I93">
-        <v>437.95711924736827</v>
+        <v>437.95711924736838</v>
       </c>
       <c r="J93">
-        <v>374.61723199549795</v>
+        <v>374.617231995498</v>
       </c>
       <c r="K93">
-        <v>328.52945411184129</v>
+        <v>328.52945411184135</v>
       </c>
       <c r="L93">
-        <v>299.20086818587794</v>
+        <v>299.20086818587799</v>
       </c>
       <c r="M93">
-        <v>886.09719085353595</v>
+        <v>886.09719085353606</v>
       </c>
       <c r="N93">
         <v>644.88024147106898</v>
       </c>
       <c r="O93">
-        <v>512.73028594813843</v>
+        <v>512.73028594813866</v>
       </c>
       <c r="P93">
-        <v>438.57627160448544</v>
+        <v>438.5762716044855</v>
       </c>
       <c r="Q93">
-        <v>384.61984871630199</v>
+        <v>384.6198487163021</v>
       </c>
       <c r="R93">
-        <v>350.28394324200343</v>
+        <v>350.28394324200355</v>
       </c>
       <c r="S93">
-        <v>28.202366478548129</v>
+        <v>28.202366478548125</v>
       </c>
       <c r="T93">
         <v>38.751439577459202</v>
@@ -8821,7 +8825,7 @@
         <v>66.511801279999986</v>
       </c>
       <c r="F94">
-        <v>36.198961691456987</v>
+        <v>297.07184697557858</v>
       </c>
       <c r="G94">
         <v>751.4889967561794</v>
@@ -8830,10 +8834,10 @@
         <v>546.91563261154704</v>
       </c>
       <c r="I94">
-        <v>434.84075129786083</v>
+        <v>434.84075129786089</v>
       </c>
       <c r="J94">
-        <v>371.95157117205883</v>
+        <v>371.95157117205889</v>
       </c>
       <c r="K94">
         <v>326.19173971865422</v>
@@ -8848,10 +8852,10 @@
         <v>640.29147232571358</v>
       </c>
       <c r="O94">
-        <v>509.08185517798341</v>
+        <v>509.08185517798353</v>
       </c>
       <c r="P94">
-        <v>435.45549795753232</v>
+        <v>435.45549795753237</v>
       </c>
       <c r="Q94">
         <v>381.88301235354641</v>
@@ -8860,7 +8864,7 @@
         <v>347.79143060555543</v>
       </c>
       <c r="S94">
-        <v>28.349253803957236</v>
+        <v>28.349253803957232</v>
       </c>
       <c r="T94">
         <v>38.953269991925133</v>
@@ -8889,7 +8893,7 @@
         <v>66.511801279999986</v>
       </c>
       <c r="F95">
-        <v>36.01236910541855</v>
+        <v>295.54054879529207</v>
       </c>
       <c r="G95">
         <v>747.61534213372488</v>
@@ -8901,7 +8905,7 @@
         <v>432.59930412622236</v>
       </c>
       <c r="J95">
-        <v>370.03429503199669</v>
+        <v>370.03429503199663</v>
       </c>
       <c r="K95">
         <v>324.51033899845498</v>
@@ -8919,7 +8923,7 @@
         <v>506.45772190387009</v>
       </c>
       <c r="P95">
-        <v>433.21088198867909</v>
+        <v>433.21088198867903</v>
       </c>
       <c r="Q95">
         <v>379.9145432177034</v>
@@ -8928,7 +8932,7 @@
         <v>345.99869127253709</v>
       </c>
       <c r="S95">
-        <v>28.49614112936634</v>
+        <v>28.496141129366343</v>
       </c>
       <c r="T95">
         <v>39.155100406391064</v>
@@ -8957,13 +8961,13 @@
         <v>66.428073440000006</v>
       </c>
       <c r="F96">
-        <v>35.78258889301334</v>
+        <v>293.65482531295896</v>
       </c>
       <c r="G96">
         <v>742.8451141154012</v>
       </c>
       <c r="H96">
-        <v>540.62482254898134</v>
+        <v>540.62482254898123</v>
       </c>
       <c r="I96">
         <v>429.83906472910058</v>
@@ -8972,16 +8976,16 @@
         <v>367.67325739349064</v>
       </c>
       <c r="K96">
-        <v>322.43977112205465</v>
+        <v>322.43977112205459</v>
       </c>
       <c r="L96">
-        <v>293.65482531295902</v>
+        <v>293.65482531295896</v>
       </c>
       <c r="M96">
         <v>869.67232872046975</v>
       </c>
       <c r="N96">
-        <v>632.92662152075866</v>
+        <v>632.92662152075854</v>
       </c>
       <c r="O96">
         <v>503.22622212187389</v>
@@ -8990,13 +8994,13 @@
         <v>430.44674036311102</v>
       </c>
       <c r="Q96">
-        <v>377.49046375264936</v>
+        <v>377.4904637526493</v>
       </c>
       <c r="R96">
-        <v>343.79101500053741</v>
+        <v>343.79101500053736</v>
       </c>
       <c r="S96">
-        <v>28.643028454775447</v>
+        <v>28.643028454775443</v>
       </c>
       <c r="T96">
         <v>39.356930820857002</v>
@@ -9025,7 +9029,7 @@
         <v>66.511801279999986</v>
       </c>
       <c r="F97">
-        <v>35.644895951281626</v>
+        <v>292.52482890962585</v>
       </c>
       <c r="G97">
         <v>739.98661415276854</v>
@@ -9034,7 +9038,7 @@
         <v>538.54447496953355</v>
       </c>
       <c r="I97">
-        <v>428.18502551268949</v>
+        <v>428.18502551268955</v>
       </c>
       <c r="J97">
         <v>366.25843487860897</v>
@@ -9052,7 +9056,7 @@
         <v>630.49109264725882</v>
       </c>
       <c r="O97">
-        <v>501.2897859660755</v>
+        <v>501.28978596607561</v>
       </c>
       <c r="P97">
         <v>428.79036278471295</v>
@@ -9064,7 +9068,7 @@
         <v>342.46809238200103</v>
       </c>
       <c r="S97">
-        <v>28.789915780184547</v>
+        <v>28.78991578018455</v>
       </c>
       <c r="T97">
         <v>39.558761235322933</v>
@@ -9093,46 +9097,46 @@
         <v>66.511801279999986</v>
       </c>
       <c r="F98">
-        <v>35.463957393153294</v>
+        <v>291.03993130094756</v>
       </c>
       <c r="G98">
-        <v>736.2303369235666</v>
+        <v>736.23033692356671</v>
       </c>
       <c r="H98">
         <v>535.81074667019584</v>
       </c>
       <c r="I98">
-        <v>426.01149746440177</v>
+        <v>426.01149746440183</v>
       </c>
       <c r="J98">
         <v>364.39925500612873</v>
       </c>
       <c r="K98">
-        <v>319.56855718629578</v>
+        <v>319.56855718629583</v>
       </c>
       <c r="L98">
         <v>291.03993130094756</v>
       </c>
       <c r="M98">
-        <v>861.92819932515113</v>
+        <v>861.92819932515135</v>
       </c>
       <c r="N98">
         <v>627.29063024803418</v>
       </c>
       <c r="O98">
-        <v>498.74516776320212</v>
+        <v>498.74516776320218</v>
       </c>
       <c r="P98">
         <v>426.6137619583946</v>
       </c>
       <c r="Q98">
-        <v>374.12904255956579</v>
+        <v>374.12904255956585</v>
       </c>
       <c r="R98">
         <v>340.72967566940201</v>
       </c>
       <c r="S98">
-        <v>28.936803105593658</v>
+        <v>28.936803105593654</v>
       </c>
       <c r="T98">
         <v>39.760591649788871</v>
@@ -9161,7 +9165,7 @@
         <v>66.511801279999986</v>
       </c>
       <c r="F99">
-        <v>35.28484649722828</v>
+        <v>289.57003265801347</v>
       </c>
       <c r="G99">
         <v>732.51200188859923</v>
@@ -9170,7 +9174,7 @@
         <v>533.1046317880232</v>
       </c>
       <c r="I99">
-        <v>423.85992424488461</v>
+        <v>423.85992424488467</v>
       </c>
       <c r="J99">
         <v>362.55885472832</v>
@@ -9188,7 +9192,7 @@
         <v>624.12249575183205</v>
       </c>
       <c r="O99">
-        <v>496.22625277449907</v>
+        <v>496.22625277449913</v>
       </c>
       <c r="P99">
         <v>424.45914699900879</v>
@@ -9200,7 +9204,7 @@
         <v>339.00881872157674</v>
       </c>
       <c r="S99">
-        <v>29.083690431002758</v>
+        <v>29.083690431002761</v>
       </c>
       <c r="T99">
         <v>39.962422064254795</v>
@@ -9229,10 +9233,10 @@
         <v>66.511801279999986</v>
       </c>
       <c r="F100">
-        <v>35.107535710810048</v>
+        <v>288.11490686576218</v>
       </c>
       <c r="G100">
-        <v>728.83103705498809</v>
+        <v>728.83103705498831</v>
       </c>
       <c r="H100">
         <v>530.4257140403447</v>
@@ -9250,7 +9254,7 @@
         <v>288.11490686576218</v>
       </c>
       <c r="M100">
-        <v>853.26560435705926</v>
+        <v>853.26560435705949</v>
       </c>
       <c r="N100">
         <v>620.98620180333046</v>
@@ -9268,7 +9272,7 @@
         <v>337.3052568184533</v>
       </c>
       <c r="S100">
-        <v>29.230577756411865</v>
+        <v>29.230577756411861</v>
       </c>
       <c r="T100">
         <v>40.164252478720734</v>
@@ -9297,10 +9301,10 @@
         <v>66.428073440000006</v>
       </c>
       <c r="F101">
-        <v>34.888024170688006</v>
+        <v>286.31345468013501</v>
       </c>
       <c r="G101">
-        <v>724.27398626251613</v>
+        <v>724.27398626251625</v>
       </c>
       <c r="H101">
         <v>527.10920198525673</v>
@@ -9318,7 +9322,7 @@
         <v>286.31345468013501</v>
       </c>
       <c r="M101">
-        <v>847.93052050245797</v>
+        <v>847.93052050245808</v>
       </c>
       <c r="N101">
         <v>617.10345598273966</v>
@@ -9366,7 +9370,7 @@
         <v>66.428073440000006</v>
       </c>
       <c r="F102">
-        <v>34.714451911132343</v>
+        <v>284.88900963197511</v>
       </c>
       <c r="G102">
         <v>720.67063309703099</v>
@@ -9381,7 +9385,7 @@
         <v>356.69793627726705</v>
       </c>
       <c r="K102">
-        <v>312.81470332736643</v>
+        <v>312.81470332736637</v>
       </c>
       <c r="L102">
         <v>284.88900963197511</v>
@@ -9399,7 +9403,7 @@
         <v>417.59758393436147</v>
       </c>
       <c r="Q102">
-        <v>366.22209170033142</v>
+        <v>366.22209170033136</v>
       </c>
       <c r="R102">
         <v>333.52859664231232</v>
@@ -9434,46 +9438,46 @@
         <v>66.511801279999986</v>
       </c>
       <c r="F103">
-        <v>34.586136665599994</v>
+        <v>283.83597260537954</v>
       </c>
       <c r="G103">
-        <v>718.00681373238922</v>
+        <v>718.00681373238933</v>
       </c>
       <c r="H103">
         <v>522.54810442588405</v>
       </c>
       <c r="I103">
-        <v>415.46665841825319</v>
+        <v>415.46665841825325</v>
       </c>
       <c r="J103">
         <v>355.37947146637305</v>
       </c>
       <c r="K103">
-        <v>311.65844438465479</v>
+        <v>311.65844438465484</v>
       </c>
       <c r="L103">
         <v>283.83597260537954</v>
       </c>
       <c r="M103">
-        <v>840.59334290621177</v>
+        <v>840.59334290621189</v>
       </c>
       <c r="N103">
         <v>611.76363444981553</v>
       </c>
       <c r="O103">
-        <v>486.39999034332084</v>
+        <v>486.39999034332089</v>
       </c>
       <c r="P103">
         <v>416.05401537526603</v>
       </c>
       <c r="Q103">
-        <v>364.86842269422999</v>
+        <v>364.86842269423005</v>
       </c>
       <c r="R103">
         <v>332.29577280629803</v>
       </c>
       <c r="S103">
-        <v>29.671239732639176</v>
+        <v>29.671239732639179</v>
       </c>
       <c r="T103">
         <v>40.769743722118534</v>
@@ -9502,46 +9506,46 @@
         <v>66.511801279999986</v>
       </c>
       <c r="F104">
-        <v>34.415761608133984</v>
+        <v>282.43776584377667</v>
       </c>
       <c r="G104">
-        <v>714.46983435439711</v>
+        <v>714.46983435439722</v>
       </c>
       <c r="H104">
         <v>519.97397583265308</v>
       </c>
       <c r="I104">
-        <v>413.42002463294159</v>
+        <v>413.42002463294165</v>
       </c>
       <c r="J104">
-        <v>353.62883367589831</v>
+        <v>353.62883367589836</v>
       </c>
       <c r="K104">
-        <v>310.12318111182395</v>
+        <v>310.12318111182401</v>
       </c>
       <c r="L104">
         <v>282.43776584377667</v>
       </c>
       <c r="M104">
-        <v>836.45248900026979</v>
+        <v>836.45248900026991</v>
       </c>
       <c r="N104">
         <v>608.75002048700856</v>
       </c>
       <c r="O104">
-        <v>484.0039312775902</v>
+        <v>484.00393127759025</v>
       </c>
       <c r="P104">
-        <v>414.00448820592976</v>
+        <v>414.00448820592982</v>
       </c>
       <c r="Q104">
-        <v>363.0710413016476</v>
+        <v>363.07104130164765</v>
       </c>
       <c r="R104">
         <v>330.6588478171044</v>
       </c>
       <c r="S104">
-        <v>29.818127058048283</v>
+        <v>29.818127058048287</v>
       </c>
       <c r="T104">
         <v>40.971574136584465</v>
@@ -9570,40 +9574,40 @@
         <v>66.428073440000006</v>
       </c>
       <c r="F105">
-        <v>34.203945265380398</v>
+        <v>280.6994653726814</v>
       </c>
       <c r="G105">
-        <v>710.07253555148645</v>
+        <v>710.07253555148657</v>
       </c>
       <c r="H105">
-        <v>516.7737274365262</v>
+        <v>516.77372743652631</v>
       </c>
       <c r="I105">
-        <v>410.87557657928727</v>
+        <v>410.87557657928738</v>
       </c>
       <c r="J105">
         <v>351.45237839083666</v>
       </c>
       <c r="K105">
-        <v>308.21448710196398</v>
+        <v>308.21448710196404</v>
       </c>
       <c r="L105">
         <v>280.6994653726814</v>
       </c>
       <c r="M105">
-        <v>831.30443186515492</v>
+        <v>831.30443186515504</v>
       </c>
       <c r="N105">
-        <v>605.00338821837215</v>
+        <v>605.00338821837227</v>
       </c>
       <c r="O105">
-        <v>481.02506526355586</v>
+        <v>481.02506526355597</v>
       </c>
       <c r="P105">
         <v>411.45644299415022</v>
       </c>
       <c r="Q105">
-        <v>360.83647270473836</v>
+        <v>360.83647270473841</v>
       </c>
       <c r="R105">
         <v>328.62376433874897</v>
@@ -9638,40 +9642,40 @@
         <v>66.183867239999998</v>
       </c>
       <c r="F106">
-        <v>33.911967877510243</v>
+        <v>278.30331206229067</v>
       </c>
       <c r="G106">
-        <v>704.01109665839749</v>
+        <v>704.01109665839761</v>
       </c>
       <c r="H106">
         <v>512.36235787415126</v>
       </c>
       <c r="I106">
-        <v>407.36819236794929</v>
+        <v>407.36819236794935</v>
       </c>
       <c r="J106">
         <v>348.45225233499326</v>
       </c>
       <c r="K106">
-        <v>305.58345550167502</v>
+        <v>305.58345550167496</v>
       </c>
       <c r="L106">
         <v>278.30331206229067</v>
       </c>
       <c r="M106">
-        <v>824.20811316105073</v>
+        <v>824.20811316105085</v>
       </c>
       <c r="N106">
         <v>599.83885799900634</v>
       </c>
       <c r="O106">
-        <v>476.91885935759922</v>
+        <v>476.91885935759927</v>
       </c>
       <c r="P106">
         <v>407.94410029462625</v>
       </c>
       <c r="Q106">
-        <v>357.75624058732689</v>
+        <v>357.75624058732677</v>
       </c>
       <c r="R106">
         <v>325.81851168268179</v>
@@ -9706,40 +9710,40 @@
         <v>65.747286360000004</v>
       </c>
       <c r="F107">
-        <v>33.524732811914561</v>
+        <v>275.12541328357054</v>
       </c>
       <c r="G107">
-        <v>695.97211218603377</v>
+        <v>695.972112186034</v>
       </c>
       <c r="H107">
-        <v>506.5117781620923</v>
+        <v>506.51177816209236</v>
       </c>
       <c r="I107">
-        <v>402.71652339777984</v>
+        <v>402.71652339777989</v>
       </c>
       <c r="J107">
-        <v>344.47333458898447</v>
+        <v>344.47333458898453</v>
       </c>
       <c r="K107">
-        <v>302.09404934678707</v>
+        <v>302.09404934678713</v>
       </c>
       <c r="L107">
         <v>275.12541328357054</v>
       </c>
       <c r="M107">
-        <v>814.79661914462497</v>
+        <v>814.7966191446252</v>
       </c>
       <c r="N107">
         <v>592.98939882391301</v>
       </c>
       <c r="O107">
-        <v>471.47300300227886</v>
+        <v>471.47300300227892</v>
       </c>
       <c r="P107">
-        <v>403.28585512856722</v>
+        <v>403.28585512856728</v>
       </c>
       <c r="Q107">
-        <v>353.6710821620922</v>
+        <v>353.67108216209226</v>
       </c>
       <c r="R107">
         <v>322.09804481978989</v>
@@ -9774,13 +9778,13 @@
         <v>65.747286360000004</v>
       </c>
       <c r="F108">
-        <v>33.362777580939131</v>
+        <v>273.79630500683828</v>
       </c>
       <c r="G108">
         <v>692.60992806919307</v>
       </c>
       <c r="H108">
-        <v>504.06486135937695</v>
+        <v>504.06486135937689</v>
       </c>
       <c r="I108">
         <v>400.77103294658286</v>
@@ -9792,7 +9796,7 @@
         <v>300.63465780404897</v>
       </c>
       <c r="L108">
-        <v>273.79630500683834</v>
+        <v>273.79630500683828</v>
       </c>
       <c r="M108">
         <v>810.86040359320168</v>
@@ -9810,7 +9814,7 @@
         <v>351.96252620961832</v>
       </c>
       <c r="R108">
-        <v>320.54201561776199</v>
+        <v>320.54201561776188</v>
       </c>
       <c r="S108">
         <v>30.405676359684705</v>
@@ -9842,40 +9846,40 @@
         <v>66.033356480000009</v>
       </c>
       <c r="F109">
-        <v>33.346845022400004</v>
+        <v>273.66555223462876</v>
       </c>
       <c r="G109">
-        <v>692.27916879122313</v>
+        <v>692.27916879122324</v>
       </c>
       <c r="H109">
         <v>503.82414270543268</v>
       </c>
       <c r="I109">
-        <v>400.57964276848043</v>
+        <v>400.57964276848048</v>
       </c>
       <c r="J109">
         <v>342.64550197416452</v>
       </c>
       <c r="K109">
-        <v>300.49108824444824</v>
+        <v>300.49108824444818</v>
       </c>
       <c r="L109">
         <v>273.66555223462876</v>
       </c>
       <c r="M109">
-        <v>810.473173218993</v>
+        <v>810.47317321899311</v>
       </c>
       <c r="N109">
         <v>589.84289877709193</v>
       </c>
       <c r="O109">
-        <v>468.97128909480637</v>
+        <v>468.97128909480642</v>
       </c>
       <c r="P109">
         <v>401.14595353072923</v>
       </c>
       <c r="Q109">
-        <v>351.79444477398818</v>
+        <v>351.79444477398812</v>
       </c>
       <c r="R109">
         <v>320.38893920151662</v>
@@ -9910,7 +9914,7 @@
         <v>66.033356480000009</v>
       </c>
       <c r="F110">
-        <v>33.187290739996179</v>
+        <v>272.35614767848222</v>
       </c>
       <c r="G110">
         <v>688.96682827069105</v>
@@ -9919,16 +9923,16 @@
         <v>501.41350087430624</v>
       </c>
       <c r="I110">
-        <v>398.66299376001888</v>
+        <v>398.66299376001882</v>
       </c>
       <c r="J110">
-        <v>341.00604981160876</v>
+        <v>341.0060498116087</v>
       </c>
       <c r="K110">
         <v>299.05333184136475</v>
       </c>
       <c r="L110">
-        <v>272.35614767848227</v>
+        <v>272.35614767848222</v>
       </c>
       <c r="M110">
         <v>806.59531114617494</v>
@@ -9937,16 +9941,16 @@
         <v>587.02068395040737</v>
       </c>
       <c r="O110">
-        <v>466.7274073288026</v>
+        <v>466.72740732880254</v>
       </c>
       <c r="P110">
-        <v>399.22659490139563</v>
+        <v>399.22659490139557</v>
       </c>
       <c r="Q110">
         <v>350.11121776550021</v>
       </c>
       <c r="R110">
-        <v>318.85597776993046</v>
+        <v>318.8559777699304</v>
       </c>
       <c r="S110">
         <v>30.699451010502912</v>
@@ -9978,13 +9982,13 @@
         <v>65.832010960000005</v>
       </c>
       <c r="F111">
-        <v>32.928544910659049</v>
+        <v>270.23271380561096</v>
       </c>
       <c r="G111">
         <v>683.59527520348547</v>
       </c>
       <c r="H111">
-        <v>497.50421363718328</v>
+        <v>497.50421363718323</v>
       </c>
       <c r="I111">
         <v>395.55480431018998</v>
@@ -10002,7 +10006,7 @@
         <v>800.30666365286106</v>
       </c>
       <c r="N111">
-        <v>582.44395742889753</v>
+        <v>582.44395742889742</v>
       </c>
       <c r="O111">
         <v>463.0885513875395</v>
@@ -10046,40 +10050,40 @@
         <v>65.50008987999999</v>
       </c>
       <c r="F112">
-        <v>32.607248535522267</v>
+        <v>267.59595012155847</v>
       </c>
       <c r="G112">
-        <v>676.92517530750081</v>
+        <v>676.92517530750104</v>
       </c>
       <c r="H112">
         <v>492.6498752237917</v>
       </c>
       <c r="I112">
-        <v>391.69522517793189</v>
+        <v>391.69522517793195</v>
       </c>
       <c r="J112">
         <v>335.04600015219842</v>
       </c>
       <c r="K112">
-        <v>293.82652513347398</v>
+        <v>293.82652513347404</v>
       </c>
       <c r="L112">
         <v>267.59595012155847</v>
       </c>
       <c r="M112">
-        <v>792.49776621365947</v>
+        <v>792.49776621365982</v>
       </c>
       <c r="N112">
         <v>576.76082953029277</v>
       </c>
       <c r="O112">
-        <v>458.57001972050563</v>
+        <v>458.57001972050568</v>
       </c>
       <c r="P112">
         <v>392.24897578793963</v>
       </c>
       <c r="Q112">
-        <v>343.99202942455491</v>
+        <v>343.99202942455497</v>
       </c>
       <c r="R112">
         <v>313.2830635569465</v>
@@ -10114,40 +10118,40 @@
         <v>65.253890159999997</v>
       </c>
       <c r="F113">
-        <v>32.331455766067926</v>
+        <v>265.33261814804371</v>
       </c>
       <c r="G113">
-        <v>671.19972844533947</v>
+        <v>671.19972844533959</v>
       </c>
       <c r="H113">
-        <v>488.48303258721381</v>
+        <v>488.48303258721393</v>
       </c>
       <c r="I113">
-        <v>388.38225901900626</v>
+        <v>388.38225901900631</v>
       </c>
       <c r="J113">
-        <v>332.21217428750117</v>
+        <v>332.21217428750123</v>
       </c>
       <c r="K113">
-        <v>291.34133442449934</v>
+        <v>291.34133442449939</v>
       </c>
       <c r="L113">
         <v>265.33261814804371</v>
       </c>
       <c r="M113">
-        <v>785.7948040335682</v>
+        <v>785.79480403356831</v>
       </c>
       <c r="N113">
-        <v>571.88257473625038</v>
+        <v>571.88257473625049</v>
       </c>
       <c r="O113">
-        <v>454.69142519298293</v>
+        <v>454.69142519298305</v>
       </c>
       <c r="P113">
-        <v>388.93132599512336</v>
+        <v>388.93132599512342</v>
       </c>
       <c r="Q113">
-        <v>341.08253786282853</v>
+        <v>341.08253786282859</v>
       </c>
       <c r="R113">
         <v>310.63330905136826</v>
@@ -10182,22 +10186,22 @@
         <v>65.589798279999997</v>
       </c>
       <c r="F114">
-        <v>32.345316485123</v>
+        <v>265.44636807946983</v>
       </c>
       <c r="G114">
         <v>671.48747641849411</v>
       </c>
       <c r="H114">
-        <v>488.69244864712931</v>
+        <v>488.69244864712942</v>
       </c>
       <c r="I114">
-        <v>388.54876118386971</v>
+        <v>388.54876118386977</v>
       </c>
       <c r="J114">
-        <v>332.35459594793582</v>
+        <v>332.35459594793588</v>
       </c>
       <c r="K114">
-        <v>291.46623447276215</v>
+        <v>291.46623447276221</v>
       </c>
       <c r="L114">
         <v>265.44636807946983</v>
@@ -10206,22 +10210,22 @@
         <v>786.13167970945653</v>
       </c>
       <c r="N114">
-        <v>572.12774475761478</v>
+        <v>572.12774475761501</v>
       </c>
       <c r="O114">
-        <v>454.88635455672556</v>
+        <v>454.88635455672562</v>
       </c>
       <c r="P114">
-        <v>389.09806354880294</v>
+        <v>389.098063548803</v>
       </c>
       <c r="Q114">
-        <v>341.22876230957525</v>
+        <v>341.2287623095753</v>
       </c>
       <c r="R114">
         <v>310.76647970279396</v>
       </c>
       <c r="S114">
-        <v>31.28700031213933</v>
+        <v>31.287000312139334</v>
       </c>
       <c r="T114">
         <v>42.989878281243797</v>
@@ -10250,46 +10254,46 @@
         <v>65.50008987999999</v>
       </c>
       <c r="F115">
-        <v>32.150137574743916</v>
+        <v>263.84460502639644</v>
       </c>
       <c r="G115">
-        <v>667.43557004618071</v>
+        <v>667.43557004618083</v>
       </c>
       <c r="H115">
-        <v>485.74356856177587</v>
+        <v>485.74356856177599</v>
       </c>
       <c r="I115">
-        <v>386.20417061936274</v>
+        <v>386.2041706193628</v>
       </c>
       <c r="J115">
-        <v>330.34909360800867</v>
+        <v>330.34909360800873</v>
       </c>
       <c r="K115">
-        <v>289.7074616970234</v>
+        <v>289.70746169702346</v>
       </c>
       <c r="L115">
         <v>263.84460502639644</v>
       </c>
       <c r="M115">
-        <v>781.38798444430915</v>
+        <v>781.38798444430927</v>
       </c>
       <c r="N115">
-        <v>568.67539734061563</v>
+        <v>568.67539734061586</v>
       </c>
       <c r="O115">
-        <v>452.1414680421808</v>
+        <v>452.14146804218086</v>
       </c>
       <c r="P115">
-        <v>386.75015837035164</v>
+        <v>386.7501583703517</v>
       </c>
       <c r="Q115">
-        <v>339.16971125505182</v>
+        <v>339.16971125505188</v>
       </c>
       <c r="R115">
         <v>308.89124490895193</v>
       </c>
       <c r="S115">
-        <v>31.433887637548438</v>
+        <v>31.433887637548441</v>
       </c>
       <c r="T115">
         <v>43.191708695709735</v>
@@ -10318,40 +10322,40 @@
         <v>65.117334039999989</v>
       </c>
       <c r="F116">
-        <v>31.813603570053949</v>
+        <v>261.08279160214755</v>
       </c>
       <c r="G116">
-        <v>660.44913757017719</v>
+        <v>660.4491375701773</v>
       </c>
       <c r="H116">
-        <v>480.65901089851707</v>
+        <v>480.65901089851712</v>
       </c>
       <c r="I116">
-        <v>382.16154915734444</v>
+        <v>382.1615491573445</v>
       </c>
       <c r="J116">
-        <v>326.89113940301831</v>
+        <v>326.89113940301837</v>
       </c>
       <c r="K116">
-        <v>286.67492685804172</v>
+        <v>286.67492685804177</v>
       </c>
       <c r="L116">
         <v>261.08279160214755</v>
       </c>
       <c r="M116">
-        <v>773.20874642362207</v>
+        <v>773.20874642362219</v>
       </c>
       <c r="N116">
         <v>562.72274446655661</v>
       </c>
       <c r="O116">
-        <v>447.40864291591544</v>
+        <v>447.40864291591555</v>
       </c>
       <c r="P116">
-        <v>382.70182174011904</v>
+        <v>382.7018217401191</v>
       </c>
       <c r="Q116">
-        <v>335.61942656551224</v>
+        <v>335.61942656551236</v>
       </c>
       <c r="R116">
         <v>305.65790236348982</v>
@@ -10386,40 +10390,40 @@
         <v>64.816312519999997</v>
       </c>
       <c r="F117">
-        <v>31.519932718059259</v>
+        <v>258.67274064133386</v>
       </c>
       <c r="G117">
-        <v>654.3525424296015</v>
+        <v>654.35254242960161</v>
       </c>
       <c r="H117">
-        <v>476.22205546407008</v>
+        <v>476.22205546407014</v>
       </c>
       <c r="I117">
-        <v>378.63382217434116</v>
+        <v>378.63382217434122</v>
       </c>
       <c r="J117">
-        <v>323.87361266460249</v>
+        <v>323.87361266460255</v>
       </c>
       <c r="K117">
-        <v>284.02863531704941</v>
+        <v>284.02863531704946</v>
       </c>
       <c r="L117">
         <v>258.67274064133386</v>
       </c>
       <c r="M117">
-        <v>766.07126918587494</v>
+        <v>766.07126918587505</v>
       </c>
       <c r="N117">
         <v>557.52826005549673</v>
       </c>
       <c r="O117">
-        <v>443.27862108215555</v>
+        <v>443.27862108215561</v>
       </c>
       <c r="P117">
-        <v>379.16910750977854</v>
+        <v>379.1691075097786</v>
       </c>
       <c r="Q117">
-        <v>332.5213291516676</v>
+        <v>332.52132915166766</v>
       </c>
       <c r="R117">
         <v>302.83637928741524</v>
@@ -10454,7 +10458,7 @@
         <v>64.549180840000005</v>
       </c>
       <c r="F118">
-        <v>31.24537306651429</v>
+        <v>256.41952842257882</v>
       </c>
       <c r="G118">
         <v>648.65269504591402</v>
@@ -10522,43 +10526,43 @@
         <v>64.347835320000002</v>
       </c>
       <c r="F119">
-        <v>31.005030376205504</v>
+        <v>254.44712248658317</v>
       </c>
       <c r="G119">
-        <v>643.66319040881115</v>
+        <v>643.66319040881137</v>
       </c>
       <c r="H119">
-        <v>468.44260194193845</v>
+        <v>468.44260194193851</v>
       </c>
       <c r="I119">
-        <v>372.44854749477611</v>
+        <v>372.44854749477616</v>
       </c>
       <c r="J119">
-        <v>318.58288812158679</v>
+        <v>318.58288812158685</v>
       </c>
       <c r="K119">
         <v>279.38880912241791</v>
       </c>
       <c r="L119">
-        <v>254.44712248658314</v>
+        <v>254.44712248658317</v>
       </c>
       <c r="M119">
-        <v>753.55690584446188</v>
+        <v>753.55690584446211</v>
       </c>
       <c r="N119">
         <v>548.42060715153775</v>
       </c>
       <c r="O119">
-        <v>436.03732389632324</v>
+        <v>436.03732389632336</v>
       </c>
       <c r="P119">
-        <v>372.97508853258944</v>
+        <v>372.9750885325895</v>
       </c>
       <c r="Q119">
         <v>327.0893375091722</v>
       </c>
       <c r="R119">
-        <v>297.88931413063392</v>
+        <v>297.88931413063398</v>
       </c>
       <c r="S119">
         <v>32.021436939184859</v>
@@ -10590,19 +10594,19 @@
         <v>64.248159319999999</v>
       </c>
       <c r="F120">
-        <v>30.675575704421817</v>
+        <v>251.74340659893628</v>
       </c>
       <c r="G120">
-        <v>636.82372460076874</v>
+        <v>636.82372460076886</v>
       </c>
       <c r="H120">
         <v>463.46500308782743</v>
       </c>
       <c r="I120">
-        <v>368.4909666608811</v>
+        <v>368.49096666088116</v>
       </c>
       <c r="J120">
-        <v>315.19767547807504</v>
+        <v>315.1976754780751</v>
       </c>
       <c r="K120">
         <v>276.42006671860133</v>
@@ -10611,16 +10615,16 @@
         <v>251.74340659893628</v>
       </c>
       <c r="M120">
-        <v>745.54972636187563</v>
+        <v>745.54972636187574</v>
       </c>
       <c r="N120">
         <v>542.59317434672482</v>
       </c>
       <c r="O120">
-        <v>431.40405852981206</v>
+        <v>431.40405852981212</v>
       </c>
       <c r="P120">
-        <v>369.0119127548196</v>
+        <v>369.01191275481966</v>
       </c>
       <c r="Q120">
         <v>323.61373664616741</v>
@@ -10658,10 +10662,10 @@
         <v>64.248159319999999</v>
       </c>
       <c r="F121">
-        <v>30.531246177039449</v>
+        <v>250.55894612633901</v>
       </c>
       <c r="G121">
-        <v>633.82744938549183</v>
+        <v>633.82744938549195</v>
       </c>
       <c r="H121">
         <v>461.28438599041817</v>
@@ -10676,10 +10680,10 @@
         <v>275.11950180099666</v>
       </c>
       <c r="L121">
-        <v>250.55894612633904</v>
+        <v>250.55894612633901</v>
       </c>
       <c r="M121">
-        <v>742.04189196350262</v>
+        <v>742.04189196350285</v>
       </c>
       <c r="N121">
         <v>540.04025676927006</v>
@@ -10694,7 +10698,7 @@
         <v>322.09112405970342</v>
       </c>
       <c r="R121">
-        <v>293.33730278205547</v>
+        <v>293.33730278205542</v>
       </c>
       <c r="S121">
         <v>32.467974408428532</v>
@@ -10726,7 +10730,7 @@
         <v>63.539462960000002</v>
       </c>
       <c r="F122">
-        <v>30.053067315014406</v>
+        <v>246.63470435008983</v>
       </c>
       <c r="G122">
         <v>623.90047533700647</v>
@@ -10735,13 +10739,13 @@
         <v>454.05977283562663</v>
       </c>
       <c r="I122">
-        <v>361.01307218295682</v>
+        <v>361.01307218295688</v>
       </c>
       <c r="J122">
         <v>308.80127727523603</v>
       </c>
       <c r="K122">
-        <v>270.81059382097999</v>
+        <v>270.81059382098005</v>
       </c>
       <c r="L122">
         <v>246.63470435008983</v>
@@ -10753,19 +10757,19 @@
         <v>531.58217307585562</v>
       </c>
       <c r="O122">
-        <v>422.64945036053484</v>
+        <v>422.6494503605349</v>
       </c>
       <c r="P122">
         <v>361.52344656613002</v>
       </c>
       <c r="Q122">
-        <v>317.04654886358634</v>
+        <v>317.04654886358639</v>
       </c>
       <c r="R122">
         <v>288.74306850742227</v>
       </c>
       <c r="S122">
-        <v>32.620737226854004</v>
+        <v>32.620737226853997</v>
       </c>
       <c r="T122">
         <v>44.82249844459448</v>
@@ -10794,13 +10798,13 @@
         <v>62.674275279999996</v>
       </c>
       <c r="F123">
-        <v>29.505673518336323</v>
+        <v>242.14244052251959</v>
       </c>
       <c r="G123">
         <v>612.53660201372134</v>
       </c>
       <c r="H123">
-        <v>445.78941891913615</v>
+        <v>445.78941891913621</v>
       </c>
       <c r="I123">
         <v>354.43749325248541</v>
@@ -10818,7 +10822,7 @@
         <v>717.11602186972254</v>
       </c>
       <c r="N123">
-        <v>521.8998075150862</v>
+        <v>521.89980751508631</v>
       </c>
       <c r="O123">
         <v>414.95121161266587</v>
@@ -10833,7 +10837,7 @@
         <v>283.48383280685221</v>
       </c>
       <c r="S123">
-        <v>32.773500045279476</v>
+        <v>32.773500045279469</v>
       </c>
       <c r="T123">
         <v>45.032402075639048</v>
@@ -10862,19 +10866,19 @@
         <v>62.674275279999996</v>
       </c>
       <c r="F124">
-        <v>29.366160564774734</v>
+        <v>240.99750793730294</v>
       </c>
       <c r="G124">
-        <v>609.6403186783009</v>
+        <v>609.64031867830101</v>
       </c>
       <c r="H124">
         <v>443.68157350895552</v>
       </c>
       <c r="I124">
-        <v>352.76159110756777</v>
+        <v>352.76159110756782</v>
       </c>
       <c r="J124">
-        <v>301.74317303517336</v>
+        <v>301.74317303517341</v>
       </c>
       <c r="K124">
         <v>264.62082214203031</v>
@@ -10883,16 +10887,16 @@
         <v>240.99750793730294</v>
       </c>
       <c r="M124">
-        <v>713.72525113557185</v>
+        <v>713.72525113557197</v>
       </c>
       <c r="N124">
         <v>519.43208605926498</v>
       </c>
       <c r="O124">
-        <v>412.98917983325009</v>
+        <v>412.98917983325015</v>
       </c>
       <c r="P124">
-        <v>353.26030013873958</v>
+        <v>353.26030013873964</v>
       </c>
       <c r="Q124">
         <v>309.79998689798674</v>
@@ -10901,7 +10905,7 @@
         <v>282.14342392659859</v>
       </c>
       <c r="S124">
-        <v>32.929200610213123</v>
+        <v>32.92920061021313</v>
       </c>
       <c r="T124">
         <v>45.246342314972935</v>
@@ -10930,22 +10934,22 @@
         <v>61.965578919999999</v>
       </c>
       <c r="F125">
-        <v>28.900028459980465</v>
+        <v>237.17212956081408</v>
       </c>
       <c r="G125">
         <v>599.96343482805605</v>
       </c>
       <c r="H125">
-        <v>436.63896999046085</v>
+        <v>436.63896999046091</v>
       </c>
       <c r="I125">
-        <v>347.16216987608448</v>
+        <v>347.16216987608453</v>
       </c>
       <c r="J125">
         <v>296.95357243199129</v>
       </c>
       <c r="K125">
-        <v>260.42046845516074</v>
+        <v>260.4204684551608</v>
       </c>
       <c r="L125">
         <v>237.17212956081408</v>
@@ -10954,16 +10958,16 @@
         <v>702.39621638406561</v>
       </c>
       <c r="N125">
-        <v>511.18708681810051</v>
+        <v>511.18708681810062</v>
       </c>
       <c r="O125">
-        <v>406.43375985492821</v>
+        <v>406.43375985492827</v>
       </c>
       <c r="P125">
         <v>347.65296284720932</v>
       </c>
       <c r="Q125">
-        <v>304.88249965482237</v>
+        <v>304.88249965482242</v>
       </c>
       <c r="R125">
         <v>277.66493216875796</v>
@@ -10998,10 +11002,10 @@
         <v>61.409386840000003</v>
       </c>
       <c r="F126">
-        <v>28.508980790566604</v>
+        <v>233.9629421150955</v>
       </c>
       <c r="G126">
-        <v>591.84530085293102</v>
+        <v>591.84530085293113</v>
       </c>
       <c r="H126">
         <v>430.73078717235455</v>
@@ -11013,13 +11017,13 @@
         <v>292.93547941922998</v>
       </c>
       <c r="K126">
-        <v>256.89670662225888</v>
+        <v>256.89670662225893</v>
       </c>
       <c r="L126">
-        <v>233.96294211509553</v>
+        <v>233.9629421150955</v>
       </c>
       <c r="M126">
-        <v>692.89205953513874</v>
+        <v>692.89205953513897</v>
       </c>
       <c r="N126">
         <v>504.27018986031754</v>
@@ -11031,10 +11035,10 @@
         <v>342.94885395422045</v>
       </c>
       <c r="Q126">
-        <v>300.75711994801043</v>
+        <v>300.75711994801048</v>
       </c>
       <c r="R126">
-        <v>273.90783467133139</v>
+        <v>273.90783467133133</v>
       </c>
       <c r="S126">
         <v>33.234726247064067</v>
@@ -11066,34 +11070,34 @@
         <v>60.90901332</v>
       </c>
       <c r="F127">
-        <v>28.147306463408711</v>
+        <v>230.99481111486844</v>
       </c>
       <c r="G127">
         <v>584.33695628810631</v>
       </c>
       <c r="H127">
-        <v>425.2663944330568</v>
+        <v>425.26639443305675</v>
       </c>
       <c r="I127">
-        <v>338.12008183782638</v>
+        <v>338.12008183782632</v>
       </c>
       <c r="J127">
         <v>289.21920337281716</v>
       </c>
       <c r="K127">
-        <v>253.63763032629296</v>
+        <v>253.63763032629294</v>
       </c>
       <c r="L127">
-        <v>230.99481111486847</v>
+        <v>230.99481111486844</v>
       </c>
       <c r="M127">
         <v>684.10180248363667</v>
       </c>
       <c r="N127">
-        <v>497.87285201918849</v>
+        <v>497.87285201918843</v>
       </c>
       <c r="O127">
-        <v>395.847900688187</v>
+        <v>395.84790068818694</v>
       </c>
       <c r="P127">
         <v>338.59809175354206</v>
@@ -11137,46 +11141,46 @@
         <v>59.663063319999999</v>
       </c>
       <c r="F128">
-        <v>27.445949772851009</v>
+        <v>225.23902924387002</v>
       </c>
       <c r="G128">
-        <v>569.77681944639596</v>
+        <v>569.77681944639608</v>
       </c>
       <c r="H128">
-        <v>414.66987673809672</v>
+        <v>414.66987673809678</v>
       </c>
       <c r="I128">
-        <v>329.69502056536817</v>
+        <v>329.69502056536822</v>
       </c>
       <c r="J128">
-        <v>282.01262310599867</v>
+        <v>282.01262310599873</v>
       </c>
       <c r="K128">
-        <v>247.31764907914226</v>
+        <v>247.31764907914231</v>
       </c>
       <c r="L128">
-        <v>225.23902924386999</v>
+        <v>225.23902924387002</v>
       </c>
       <c r="M128">
-        <v>667.05578862017092</v>
+        <v>667.05578862017103</v>
       </c>
       <c r="N128">
-        <v>485.46717276655227</v>
+        <v>485.46717276655232</v>
       </c>
       <c r="O128">
-        <v>385.98441432043103</v>
+        <v>385.98441432043109</v>
       </c>
       <c r="P128">
-        <v>330.1611197338521</v>
+        <v>330.16111973385216</v>
       </c>
       <c r="Q128">
-        <v>289.542613556069</v>
+        <v>289.54261355606906</v>
       </c>
       <c r="R128">
         <v>263.69447326111612</v>
       </c>
       <c r="S128">
-        <v>33.540251883914998</v>
+        <v>33.540251883915005</v>
       </c>
       <c r="T128">
         <v>46.085956839151216</v>
@@ -11196,6 +11200,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/engine_data.xlsx
+++ b/engine_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxwe\Downloads\FSAE\2023-2024 Car\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D777AA2-5D2C-49DE-9A80-43400EAE1F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4D5A10-955E-4EC5-B868-EDABD3073CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2819ED3D-E80A-4DFB-B512-B4F78C4B24A5}"/>
   </bookViews>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>10.035 on SolidWorks = 10 HP on Excel</t>
+  </si>
+  <si>
+    <t>Actual Torque (lb-ft)</t>
   </si>
   <si>
     <t>Gearing:</t>
@@ -163,9 +166,6 @@
   </si>
   <si>
     <t>Adjusted Gearing</t>
-  </si>
-  <si>
-    <t>Dyno Torque (lb-ft)</t>
   </si>
 </sst>
 </file>
@@ -2323,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BAF9BE-4D21-4E54-A3DD-A372646D3216}">
   <dimension ref="B1:AO128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="57" zoomScaleNormal="36" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2333,7 +2333,7 @@
     <col min="3" max="3" width="20.6328125" customWidth="1"/>
     <col min="4" max="4" width="10.6328125" customWidth="1"/>
     <col min="5" max="5" width="20.81640625" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.6328125" customWidth="1"/>
     <col min="7" max="7" width="26.54296875" customWidth="1"/>
     <col min="8" max="8" width="26.90625" customWidth="1"/>
     <col min="9" max="9" width="27.81640625" customWidth="1"/>
@@ -2352,8 +2352,6 @@
     <col min="22" max="22" width="25" customWidth="1"/>
     <col min="23" max="23" width="24.26953125" customWidth="1"/>
     <col min="24" max="24" width="24.54296875" customWidth="1"/>
-    <col min="30" max="30" width="15.1796875" customWidth="1"/>
-    <col min="31" max="31" width="11.08984375" customWidth="1"/>
     <col min="36" max="36" width="11.6328125" customWidth="1"/>
     <col min="38" max="38" width="15.90625" customWidth="1"/>
   </cols>
@@ -2366,67 +2364,67 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="T1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.35">
@@ -2444,36 +2442,36 @@
         <v>32.239205439999999</v>
       </c>
       <c r="F2" cm="1">
-        <f t="array" ref="F2:F128">(E2:E128)*5252/(D2:D128/(AL9*AK10))</f>
-        <v>277.9101607999005</v>
+        <f t="array" ref="F2:F128">(E2:E128)*5252/(D2:D128)</f>
+        <v>33.864061394175998</v>
       </c>
       <c r="G2" cm="1">
-        <f t="array" ref="G2:G128">(F2:F128)*AK4/AK9</f>
-        <v>703.01655998063802</v>
+        <f t="array" ref="G2:G128">(F2:F128)*AL4*AK10</f>
+        <v>703.01655998063791</v>
       </c>
       <c r="H2" cm="1">
-        <f t="array" ref="H2:H128">(F2:F128)*AK5/AK9</f>
+        <f t="array" ref="H2:H128">(F2:F128)*AL5*AK10</f>
         <v>511.63855798004744</v>
       </c>
       <c r="I2" cm="1">
-        <f t="array" ref="I2:I128">(F2:F128)*AK6/AK9</f>
-        <v>406.79271477876705</v>
+        <f t="array" ref="I2:I128">(F2:F128)*AL6*AK10</f>
+        <v>406.79271477876699</v>
       </c>
       <c r="J2" cm="1">
-        <f t="array" ref="J2:J128">(F2:F128)*AK7/AK9</f>
-        <v>347.96000363743718</v>
+        <f t="array" ref="J2:J128">(F2:F128)*AL7*AK10</f>
+        <v>347.96000363743724</v>
       </c>
       <c r="K2" cm="1">
-        <f t="array" ref="K2:K128">(F2:F128)*AK8/AK9</f>
+        <f t="array" ref="K2:K128">(F2:F128)*AL8*AK10</f>
         <v>305.15176634783143</v>
       </c>
       <c r="L2" cm="1">
-        <f t="array" ref="L2:L128">(F2:F128)</f>
+        <f t="array" ref="L2:L128">(F2:F128)*AL9*AK10</f>
         <v>277.9101607999005</v>
       </c>
       <c r="M2" cm="1">
         <f t="array" ref="M2:M128">(G2:G128)/(AO4/12/2)</f>
-        <v>823.04377753830795</v>
+        <v>823.04377753830784</v>
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:N128">(H2:H128)/(AO4/12/2)</f>
@@ -2481,11 +2479,11 @@
       </c>
       <c r="O2" cm="1">
         <f t="array" ref="O2:O128">(I2:I128)/(AO4/12/2)</f>
-        <v>476.24512949709316</v>
+        <v>476.2451294970931</v>
       </c>
       <c r="P2" cm="1">
         <f t="array" ref="P2:P128">(J2:J128)/(AO4/12/2)</f>
-        <v>407.36780913651182</v>
+        <v>407.36780913651188</v>
       </c>
       <c r="Q2" cm="1">
         <f t="array" ref="Q2:Q128">(K2:K128)/(AO4/12/2)</f>
@@ -2496,7 +2494,7 @@
         <v>325.35823703402986</v>
       </c>
       <c r="S2" cm="1">
-        <f t="array" ref="S2:S128">(D2:D128)/(AL4*AK10)*AO4*0.002975</f>
+        <f t="array" ref="S2:S128">(D2:D128)*AO4*0.002975/(AL4*AK10)</f>
         <v>14.688732540910484</v>
       </c>
       <c r="T2" cm="1">
@@ -2520,7 +2518,7 @@
         <v>37.157411559420176</v>
       </c>
       <c r="AJ2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.35">
@@ -2537,7 +2535,7 @@
         <v>32.762504440000001</v>
       </c>
       <c r="F3">
-        <v>279.62488261498083</v>
+        <v>34.073004617599999</v>
       </c>
       <c r="G3">
         <v>707.35421294119124</v>
@@ -2576,7 +2574,7 @@
         <v>327.3657162321727</v>
       </c>
       <c r="S3">
-        <v>14.83561986631959</v>
+        <v>14.835619866319588</v>
       </c>
       <c r="T3">
         <v>20.384871861059267</v>
@@ -2594,13 +2592,13 @@
         <v>37.528985675014376</v>
       </c>
       <c r="AJ3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AO3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.35">
@@ -2614,40 +2612,40 @@
         <v>33.32766736</v>
       </c>
       <c r="F4">
-        <v>281.65978405260711</v>
+        <v>34.320962544062745</v>
       </c>
       <c r="G4">
-        <v>712.50180957624093</v>
+        <v>712.50180957624082</v>
       </c>
       <c r="H4">
-        <v>518.54169469322642</v>
+        <v>518.5416946932263</v>
       </c>
       <c r="I4">
-        <v>412.28124897980462</v>
+        <v>412.28124897980456</v>
       </c>
       <c r="J4">
-        <v>352.65475433275355</v>
+        <v>352.6547543327535</v>
       </c>
       <c r="K4">
-        <v>309.26893916155296</v>
+        <v>309.26893916155291</v>
       </c>
       <c r="L4">
         <v>281.65978405260711</v>
       </c>
       <c r="M4">
-        <v>834.14845999169677</v>
+        <v>834.14845999169665</v>
       </c>
       <c r="N4">
-        <v>607.07320354328954</v>
+        <v>607.07320354328931</v>
       </c>
       <c r="O4">
-        <v>482.67073051294199</v>
+        <v>482.67073051294193</v>
       </c>
       <c r="P4">
-        <v>412.86410263346761</v>
+        <v>412.86410263346755</v>
       </c>
       <c r="Q4">
-        <v>362.07095316474494</v>
+        <v>362.07095316474488</v>
       </c>
       <c r="R4">
         <v>329.74803986646685</v>
@@ -2671,7 +2669,7 @@
         <v>37.900559790608582</v>
       </c>
       <c r="AJ4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK4">
         <v>3.0710000000000002</v>
@@ -2695,40 +2693,40 @@
         <v>33.92273308</v>
       </c>
       <c r="F5">
-        <v>283.90543473506335</v>
+        <v>34.594600803137865</v>
       </c>
       <c r="G5">
-        <v>718.18252888911002</v>
+        <v>718.1825288891099</v>
       </c>
       <c r="H5">
-        <v>522.67598569428878</v>
+        <v>522.67598569428867</v>
       </c>
       <c r="I5">
-        <v>415.56833403970973</v>
+        <v>415.56833403970961</v>
       </c>
       <c r="J5">
         <v>355.4664421724022</v>
       </c>
       <c r="K5">
-        <v>311.73471540513958</v>
+        <v>311.73471540513953</v>
       </c>
       <c r="L5">
         <v>283.90543473506335</v>
       </c>
       <c r="M5">
-        <v>840.79905821164107</v>
+        <v>840.79905821164095</v>
       </c>
       <c r="N5">
-        <v>611.91334910550881</v>
+        <v>611.9133491055087</v>
       </c>
       <c r="O5">
-        <v>486.51902521722116</v>
+        <v>486.51902521722104</v>
       </c>
       <c r="P5">
         <v>416.15583473842213</v>
       </c>
       <c r="Q5">
-        <v>364.95771559626098</v>
+        <v>364.95771559626093</v>
       </c>
       <c r="R5">
         <v>332.37709432397662</v>
@@ -2752,7 +2750,7 @@
         <v>38.272133906202789</v>
       </c>
       <c r="AJ5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5">
         <v>2.2349999999999999</v>
@@ -2772,7 +2770,7 @@
         <v>34.493876560000004</v>
       </c>
       <c r="F6">
-        <v>285.90961540368198</v>
+        <v>34.838815325600002</v>
       </c>
       <c r="G6">
         <v>723.252412606843</v>
@@ -2787,7 +2785,7 @@
         <v>357.97579523360514</v>
       </c>
       <c r="K6">
-        <v>313.93535200420763</v>
+        <v>313.93535200420769</v>
       </c>
       <c r="L6">
         <v>285.90961540368198</v>
@@ -2805,7 +2803,7 @@
         <v>419.09361393202556</v>
       </c>
       <c r="Q6">
-        <v>367.53407063907235</v>
+        <v>367.53407063907241</v>
       </c>
       <c r="R6">
         <v>334.7234521799204</v>
@@ -2829,7 +2827,7 @@
         <v>38.643708021796989</v>
       </c>
       <c r="AJ6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK6">
         <v>1.7769999999999999</v>
@@ -2849,40 +2847,40 @@
         <v>35.221511360000001</v>
       </c>
       <c r="F7">
-        <v>289.16037837371135</v>
+        <v>35.234929078613334</v>
       </c>
       <c r="G7">
-        <v>731.47571827484978</v>
+        <v>731.47571827484967</v>
       </c>
       <c r="H7">
         <v>532.35044947713743</v>
       </c>
       <c r="I7">
-        <v>423.26029025542431</v>
+        <v>423.2602902554242</v>
       </c>
       <c r="J7">
-        <v>362.04594326856778</v>
+        <v>362.04594326856773</v>
       </c>
       <c r="K7">
-        <v>317.50476472171107</v>
+        <v>317.50476472171101</v>
       </c>
       <c r="L7">
         <v>289.16037837371135</v>
       </c>
       <c r="M7">
-        <v>856.36181651689731</v>
+        <v>856.36181651689719</v>
       </c>
       <c r="N7">
         <v>623.23955060738047</v>
       </c>
       <c r="O7">
-        <v>495.52424225025288</v>
+        <v>495.52424225025271</v>
       </c>
       <c r="P7">
-        <v>423.85866529003061</v>
+        <v>423.8586652900305</v>
       </c>
       <c r="Q7">
-        <v>371.71289528395442</v>
+        <v>371.71289528395437</v>
       </c>
       <c r="R7">
         <v>338.52922346190599</v>
@@ -2906,7 +2904,7 @@
         <v>39.015282137391189</v>
       </c>
       <c r="AJ7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK7">
         <v>1.52</v>
@@ -2926,16 +2924,16 @@
         <v>35.949146160000005</v>
       </c>
       <c r="F8">
-        <v>292.34980619336278</v>
+        <v>35.623568987230193</v>
       </c>
       <c r="G8">
         <v>739.54386723213929</v>
       </c>
       <c r="H8">
-        <v>538.222254400466</v>
+        <v>538.22225440046611</v>
       </c>
       <c r="I8">
-        <v>427.92883493048242</v>
+        <v>427.92883493048237</v>
       </c>
       <c r="J8">
         <v>366.03929605758771</v>
@@ -2950,10 +2948,10 @@
         <v>865.80745432055335</v>
       </c>
       <c r="N8">
-        <v>630.11385881030174</v>
+        <v>630.11385881030185</v>
       </c>
       <c r="O8">
-        <v>500.98985552836967</v>
+        <v>500.98985552836962</v>
       </c>
       <c r="P8">
         <v>428.53381001863926</v>
@@ -2983,7 +2981,7 @@
         <v>39.386856252985389</v>
       </c>
       <c r="AJ8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK8">
         <v>1.333</v>
@@ -3003,46 +3001,46 @@
         <v>37.392454640000004</v>
       </c>
       <c r="F9">
-        <v>301.24530954180261</v>
+        <v>36.707508741921501</v>
       </c>
       <c r="G9">
-        <v>762.04641318194058</v>
+        <v>762.04641318194069</v>
       </c>
       <c r="H9">
-        <v>554.59906657819499</v>
+        <v>554.59906657819511</v>
       </c>
       <c r="I9">
         <v>440.94968291250683</v>
       </c>
       <c r="J9">
-        <v>377.17699382499177</v>
+        <v>377.17699382499183</v>
       </c>
       <c r="K9">
-        <v>330.77429787415394</v>
+        <v>330.774297874154</v>
       </c>
       <c r="L9">
-        <v>301.24530954180261</v>
+        <v>301.24530954180267</v>
       </c>
       <c r="M9">
-        <v>892.15189835934507</v>
+        <v>892.1518983593453</v>
       </c>
       <c r="N9">
-        <v>649.28671209154538</v>
+        <v>649.2867120915455</v>
       </c>
       <c r="O9">
         <v>516.23377511708122</v>
       </c>
       <c r="P9">
-        <v>441.57306594145382</v>
+        <v>441.57306594145388</v>
       </c>
       <c r="Q9">
-        <v>387.24795848681441</v>
+        <v>387.24795848681447</v>
       </c>
       <c r="R9">
-        <v>352.67743556113476</v>
+        <v>352.67743556113487</v>
       </c>
       <c r="S9">
-        <v>15.716943818774221</v>
+        <v>15.716943818774219</v>
       </c>
       <c r="T9">
         <v>21.595854347854868</v>
@@ -3060,7 +3058,7 @@
         <v>39.758430368579596</v>
       </c>
       <c r="AJ9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK9">
         <v>1.214</v>
@@ -3080,7 +3078,7 @@
         <v>38.114108879999996</v>
       </c>
       <c r="F10">
-        <v>304.21604123343604</v>
+        <v>37.069499969955551</v>
       </c>
       <c r="G10">
         <v>769.56133659627847</v>
@@ -3089,13 +3087,13 @@
         <v>560.06824724607043</v>
       </c>
       <c r="I10">
-        <v>445.29810977909045</v>
+        <v>445.2981097790904</v>
       </c>
       <c r="J10">
-        <v>380.89652609128734</v>
+        <v>380.89652609128728</v>
       </c>
       <c r="K10">
-        <v>334.03622978926711</v>
+        <v>334.03622978926705</v>
       </c>
       <c r="L10">
         <v>304.21604123343604</v>
@@ -3107,13 +3105,13 @@
         <v>655.68965531247272</v>
       </c>
       <c r="O10">
-        <v>521.32461632674006</v>
+        <v>521.32461632673994</v>
       </c>
       <c r="P10">
-        <v>445.92764030199498</v>
+        <v>445.92764030199487</v>
       </c>
       <c r="Q10">
-        <v>391.0668056069469</v>
+        <v>391.06680560694679</v>
       </c>
       <c r="R10">
         <v>356.15536534646174</v>
@@ -3137,7 +3135,7 @@
         <v>40.130004484173796</v>
       </c>
       <c r="AJ10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK10">
         <v>4</v>
@@ -3154,16 +3152,16 @@
         <v>38.634417599999999</v>
       </c>
       <c r="F11">
-        <v>305.5399249525214</v>
+        <v>37.230818575266056</v>
       </c>
       <c r="G11">
         <v>772.91030438978032</v>
       </c>
       <c r="H11">
-        <v>562.50554552626477</v>
+        <v>562.50554552626465</v>
       </c>
       <c r="I11">
-        <v>447.23595275175501</v>
+        <v>447.23595275175495</v>
       </c>
       <c r="J11">
         <v>382.5541070245738</v>
@@ -3172,16 +3170,16 @@
         <v>335.48988464720844</v>
       </c>
       <c r="L11">
-        <v>305.5399249525214</v>
+        <v>305.53992495252146</v>
       </c>
       <c r="M11">
         <v>904.87060026120628</v>
       </c>
       <c r="N11">
-        <v>658.54307768928561</v>
+        <v>658.5430776892855</v>
       </c>
       <c r="O11">
-        <v>523.59331053864003</v>
+        <v>523.59331053863991</v>
       </c>
       <c r="P11">
         <v>447.86822285803765</v>
@@ -3190,7 +3188,7 @@
         <v>392.76864544063432</v>
       </c>
       <c r="R11">
-        <v>357.70527799319581</v>
+        <v>357.70527799319586</v>
       </c>
       <c r="S11">
         <v>16.01071846959243</v>
@@ -3211,7 +3209,7 @@
         <v>40.501578599767996</v>
       </c>
       <c r="AJ11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AK11">
         <v>1.69</v>
@@ -3228,43 +3226,43 @@
         <v>39.700950799999994</v>
       </c>
       <c r="F12">
-        <v>311.12027816484266</v>
+        <v>37.910798836654536</v>
       </c>
       <c r="G12">
-        <v>787.026667416995</v>
+        <v>787.02666741699466</v>
       </c>
       <c r="H12">
-        <v>572.77909530347881</v>
+        <v>572.7790953034787</v>
       </c>
       <c r="I12">
-        <v>455.4042292412895</v>
+        <v>455.40422924128927</v>
       </c>
       <c r="J12">
-        <v>389.54104020639278</v>
+        <v>389.54104020639267</v>
       </c>
       <c r="K12">
-        <v>341.61724118100108</v>
+        <v>341.61724118100096</v>
       </c>
       <c r="L12">
-        <v>311.12027816484266</v>
+        <v>311.1202781648426</v>
       </c>
       <c r="M12">
-        <v>921.39707404916487</v>
+        <v>921.39707404916453</v>
       </c>
       <c r="N12">
-        <v>670.57064816017032</v>
+        <v>670.57064816017021</v>
       </c>
       <c r="O12">
-        <v>533.15617081907067</v>
+        <v>533.15617081907044</v>
       </c>
       <c r="P12">
-        <v>456.04804707089886</v>
+        <v>456.04804707089875</v>
       </c>
       <c r="Q12">
-        <v>399.94213601678177</v>
+        <v>399.94213601678166</v>
       </c>
       <c r="R12">
-        <v>364.23837443688899</v>
+        <v>364.23837443688893</v>
       </c>
       <c r="S12">
         <v>16.157605795001533</v>
@@ -3296,19 +3294,19 @@
         <v>40.399679559999996</v>
       </c>
       <c r="F13">
-        <v>313.74371696216036</v>
+        <v>38.230471540381977</v>
       </c>
       <c r="G13">
-        <v>793.66305995946834</v>
+        <v>793.66305995946823</v>
       </c>
       <c r="H13">
         <v>577.60890231501514</v>
       </c>
       <c r="I13">
-        <v>459.24430398826934</v>
+        <v>459.24430398826922</v>
       </c>
       <c r="J13">
-        <v>392.82574117173294</v>
+        <v>392.82574117173289</v>
       </c>
       <c r="K13">
         <v>344.49783748810523</v>
@@ -3317,16 +3315,16 @@
         <v>313.74371696216036</v>
       </c>
       <c r="M13">
-        <v>929.16650922084102</v>
+        <v>929.16650922084091</v>
       </c>
       <c r="N13">
         <v>676.22505636879828</v>
       </c>
       <c r="O13">
-        <v>537.65186808382759</v>
+        <v>537.65186808382737</v>
       </c>
       <c r="P13">
-        <v>459.89355064007759</v>
+        <v>459.89355064007754</v>
       </c>
       <c r="Q13">
         <v>403.31454144948907</v>
@@ -3364,10 +3362,10 @@
         <v>41.12731436</v>
       </c>
       <c r="F14">
-        <v>316.54278848264789</v>
+        <v>38.571545539057141</v>
       </c>
       <c r="G14">
-        <v>800.74374252900475</v>
+        <v>800.74374252900463</v>
       </c>
       <c r="H14">
         <v>582.76205293139867</v>
@@ -3385,7 +3383,7 @@
         <v>316.54278848264789</v>
       </c>
       <c r="M14">
-        <v>937.45608881444457</v>
+        <v>937.45608881444446</v>
       </c>
       <c r="N14">
         <v>682.25801318797892</v>
@@ -3403,7 +3401,7 @@
         <v>370.58667919919753</v>
       </c>
       <c r="S14">
-        <v>16.451380445819741</v>
+        <v>16.451380445819744</v>
       </c>
       <c r="T14">
         <v>22.605006420184534</v>
@@ -3432,43 +3430,43 @@
         <v>41.528011879999994</v>
       </c>
       <c r="F15">
-        <v>316.79826350707373</v>
+        <v>38.60267582190442</v>
       </c>
       <c r="G15">
-        <v>801.39000595570303</v>
+        <v>801.3900059557028</v>
       </c>
       <c r="H15">
-        <v>583.23238792282518</v>
+        <v>583.23238792282507</v>
       </c>
       <c r="I15">
-        <v>463.71541536414333</v>
+        <v>463.71541536414321</v>
       </c>
       <c r="J15">
-        <v>396.65021460523235</v>
+        <v>396.65021460523229</v>
       </c>
       <c r="K15">
-        <v>347.85180004524653</v>
+        <v>347.85180004524648</v>
       </c>
       <c r="L15">
-        <v>316.79826350707373</v>
+        <v>316.79826350707367</v>
       </c>
       <c r="M15">
-        <v>938.2126898993597</v>
+        <v>938.21268989935948</v>
       </c>
       <c r="N15">
-        <v>682.80864927550272</v>
+        <v>682.8086492755026</v>
       </c>
       <c r="O15">
-        <v>542.88633993850931</v>
+        <v>542.8863399385092</v>
       </c>
       <c r="P15">
-        <v>464.37098295246716</v>
+        <v>464.3709829524671</v>
       </c>
       <c r="Q15">
-        <v>407.24113176028862</v>
+        <v>407.24113176028857</v>
       </c>
       <c r="R15">
-        <v>370.88577191072045</v>
+        <v>370.88577191072039</v>
       </c>
       <c r="S15">
         <v>16.598267771228848</v>
@@ -3500,10 +3498,10 @@
         <v>41.839001000000003</v>
       </c>
       <c r="F16">
-        <v>316.37091506371814</v>
+        <v>38.550602324912283</v>
       </c>
       <c r="G16">
-        <v>800.30896224108608</v>
+        <v>800.30896224108596</v>
       </c>
       <c r="H16">
         <v>582.44563028616972</v>
@@ -3521,7 +3519,7 @@
         <v>316.37091506371814</v>
       </c>
       <c r="M16">
-        <v>936.94707774566177</v>
+        <v>936.94707774566166</v>
       </c>
       <c r="N16">
         <v>681.88756716429623</v>
@@ -3539,7 +3537,7 @@
         <v>370.3854615380115</v>
       </c>
       <c r="S16">
-        <v>16.745155096637955</v>
+        <v>16.745155096637951</v>
       </c>
       <c r="T16">
         <v>23.008667249116399</v>
@@ -3568,46 +3566,46 @@
         <v>42.049317359999996</v>
       </c>
       <c r="F17">
-        <v>315.19636848187963</v>
+        <v>38.407480830386085</v>
       </c>
       <c r="G17">
-        <v>797.33776573958198</v>
+        <v>797.33776573958187</v>
       </c>
       <c r="H17">
         <v>580.28326487397112</v>
       </c>
       <c r="I17">
-        <v>461.37063162462943</v>
+        <v>461.37063162462937</v>
       </c>
       <c r="J17">
         <v>394.6445470283831</v>
       </c>
       <c r="K17">
-        <v>346.0928823610754</v>
+        <v>346.09288236107545</v>
       </c>
       <c r="L17">
-        <v>315.19636848187963</v>
+        <v>315.19636848187969</v>
       </c>
       <c r="M17">
-        <v>933.46860379268139</v>
+        <v>933.46860379268128</v>
       </c>
       <c r="N17">
         <v>679.35601741342964</v>
       </c>
       <c r="O17">
-        <v>540.14122726785888</v>
+        <v>540.14122726785877</v>
       </c>
       <c r="P17">
         <v>462.02288432591195</v>
       </c>
       <c r="Q17">
-        <v>405.18191105686878</v>
+        <v>405.18191105686884</v>
       </c>
       <c r="R17">
-        <v>369.01038261293229</v>
+        <v>369.01038261293235</v>
       </c>
       <c r="S17">
-        <v>16.892042422047055</v>
+        <v>16.892042422047059</v>
       </c>
       <c r="T17">
         <v>23.210497663582334</v>
@@ -3636,7 +3634,7 @@
         <v>42.244682319999995</v>
       </c>
       <c r="F18">
-        <v>313.93096505191454</v>
+        <v>38.253288197351722</v>
       </c>
       <c r="G18">
         <v>794.13673284549384</v>
@@ -3675,7 +3673,7 @@
         <v>367.52893469492437</v>
       </c>
       <c r="S18">
-        <v>17.038929747456166</v>
+        <v>17.038929747456162</v>
       </c>
       <c r="T18">
         <v>23.412328078048265</v>
@@ -3707,40 +3705,40 @@
         <v>42.379244920000005</v>
       </c>
       <c r="F19">
-        <v>312.23921652939697</v>
+        <v>38.047144328177787</v>
       </c>
       <c r="G19">
-        <v>789.85719436719785</v>
+        <v>789.85719436719774</v>
       </c>
       <c r="H19">
         <v>574.83908479670686</v>
       </c>
       <c r="I19">
-        <v>457.04208218512224</v>
+        <v>457.04208218512218</v>
       </c>
       <c r="J19">
         <v>390.94201740089238</v>
       </c>
       <c r="K19">
-        <v>342.84586131275631</v>
+        <v>342.84586131275626</v>
       </c>
       <c r="L19">
         <v>312.23921652939697</v>
       </c>
       <c r="M19">
-        <v>924.71086169818284</v>
+        <v>924.71086169818273</v>
       </c>
       <c r="N19">
         <v>672.98234317663241</v>
       </c>
       <c r="O19">
-        <v>535.07365719233826</v>
+        <v>535.07365719233815</v>
       </c>
       <c r="P19">
         <v>457.68821549372768</v>
       </c>
       <c r="Q19">
-        <v>401.38052056127572</v>
+        <v>401.38052056127566</v>
       </c>
       <c r="R19">
         <v>365.54835105880625</v>
@@ -3778,7 +3776,7 @@
         <v>42.556668199999997</v>
       </c>
       <c r="F20">
-        <v>310.88925186008231</v>
+        <v>37.882647692610171</v>
       </c>
       <c r="G20">
         <v>786.44225079267937</v>
@@ -3846,28 +3844,28 @@
         <v>42.753029920000003</v>
       </c>
       <c r="F21">
-        <v>309.69916405545155</v>
+        <v>37.737632460477315</v>
       </c>
       <c r="G21">
-        <v>783.43174037421068</v>
+        <v>783.43174037421056</v>
       </c>
       <c r="H21">
         <v>570.16279379236755</v>
       </c>
       <c r="I21">
-        <v>453.32406468413296</v>
+        <v>453.32406468413291</v>
       </c>
       <c r="J21">
         <v>387.76172105789652</v>
       </c>
       <c r="K21">
-        <v>340.05682511195795</v>
+        <v>340.05682511195789</v>
       </c>
       <c r="L21">
         <v>309.69916405545155</v>
       </c>
       <c r="M21">
-        <v>917.18837897468575</v>
+        <v>917.18837897468552</v>
       </c>
       <c r="N21">
         <v>667.50766102521084</v>
@@ -3879,7 +3877,7 @@
         <v>453.96494172631787</v>
       </c>
       <c r="Q21">
-        <v>398.11530744814593</v>
+        <v>398.11530744814581</v>
       </c>
       <c r="R21">
         <v>362.57463108930915</v>
@@ -3917,46 +3915,46 @@
         <v>42.942414319999997</v>
       </c>
       <c r="F22">
-        <v>308.47878915155093</v>
+        <v>37.588926668106666</v>
       </c>
       <c r="G22">
-        <v>780.34461407282788</v>
+        <v>780.34461407282765</v>
       </c>
       <c r="H22">
-        <v>567.91605745775644</v>
+        <v>567.91605745775632</v>
       </c>
       <c r="I22">
-        <v>451.53773337916476</v>
+        <v>451.53773337916465</v>
       </c>
       <c r="J22">
-        <v>386.23373930012968</v>
+        <v>386.23373930012963</v>
       </c>
       <c r="K22">
-        <v>338.71682532044264</v>
+        <v>338.71682532044258</v>
       </c>
       <c r="L22">
-        <v>308.47878915155093</v>
+        <v>308.47878915155087</v>
       </c>
       <c r="M22">
-        <v>913.57418232916439</v>
+        <v>913.57418232916416</v>
       </c>
       <c r="N22">
-        <v>664.87733556030025</v>
+        <v>664.87733556030014</v>
       </c>
       <c r="O22">
-        <v>528.62954151707095</v>
+        <v>528.62954151707083</v>
       </c>
       <c r="P22">
-        <v>452.17608503429818</v>
+        <v>452.17608503429813</v>
       </c>
       <c r="Q22">
-        <v>396.54652720442067</v>
+        <v>396.54652720442061</v>
       </c>
       <c r="R22">
-        <v>361.14589949449868</v>
+        <v>361.14589949449862</v>
       </c>
       <c r="S22">
-        <v>17.626479049092584</v>
+        <v>17.62647904909258</v>
       </c>
       <c r="T22">
         <v>24.219649735912</v>
@@ -3989,7 +3987,7 @@
         <v>43.109870000000001</v>
       </c>
       <c r="F23">
-        <v>307.12236164219399</v>
+        <v>37.423642519008268</v>
       </c>
       <c r="G23">
         <v>776.9133217489109</v>
@@ -4028,7 +4026,7 @@
         <v>359.55788680061738</v>
       </c>
       <c r="S23">
-        <v>17.773366374501688</v>
+        <v>17.773366374501684</v>
       </c>
       <c r="T23">
         <v>24.421480150377931</v>
@@ -4057,40 +4055,40 @@
         <v>43.537480039999998</v>
       </c>
       <c r="F24">
-        <v>307.62636477485006</v>
+        <v>37.485056585259017</v>
       </c>
       <c r="G24">
-        <v>778.18827530771387</v>
+        <v>778.18827530771375</v>
       </c>
       <c r="H24">
         <v>566.34672592404434</v>
       </c>
       <c r="I24">
-        <v>450.28999193155562</v>
+        <v>450.28999193155556</v>
       </c>
       <c r="J24">
         <v>385.16645342485344</v>
       </c>
       <c r="K24">
-        <v>337.78084369429587</v>
+        <v>337.78084369429581</v>
       </c>
       <c r="L24">
         <v>307.62636477485006</v>
       </c>
       <c r="M24">
-        <v>911.04968816512849</v>
+        <v>911.04968816512837</v>
       </c>
       <c r="N24">
         <v>663.04006937449094</v>
       </c>
       <c r="O24">
-        <v>527.16877104182129</v>
+        <v>527.16877104182117</v>
       </c>
       <c r="P24">
         <v>450.92657961934066</v>
       </c>
       <c r="Q24">
-        <v>395.45074383722442</v>
+        <v>395.45074383722437</v>
       </c>
       <c r="R24">
         <v>360.14793924860498</v>
@@ -4125,19 +4123,19 @@
         <v>44.170422639999998</v>
       </c>
       <c r="F25">
-        <v>309.56121253654294</v>
+        <v>37.72082271630569</v>
       </c>
       <c r="G25">
-        <v>783.08277075759759</v>
+        <v>783.08277075759747</v>
       </c>
       <c r="H25">
-        <v>569.90882209157621</v>
+        <v>569.9088220915761</v>
       </c>
       <c r="I25">
-        <v>453.12213729607646</v>
+        <v>453.1221372960764</v>
       </c>
       <c r="J25">
-        <v>387.58899757458425</v>
+        <v>387.5889975745842</v>
       </c>
       <c r="K25">
         <v>339.90535116244786</v>
@@ -4146,16 +4144,16 @@
         <v>309.56121253654294</v>
       </c>
       <c r="M25">
-        <v>916.77982917962652</v>
+        <v>916.7798291796264</v>
       </c>
       <c r="N25">
-        <v>667.21032830233321</v>
+        <v>667.21032830233298</v>
       </c>
       <c r="O25">
-        <v>530.48445341979686</v>
+        <v>530.48445341979675</v>
       </c>
       <c r="P25">
-        <v>453.762728867806</v>
+        <v>453.76272886780589</v>
       </c>
       <c r="Q25">
         <v>397.93797209262192</v>
@@ -4193,46 +4191,46 @@
         <v>44.817319879999999</v>
       </c>
       <c r="F26">
-        <v>311.56186319758979</v>
+        <v>37.964607098348381</v>
       </c>
       <c r="G26">
-        <v>788.14372477742859</v>
+        <v>788.14372477742847</v>
       </c>
       <c r="H26">
         <v>573.59206280610636</v>
       </c>
       <c r="I26">
-        <v>456.0506020610519</v>
+        <v>456.05060206105185</v>
       </c>
       <c r="J26">
-        <v>390.09393085694933</v>
+        <v>390.09393085694927</v>
       </c>
       <c r="K26">
-        <v>342.10211173178516</v>
+        <v>342.1021117317851</v>
       </c>
       <c r="L26">
         <v>311.56186319758979</v>
       </c>
       <c r="M26">
-        <v>922.70484851991648</v>
+        <v>922.70484851991625</v>
       </c>
       <c r="N26">
         <v>671.52241499251477</v>
       </c>
       <c r="O26">
-        <v>533.91289997391448</v>
+        <v>533.91289997391436</v>
       </c>
       <c r="P26">
-        <v>456.6953336861846</v>
+        <v>456.69533368618454</v>
       </c>
       <c r="Q26">
-        <v>400.509789344529</v>
+        <v>400.50978934452894</v>
       </c>
       <c r="R26">
         <v>364.75535203620268</v>
       </c>
       <c r="S26">
-        <v>18.214028350729002</v>
+        <v>18.214028350728999</v>
       </c>
       <c r="T26">
         <v>25.026971393775732</v>
@@ -4261,40 +4259,40 @@
         <v>45.697458959999999</v>
       </c>
       <c r="F27">
-        <v>315.13898669384713</v>
+        <v>38.400488713267201</v>
       </c>
       <c r="G27">
-        <v>797.19260966787863</v>
+        <v>797.19260966787851</v>
       </c>
       <c r="H27">
         <v>580.17762377326881</v>
       </c>
       <c r="I27">
-        <v>461.28663867789652</v>
+        <v>461.28663867789646</v>
       </c>
       <c r="J27">
-        <v>394.57270162656317</v>
+        <v>394.57270162656312</v>
       </c>
       <c r="K27">
-        <v>346.02987583434776</v>
+        <v>346.02987583434782</v>
       </c>
       <c r="L27">
         <v>315.13898669384713</v>
       </c>
       <c r="M27">
-        <v>933.29866497702869</v>
+        <v>933.29866497702858</v>
       </c>
       <c r="N27">
         <v>679.23234002724155</v>
       </c>
       <c r="O27">
-        <v>540.04289406192765</v>
+        <v>540.04289406192754</v>
       </c>
       <c r="P27">
-        <v>461.93877263597642</v>
+        <v>461.93877263597636</v>
       </c>
       <c r="Q27">
-        <v>405.10814731826082</v>
+        <v>405.10814731826088</v>
       </c>
       <c r="R27">
         <v>368.94320393426005</v>
@@ -4329,46 +4327,46 @@
         <v>46.606504080000001</v>
       </c>
       <c r="F28">
-        <v>318.85709031389126</v>
+        <v>38.853549115580954</v>
       </c>
       <c r="G28">
-        <v>806.59812549749608</v>
+        <v>806.59812549749597</v>
       </c>
       <c r="H28">
-        <v>587.02273216766628</v>
+        <v>587.02273216766639</v>
       </c>
       <c r="I28">
-        <v>466.72903582189849</v>
+        <v>466.72903582189844</v>
       </c>
       <c r="J28">
         <v>399.22798787241743</v>
       </c>
       <c r="K28">
-        <v>350.11243936442918</v>
+        <v>350.11243936442924</v>
       </c>
       <c r="L28">
         <v>318.85709031389126</v>
       </c>
       <c r="M28">
-        <v>944.31000058243444</v>
+        <v>944.31000058243433</v>
       </c>
       <c r="N28">
-        <v>687.24612546458491</v>
+        <v>687.24612546458502</v>
       </c>
       <c r="O28">
-        <v>546.41448096222268</v>
+        <v>546.41448096222257</v>
       </c>
       <c r="P28">
         <v>467.38886385063506</v>
       </c>
       <c r="Q28">
-        <v>409.88773389006343</v>
+        <v>409.88773389006349</v>
       </c>
       <c r="R28">
         <v>373.29610573333611</v>
       </c>
       <c r="S28">
-        <v>18.507803001547209</v>
+        <v>18.507803001547213</v>
       </c>
       <c r="T28">
         <v>25.430632222707601</v>
@@ -4397,31 +4395,31 @@
         <v>47.773710040000005</v>
       </c>
       <c r="F29">
-        <v>324.2689341785071</v>
+        <v>39.512996083477169</v>
       </c>
       <c r="G29">
-        <v>820.28821817314281</v>
+        <v>820.2882181731427</v>
       </c>
       <c r="H29">
-        <v>596.98605262682327</v>
+        <v>596.98605262682315</v>
       </c>
       <c r="I29">
-        <v>474.65065571269116</v>
+        <v>474.6506557126911</v>
       </c>
       <c r="J29">
         <v>406.00393735694462</v>
       </c>
       <c r="K29">
-        <v>356.05476874789952</v>
+        <v>356.05476874789946</v>
       </c>
       <c r="L29">
         <v>324.2689341785071</v>
       </c>
       <c r="M29">
-        <v>960.33742615392327</v>
+        <v>960.33742615392316</v>
       </c>
       <c r="N29">
-        <v>698.91050063628097</v>
+        <v>698.91050063628074</v>
       </c>
       <c r="O29">
         <v>555.68857254168722</v>
@@ -4430,7 +4428,7 @@
         <v>475.32168275934981</v>
       </c>
       <c r="Q29">
-        <v>416.84460731461411</v>
+        <v>416.844607314614</v>
       </c>
       <c r="R29">
         <v>379.63192294069125</v>
@@ -4465,10 +4463,10 @@
         <v>48.907026160000001</v>
       </c>
       <c r="F30">
-        <v>329.36798434910452</v>
+        <v>40.134328342549999</v>
       </c>
       <c r="G30">
-        <v>833.18705101820433</v>
+        <v>833.18705101820422</v>
       </c>
       <c r="H30">
         <v>606.37351319625088</v>
@@ -4486,7 +4484,7 @@
         <v>329.36798434910452</v>
       </c>
       <c r="M30">
-        <v>975.43849875301976</v>
+        <v>975.43849875301964</v>
       </c>
       <c r="N30">
         <v>709.9006983760986</v>
@@ -4504,7 +4502,7 @@
         <v>385.60154265261019</v>
       </c>
       <c r="S30">
-        <v>18.801577652365424</v>
+        <v>18.80157765236542</v>
       </c>
       <c r="T30">
         <v>25.834293051639467</v>
@@ -4533,19 +4531,19 @@
         <v>49.773210599999999</v>
       </c>
       <c r="F31">
-        <v>332.60290730133221</v>
+        <v>40.528511949023255</v>
       </c>
       <c r="G31">
-        <v>841.37028692124488</v>
+        <v>841.37028692124477</v>
       </c>
       <c r="H31">
         <v>612.32907563301274</v>
       </c>
       <c r="I31">
-        <v>486.84956035788082</v>
+        <v>486.84956035788076</v>
       </c>
       <c r="J31">
-        <v>416.43856597860378</v>
+        <v>416.43856597860372</v>
       </c>
       <c r="K31">
         <v>365.20566345360447</v>
@@ -4554,16 +4552,16 @@
         <v>332.60290730133221</v>
       </c>
       <c r="M31">
-        <v>985.01887249316474</v>
+        <v>985.01887249316462</v>
       </c>
       <c r="N31">
         <v>716.8730641557222</v>
       </c>
       <c r="O31">
-        <v>569.97021700434834</v>
+        <v>569.97021700434823</v>
       </c>
       <c r="P31">
-        <v>487.53783334080447</v>
+        <v>487.53783334080435</v>
       </c>
       <c r="Q31">
         <v>427.55784989690284</v>
@@ -4572,7 +4570,7 @@
         <v>389.38876952351092</v>
       </c>
       <c r="S31">
-        <v>18.948464977774524</v>
+        <v>18.948464977774528</v>
       </c>
       <c r="T31">
         <v>26.036123466105401</v>
@@ -4601,10 +4599,10 @@
         <v>50.440043039999999</v>
       </c>
       <c r="F32">
-        <v>334.4661660495388</v>
+        <v>40.755554776320004</v>
       </c>
       <c r="G32">
-        <v>846.08368693421232</v>
+        <v>846.08368693421221</v>
       </c>
       <c r="H32">
         <v>615.75937489350838</v>
@@ -4613,16 +4611,16 @@
         <v>489.57691686163952</v>
       </c>
       <c r="J32">
-        <v>418.77147643764334</v>
+        <v>418.77147643764329</v>
       </c>
       <c r="K32">
-        <v>367.25156453380168</v>
+        <v>367.25156453380163</v>
       </c>
       <c r="L32">
         <v>334.4661660495388</v>
       </c>
       <c r="M32">
-        <v>990.53699933761447</v>
+        <v>990.53699933761436</v>
       </c>
       <c r="N32">
         <v>720.88902426557081</v>
@@ -4631,10 +4629,10 @@
         <v>573.16321974045604</v>
       </c>
       <c r="P32">
-        <v>490.26904558553372</v>
+        <v>490.2690455855336</v>
       </c>
       <c r="Q32">
-        <v>429.95305116152394</v>
+        <v>429.95305116152389</v>
       </c>
       <c r="R32">
         <v>391.57014561897228</v>
@@ -4669,7 +4667,7 @@
         <v>51.128804199999998</v>
       </c>
       <c r="F33">
-        <v>336.44527668760486</v>
+        <v>40.996714451664126</v>
       </c>
       <c r="G33">
         <v>851.09015214796921</v>
@@ -4681,10 +4679,10 @@
         <v>492.4738522849043</v>
       </c>
       <c r="J33">
-        <v>421.24944033373919</v>
+        <v>421.24944033373924</v>
       </c>
       <c r="K33">
-        <v>369.42467366110151</v>
+        <v>369.42467366110156</v>
       </c>
       <c r="L33">
         <v>336.44527668760486</v>
@@ -4699,10 +4697,10 @@
         <v>576.55475389452215</v>
       </c>
       <c r="P33">
-        <v>493.17007648828002</v>
+        <v>493.17007648828013</v>
       </c>
       <c r="Q33">
-        <v>432.49717892031396</v>
+        <v>432.49717892031407</v>
       </c>
       <c r="R33">
         <v>393.88715319524471</v>
@@ -4737,7 +4735,7 @@
         <v>51.679015720000002</v>
       </c>
       <c r="F34">
-        <v>337.48960293774786</v>
+        <v>41.123968266884852</v>
       </c>
       <c r="G34">
         <v>853.73193626179886</v>
@@ -4749,13 +4747,13 @@
         <v>494.00249128531954</v>
       </c>
       <c r="J34">
-        <v>422.55699873589515</v>
+        <v>422.55699873589521</v>
       </c>
       <c r="K34">
         <v>370.57136797036071</v>
       </c>
       <c r="L34">
-        <v>337.48960293774786</v>
+        <v>337.48960293774792</v>
       </c>
       <c r="M34">
         <v>999.49104733088654</v>
@@ -4767,13 +4765,13 @@
         <v>578.34438004134972</v>
       </c>
       <c r="P34">
-        <v>494.70087656885289</v>
+        <v>494.70087656885295</v>
       </c>
       <c r="Q34">
         <v>433.83965030676376</v>
       </c>
       <c r="R34">
-        <v>395.10977904907071</v>
+        <v>395.10977904907077</v>
       </c>
       <c r="S34">
         <v>19.389126954001842</v>
@@ -4805,7 +4803,7 @@
         <v>51.868400119999997</v>
       </c>
       <c r="F35">
-        <v>336.17956213060222</v>
+        <v>40.964336455675188</v>
       </c>
       <c r="G35">
         <v>850.41798624635862</v>
@@ -4814,7 +4812,7 @@
         <v>618.91377377421406</v>
       </c>
       <c r="I35">
-        <v>492.08491096052728</v>
+        <v>492.08491096052722</v>
       </c>
       <c r="J35">
         <v>420.91674994935369</v>
@@ -4873,28 +4871,28 @@
         <v>52.044826639999997</v>
       </c>
       <c r="F36">
-        <v>334.80571579415886</v>
+        <v>40.796929778101493</v>
       </c>
       <c r="G36">
-        <v>846.94263031619596</v>
+        <v>846.94263031619585</v>
       </c>
       <c r="H36">
         <v>616.38449324542421</v>
       </c>
       <c r="I36">
-        <v>490.07393489803974</v>
+        <v>490.07393489803968</v>
       </c>
       <c r="J36">
-        <v>419.1966128559485</v>
+        <v>419.19661285594844</v>
       </c>
       <c r="K36">
-        <v>367.62439798485485</v>
+        <v>367.6243979848548</v>
       </c>
       <c r="L36">
         <v>334.80571579415886</v>
       </c>
       <c r="M36">
-        <v>991.54259158969285</v>
+        <v>991.54259158969273</v>
       </c>
       <c r="N36">
         <v>721.62087014098449</v>
@@ -4903,10 +4901,10 @@
         <v>573.7450945147782</v>
       </c>
       <c r="P36">
-        <v>490.76676627037875</v>
+        <v>490.7667662703787</v>
       </c>
       <c r="Q36">
-        <v>430.38953910422032</v>
+        <v>430.38953910422026</v>
       </c>
       <c r="R36">
         <v>391.96766727121036</v>
@@ -4941,40 +4939,40 @@
         <v>52.17739572</v>
       </c>
       <c r="F37">
-        <v>333.17217658761814</v>
+        <v>40.597878862435557</v>
       </c>
       <c r="G37">
-        <v>842.81034126900772</v>
+        <v>842.81034126900761</v>
       </c>
       <c r="H37">
         <v>613.37711258099387</v>
       </c>
       <c r="I37">
-        <v>487.68283179258435</v>
+        <v>487.6828317925843</v>
       </c>
       <c r="J37">
         <v>417.15132488729785</v>
       </c>
       <c r="K37">
-        <v>365.83073425971583</v>
+        <v>365.83073425971577</v>
       </c>
       <c r="L37">
         <v>333.17217658761814</v>
       </c>
       <c r="M37">
-        <v>986.70478977835057</v>
+        <v>986.70478977835046</v>
       </c>
       <c r="N37">
         <v>718.1000342411636</v>
       </c>
       <c r="O37">
-        <v>570.94575429375732</v>
+        <v>570.9457542937572</v>
       </c>
       <c r="P37">
         <v>488.37228279488528</v>
       </c>
       <c r="Q37">
-        <v>428.2896401089356</v>
+        <v>428.28964010893554</v>
       </c>
       <c r="R37">
         <v>390.05523112696761</v>
@@ -5009,43 +5007,43 @@
         <v>52.269097639999998</v>
       </c>
       <c r="F38">
-        <v>331.30362668832987</v>
+        <v>40.370191294894113</v>
       </c>
       <c r="G38">
-        <v>838.08355647435019</v>
+        <v>838.08355647434996</v>
       </c>
       <c r="H38">
-        <v>609.9370721980373</v>
+        <v>609.93707219803719</v>
       </c>
       <c r="I38">
-        <v>484.94773033374156</v>
+        <v>484.94773033374139</v>
       </c>
       <c r="J38">
-        <v>414.81178959329611</v>
+        <v>414.811789593296</v>
       </c>
       <c r="K38">
-        <v>363.7790233735945</v>
+        <v>363.77902337359444</v>
       </c>
       <c r="L38">
-        <v>331.30362668832987</v>
+        <v>331.30362668832981</v>
       </c>
       <c r="M38">
-        <v>981.17099294558079</v>
+        <v>981.17099294558045</v>
       </c>
       <c r="N38">
-        <v>714.07266989038521</v>
+        <v>714.07266989038499</v>
       </c>
       <c r="O38">
-        <v>567.74368429316087</v>
+        <v>567.74368429316064</v>
       </c>
       <c r="P38">
-        <v>485.63331464581012</v>
+        <v>485.63331464580995</v>
       </c>
       <c r="Q38">
-        <v>425.88763712030578</v>
+        <v>425.88763712030573</v>
       </c>
       <c r="R38">
-        <v>387.8676605131667</v>
+        <v>387.86766051316664</v>
       </c>
       <c r="S38">
         <v>19.97667625563826</v>
@@ -5077,40 +5075,40 @@
         <v>52.523271440000002</v>
       </c>
       <c r="F39">
-        <v>330.48465341533711</v>
+        <v>40.270397314289049</v>
       </c>
       <c r="G39">
-        <v>836.01183742874821</v>
+        <v>836.01183742874809</v>
       </c>
       <c r="H39">
         <v>608.4293248626675</v>
       </c>
       <c r="I39">
-        <v>483.74895314584353</v>
+        <v>483.74895314584342</v>
       </c>
       <c r="J39">
-        <v>413.78638648378291</v>
+        <v>413.78638648378285</v>
       </c>
       <c r="K39">
-        <v>362.87977183084382</v>
+        <v>362.87977183084377</v>
       </c>
       <c r="L39">
         <v>330.48465341533711</v>
       </c>
       <c r="M39">
-        <v>978.7455657702418</v>
+        <v>978.74556577024168</v>
       </c>
       <c r="N39">
         <v>712.3075022782449</v>
       </c>
       <c r="O39">
-        <v>566.34023782928023</v>
+        <v>566.34023782928011</v>
       </c>
       <c r="P39">
-        <v>484.43284271272148</v>
+        <v>484.43284271272142</v>
       </c>
       <c r="Q39">
-        <v>424.83485482635376</v>
+        <v>424.83485482635371</v>
       </c>
       <c r="R39">
         <v>386.90886253502885</v>
@@ -5145,16 +5143,16 @@
         <v>52.663814600000002</v>
       </c>
       <c r="F40">
-        <v>328.96774855679047</v>
+        <v>40.085558591188409</v>
       </c>
       <c r="G40">
-        <v>832.17459293072784</v>
+        <v>832.17459293072773</v>
       </c>
       <c r="H40">
         <v>605.63667053082918</v>
       </c>
       <c r="I40">
-        <v>481.52857428782261</v>
+        <v>481.52857428782255</v>
       </c>
       <c r="J40">
         <v>411.88713163617916</v>
@@ -5166,7 +5164,7 @@
         <v>328.96774855679047</v>
       </c>
       <c r="M40">
-        <v>974.25318196768137</v>
+        <v>974.25318196768126</v>
       </c>
       <c r="N40">
         <v>709.03805330438536</v>
@@ -5213,43 +5211,43 @@
         <v>52.911011079999994</v>
       </c>
       <c r="F41">
-        <v>328.13409324894786</v>
+        <v>39.983975567217264</v>
       </c>
       <c r="G41">
         <v>830.06573341640774</v>
       </c>
       <c r="H41">
-        <v>604.10189325485862</v>
+        <v>604.10189325485874</v>
       </c>
       <c r="I41">
-        <v>480.30830618070871</v>
+        <v>480.30830618070866</v>
       </c>
       <c r="J41">
-        <v>410.84334574827079</v>
+        <v>410.84334574827085</v>
       </c>
       <c r="K41">
         <v>360.29880255424013</v>
       </c>
       <c r="L41">
-        <v>328.13409324894786</v>
+        <v>328.13409324894792</v>
       </c>
       <c r="M41">
         <v>971.78427326798953</v>
       </c>
       <c r="N41">
-        <v>707.24124088373696</v>
+        <v>707.24124088373708</v>
       </c>
       <c r="O41">
-        <v>562.31216333351267</v>
+        <v>562.31216333351256</v>
       </c>
       <c r="P41">
-        <v>480.98733160773168</v>
+        <v>480.98733160773173</v>
       </c>
       <c r="Q41">
         <v>421.81323225862258</v>
       </c>
       <c r="R41">
-        <v>384.15698721828045</v>
+        <v>384.15698721828051</v>
       </c>
       <c r="S41">
         <v>20.417338231865575</v>
@@ -5284,19 +5282,19 @@
         <v>53.127307999999999</v>
       </c>
       <c r="F42">
-        <v>327.12208867696148</v>
+        <v>39.860660230857142</v>
       </c>
       <c r="G42">
-        <v>827.50571196618512</v>
+        <v>827.505711966185</v>
       </c>
       <c r="H42">
-        <v>602.23877116392828</v>
+        <v>602.23877116392816</v>
       </c>
       <c r="I42">
-        <v>478.82697823637608</v>
+        <v>478.82697823637596</v>
       </c>
       <c r="J42">
-        <v>409.57625600410336</v>
+        <v>409.5762560041033</v>
       </c>
       <c r="K42">
         <v>359.18759819307218</v>
@@ -5305,16 +5303,16 @@
         <v>327.12208867696148</v>
       </c>
       <c r="M42">
-        <v>968.78717498480216</v>
+        <v>968.78717498480205</v>
       </c>
       <c r="N42">
-        <v>705.06002477728191</v>
+        <v>705.0600247772818</v>
       </c>
       <c r="O42">
-        <v>560.57792574014763</v>
+        <v>560.57792574014752</v>
       </c>
       <c r="P42">
-        <v>479.50390946821858</v>
+        <v>479.50390946821852</v>
       </c>
       <c r="Q42">
         <v>420.51231007969426</v>
@@ -5323,7 +5321,7 @@
         <v>382.97220137790612</v>
       </c>
       <c r="S42">
-        <v>20.564225557274682</v>
+        <v>20.564225557274678</v>
       </c>
       <c r="T42">
         <v>28.256258025230668</v>
@@ -5353,16 +5351,16 @@
         <v>53.312705359999995</v>
       </c>
       <c r="F43">
-        <v>325.9355295060256</v>
+        <v>39.716074971733327</v>
       </c>
       <c r="G43">
-        <v>824.50412777018505</v>
+        <v>824.50412777018494</v>
       </c>
       <c r="H43">
         <v>600.05429031793017</v>
       </c>
       <c r="I43">
-        <v>477.090144919446</v>
+        <v>477.09014491944595</v>
       </c>
       <c r="J43">
         <v>408.09061354955429</v>
@@ -5374,13 +5372,13 @@
         <v>325.9355295060256</v>
       </c>
       <c r="M43">
-        <v>965.27312519436305</v>
+        <v>965.27312519436293</v>
       </c>
       <c r="N43">
         <v>702.50258378684509</v>
       </c>
       <c r="O43">
-        <v>558.54455990569295</v>
+        <v>558.54455990569284</v>
       </c>
       <c r="P43">
         <v>477.76462074094161</v>
@@ -5421,40 +5419,40 @@
         <v>53.482154559999998</v>
       </c>
       <c r="F44">
-        <v>324.66886750616311</v>
+        <v>39.561728978749294</v>
       </c>
       <c r="G44">
-        <v>821.29991112967627</v>
+        <v>821.29991112967616</v>
       </c>
       <c r="H44">
         <v>597.72233844833158</v>
       </c>
       <c r="I44">
-        <v>475.23606059180548</v>
+        <v>475.23606059180543</v>
       </c>
       <c r="J44">
-        <v>406.50467760244481</v>
+        <v>406.50467760244476</v>
       </c>
       <c r="K44">
-        <v>356.49390476582823</v>
+        <v>356.49390476582818</v>
       </c>
       <c r="L44">
         <v>324.66886750616311</v>
       </c>
       <c r="M44">
-        <v>961.52184717620639</v>
+        <v>961.52184717620628</v>
       </c>
       <c r="N44">
         <v>699.77249379316868</v>
       </c>
       <c r="O44">
-        <v>556.37392459528451</v>
+        <v>556.37392459528439</v>
       </c>
       <c r="P44">
-        <v>475.90791524188666</v>
+        <v>475.90791524188654</v>
       </c>
       <c r="Q44">
-        <v>417.35871777462819</v>
+        <v>417.35871777462813</v>
       </c>
       <c r="R44">
         <v>380.10013756819097</v>
@@ -5489,16 +5487,16 @@
         <v>53.639642639999998</v>
       </c>
       <c r="F45">
-        <v>323.34781763191336</v>
+        <v>39.400755684654541</v>
       </c>
       <c r="G45">
-        <v>817.95811198320098</v>
+        <v>817.95811198320087</v>
       </c>
       <c r="H45">
         <v>595.29025733717162</v>
       </c>
       <c r="I45">
-        <v>473.30236567702639</v>
+        <v>473.30236567702633</v>
       </c>
       <c r="J45">
         <v>404.85064481096236</v>
@@ -5510,7 +5508,7 @@
         <v>323.34781763191336</v>
       </c>
       <c r="M45">
-        <v>957.60949695594263</v>
+        <v>957.60949695594252</v>
       </c>
       <c r="N45">
         <v>696.92517932156682</v>
@@ -5557,46 +5555,46 @@
         <v>53.748289480000004</v>
       </c>
       <c r="F46">
-        <v>321.7527379458374</v>
+        <v>39.206391159577777</v>
       </c>
       <c r="G46">
-        <v>813.92311221718842</v>
+        <v>813.92311221718819</v>
       </c>
       <c r="H46">
         <v>592.35368147359679</v>
       </c>
       <c r="I46">
-        <v>470.96755793225128</v>
+        <v>470.96755793225117</v>
       </c>
       <c r="J46">
-        <v>402.85351044289365</v>
+        <v>402.85351044289359</v>
       </c>
       <c r="K46">
-        <v>353.29192725024814</v>
+        <v>353.29192725024808</v>
       </c>
       <c r="L46">
         <v>321.7527379458374</v>
       </c>
       <c r="M46">
-        <v>952.88559479085473</v>
+        <v>952.8855947908545</v>
       </c>
       <c r="N46">
         <v>693.48723684713775</v>
       </c>
       <c r="O46">
-        <v>551.37665318897712</v>
+        <v>551.376653188977</v>
       </c>
       <c r="P46">
-        <v>471.63337807948528</v>
+        <v>471.63337807948523</v>
       </c>
       <c r="Q46">
-        <v>413.61006117102221</v>
+        <v>413.61006117102215</v>
       </c>
       <c r="R46">
         <v>376.68613222927308</v>
       </c>
       <c r="S46">
-        <v>21.1517748589111</v>
+        <v>21.151774858911097</v>
       </c>
       <c r="T46">
         <v>29.0635796830944</v>
@@ -5625,16 +5623,16 @@
         <v>53.908767840000003</v>
       </c>
       <c r="F47">
-        <v>320.48779791171251</v>
+        <v>39.052254992507592</v>
       </c>
       <c r="G47">
-        <v>810.72325155425801</v>
+        <v>810.7232515542579</v>
       </c>
       <c r="H47">
         <v>590.02489977980019</v>
       </c>
       <c r="I47">
-        <v>469.11599414259729</v>
+        <v>469.11599414259723</v>
       </c>
       <c r="J47">
         <v>401.26973049901403</v>
@@ -5646,7 +5644,7 @@
         <v>320.48779791171251</v>
       </c>
       <c r="M47">
-        <v>949.13941645376553</v>
+        <v>949.13941645376542</v>
       </c>
       <c r="N47">
         <v>690.76085827879047</v>
@@ -5664,7 +5662,7 @@
         <v>375.20522682346831</v>
       </c>
       <c r="S47">
-        <v>21.2986621843202</v>
+        <v>21.298662184320204</v>
       </c>
       <c r="T47">
         <v>29.265410097560331</v>
@@ -5693,7 +5691,7 @@
         <v>54.21576992</v>
       </c>
       <c r="F48">
-        <v>320.10530348048269</v>
+        <v>39.005647071210959</v>
       </c>
       <c r="G48">
         <v>809.75567297245664</v>
@@ -5702,7 +5700,7 @@
         <v>589.32071934009787</v>
       </c>
       <c r="I48">
-        <v>468.55611555586307</v>
+        <v>468.55611555586302</v>
       </c>
       <c r="J48">
         <v>400.79082478610684</v>
@@ -5750,7 +5748,7 @@
         <v>54.249820876753461</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C49">
         <v>54.947000000000003</v>
       </c>
@@ -5761,46 +5759,46 @@
         <v>54.768971720000003</v>
       </c>
       <c r="F49">
-        <v>321.17175746507644</v>
+        <v>39.135597207270749</v>
       </c>
       <c r="G49">
-        <v>812.45343259905258</v>
+        <v>812.45343259905246</v>
       </c>
       <c r="H49">
         <v>591.28408396577083</v>
       </c>
       <c r="I49">
-        <v>470.11714416428407</v>
+        <v>470.11714416428396</v>
       </c>
       <c r="J49">
-        <v>402.12608842414846</v>
+        <v>402.12608842414841</v>
       </c>
       <c r="K49">
-        <v>352.65399728249332</v>
+        <v>352.65399728249326</v>
       </c>
       <c r="L49">
         <v>321.17175746507644</v>
       </c>
       <c r="M49">
-        <v>951.16499426230553</v>
+        <v>951.16499426230541</v>
       </c>
       <c r="N49">
         <v>692.23502513065853</v>
       </c>
       <c r="O49">
-        <v>550.38104682647895</v>
+        <v>550.38104682647884</v>
       </c>
       <c r="P49">
-        <v>470.78176205753971</v>
+        <v>470.78176205753959</v>
       </c>
       <c r="Q49">
-        <v>412.8632163307239</v>
+        <v>412.86321633072384</v>
       </c>
       <c r="R49">
         <v>376.00595995911391</v>
       </c>
       <c r="S49">
-        <v>21.592436835138415</v>
+        <v>21.592436835138411</v>
       </c>
       <c r="T49">
         <v>29.6690709264922</v>
@@ -5817,10 +5815,8 @@
       <c r="X49">
         <v>54.62139499234766</v>
       </c>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C50">
         <v>55.5</v>
       </c>
@@ -5831,19 +5827,19 @@
         <v>55.320180000000001</v>
       </c>
       <c r="F50">
-        <v>322.21218865929603</v>
+        <v>39.262376400000001</v>
       </c>
       <c r="G50">
-        <v>815.08536356894422</v>
+        <v>815.08536356894399</v>
       </c>
       <c r="H50">
-        <v>593.19954007704007</v>
+        <v>593.19954007703996</v>
       </c>
       <c r="I50">
-        <v>471.64008175252803</v>
+        <v>471.64008175252798</v>
       </c>
       <c r="J50">
-        <v>403.4287699852801</v>
+        <v>403.42876998527998</v>
       </c>
       <c r="K50">
         <v>353.79641473051203</v>
@@ -5852,16 +5848,16 @@
         <v>322.21218865929603</v>
       </c>
       <c r="M50">
-        <v>954.24627930022746</v>
+        <v>954.24627930022712</v>
       </c>
       <c r="N50">
-        <v>694.47751033409577</v>
+        <v>694.47751033409554</v>
       </c>
       <c r="O50">
-        <v>552.16399814930116</v>
+        <v>552.16399814930105</v>
       </c>
       <c r="P50">
-        <v>472.30685266569378</v>
+        <v>472.30685266569367</v>
       </c>
       <c r="Q50">
         <v>414.20068066011169</v>
@@ -5870,7 +5866,7 @@
         <v>377.22402574746854</v>
       </c>
       <c r="S50">
-        <v>21.739324160547518</v>
+        <v>21.739324160547515</v>
       </c>
       <c r="T50">
         <v>29.870901340958131</v>
@@ -5888,7 +5884,7 @@
         <v>54.99296910794186</v>
       </c>
     </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C51">
         <v>55.982999999999997</v>
       </c>
@@ -5899,10 +5895,10 @@
         <v>55.801615079999998</v>
       </c>
       <c r="F51">
-        <v>322.83498805750992</v>
+        <v>39.338266093981204</v>
       </c>
       <c r="G51">
-        <v>816.66083058040613</v>
+        <v>816.66083058040601</v>
       </c>
       <c r="H51">
         <v>594.34612710752435</v>
@@ -5920,7 +5916,7 @@
         <v>322.83498805750992</v>
       </c>
       <c r="M51">
-        <v>956.09072848437791</v>
+        <v>956.09072848437779</v>
       </c>
       <c r="N51">
         <v>695.81985612588221</v>
@@ -5956,7 +5952,7 @@
         <v>55.364543223536067</v>
       </c>
     </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C52">
         <v>56.438000000000002</v>
       </c>
@@ -5967,7 +5963,7 @@
         <v>56.255140879999999</v>
       </c>
       <c r="F52">
-        <v>323.28909339650397</v>
+        <v>39.393599986901336</v>
       </c>
       <c r="G52">
         <v>817.80955998407228</v>
@@ -5976,10 +5972,10 @@
         <v>595.18214476209744</v>
       </c>
       <c r="I52">
-        <v>473.21640771465201</v>
+        <v>473.21640771465195</v>
       </c>
       <c r="J52">
-        <v>404.77711858540863</v>
+        <v>404.77711858540857</v>
       </c>
       <c r="K52">
         <v>354.97888096996689</v>
@@ -5997,7 +5993,7 @@
         <v>554.00945293422672</v>
       </c>
       <c r="P52">
-        <v>473.88540712438083</v>
+        <v>473.88540712438078</v>
       </c>
       <c r="Q52">
         <v>415.58503137947343</v>
@@ -6006,7 +6002,7 @@
         <v>378.48479226907784</v>
       </c>
       <c r="S52">
-        <v>22.033098811365726</v>
+        <v>22.033098811365729</v>
       </c>
       <c r="T52">
         <v>30.27456216989</v>
@@ -6024,7 +6020,7 @@
         <v>55.736117339130274</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C53">
         <v>56.628</v>
       </c>
@@ -6035,16 +6031,16 @@
         <v>56.444525280000001</v>
       </c>
       <c r="F53">
-        <v>322.22925950372831</v>
+        <v>39.264456525901991</v>
       </c>
       <c r="G53">
-        <v>815.12854689946437</v>
+        <v>815.12854689946425</v>
       </c>
       <c r="H53">
         <v>593.23096786724284</v>
       </c>
       <c r="I53">
-        <v>471.66506930652821</v>
+        <v>471.66506930652815</v>
       </c>
       <c r="J53">
         <v>403.45014369494811</v>
@@ -6056,13 +6052,13 @@
         <v>322.22925950372831</v>
       </c>
       <c r="M53">
-        <v>954.29683539449491</v>
+        <v>954.29683539449479</v>
       </c>
       <c r="N53">
         <v>694.51430384457706</v>
       </c>
       <c r="O53">
-        <v>552.19325187105744</v>
+        <v>552.19325187105733</v>
       </c>
       <c r="P53">
         <v>472.33187554530514</v>
@@ -6092,7 +6088,7 @@
         <v>56.107691454724474</v>
       </c>
     </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C54">
         <v>56.844000000000001</v>
       </c>
@@ -6103,7 +6099,7 @@
         <v>56.659825439999999</v>
       </c>
       <c r="F54">
-        <v>321.33034477454424</v>
+        <v>39.154921475115792</v>
       </c>
       <c r="G54">
         <v>812.85460362654487</v>
@@ -6112,13 +6108,13 @@
         <v>591.57604659893445</v>
       </c>
       <c r="I54">
-        <v>470.34927731825786</v>
+        <v>470.34927731825792</v>
       </c>
       <c r="J54">
         <v>402.32464914110977</v>
       </c>
       <c r="K54">
-        <v>352.82812980598635</v>
+        <v>352.82812980598641</v>
       </c>
       <c r="L54">
         <v>321.33034477454424</v>
@@ -6136,7 +6132,7 @@
         <v>471.01422338471389</v>
       </c>
       <c r="Q54">
-        <v>413.06707879725235</v>
+        <v>413.06707879725241</v>
       </c>
       <c r="R54">
         <v>376.19162315068598</v>
@@ -6160,7 +6156,7 @@
         <v>56.479265570318674</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C55">
         <v>57.097000000000001</v>
       </c>
@@ -6171,16 +6167,16 @@
         <v>56.912005720000003</v>
       </c>
       <c r="F55">
-        <v>320.65096881707751</v>
+        <v>39.072137783194769</v>
       </c>
       <c r="G55">
-        <v>811.13601749361214</v>
+        <v>811.13601749361203</v>
       </c>
       <c r="H55">
         <v>590.32530091117644</v>
       </c>
       <c r="I55">
-        <v>469.35483656338283</v>
+        <v>469.35483656338278</v>
       </c>
       <c r="J55">
         <v>401.47403014988288</v>
@@ -6192,7 +6188,7 @@
         <v>320.65096881707751</v>
       </c>
       <c r="M55">
-        <v>949.6226546266679</v>
+        <v>949.62265462666778</v>
       </c>
       <c r="N55">
         <v>691.11254740820664</v>
@@ -6210,7 +6206,7 @@
         <v>375.39625617609079</v>
       </c>
       <c r="S55">
-        <v>22.47376078759304</v>
+        <v>22.473760787593044</v>
       </c>
       <c r="T55">
         <v>30.880053413287801</v>
@@ -6228,7 +6224,7 @@
         <v>56.850839685912874</v>
       </c>
     </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C56">
         <v>57.517000000000003</v>
       </c>
@@ -6239,19 +6235,19 @@
         <v>57.330644920000005</v>
       </c>
       <c r="F56">
-        <v>320.91218104098238</v>
+        <v>39.103967158420787</v>
       </c>
       <c r="G56">
-        <v>811.79679405012928</v>
+        <v>811.79679405012917</v>
       </c>
       <c r="H56">
         <v>590.80619820971629</v>
       </c>
       <c r="I56">
-        <v>469.7371875698729</v>
+        <v>469.73718756987279</v>
       </c>
       <c r="J56">
-        <v>401.8010833462053</v>
+        <v>401.80108334620525</v>
       </c>
       <c r="K56">
         <v>352.36897638190237</v>
@@ -6260,16 +6256,16 @@
         <v>320.91218104098238</v>
       </c>
       <c r="M56">
-        <v>950.39624669283432</v>
+        <v>950.39624669283421</v>
       </c>
       <c r="N56">
         <v>691.67554912357036</v>
       </c>
       <c r="O56">
-        <v>549.93621959399752</v>
+        <v>549.93621959399741</v>
       </c>
       <c r="P56">
-        <v>470.40126830775256</v>
+        <v>470.4012683077525</v>
       </c>
       <c r="Q56">
         <v>412.52953332515403</v>
@@ -6296,7 +6292,7 @@
         <v>57.222413801507074</v>
       </c>
     </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C57">
         <v>57.962000000000003</v>
       </c>
@@ -6307,43 +6303,43 @@
         <v>57.774203120000003</v>
       </c>
       <c r="F57">
-        <v>321.3086086721741</v>
+        <v>39.152272875643874</v>
       </c>
       <c r="G57">
-        <v>812.79961880745202</v>
+        <v>812.79961880745179</v>
       </c>
       <c r="H57">
-        <v>591.53602996895313</v>
+        <v>591.53602996895302</v>
       </c>
       <c r="I57">
-        <v>470.31746096412962</v>
+        <v>470.31746096412951</v>
       </c>
       <c r="J57">
-        <v>402.29743425181601</v>
+        <v>402.2974342518159</v>
       </c>
       <c r="K57">
-        <v>352.80426306425704</v>
+        <v>352.80426306425699</v>
       </c>
       <c r="L57">
-        <v>321.3086086721741</v>
+        <v>321.30860867217405</v>
       </c>
       <c r="M57">
-        <v>951.57028543311458</v>
+        <v>951.57028543311435</v>
       </c>
       <c r="N57">
-        <v>692.52998630511593</v>
+        <v>692.52998630511581</v>
       </c>
       <c r="O57">
-        <v>550.61556405556644</v>
+        <v>550.61556405556632</v>
       </c>
       <c r="P57">
-        <v>470.9823620509066</v>
+        <v>470.98236205090643</v>
       </c>
       <c r="Q57">
-        <v>413.03913724595947</v>
+        <v>413.03913724595941</v>
       </c>
       <c r="R57">
-        <v>376.16617600644776</v>
+        <v>376.1661760064477</v>
       </c>
       <c r="S57">
         <v>22.767535438411251</v>
@@ -6364,7 +6360,7 @@
         <v>57.593987917101281</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C58">
         <v>58.515000000000001</v>
       </c>
@@ -6375,10 +6371,10 @@
         <v>58.3254114</v>
       </c>
       <c r="F58">
-        <v>322.29480716920864</v>
+        <v>39.272443676000002</v>
       </c>
       <c r="G58">
-        <v>815.29435981601307</v>
+        <v>815.29435981601296</v>
       </c>
       <c r="H58">
         <v>593.35164252321363</v>
@@ -6396,7 +6392,7 @@
         <v>322.29480716920864</v>
       </c>
       <c r="M58">
-        <v>954.49095783338123</v>
+        <v>954.49095783338112</v>
       </c>
       <c r="N58">
         <v>694.65558149059154</v>
@@ -6432,7 +6428,7 @@
         <v>57.96556203269548</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C59">
         <v>59.308</v>
       </c>
@@ -6443,19 +6439,19 @@
         <v>59.11584208</v>
       </c>
       <c r="F59">
-        <v>324.58191906591128</v>
+        <v>39.551134089701911</v>
       </c>
       <c r="G59">
-        <v>821.07996165684813</v>
+        <v>821.07996165684801</v>
       </c>
       <c r="H59">
-        <v>597.56226450767019</v>
+        <v>597.56226450767031</v>
       </c>
       <c r="I59">
         <v>475.10878927522594</v>
       </c>
       <c r="J59">
-        <v>406.39581299850511</v>
+        <v>406.39581299850505</v>
       </c>
       <c r="K59">
         <v>356.39843337303108</v>
@@ -6464,16 +6460,16 @@
         <v>324.58191906591128</v>
       </c>
       <c r="M59">
-        <v>961.26434535435885</v>
+        <v>961.26434535435874</v>
       </c>
       <c r="N59">
-        <v>699.58509015532127</v>
+        <v>699.58509015532138</v>
       </c>
       <c r="O59">
         <v>556.22492402953287</v>
       </c>
       <c r="P59">
-        <v>475.7804639982499</v>
+        <v>475.78046399824984</v>
       </c>
       <c r="Q59">
         <v>417.24694638793886</v>
@@ -6482,7 +6478,7 @@
         <v>379.99834427228637</v>
       </c>
       <c r="S59">
-        <v>23.061310089229458</v>
+        <v>23.061310089229462</v>
       </c>
       <c r="T59">
         <v>31.687375071151536</v>
@@ -6500,7 +6496,7 @@
         <v>58.33713614828968</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C60">
         <v>59.506</v>
       </c>
@@ -6511,16 +6507,16 @@
         <v>59.313200559999999</v>
       </c>
       <c r="F60">
-        <v>323.60436284152013</v>
+        <v>39.432016372293674</v>
       </c>
       <c r="G60">
         <v>818.60708260816182</v>
       </c>
       <c r="H60">
-        <v>595.76256256243607</v>
+        <v>595.76256256243619</v>
       </c>
       <c r="I60">
-        <v>473.67788531250511</v>
+        <v>473.67788531250517</v>
       </c>
       <c r="J60">
         <v>405.17185462859197</v>
@@ -6529,13 +6525,13 @@
         <v>355.32505409204805</v>
       </c>
       <c r="L60">
-        <v>323.60436284152013</v>
+        <v>323.60436284152019</v>
       </c>
       <c r="M60">
         <v>958.36926744370169</v>
       </c>
       <c r="N60">
-        <v>697.47812202431544</v>
+        <v>697.47812202431555</v>
       </c>
       <c r="O60">
         <v>554.54971939024995</v>
@@ -6547,7 +6543,7 @@
         <v>415.9903072297148</v>
       </c>
       <c r="R60">
-        <v>378.85388820470649</v>
+        <v>378.85388820470655</v>
       </c>
       <c r="S60">
         <v>23.208197414638565</v>
@@ -6568,7 +6564,7 @@
         <v>58.70871026388388</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C61">
         <v>59.686999999999998</v>
       </c>
@@ -6579,16 +6575,16 @@
         <v>59.493614119999997</v>
       </c>
       <c r="F61">
-        <v>320.5313150751233</v>
+        <v>39.057557669779996</v>
       </c>
       <c r="G61">
-        <v>810.833334922326</v>
+        <v>810.83333492232589</v>
       </c>
       <c r="H61">
         <v>590.10501580963796</v>
       </c>
       <c r="I61">
-        <v>469.17969265938558</v>
+        <v>469.17969265938552</v>
       </c>
       <c r="J61">
         <v>401.32421656852341</v>
@@ -6600,13 +6596,13 @@
         <v>320.5313150751233</v>
       </c>
       <c r="M61">
-        <v>949.26829454321103</v>
+        <v>949.2682945432108</v>
       </c>
       <c r="N61">
         <v>690.85465265518599</v>
       </c>
       <c r="O61">
-        <v>549.2835426256222</v>
+        <v>549.28354262562209</v>
       </c>
       <c r="P61">
         <v>469.84298525095426</v>
@@ -6636,7 +6632,7 @@
         <v>59.451858495072287</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C62">
         <v>60.142000000000003</v>
       </c>
@@ -6648,19 +6644,19 @@
         <v>59.947139920000005</v>
       </c>
       <c r="F62">
-        <v>320.96870311134381</v>
+        <v>39.110854516750315</v>
       </c>
       <c r="G62">
-        <v>811.93977533355599</v>
+        <v>811.93977533355587</v>
       </c>
       <c r="H62">
-        <v>590.91025655177384</v>
+        <v>590.91025655177373</v>
       </c>
       <c r="I62">
-        <v>469.81992209955348</v>
+        <v>469.81992209955342</v>
       </c>
       <c r="J62">
-        <v>401.87185233051287</v>
+        <v>401.87185233051281</v>
       </c>
       <c r="K62">
         <v>352.43103891879844</v>
@@ -6669,16 +6665,16 @@
         <v>320.96870311134381</v>
       </c>
       <c r="M62">
-        <v>950.56363941489485</v>
+        <v>950.56363941489474</v>
       </c>
       <c r="N62">
-        <v>691.79737352402799</v>
+        <v>691.79737352402776</v>
       </c>
       <c r="O62">
-        <v>550.03307953118463</v>
+        <v>550.03307953118451</v>
       </c>
       <c r="P62">
-        <v>470.48411980157607</v>
+        <v>470.48411980157601</v>
       </c>
       <c r="Q62">
         <v>412.60219190493478</v>
@@ -6705,7 +6701,7 @@
         <v>59.823432610666487</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C63">
         <v>60.472000000000001</v>
       </c>
@@ -6716,28 +6712,28 @@
         <v>60.27607072</v>
       </c>
       <c r="F63">
-        <v>320.73770325275638</v>
+        <v>39.082706595239507</v>
       </c>
       <c r="G63">
-        <v>811.35542560890849</v>
+        <v>811.35542560890838</v>
       </c>
       <c r="H63">
         <v>590.48498086483562</v>
       </c>
       <c r="I63">
-        <v>469.48179462944648</v>
+        <v>469.48179462944643</v>
       </c>
       <c r="J63">
         <v>401.58262680740501</v>
       </c>
       <c r="K63">
-        <v>352.17739574623084</v>
+        <v>352.17739574623079</v>
       </c>
       <c r="L63">
         <v>320.73770325275638</v>
       </c>
       <c r="M63">
-        <v>949.87952266408809</v>
+        <v>949.87952266408786</v>
       </c>
       <c r="N63">
         <v>691.29948979297831</v>
@@ -6749,7 +6745,7 @@
         <v>470.14551431110834</v>
       </c>
       <c r="Q63">
-        <v>412.30524380046541</v>
+        <v>412.30524380046535</v>
       </c>
       <c r="R63">
         <v>375.49779893005626</v>
@@ -6773,7 +6769,7 @@
         <v>60.195006726260686</v>
       </c>
     </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C64">
         <v>60.997999999999998</v>
       </c>
@@ -6784,7 +6780,7 @@
         <v>60.800366479999994</v>
       </c>
       <c r="F64">
-        <v>321.54272529799158</v>
+        <v>39.180800583185274</v>
       </c>
       <c r="G64">
         <v>813.39185287490295</v>
@@ -6799,7 +6795,7 @@
         <v>402.59056215234534</v>
       </c>
       <c r="K64">
-        <v>353.06132851912912</v>
+        <v>353.06132851912918</v>
       </c>
       <c r="L64">
         <v>321.54272529799158</v>
@@ -6817,7 +6813,7 @@
         <v>471.32553617835555</v>
       </c>
       <c r="Q64">
-        <v>413.3400919248341</v>
+        <v>413.34009192483416</v>
       </c>
       <c r="R64">
         <v>376.44026376350234</v>
@@ -6852,16 +6848,16 @@
         <v>61.343600679999994</v>
       </c>
       <c r="F65">
-        <v>322.43747523022847</v>
+        <v>39.289828142848776</v>
       </c>
       <c r="G65">
         <v>815.65526065241488</v>
       </c>
       <c r="H65">
-        <v>593.61429747904492</v>
+        <v>593.61429747904504</v>
       </c>
       <c r="I65">
-        <v>471.96984636253376</v>
+        <v>471.9698463625337</v>
       </c>
       <c r="J65">
         <v>403.71084213339975</v>
@@ -6876,10 +6872,10 @@
         <v>954.913475885754</v>
       </c>
       <c r="N65">
-        <v>694.96307997546728</v>
+        <v>694.96307997546739</v>
       </c>
       <c r="O65">
-        <v>552.55006403418588</v>
+        <v>552.55006403418577</v>
       </c>
       <c r="P65">
         <v>472.63708347324854</v>
@@ -6920,10 +6916,10 @@
         <v>61.965578919999999</v>
       </c>
       <c r="F66">
-        <v>323.73276981628209</v>
+        <v>39.447663089435153</v>
       </c>
       <c r="G66">
-        <v>818.93190783015029</v>
+        <v>818.93190783015018</v>
       </c>
       <c r="H66">
         <v>595.99896255303997</v>
@@ -6932,7 +6928,7 @@
         <v>473.86584181510153</v>
       </c>
       <c r="J66">
-        <v>405.33262777656404</v>
+        <v>405.3326277765641</v>
       </c>
       <c r="K66">
         <v>355.46604791194733</v>
@@ -6941,7 +6937,7 @@
         <v>323.73276981628209</v>
       </c>
       <c r="M66">
-        <v>958.74955063041989</v>
+        <v>958.74955063041978</v>
       </c>
       <c r="N66">
         <v>697.75488298892492</v>
@@ -6950,7 +6946,7 @@
         <v>554.76976602743594</v>
       </c>
       <c r="P66">
-        <v>474.53575934817258</v>
+        <v>474.53575934817263</v>
       </c>
       <c r="Q66">
         <v>416.15537316520664</v>
@@ -6988,19 +6984,19 @@
         <v>62.480903839999996</v>
       </c>
       <c r="F67">
-        <v>324.45861580593265</v>
+        <v>39.53610927321445</v>
       </c>
       <c r="G67">
-        <v>820.76804706756116</v>
+        <v>820.76804706756104</v>
       </c>
       <c r="H67">
         <v>597.33526056528785</v>
       </c>
       <c r="I67">
-        <v>474.92830336667413</v>
+        <v>474.92830336667396</v>
       </c>
       <c r="J67">
-        <v>406.24143000413318</v>
+        <v>406.24143000413312</v>
       </c>
       <c r="K67">
         <v>356.26304354967726</v>
@@ -7009,16 +7005,16 @@
         <v>324.45861580593265</v>
       </c>
       <c r="M67">
-        <v>960.89917705470577</v>
+        <v>960.89917705470566</v>
       </c>
       <c r="N67">
         <v>699.31932944228822</v>
       </c>
       <c r="O67">
-        <v>556.01362345366726</v>
+        <v>556.01362345366715</v>
       </c>
       <c r="P67">
-        <v>475.59972293166811</v>
+        <v>475.59972293166805</v>
       </c>
       <c r="Q67">
         <v>417.08844122889047</v>
@@ -7027,7 +7023,7 @@
         <v>379.85398923621386</v>
       </c>
       <c r="S67">
-        <v>24.383296017911402</v>
+        <v>24.383296017911405</v>
       </c>
       <c r="T67">
         <v>33.50384880134493</v>
@@ -7056,19 +7052,19 @@
         <v>62.952371319999997</v>
       </c>
       <c r="F68">
-        <v>324.94938441764725</v>
+        <v>39.595910679358084</v>
       </c>
       <c r="G68">
-        <v>822.00952186704683</v>
+        <v>822.0095218670466</v>
       </c>
       <c r="H68">
-        <v>598.2387760901496</v>
+        <v>598.23877609014949</v>
       </c>
       <c r="I68">
-        <v>475.64666895400262</v>
+        <v>475.64666895400251</v>
       </c>
       <c r="J68">
-        <v>406.85590141254022</v>
+        <v>406.85590141254016</v>
       </c>
       <c r="K68">
         <v>356.80191880455004</v>
@@ -7077,16 +7073,16 @@
         <v>324.94938441764725</v>
       </c>
       <c r="M68">
-        <v>962.35261096629881</v>
+        <v>962.35261096629847</v>
       </c>
       <c r="N68">
-        <v>700.37710371529715</v>
+        <v>700.37710371529704</v>
       </c>
       <c r="O68">
-        <v>556.85463682419822</v>
+        <v>556.85463682419811</v>
       </c>
       <c r="P68">
-        <v>476.31910409273002</v>
+        <v>476.31910409272996</v>
       </c>
       <c r="Q68">
         <v>417.71931957605858</v>
@@ -7124,40 +7120,40 @@
         <v>63.423838799999999</v>
       </c>
       <c r="F69">
-        <v>325.43431054588899</v>
+        <v>39.655000164</v>
       </c>
       <c r="G69">
-        <v>823.23621720463359</v>
+        <v>823.23621720463348</v>
       </c>
       <c r="H69">
-        <v>599.13153547781053</v>
+        <v>599.13153547781042</v>
       </c>
       <c r="I69">
-        <v>476.35648257005329</v>
+        <v>476.35648257005323</v>
       </c>
       <c r="J69">
-        <v>407.46305768513287</v>
+        <v>407.46305768513281</v>
       </c>
       <c r="K69">
-        <v>357.33437887781719</v>
+        <v>357.33437887781713</v>
       </c>
       <c r="L69">
         <v>325.43431054588899</v>
       </c>
       <c r="M69">
-        <v>963.78874209322964</v>
+        <v>963.78874209322953</v>
       </c>
       <c r="N69">
-        <v>701.4222854374367</v>
+        <v>701.42228543743659</v>
       </c>
       <c r="O69">
-        <v>557.68563813079413</v>
+        <v>557.68563813079402</v>
       </c>
       <c r="P69">
-        <v>477.02992119235068</v>
+        <v>477.02992119235063</v>
       </c>
       <c r="Q69">
-        <v>418.34268746671285</v>
+        <v>418.34268746671273</v>
       </c>
       <c r="R69">
         <v>380.99626600494321</v>
@@ -7192,16 +7188,16 @@
         <v>63.539462960000002</v>
       </c>
       <c r="F70">
-        <v>324.09843279330153</v>
+        <v>39.492220055138461</v>
       </c>
       <c r="G70">
-        <v>819.85690865587242</v>
+        <v>819.85690865587219</v>
       </c>
       <c r="H70">
-        <v>596.672155925065</v>
+        <v>596.67215592506489</v>
       </c>
       <c r="I70">
-        <v>474.40108325675192</v>
+        <v>474.4010832567518</v>
       </c>
       <c r="J70">
         <v>405.79045951055872</v>
@@ -7213,13 +7209,13 @@
         <v>324.09843279330153</v>
       </c>
       <c r="M70">
-        <v>959.8324784263873</v>
+        <v>959.83247842638696</v>
       </c>
       <c r="N70">
-        <v>698.54301181471033</v>
+        <v>698.5430118147101</v>
       </c>
       <c r="O70">
-        <v>555.39639015424621</v>
+        <v>555.39639015424609</v>
       </c>
       <c r="P70">
         <v>475.07175747577611</v>
@@ -7231,7 +7227,7 @@
         <v>379.43231156288959</v>
       </c>
       <c r="S70">
-        <v>24.823957994138716</v>
+        <v>24.82395799413872</v>
       </c>
       <c r="T70">
         <v>34.10934004474273</v>
@@ -7260,46 +7256,46 @@
         <v>63.744795519999997</v>
       </c>
       <c r="F71">
-        <v>323.23315904532234</v>
+        <v>39.386784243651761</v>
       </c>
       <c r="G71">
-        <v>817.66806542684094</v>
+        <v>817.66806542684083</v>
       </c>
       <c r="H71">
-        <v>595.07916842363716</v>
+        <v>595.07916842363693</v>
       </c>
       <c r="I71">
-        <v>473.13453346255164</v>
+        <v>473.13453346255159</v>
       </c>
       <c r="J71">
-        <v>404.70708546037065</v>
+        <v>404.70708546037059</v>
       </c>
       <c r="K71">
-        <v>354.91746376228554</v>
+        <v>354.91746376228548</v>
       </c>
       <c r="L71">
-        <v>323.23315904532234</v>
+        <v>323.23315904532228</v>
       </c>
       <c r="M71">
-        <v>957.26993025581385</v>
+        <v>957.26993025581373</v>
       </c>
       <c r="N71">
-        <v>696.67805083742894</v>
+        <v>696.6780508374286</v>
       </c>
       <c r="O71">
         <v>553.91360015127998</v>
       </c>
       <c r="P71">
-        <v>473.80341712433636</v>
+        <v>473.80341712433631</v>
       </c>
       <c r="Q71">
-        <v>415.51312830706598</v>
+        <v>415.51312830706593</v>
       </c>
       <c r="R71">
-        <v>378.4193081506213</v>
+        <v>378.41930815062125</v>
       </c>
       <c r="S71">
-        <v>24.970845319547823</v>
+        <v>24.970845319547827</v>
       </c>
       <c r="T71">
         <v>34.311170459208668</v>
@@ -7328,43 +7324,43 @@
         <v>63.967072999999999</v>
       </c>
       <c r="F72">
-        <v>322.46342623329934</v>
+        <v>39.292990338713444</v>
       </c>
       <c r="G72">
-        <v>815.72090771207775</v>
+        <v>815.72090771207752</v>
       </c>
       <c r="H72">
-        <v>593.66207383148605</v>
+        <v>593.66207383148594</v>
       </c>
       <c r="I72">
-        <v>472.00783230360207</v>
+        <v>472.00783230360196</v>
       </c>
       <c r="J72">
-        <v>403.74333432834845</v>
+        <v>403.7433343283484</v>
       </c>
       <c r="K72">
         <v>354.07227938137396</v>
       </c>
       <c r="L72">
-        <v>322.46342623329934</v>
+        <v>322.46342623329929</v>
       </c>
       <c r="M72">
-        <v>954.99033097999347</v>
+        <v>954.99033097999325</v>
       </c>
       <c r="N72">
-        <v>695.01901326613006</v>
+        <v>695.01901326612995</v>
       </c>
       <c r="O72">
-        <v>552.59453537982688</v>
+        <v>552.59453537982665</v>
       </c>
       <c r="P72">
-        <v>472.67512311611529</v>
+        <v>472.67512311611523</v>
       </c>
       <c r="Q72">
         <v>414.52364415380367</v>
       </c>
       <c r="R72">
-        <v>377.51815754142365</v>
+        <v>377.51815754142359</v>
       </c>
       <c r="S72">
         <v>25.117732644956927</v>
@@ -7396,7 +7392,7 @@
         <v>64.15745416</v>
       </c>
       <c r="F73">
-        <v>321.54278659293402</v>
+        <v>39.180808052130232</v>
       </c>
       <c r="G73">
         <v>813.39200792990152</v>
@@ -7405,7 +7401,7 @@
         <v>591.96715653641479</v>
       </c>
       <c r="I73">
-        <v>470.66024034237535</v>
+        <v>470.6602403423754</v>
       </c>
       <c r="J73">
         <v>402.59063889724854</v>
@@ -7464,19 +7460,19 @@
         <v>64.347835320000002</v>
       </c>
       <c r="F74">
-        <v>320.63279018540533</v>
+        <v>39.069922670594217</v>
       </c>
       <c r="G74">
-        <v>811.09003184462927</v>
+        <v>811.09003184462904</v>
       </c>
       <c r="H74">
         <v>590.2918336609398</v>
       </c>
       <c r="I74">
-        <v>469.32822747896643</v>
+        <v>469.32822747896637</v>
       </c>
       <c r="J74">
-        <v>401.45126942488974</v>
+        <v>401.45126942488969</v>
       </c>
       <c r="K74">
         <v>352.06219877853812</v>
@@ -7485,16 +7481,16 @@
         <v>320.63279018540533</v>
       </c>
       <c r="M74">
-        <v>949.5688177693221</v>
+        <v>949.56881776932187</v>
       </c>
       <c r="N74">
         <v>691.07336623719789</v>
       </c>
       <c r="O74">
-        <v>549.45743704854613</v>
+        <v>549.45743704854601</v>
       </c>
       <c r="P74">
-        <v>469.99173005840754</v>
+        <v>469.99173005840748</v>
       </c>
       <c r="Q74">
         <v>412.17037905780074</v>
@@ -7503,7 +7499,7 @@
         <v>375.37497387559648</v>
       </c>
       <c r="S74">
-        <v>25.411507295775142</v>
+        <v>25.411507295775138</v>
       </c>
       <c r="T74">
         <v>34.916661702606461</v>
@@ -7532,10 +7528,10 @@
         <v>64.672779079999998</v>
       </c>
       <c r="F75">
-        <v>320.39989941426973</v>
+        <v>39.041544336570112</v>
       </c>
       <c r="G75">
-        <v>810.50089876542211</v>
+        <v>810.50089876542199</v>
       </c>
       <c r="H75">
         <v>589.86307676350316</v>
@@ -7553,7 +7549,7 @@
         <v>320.39989941426973</v>
       </c>
       <c r="M75">
-        <v>948.87910099366491</v>
+        <v>948.87910099366479</v>
       </c>
       <c r="N75">
         <v>690.57140694263785</v>
@@ -7600,19 +7596,19 @@
         <v>64.981774680000001</v>
       </c>
       <c r="F76">
-        <v>320.09111185166449</v>
+        <v>39.00391778506971</v>
       </c>
       <c r="G76">
-        <v>809.7197730613359</v>
+        <v>809.71977306133579</v>
       </c>
       <c r="H76">
-        <v>589.29459224750428</v>
+        <v>589.29459224750417</v>
       </c>
       <c r="I76">
         <v>468.53534247150554</v>
       </c>
       <c r="J76">
-        <v>400.77305602514832</v>
+        <v>400.77305602514826</v>
       </c>
       <c r="K76">
         <v>351.46742347468597</v>
@@ -7621,16 +7617,16 @@
         <v>320.09111185166449</v>
       </c>
       <c r="M76">
-        <v>947.9646123644909</v>
+        <v>947.96461236449068</v>
       </c>
       <c r="N76">
-        <v>689.90586409463924</v>
+        <v>689.90586409463901</v>
       </c>
       <c r="O76">
         <v>548.52918143005525</v>
       </c>
       <c r="P76">
-        <v>469.19772412700291</v>
+        <v>469.19772412700286</v>
       </c>
       <c r="Q76">
         <v>411.4740567508519</v>
@@ -7639,7 +7635,7 @@
         <v>374.74081387511944</v>
       </c>
       <c r="S76">
-        <v>25.705281946593352</v>
+        <v>25.705281946593345</v>
       </c>
       <c r="T76">
         <v>35.320322531538331</v>
@@ -7668,43 +7664,43 @@
         <v>65.117334039999989</v>
       </c>
       <c r="F77">
-        <v>318.93636474125981</v>
+        <v>38.863208906599993</v>
       </c>
       <c r="G77">
-        <v>806.79866237265981</v>
+        <v>806.79866237265958</v>
       </c>
       <c r="H77">
-        <v>587.1686780862567</v>
+        <v>587.16867808625659</v>
       </c>
       <c r="I77">
-        <v>466.8450742547106</v>
+        <v>466.84507425471048</v>
       </c>
       <c r="J77">
-        <v>399.32724415709629</v>
+        <v>399.32724415709623</v>
       </c>
       <c r="K77">
-        <v>350.1994845140851</v>
+        <v>350.19948451408504</v>
       </c>
       <c r="L77">
-        <v>318.93636474125981</v>
+        <v>318.93636474125975</v>
       </c>
       <c r="M77">
-        <v>944.54477546067494</v>
+        <v>944.54477546067471</v>
       </c>
       <c r="N77">
-        <v>687.41698897903223</v>
+        <v>687.41698897903211</v>
       </c>
       <c r="O77">
-        <v>546.55033083478315</v>
+        <v>546.55033083478304</v>
       </c>
       <c r="P77">
-        <v>467.50506633025907</v>
+        <v>467.50506633025901</v>
       </c>
       <c r="Q77">
-        <v>409.98964040673377</v>
+        <v>409.98964040673371</v>
       </c>
       <c r="R77">
-        <v>373.3889148190359</v>
+        <v>373.38891481903585</v>
       </c>
       <c r="S77">
         <v>25.852169272002453</v>
@@ -7736,46 +7732,46 @@
         <v>65.50008987999999</v>
       </c>
       <c r="F78">
-        <v>318.99856200931549</v>
+        <v>38.870787802232762</v>
       </c>
       <c r="G78">
-        <v>806.95599994284021</v>
+        <v>806.95599994283998</v>
       </c>
       <c r="H78">
         <v>587.28318458881392</v>
       </c>
       <c r="I78">
-        <v>466.93611589007708</v>
+        <v>466.93611589007702</v>
       </c>
       <c r="J78">
         <v>399.40511882550209</v>
       </c>
       <c r="K78">
-        <v>350.26777854894362</v>
+        <v>350.26777854894357</v>
       </c>
       <c r="L78">
         <v>318.99856200931549</v>
       </c>
       <c r="M78">
-        <v>944.72897554283736</v>
+        <v>944.72897554283713</v>
       </c>
       <c r="N78">
         <v>687.55104537226998</v>
       </c>
       <c r="O78">
-        <v>546.65691616399272</v>
+        <v>546.65691616399261</v>
       </c>
       <c r="P78">
         <v>467.59623667375854</v>
       </c>
       <c r="Q78">
-        <v>410.06959439876329</v>
+        <v>410.06959439876323</v>
       </c>
       <c r="R78">
         <v>373.46173113285715</v>
       </c>
       <c r="S78">
-        <v>25.99905659741156</v>
+        <v>25.999056597411556</v>
       </c>
       <c r="T78">
         <v>35.7239833604702</v>
@@ -7804,7 +7800,7 @@
         <v>65.747286360000004</v>
       </c>
       <c r="F79">
-        <v>318.40356818210972</v>
+        <v>38.79828628794607</v>
       </c>
       <c r="G79">
         <v>805.45087140630892</v>
@@ -7813,13 +7809,13 @@
         <v>586.18778821006197</v>
       </c>
       <c r="I79">
-        <v>466.0651899996779</v>
+        <v>466.06518999967784</v>
       </c>
       <c r="J79">
         <v>398.66015126590344</v>
       </c>
       <c r="K79">
-        <v>349.61446160358503</v>
+        <v>349.61446160358508</v>
       </c>
       <c r="L79">
         <v>318.40356818210972</v>
@@ -7831,13 +7827,13 @@
         <v>686.26863009958481</v>
       </c>
       <c r="O79">
-        <v>545.63729560937907</v>
+        <v>545.63729560937895</v>
       </c>
       <c r="P79">
         <v>466.72407953081381</v>
       </c>
       <c r="Q79">
-        <v>409.30473553590446</v>
+        <v>409.30473553590451</v>
       </c>
       <c r="R79">
         <v>372.76515299368947</v>
@@ -7872,7 +7868,7 @@
         <v>65.870884599999997</v>
       </c>
       <c r="F80">
-        <v>317.21999981451876</v>
+        <v>38.654065465832396</v>
       </c>
       <c r="G80">
         <v>802.45685290806193</v>
@@ -7884,7 +7880,7 @@
         <v>464.33273448962092</v>
       </c>
       <c r="J80">
-        <v>397.178253474521</v>
+        <v>397.17825347452106</v>
       </c>
       <c r="K80">
         <v>348.31487623785296</v>
@@ -7902,7 +7898,7 @@
         <v>543.6090550122392</v>
       </c>
       <c r="P80">
-        <v>464.98917479943924</v>
+        <v>464.9891747994393</v>
       </c>
       <c r="Q80">
         <v>407.78326974187667</v>
@@ -7911,7 +7907,7 @@
         <v>371.37951197797321</v>
       </c>
       <c r="S80">
-        <v>26.292831248229771</v>
+        <v>26.292831248229767</v>
       </c>
       <c r="T80">
         <v>36.127644189402062</v>
@@ -7940,13 +7936,13 @@
         <v>66.033356480000009</v>
       </c>
       <c r="F81">
-        <v>316.23574924890437</v>
+        <v>38.534132025884453</v>
       </c>
       <c r="G81">
         <v>799.96703949208018</v>
       </c>
       <c r="H81">
-        <v>582.19678712627774</v>
+        <v>582.19678712627785</v>
       </c>
       <c r="I81">
         <v>462.89203164357747</v>
@@ -7955,7 +7951,7 @@
         <v>395.94591339236791</v>
       </c>
       <c r="K81">
-        <v>347.23414641580683</v>
+        <v>347.23414641580689</v>
       </c>
       <c r="L81">
         <v>316.23574924890437</v>
@@ -7964,7 +7960,7 @@
         <v>936.54677794194754</v>
       </c>
       <c r="N81">
-        <v>681.59623858686177</v>
+        <v>681.59623858686189</v>
       </c>
       <c r="O81">
         <v>541.92237850955416</v>
@@ -7973,13 +7969,13 @@
         <v>463.54643519106492</v>
       </c>
       <c r="Q81">
-        <v>406.51802507216411</v>
+        <v>406.51802507216416</v>
       </c>
       <c r="R81">
         <v>370.2272186328637</v>
       </c>
       <c r="S81">
-        <v>26.439718573638878</v>
+        <v>26.439718573638874</v>
       </c>
       <c r="T81">
         <v>36.329474603868</v>
@@ -8008,7 +8004,7 @@
         <v>65.870884599999997</v>
       </c>
       <c r="F82">
-        <v>313.71480644640258</v>
+        <v>38.22694872035359</v>
       </c>
       <c r="G82">
         <v>793.58992635659172</v>
@@ -8020,7 +8016,7 @@
         <v>459.20198604222185</v>
       </c>
       <c r="J82">
-        <v>392.78954349137717</v>
+        <v>392.78954349137723</v>
       </c>
       <c r="K82">
         <v>344.46609307500381</v>
@@ -8038,7 +8034,7 @@
         <v>537.6023251226012</v>
       </c>
       <c r="P82">
-        <v>459.85117286795378</v>
+        <v>459.85117286795384</v>
       </c>
       <c r="Q82">
         <v>403.27737725854109</v>
@@ -8047,7 +8043,7 @@
         <v>367.27587096164206</v>
       </c>
       <c r="S82">
-        <v>26.586605899047978</v>
+        <v>26.586605899047974</v>
       </c>
       <c r="T82">
         <v>36.531305018333931</v>
@@ -8077,19 +8073,19 @@
         <v>65.832010960000005</v>
       </c>
       <c r="F83">
-        <v>311.80697746801269</v>
+        <v>37.994474896914291</v>
       </c>
       <c r="G83">
-        <v>788.76377908094491</v>
+        <v>788.7637790809448</v>
       </c>
       <c r="H83">
         <v>574.04332342751923</v>
       </c>
       <c r="I83">
-        <v>456.40938958868088</v>
+        <v>456.40938958868082</v>
       </c>
       <c r="J83">
-        <v>390.40082846077377</v>
+        <v>390.40082846077371</v>
       </c>
       <c r="K83">
         <v>342.37125285408644</v>
@@ -8098,7 +8094,7 @@
         <v>311.80697746801269</v>
       </c>
       <c r="M83">
-        <v>923.43076575330144</v>
+        <v>923.43076575330122</v>
       </c>
       <c r="N83">
         <v>672.05072011026641</v>
@@ -8107,7 +8103,7 @@
         <v>534.33294390869958</v>
       </c>
       <c r="P83">
-        <v>457.0546284418815</v>
+        <v>457.05462844188145</v>
       </c>
       <c r="Q83">
         <v>400.82488139014998</v>
@@ -8116,7 +8112,7 @@
         <v>365.04231508450266</v>
       </c>
       <c r="S83">
-        <v>26.733493224457085</v>
+        <v>26.733493224457082</v>
       </c>
       <c r="T83">
         <v>36.73313543279987</v>
@@ -8145,40 +8141,40 @@
         <v>65.832010960000005</v>
       </c>
       <c r="F84">
-        <v>310.10311420316015</v>
+        <v>37.786854815510381</v>
       </c>
       <c r="G84">
-        <v>784.45359449580303</v>
+        <v>784.45359449580292</v>
       </c>
       <c r="H84">
-        <v>570.90647466562018</v>
+        <v>570.90647466562007</v>
       </c>
       <c r="I84">
-        <v>453.9153492084148</v>
+        <v>453.91534920841468</v>
       </c>
       <c r="J84">
-        <v>388.26749060033234</v>
+        <v>388.26749060033228</v>
       </c>
       <c r="K84">
-        <v>340.50037169094935</v>
+        <v>340.50037169094929</v>
       </c>
       <c r="L84">
         <v>310.10311420316015</v>
       </c>
       <c r="M84">
-        <v>918.38469599508653</v>
+        <v>918.38469599508642</v>
       </c>
       <c r="N84">
-        <v>668.37831180365288</v>
+        <v>668.37831180365276</v>
       </c>
       <c r="O84">
-        <v>531.4130917561929</v>
+        <v>531.41309175619278</v>
       </c>
       <c r="P84">
-        <v>454.55706216624276</v>
+        <v>454.5570621662427</v>
       </c>
       <c r="Q84">
-        <v>398.63458149184316</v>
+        <v>398.63458149184311</v>
       </c>
       <c r="R84">
         <v>363.04754833540704</v>
@@ -8213,10 +8209,10 @@
         <v>65.988502280000006</v>
       </c>
       <c r="F85">
-        <v>309.15092066393299</v>
+        <v>37.670827605930441</v>
       </c>
       <c r="G85">
-        <v>782.04487426601179</v>
+        <v>782.04487426601167</v>
       </c>
       <c r="H85">
         <v>569.15346596696065</v>
@@ -8234,7 +8230,7 @@
         <v>309.15092066393299</v>
       </c>
       <c r="M85">
-        <v>915.56473084801382</v>
+        <v>915.56473084801371</v>
       </c>
       <c r="N85">
         <v>666.32600893692961</v>
@@ -8252,7 +8248,7 @@
         <v>361.93278516753134</v>
       </c>
       <c r="S85">
-        <v>27.027267875275296</v>
+        <v>27.027267875275292</v>
       </c>
       <c r="T85">
         <v>37.136796261731732</v>
@@ -8281,46 +8277,46 @@
         <v>66.314442799999995</v>
       </c>
       <c r="F86">
-        <v>308.99858611175443</v>
+        <v>37.652265252497294</v>
       </c>
       <c r="G86">
-        <v>781.65952055123387</v>
+        <v>781.65952055123375</v>
       </c>
       <c r="H86">
-        <v>568.87301479388066</v>
+        <v>568.87301479388054</v>
       </c>
       <c r="I86">
-        <v>452.2985893909289</v>
+        <v>452.29858939092873</v>
       </c>
       <c r="J86">
-        <v>386.88455592246027</v>
+        <v>386.88455592246021</v>
       </c>
       <c r="K86">
-        <v>339.28757437147334</v>
+        <v>339.28757437147328</v>
       </c>
       <c r="L86">
-        <v>308.99858611175443</v>
+        <v>308.99858611175438</v>
       </c>
       <c r="M86">
-        <v>915.11358503559086</v>
+        <v>915.11358503559075</v>
       </c>
       <c r="N86">
-        <v>665.99767585625057</v>
+        <v>665.99767585625045</v>
       </c>
       <c r="O86">
-        <v>529.52029977474604</v>
+        <v>529.52029977474581</v>
       </c>
       <c r="P86">
-        <v>452.93801668970957</v>
+        <v>452.93801668970951</v>
       </c>
       <c r="Q86">
-        <v>397.21472121538346</v>
+        <v>397.21472121538335</v>
       </c>
       <c r="R86">
-        <v>361.75444227717594</v>
+        <v>361.75444227717588</v>
       </c>
       <c r="S86">
-        <v>27.174155200684396</v>
+        <v>27.1741552006844</v>
       </c>
       <c r="T86">
         <v>37.33862667619767</v>
@@ -8349,13 +8345,13 @@
         <v>66.641380080000005</v>
       </c>
       <c r="F87">
-        <v>308.85250909509983</v>
+        <v>37.634465395716134</v>
       </c>
       <c r="G87">
-        <v>781.2899962364512</v>
+        <v>781.28999623645109</v>
       </c>
       <c r="H87">
-        <v>568.60408387771668</v>
+        <v>568.60408387771679</v>
       </c>
       <c r="I87">
         <v>452.08476825534791</v>
@@ -8370,10 +8366,10 @@
         <v>308.85250909509983</v>
       </c>
       <c r="M87">
-        <v>914.68097120365019</v>
+        <v>914.68097120365007</v>
       </c>
       <c r="N87">
-        <v>665.68282990561954</v>
+        <v>665.68282990561966</v>
       </c>
       <c r="O87">
         <v>529.26997259162681</v>
@@ -8388,7 +8384,7 @@
         <v>361.58342528206811</v>
       </c>
       <c r="S87">
-        <v>27.321042526093503</v>
+        <v>27.3210425260935</v>
       </c>
       <c r="T87">
         <v>37.540457090663601</v>
@@ -8417,46 +8413,46 @@
         <v>66.758000999999993</v>
       </c>
       <c r="F88">
-        <v>307.73848606711368</v>
+        <v>37.498718850481275</v>
       </c>
       <c r="G88">
-        <v>778.47190338723738</v>
+        <v>778.47190338723726</v>
       </c>
       <c r="H88">
         <v>566.55314362438139</v>
       </c>
       <c r="I88">
-        <v>450.45411016578333</v>
+        <v>450.45411016578328</v>
       </c>
       <c r="J88">
         <v>385.30683593246522</v>
       </c>
       <c r="K88">
-        <v>337.90395545919489</v>
+        <v>337.90395545919478</v>
       </c>
       <c r="L88">
         <v>307.73848606711368</v>
       </c>
       <c r="M88">
-        <v>911.38174055091213</v>
+        <v>911.3817405509119</v>
       </c>
       <c r="N88">
         <v>663.28172912122704</v>
       </c>
       <c r="O88">
-        <v>527.3609094623805</v>
+        <v>527.36090946238039</v>
       </c>
       <c r="P88">
         <v>451.09092987215445</v>
       </c>
       <c r="Q88">
-        <v>395.59487468393547</v>
+        <v>395.59487468393536</v>
       </c>
       <c r="R88">
         <v>360.27920320052334</v>
       </c>
       <c r="S88">
-        <v>27.467929851502607</v>
+        <v>27.46792985150261</v>
       </c>
       <c r="T88">
         <v>37.742287505129539</v>
@@ -8485,7 +8481,7 @@
         <v>66.758000999999993</v>
       </c>
       <c r="F89">
-        <v>306.10157922633113</v>
+        <v>37.299257579999995</v>
       </c>
       <c r="G89">
         <v>774.33109539049667</v>
@@ -8497,13 +8493,13 @@
         <v>448.05807766490148</v>
       </c>
       <c r="J89">
-        <v>383.25733148601591</v>
+        <v>383.25733148601597</v>
       </c>
       <c r="K89">
-        <v>336.10659399398628</v>
+        <v>336.10659399398634</v>
       </c>
       <c r="L89">
-        <v>306.10157922633113</v>
+        <v>306.10157922633118</v>
       </c>
       <c r="M89">
         <v>906.53396533521561</v>
@@ -8515,16 +8511,16 @@
         <v>524.55579824183587</v>
       </c>
       <c r="P89">
-        <v>448.69151003240887</v>
+        <v>448.69151003240898</v>
       </c>
       <c r="Q89">
-        <v>393.49064662710589</v>
+        <v>393.49064662710595</v>
       </c>
       <c r="R89">
-        <v>358.362824460095</v>
+        <v>358.36282446009506</v>
       </c>
       <c r="S89">
-        <v>27.614817176911714</v>
+        <v>27.614817176911711</v>
       </c>
       <c r="T89">
         <v>37.944117919595463</v>
@@ -8553,7 +8549,7 @@
         <v>66.758000999999993</v>
       </c>
       <c r="F90">
-        <v>304.48199415105955</v>
+        <v>37.101907010793646</v>
       </c>
       <c r="G90">
         <v>770.23410546779564</v>
@@ -8565,7 +8561,7 @@
         <v>445.68740000529885</v>
       </c>
       <c r="J90">
-        <v>381.22951491730691</v>
+        <v>381.22951491730686</v>
       </c>
       <c r="K90">
         <v>334.32825222682237</v>
@@ -8583,7 +8579,7 @@
         <v>521.78037073791086</v>
       </c>
       <c r="P90">
-        <v>446.31748087879834</v>
+        <v>446.31748087879828</v>
       </c>
       <c r="Q90">
         <v>391.40868553384087</v>
@@ -8592,7 +8588,7 @@
         <v>356.46672485977706</v>
       </c>
       <c r="S90">
-        <v>27.761704502320814</v>
+        <v>27.761704502320818</v>
       </c>
       <c r="T90">
         <v>38.145948334061401</v>
@@ -8621,19 +8617,19 @@
         <v>66.758000999999993</v>
       </c>
       <c r="F91">
-        <v>302.87945733973822</v>
+        <v>36.906633815999996</v>
       </c>
       <c r="G91">
-        <v>766.18024175480741</v>
+        <v>766.1802417548073</v>
       </c>
       <c r="H91">
         <v>557.60756767241753</v>
       </c>
       <c r="I91">
-        <v>443.34167684737628</v>
+        <v>443.34167684737622</v>
       </c>
       <c r="J91">
-        <v>379.2230437861632</v>
+        <v>379.22304378616315</v>
       </c>
       <c r="K91">
         <v>332.56862984668123</v>
@@ -8642,16 +8638,16 @@
         <v>302.87945733973822</v>
       </c>
       <c r="M91">
-        <v>896.99150254221354</v>
+        <v>896.99150254221342</v>
       </c>
       <c r="N91">
         <v>652.80885971404985</v>
       </c>
       <c r="O91">
-        <v>519.03415826034302</v>
+        <v>519.03415826034291</v>
       </c>
       <c r="P91">
-        <v>443.96844150575208</v>
+        <v>443.96844150575197</v>
       </c>
       <c r="Q91">
         <v>389.3486398205049</v>
@@ -8660,7 +8656,7 @@
         <v>354.59058420262039</v>
       </c>
       <c r="S91">
-        <v>27.908591827729918</v>
+        <v>27.908591827729921</v>
       </c>
       <c r="T91">
         <v>38.347778748527332</v>
@@ -8689,28 +8685,28 @@
         <v>66.758000999999993</v>
       </c>
       <c r="F92">
-        <v>301.29370101858774</v>
+        <v>36.713405366701565</v>
       </c>
       <c r="G92">
-        <v>762.16882687650991</v>
+        <v>762.1688268765098</v>
       </c>
       <c r="H92">
         <v>554.68815632334724</v>
       </c>
       <c r="I92">
-        <v>441.02051623560988</v>
+        <v>441.02051623560982</v>
       </c>
       <c r="J92">
-        <v>377.23758282393197</v>
+        <v>377.23758282393192</v>
       </c>
       <c r="K92">
-        <v>330.82743283177717</v>
+        <v>330.82743283177712</v>
       </c>
       <c r="L92">
         <v>301.29370101858774</v>
       </c>
       <c r="M92">
-        <v>892.2952119529873</v>
+        <v>892.29521195298707</v>
       </c>
       <c r="N92">
         <v>649.39101228099196</v>
@@ -8719,16 +8715,16 @@
         <v>516.31670193437253</v>
       </c>
       <c r="P92">
-        <v>441.64399940362767</v>
+        <v>441.64399940362762</v>
       </c>
       <c r="Q92">
-        <v>387.31016526647085</v>
+        <v>387.31016526647079</v>
       </c>
       <c r="R92">
         <v>352.73408899737103</v>
       </c>
       <c r="S92">
-        <v>28.055479153139025</v>
+        <v>28.055479153139029</v>
       </c>
       <c r="T92">
         <v>38.549609162993271</v>
@@ -8757,46 +8753,46 @@
         <v>66.641380080000005</v>
       </c>
       <c r="F93">
-        <v>299.20086818587799</v>
+        <v>36.458388352100002</v>
       </c>
       <c r="G93">
-        <v>756.87468385406203</v>
+        <v>756.87468385406191</v>
       </c>
       <c r="H93">
         <v>550.83520625653807</v>
       </c>
       <c r="I93">
-        <v>437.95711924736838</v>
+        <v>437.95711924736827</v>
       </c>
       <c r="J93">
-        <v>374.617231995498</v>
+        <v>374.61723199549795</v>
       </c>
       <c r="K93">
-        <v>328.52945411184135</v>
+        <v>328.52945411184129</v>
       </c>
       <c r="L93">
-        <v>299.20086818587799</v>
+        <v>299.20086818587794</v>
       </c>
       <c r="M93">
-        <v>886.09719085353606</v>
+        <v>886.09719085353595</v>
       </c>
       <c r="N93">
         <v>644.88024147106898</v>
       </c>
       <c r="O93">
-        <v>512.73028594813866</v>
+        <v>512.73028594813843</v>
       </c>
       <c r="P93">
-        <v>438.5762716044855</v>
+        <v>438.57627160448544</v>
       </c>
       <c r="Q93">
-        <v>384.6198487163021</v>
+        <v>384.61984871630199</v>
       </c>
       <c r="R93">
-        <v>350.28394324200355</v>
+        <v>350.28394324200343</v>
       </c>
       <c r="S93">
-        <v>28.202366478548125</v>
+        <v>28.202366478548129</v>
       </c>
       <c r="T93">
         <v>38.751439577459202</v>
@@ -8825,7 +8821,7 @@
         <v>66.511801279999986</v>
       </c>
       <c r="F94">
-        <v>297.07184697557858</v>
+        <v>36.198961691456987</v>
       </c>
       <c r="G94">
         <v>751.4889967561794</v>
@@ -8834,10 +8830,10 @@
         <v>546.91563261154704</v>
       </c>
       <c r="I94">
-        <v>434.84075129786089</v>
+        <v>434.84075129786083</v>
       </c>
       <c r="J94">
-        <v>371.95157117205889</v>
+        <v>371.95157117205883</v>
       </c>
       <c r="K94">
         <v>326.19173971865422</v>
@@ -8852,10 +8848,10 @@
         <v>640.29147232571358</v>
       </c>
       <c r="O94">
-        <v>509.08185517798353</v>
+        <v>509.08185517798341</v>
       </c>
       <c r="P94">
-        <v>435.45549795753237</v>
+        <v>435.45549795753232</v>
       </c>
       <c r="Q94">
         <v>381.88301235354641</v>
@@ -8864,7 +8860,7 @@
         <v>347.79143060555543</v>
       </c>
       <c r="S94">
-        <v>28.349253803957232</v>
+        <v>28.349253803957236</v>
       </c>
       <c r="T94">
         <v>38.953269991925133</v>
@@ -8893,7 +8889,7 @@
         <v>66.511801279999986</v>
       </c>
       <c r="F95">
-        <v>295.54054879529207</v>
+        <v>36.01236910541855</v>
       </c>
       <c r="G95">
         <v>747.61534213372488</v>
@@ -8905,7 +8901,7 @@
         <v>432.59930412622236</v>
       </c>
       <c r="J95">
-        <v>370.03429503199663</v>
+        <v>370.03429503199669</v>
       </c>
       <c r="K95">
         <v>324.51033899845498</v>
@@ -8923,7 +8919,7 @@
         <v>506.45772190387009</v>
       </c>
       <c r="P95">
-        <v>433.21088198867903</v>
+        <v>433.21088198867909</v>
       </c>
       <c r="Q95">
         <v>379.9145432177034</v>
@@ -8932,7 +8928,7 @@
         <v>345.99869127253709</v>
       </c>
       <c r="S95">
-        <v>28.496141129366343</v>
+        <v>28.49614112936634</v>
       </c>
       <c r="T95">
         <v>39.155100406391064</v>
@@ -8961,13 +8957,13 @@
         <v>66.428073440000006</v>
       </c>
       <c r="F96">
-        <v>293.65482531295896</v>
+        <v>35.78258889301334</v>
       </c>
       <c r="G96">
         <v>742.8451141154012</v>
       </c>
       <c r="H96">
-        <v>540.62482254898123</v>
+        <v>540.62482254898134</v>
       </c>
       <c r="I96">
         <v>429.83906472910058</v>
@@ -8976,16 +8972,16 @@
         <v>367.67325739349064</v>
       </c>
       <c r="K96">
-        <v>322.43977112205459</v>
+        <v>322.43977112205465</v>
       </c>
       <c r="L96">
-        <v>293.65482531295896</v>
+        <v>293.65482531295902</v>
       </c>
       <c r="M96">
         <v>869.67232872046975</v>
       </c>
       <c r="N96">
-        <v>632.92662152075854</v>
+        <v>632.92662152075866</v>
       </c>
       <c r="O96">
         <v>503.22622212187389</v>
@@ -8994,13 +8990,13 @@
         <v>430.44674036311102</v>
       </c>
       <c r="Q96">
-        <v>377.4904637526493</v>
+        <v>377.49046375264936</v>
       </c>
       <c r="R96">
-        <v>343.79101500053736</v>
+        <v>343.79101500053741</v>
       </c>
       <c r="S96">
-        <v>28.643028454775443</v>
+        <v>28.643028454775447</v>
       </c>
       <c r="T96">
         <v>39.356930820857002</v>
@@ -9029,7 +9025,7 @@
         <v>66.511801279999986</v>
       </c>
       <c r="F97">
-        <v>292.52482890962585</v>
+        <v>35.644895951281626</v>
       </c>
       <c r="G97">
         <v>739.98661415276854</v>
@@ -9038,7 +9034,7 @@
         <v>538.54447496953355</v>
       </c>
       <c r="I97">
-        <v>428.18502551268955</v>
+        <v>428.18502551268949</v>
       </c>
       <c r="J97">
         <v>366.25843487860897</v>
@@ -9056,7 +9052,7 @@
         <v>630.49109264725882</v>
       </c>
       <c r="O97">
-        <v>501.28978596607561</v>
+        <v>501.2897859660755</v>
       </c>
       <c r="P97">
         <v>428.79036278471295</v>
@@ -9068,7 +9064,7 @@
         <v>342.46809238200103</v>
       </c>
       <c r="S97">
-        <v>28.78991578018455</v>
+        <v>28.789915780184547</v>
       </c>
       <c r="T97">
         <v>39.558761235322933</v>
@@ -9097,46 +9093,46 @@
         <v>66.511801279999986</v>
       </c>
       <c r="F98">
-        <v>291.03993130094756</v>
+        <v>35.463957393153294</v>
       </c>
       <c r="G98">
-        <v>736.23033692356671</v>
+        <v>736.2303369235666</v>
       </c>
       <c r="H98">
         <v>535.81074667019584</v>
       </c>
       <c r="I98">
-        <v>426.01149746440183</v>
+        <v>426.01149746440177</v>
       </c>
       <c r="J98">
         <v>364.39925500612873</v>
       </c>
       <c r="K98">
-        <v>319.56855718629583</v>
+        <v>319.56855718629578</v>
       </c>
       <c r="L98">
         <v>291.03993130094756</v>
       </c>
       <c r="M98">
-        <v>861.92819932515135</v>
+        <v>861.92819932515113</v>
       </c>
       <c r="N98">
         <v>627.29063024803418</v>
       </c>
       <c r="O98">
-        <v>498.74516776320218</v>
+        <v>498.74516776320212</v>
       </c>
       <c r="P98">
         <v>426.6137619583946</v>
       </c>
       <c r="Q98">
-        <v>374.12904255956585</v>
+        <v>374.12904255956579</v>
       </c>
       <c r="R98">
         <v>340.72967566940201</v>
       </c>
       <c r="S98">
-        <v>28.936803105593654</v>
+        <v>28.936803105593658</v>
       </c>
       <c r="T98">
         <v>39.760591649788871</v>
@@ -9165,7 +9161,7 @@
         <v>66.511801279999986</v>
       </c>
       <c r="F99">
-        <v>289.57003265801347</v>
+        <v>35.28484649722828</v>
       </c>
       <c r="G99">
         <v>732.51200188859923</v>
@@ -9174,7 +9170,7 @@
         <v>533.1046317880232</v>
       </c>
       <c r="I99">
-        <v>423.85992424488467</v>
+        <v>423.85992424488461</v>
       </c>
       <c r="J99">
         <v>362.55885472832</v>
@@ -9192,7 +9188,7 @@
         <v>624.12249575183205</v>
       </c>
       <c r="O99">
-        <v>496.22625277449913</v>
+        <v>496.22625277449907</v>
       </c>
       <c r="P99">
         <v>424.45914699900879</v>
@@ -9204,7 +9200,7 @@
         <v>339.00881872157674</v>
       </c>
       <c r="S99">
-        <v>29.083690431002761</v>
+        <v>29.083690431002758</v>
       </c>
       <c r="T99">
         <v>39.962422064254795</v>
@@ -9233,10 +9229,10 @@
         <v>66.511801279999986</v>
       </c>
       <c r="F100">
-        <v>288.11490686576218</v>
+        <v>35.107535710810048</v>
       </c>
       <c r="G100">
-        <v>728.83103705498831</v>
+        <v>728.83103705498809</v>
       </c>
       <c r="H100">
         <v>530.4257140403447</v>
@@ -9254,7 +9250,7 @@
         <v>288.11490686576218</v>
       </c>
       <c r="M100">
-        <v>853.26560435705949</v>
+        <v>853.26560435705926</v>
       </c>
       <c r="N100">
         <v>620.98620180333046</v>
@@ -9272,7 +9268,7 @@
         <v>337.3052568184533</v>
       </c>
       <c r="S100">
-        <v>29.230577756411861</v>
+        <v>29.230577756411865</v>
       </c>
       <c r="T100">
         <v>40.164252478720734</v>
@@ -9301,10 +9297,10 @@
         <v>66.428073440000006</v>
       </c>
       <c r="F101">
-        <v>286.31345468013501</v>
+        <v>34.888024170688006</v>
       </c>
       <c r="G101">
-        <v>724.27398626251625</v>
+        <v>724.27398626251613</v>
       </c>
       <c r="H101">
         <v>527.10920198525673</v>
@@ -9322,7 +9318,7 @@
         <v>286.31345468013501</v>
       </c>
       <c r="M101">
-        <v>847.93052050245808</v>
+        <v>847.93052050245797</v>
       </c>
       <c r="N101">
         <v>617.10345598273966</v>
@@ -9370,7 +9366,7 @@
         <v>66.428073440000006</v>
       </c>
       <c r="F102">
-        <v>284.88900963197511</v>
+        <v>34.714451911132343</v>
       </c>
       <c r="G102">
         <v>720.67063309703099</v>
@@ -9385,7 +9381,7 @@
         <v>356.69793627726705</v>
       </c>
       <c r="K102">
-        <v>312.81470332736637</v>
+        <v>312.81470332736643</v>
       </c>
       <c r="L102">
         <v>284.88900963197511</v>
@@ -9403,7 +9399,7 @@
         <v>417.59758393436147</v>
       </c>
       <c r="Q102">
-        <v>366.22209170033136</v>
+        <v>366.22209170033142</v>
       </c>
       <c r="R102">
         <v>333.52859664231232</v>
@@ -9438,46 +9434,46 @@
         <v>66.511801279999986</v>
       </c>
       <c r="F103">
-        <v>283.83597260537954</v>
+        <v>34.586136665599994</v>
       </c>
       <c r="G103">
-        <v>718.00681373238933</v>
+        <v>718.00681373238922</v>
       </c>
       <c r="H103">
         <v>522.54810442588405</v>
       </c>
       <c r="I103">
-        <v>415.46665841825325</v>
+        <v>415.46665841825319</v>
       </c>
       <c r="J103">
         <v>355.37947146637305</v>
       </c>
       <c r="K103">
-        <v>311.65844438465484</v>
+        <v>311.65844438465479</v>
       </c>
       <c r="L103">
         <v>283.83597260537954</v>
       </c>
       <c r="M103">
-        <v>840.59334290621189</v>
+        <v>840.59334290621177</v>
       </c>
       <c r="N103">
         <v>611.76363444981553</v>
       </c>
       <c r="O103">
-        <v>486.39999034332089</v>
+        <v>486.39999034332084</v>
       </c>
       <c r="P103">
         <v>416.05401537526603</v>
       </c>
       <c r="Q103">
-        <v>364.86842269423005</v>
+        <v>364.86842269422999</v>
       </c>
       <c r="R103">
         <v>332.29577280629803</v>
       </c>
       <c r="S103">
-        <v>29.671239732639179</v>
+        <v>29.671239732639176</v>
       </c>
       <c r="T103">
         <v>40.769743722118534</v>
@@ -9506,46 +9502,46 @@
         <v>66.511801279999986</v>
       </c>
       <c r="F104">
-        <v>282.43776584377667</v>
+        <v>34.415761608133984</v>
       </c>
       <c r="G104">
-        <v>714.46983435439722</v>
+        <v>714.46983435439711</v>
       </c>
       <c r="H104">
         <v>519.97397583265308</v>
       </c>
       <c r="I104">
-        <v>413.42002463294165</v>
+        <v>413.42002463294159</v>
       </c>
       <c r="J104">
-        <v>353.62883367589836</v>
+        <v>353.62883367589831</v>
       </c>
       <c r="K104">
-        <v>310.12318111182401</v>
+        <v>310.12318111182395</v>
       </c>
       <c r="L104">
         <v>282.43776584377667</v>
       </c>
       <c r="M104">
-        <v>836.45248900026991</v>
+        <v>836.45248900026979</v>
       </c>
       <c r="N104">
         <v>608.75002048700856</v>
       </c>
       <c r="O104">
-        <v>484.00393127759025</v>
+        <v>484.0039312775902</v>
       </c>
       <c r="P104">
-        <v>414.00448820592982</v>
+        <v>414.00448820592976</v>
       </c>
       <c r="Q104">
-        <v>363.07104130164765</v>
+        <v>363.0710413016476</v>
       </c>
       <c r="R104">
         <v>330.6588478171044</v>
       </c>
       <c r="S104">
-        <v>29.818127058048287</v>
+        <v>29.818127058048283</v>
       </c>
       <c r="T104">
         <v>40.971574136584465</v>
@@ -9574,40 +9570,40 @@
         <v>66.428073440000006</v>
       </c>
       <c r="F105">
-        <v>280.6994653726814</v>
+        <v>34.203945265380398</v>
       </c>
       <c r="G105">
-        <v>710.07253555148657</v>
+        <v>710.07253555148645</v>
       </c>
       <c r="H105">
-        <v>516.77372743652631</v>
+        <v>516.7737274365262</v>
       </c>
       <c r="I105">
-        <v>410.87557657928738</v>
+        <v>410.87557657928727</v>
       </c>
       <c r="J105">
         <v>351.45237839083666</v>
       </c>
       <c r="K105">
-        <v>308.21448710196404</v>
+        <v>308.21448710196398</v>
       </c>
       <c r="L105">
         <v>280.6994653726814</v>
       </c>
       <c r="M105">
-        <v>831.30443186515504</v>
+        <v>831.30443186515492</v>
       </c>
       <c r="N105">
-        <v>605.00338821837227</v>
+        <v>605.00338821837215</v>
       </c>
       <c r="O105">
-        <v>481.02506526355597</v>
+        <v>481.02506526355586</v>
       </c>
       <c r="P105">
         <v>411.45644299415022</v>
       </c>
       <c r="Q105">
-        <v>360.83647270473841</v>
+        <v>360.83647270473836</v>
       </c>
       <c r="R105">
         <v>328.62376433874897</v>
@@ -9642,40 +9638,40 @@
         <v>66.183867239999998</v>
       </c>
       <c r="F106">
-        <v>278.30331206229067</v>
+        <v>33.911967877510243</v>
       </c>
       <c r="G106">
-        <v>704.01109665839761</v>
+        <v>704.01109665839749</v>
       </c>
       <c r="H106">
         <v>512.36235787415126</v>
       </c>
       <c r="I106">
-        <v>407.36819236794935</v>
+        <v>407.36819236794929</v>
       </c>
       <c r="J106">
         <v>348.45225233499326</v>
       </c>
       <c r="K106">
-        <v>305.58345550167496</v>
+        <v>305.58345550167502</v>
       </c>
       <c r="L106">
         <v>278.30331206229067</v>
       </c>
       <c r="M106">
-        <v>824.20811316105085</v>
+        <v>824.20811316105073</v>
       </c>
       <c r="N106">
         <v>599.83885799900634</v>
       </c>
       <c r="O106">
-        <v>476.91885935759927</v>
+        <v>476.91885935759922</v>
       </c>
       <c r="P106">
         <v>407.94410029462625</v>
       </c>
       <c r="Q106">
-        <v>357.75624058732677</v>
+        <v>357.75624058732689</v>
       </c>
       <c r="R106">
         <v>325.81851168268179</v>
@@ -9710,40 +9706,40 @@
         <v>65.747286360000004</v>
       </c>
       <c r="F107">
-        <v>275.12541328357054</v>
+        <v>33.524732811914561</v>
       </c>
       <c r="G107">
-        <v>695.972112186034</v>
+        <v>695.97211218603377</v>
       </c>
       <c r="H107">
-        <v>506.51177816209236</v>
+        <v>506.5117781620923</v>
       </c>
       <c r="I107">
-        <v>402.71652339777989</v>
+        <v>402.71652339777984</v>
       </c>
       <c r="J107">
-        <v>344.47333458898453</v>
+        <v>344.47333458898447</v>
       </c>
       <c r="K107">
-        <v>302.09404934678713</v>
+        <v>302.09404934678707</v>
       </c>
       <c r="L107">
         <v>275.12541328357054</v>
       </c>
       <c r="M107">
-        <v>814.7966191446252</v>
+        <v>814.79661914462497</v>
       </c>
       <c r="N107">
         <v>592.98939882391301</v>
       </c>
       <c r="O107">
-        <v>471.47300300227892</v>
+        <v>471.47300300227886</v>
       </c>
       <c r="P107">
-        <v>403.28585512856728</v>
+        <v>403.28585512856722</v>
       </c>
       <c r="Q107">
-        <v>353.67108216209226</v>
+        <v>353.6710821620922</v>
       </c>
       <c r="R107">
         <v>322.09804481978989</v>
@@ -9778,13 +9774,13 @@
         <v>65.747286360000004</v>
       </c>
       <c r="F108">
-        <v>273.79630500683828</v>
+        <v>33.362777580939131</v>
       </c>
       <c r="G108">
         <v>692.60992806919307</v>
       </c>
       <c r="H108">
-        <v>504.06486135937689</v>
+        <v>504.06486135937695</v>
       </c>
       <c r="I108">
         <v>400.77103294658286</v>
@@ -9796,7 +9792,7 @@
         <v>300.63465780404897</v>
       </c>
       <c r="L108">
-        <v>273.79630500683828</v>
+        <v>273.79630500683834</v>
       </c>
       <c r="M108">
         <v>810.86040359320168</v>
@@ -9814,7 +9810,7 @@
         <v>351.96252620961832</v>
       </c>
       <c r="R108">
-        <v>320.54201561776188</v>
+        <v>320.54201561776199</v>
       </c>
       <c r="S108">
         <v>30.405676359684705</v>
@@ -9846,40 +9842,40 @@
         <v>66.033356480000009</v>
       </c>
       <c r="F109">
-        <v>273.66555223462876</v>
+        <v>33.346845022400004</v>
       </c>
       <c r="G109">
-        <v>692.27916879122324</v>
+        <v>692.27916879122313</v>
       </c>
       <c r="H109">
         <v>503.82414270543268</v>
       </c>
       <c r="I109">
-        <v>400.57964276848048</v>
+        <v>400.57964276848043</v>
       </c>
       <c r="J109">
         <v>342.64550197416452</v>
       </c>
       <c r="K109">
-        <v>300.49108824444818</v>
+        <v>300.49108824444824</v>
       </c>
       <c r="L109">
         <v>273.66555223462876</v>
       </c>
       <c r="M109">
-        <v>810.47317321899311</v>
+        <v>810.473173218993</v>
       </c>
       <c r="N109">
         <v>589.84289877709193</v>
       </c>
       <c r="O109">
-        <v>468.97128909480642</v>
+        <v>468.97128909480637</v>
       </c>
       <c r="P109">
         <v>401.14595353072923</v>
       </c>
       <c r="Q109">
-        <v>351.79444477398812</v>
+        <v>351.79444477398818</v>
       </c>
       <c r="R109">
         <v>320.38893920151662</v>
@@ -9914,7 +9910,7 @@
         <v>66.033356480000009</v>
       </c>
       <c r="F110">
-        <v>272.35614767848222</v>
+        <v>33.187290739996179</v>
       </c>
       <c r="G110">
         <v>688.96682827069105</v>
@@ -9923,16 +9919,16 @@
         <v>501.41350087430624</v>
       </c>
       <c r="I110">
-        <v>398.66299376001882</v>
+        <v>398.66299376001888</v>
       </c>
       <c r="J110">
-        <v>341.0060498116087</v>
+        <v>341.00604981160876</v>
       </c>
       <c r="K110">
         <v>299.05333184136475</v>
       </c>
       <c r="L110">
-        <v>272.35614767848222</v>
+        <v>272.35614767848227</v>
       </c>
       <c r="M110">
         <v>806.59531114617494</v>
@@ -9941,16 +9937,16 @@
         <v>587.02068395040737</v>
       </c>
       <c r="O110">
-        <v>466.72740732880254</v>
+        <v>466.7274073288026</v>
       </c>
       <c r="P110">
-        <v>399.22659490139557</v>
+        <v>399.22659490139563</v>
       </c>
       <c r="Q110">
         <v>350.11121776550021</v>
       </c>
       <c r="R110">
-        <v>318.8559777699304</v>
+        <v>318.85597776993046</v>
       </c>
       <c r="S110">
         <v>30.699451010502912</v>
@@ -9982,13 +9978,13 @@
         <v>65.832010960000005</v>
       </c>
       <c r="F111">
-        <v>270.23271380561096</v>
+        <v>32.928544910659049</v>
       </c>
       <c r="G111">
         <v>683.59527520348547</v>
       </c>
       <c r="H111">
-        <v>497.50421363718323</v>
+        <v>497.50421363718328</v>
       </c>
       <c r="I111">
         <v>395.55480431018998</v>
@@ -10006,7 +10002,7 @@
         <v>800.30666365286106</v>
       </c>
       <c r="N111">
-        <v>582.44395742889742</v>
+        <v>582.44395742889753</v>
       </c>
       <c r="O111">
         <v>463.0885513875395</v>
@@ -10050,40 +10046,40 @@
         <v>65.50008987999999</v>
       </c>
       <c r="F112">
-        <v>267.59595012155847</v>
+        <v>32.607248535522267</v>
       </c>
       <c r="G112">
-        <v>676.92517530750104</v>
+        <v>676.92517530750081</v>
       </c>
       <c r="H112">
         <v>492.6498752237917</v>
       </c>
       <c r="I112">
-        <v>391.69522517793195</v>
+        <v>391.69522517793189</v>
       </c>
       <c r="J112">
         <v>335.04600015219842</v>
       </c>
       <c r="K112">
-        <v>293.82652513347404</v>
+        <v>293.82652513347398</v>
       </c>
       <c r="L112">
         <v>267.59595012155847</v>
       </c>
       <c r="M112">
-        <v>792.49776621365982</v>
+        <v>792.49776621365947</v>
       </c>
       <c r="N112">
         <v>576.76082953029277</v>
       </c>
       <c r="O112">
-        <v>458.57001972050568</v>
+        <v>458.57001972050563</v>
       </c>
       <c r="P112">
         <v>392.24897578793963</v>
       </c>
       <c r="Q112">
-        <v>343.99202942455497</v>
+        <v>343.99202942455491</v>
       </c>
       <c r="R112">
         <v>313.2830635569465</v>
@@ -10118,40 +10114,40 @@
         <v>65.253890159999997</v>
       </c>
       <c r="F113">
-        <v>265.33261814804371</v>
+        <v>32.331455766067926</v>
       </c>
       <c r="G113">
-        <v>671.19972844533959</v>
+        <v>671.19972844533947</v>
       </c>
       <c r="H113">
-        <v>488.48303258721393</v>
+        <v>488.48303258721381</v>
       </c>
       <c r="I113">
-        <v>388.38225901900631</v>
+        <v>388.38225901900626</v>
       </c>
       <c r="J113">
-        <v>332.21217428750123</v>
+        <v>332.21217428750117</v>
       </c>
       <c r="K113">
-        <v>291.34133442449939</v>
+        <v>291.34133442449934</v>
       </c>
       <c r="L113">
         <v>265.33261814804371</v>
       </c>
       <c r="M113">
-        <v>785.79480403356831</v>
+        <v>785.7948040335682</v>
       </c>
       <c r="N113">
-        <v>571.88257473625049</v>
+        <v>571.88257473625038</v>
       </c>
       <c r="O113">
-        <v>454.69142519298305</v>
+        <v>454.69142519298293</v>
       </c>
       <c r="P113">
-        <v>388.93132599512342</v>
+        <v>388.93132599512336</v>
       </c>
       <c r="Q113">
-        <v>341.08253786282859</v>
+        <v>341.08253786282853</v>
       </c>
       <c r="R113">
         <v>310.63330905136826</v>
@@ -10186,22 +10182,22 @@
         <v>65.589798279999997</v>
       </c>
       <c r="F114">
-        <v>265.44636807946983</v>
+        <v>32.345316485123</v>
       </c>
       <c r="G114">
         <v>671.48747641849411</v>
       </c>
       <c r="H114">
-        <v>488.69244864712942</v>
+        <v>488.69244864712931</v>
       </c>
       <c r="I114">
-        <v>388.54876118386977</v>
+        <v>388.54876118386971</v>
       </c>
       <c r="J114">
-        <v>332.35459594793588</v>
+        <v>332.35459594793582</v>
       </c>
       <c r="K114">
-        <v>291.46623447276221</v>
+        <v>291.46623447276215</v>
       </c>
       <c r="L114">
         <v>265.44636807946983</v>
@@ -10210,22 +10206,22 @@
         <v>786.13167970945653</v>
       </c>
       <c r="N114">
-        <v>572.12774475761501</v>
+        <v>572.12774475761478</v>
       </c>
       <c r="O114">
-        <v>454.88635455672562</v>
+        <v>454.88635455672556</v>
       </c>
       <c r="P114">
-        <v>389.098063548803</v>
+        <v>389.09806354880294</v>
       </c>
       <c r="Q114">
-        <v>341.2287623095753</v>
+        <v>341.22876230957525</v>
       </c>
       <c r="R114">
         <v>310.76647970279396</v>
       </c>
       <c r="S114">
-        <v>31.287000312139334</v>
+        <v>31.28700031213933</v>
       </c>
       <c r="T114">
         <v>42.989878281243797</v>
@@ -10254,46 +10250,46 @@
         <v>65.50008987999999</v>
       </c>
       <c r="F115">
-        <v>263.84460502639644</v>
+        <v>32.150137574743916</v>
       </c>
       <c r="G115">
-        <v>667.43557004618083</v>
+        <v>667.43557004618071</v>
       </c>
       <c r="H115">
-        <v>485.74356856177599</v>
+        <v>485.74356856177587</v>
       </c>
       <c r="I115">
-        <v>386.2041706193628</v>
+        <v>386.20417061936274</v>
       </c>
       <c r="J115">
-        <v>330.34909360800873</v>
+        <v>330.34909360800867</v>
       </c>
       <c r="K115">
-        <v>289.70746169702346</v>
+        <v>289.7074616970234</v>
       </c>
       <c r="L115">
         <v>263.84460502639644</v>
       </c>
       <c r="M115">
-        <v>781.38798444430927</v>
+        <v>781.38798444430915</v>
       </c>
       <c r="N115">
-        <v>568.67539734061586</v>
+        <v>568.67539734061563</v>
       </c>
       <c r="O115">
-        <v>452.14146804218086</v>
+        <v>452.1414680421808</v>
       </c>
       <c r="P115">
-        <v>386.7501583703517</v>
+        <v>386.75015837035164</v>
       </c>
       <c r="Q115">
-        <v>339.16971125505188</v>
+        <v>339.16971125505182</v>
       </c>
       <c r="R115">
         <v>308.89124490895193</v>
       </c>
       <c r="S115">
-        <v>31.433887637548441</v>
+        <v>31.433887637548438</v>
       </c>
       <c r="T115">
         <v>43.191708695709735</v>
@@ -10322,40 +10318,40 @@
         <v>65.117334039999989</v>
       </c>
       <c r="F116">
-        <v>261.08279160214755</v>
+        <v>31.813603570053949</v>
       </c>
       <c r="G116">
-        <v>660.4491375701773</v>
+        <v>660.44913757017719</v>
       </c>
       <c r="H116">
-        <v>480.65901089851712</v>
+        <v>480.65901089851707</v>
       </c>
       <c r="I116">
-        <v>382.1615491573445</v>
+        <v>382.16154915734444</v>
       </c>
       <c r="J116">
-        <v>326.89113940301837</v>
+        <v>326.89113940301831</v>
       </c>
       <c r="K116">
-        <v>286.67492685804177</v>
+        <v>286.67492685804172</v>
       </c>
       <c r="L116">
         <v>261.08279160214755</v>
       </c>
       <c r="M116">
-        <v>773.20874642362219</v>
+        <v>773.20874642362207</v>
       </c>
       <c r="N116">
         <v>562.72274446655661</v>
       </c>
       <c r="O116">
-        <v>447.40864291591555</v>
+        <v>447.40864291591544</v>
       </c>
       <c r="P116">
-        <v>382.7018217401191</v>
+        <v>382.70182174011904</v>
       </c>
       <c r="Q116">
-        <v>335.61942656551236</v>
+        <v>335.61942656551224</v>
       </c>
       <c r="R116">
         <v>305.65790236348982</v>
@@ -10390,40 +10386,40 @@
         <v>64.816312519999997</v>
       </c>
       <c r="F117">
-        <v>258.67274064133386</v>
+        <v>31.519932718059259</v>
       </c>
       <c r="G117">
-        <v>654.35254242960161</v>
+        <v>654.3525424296015</v>
       </c>
       <c r="H117">
-        <v>476.22205546407014</v>
+        <v>476.22205546407008</v>
       </c>
       <c r="I117">
-        <v>378.63382217434122</v>
+        <v>378.63382217434116</v>
       </c>
       <c r="J117">
-        <v>323.87361266460255</v>
+        <v>323.87361266460249</v>
       </c>
       <c r="K117">
-        <v>284.02863531704946</v>
+        <v>284.02863531704941</v>
       </c>
       <c r="L117">
         <v>258.67274064133386</v>
       </c>
       <c r="M117">
-        <v>766.07126918587505</v>
+        <v>766.07126918587494</v>
       </c>
       <c r="N117">
         <v>557.52826005549673</v>
       </c>
       <c r="O117">
-        <v>443.27862108215561</v>
+        <v>443.27862108215555</v>
       </c>
       <c r="P117">
-        <v>379.1691075097786</v>
+        <v>379.16910750977854</v>
       </c>
       <c r="Q117">
-        <v>332.52132915166766</v>
+        <v>332.5213291516676</v>
       </c>
       <c r="R117">
         <v>302.83637928741524</v>
@@ -10458,7 +10454,7 @@
         <v>64.549180840000005</v>
       </c>
       <c r="F118">
-        <v>256.41952842257882</v>
+        <v>31.24537306651429</v>
       </c>
       <c r="G118">
         <v>648.65269504591402</v>
@@ -10526,43 +10522,43 @@
         <v>64.347835320000002</v>
       </c>
       <c r="F119">
-        <v>254.44712248658317</v>
+        <v>31.005030376205504</v>
       </c>
       <c r="G119">
-        <v>643.66319040881137</v>
+        <v>643.66319040881115</v>
       </c>
       <c r="H119">
-        <v>468.44260194193851</v>
+        <v>468.44260194193845</v>
       </c>
       <c r="I119">
-        <v>372.44854749477616</v>
+        <v>372.44854749477611</v>
       </c>
       <c r="J119">
-        <v>318.58288812158685</v>
+        <v>318.58288812158679</v>
       </c>
       <c r="K119">
         <v>279.38880912241791</v>
       </c>
       <c r="L119">
-        <v>254.44712248658317</v>
+        <v>254.44712248658314</v>
       </c>
       <c r="M119">
-        <v>753.55690584446211</v>
+        <v>753.55690584446188</v>
       </c>
       <c r="N119">
         <v>548.42060715153775</v>
       </c>
       <c r="O119">
-        <v>436.03732389632336</v>
+        <v>436.03732389632324</v>
       </c>
       <c r="P119">
-        <v>372.9750885325895</v>
+        <v>372.97508853258944</v>
       </c>
       <c r="Q119">
         <v>327.0893375091722</v>
       </c>
       <c r="R119">
-        <v>297.88931413063398</v>
+        <v>297.88931413063392</v>
       </c>
       <c r="S119">
         <v>32.021436939184859</v>
@@ -10594,19 +10590,19 @@
         <v>64.248159319999999</v>
       </c>
       <c r="F120">
-        <v>251.74340659893628</v>
+        <v>30.675575704421817</v>
       </c>
       <c r="G120">
-        <v>636.82372460076886</v>
+        <v>636.82372460076874</v>
       </c>
       <c r="H120">
         <v>463.46500308782743</v>
       </c>
       <c r="I120">
-        <v>368.49096666088116</v>
+        <v>368.4909666608811</v>
       </c>
       <c r="J120">
-        <v>315.1976754780751</v>
+        <v>315.19767547807504</v>
       </c>
       <c r="K120">
         <v>276.42006671860133</v>
@@ -10615,16 +10611,16 @@
         <v>251.74340659893628</v>
       </c>
       <c r="M120">
-        <v>745.54972636187574</v>
+        <v>745.54972636187563</v>
       </c>
       <c r="N120">
         <v>542.59317434672482</v>
       </c>
       <c r="O120">
-        <v>431.40405852981212</v>
+        <v>431.40405852981206</v>
       </c>
       <c r="P120">
-        <v>369.01191275481966</v>
+        <v>369.0119127548196</v>
       </c>
       <c r="Q120">
         <v>323.61373664616741</v>
@@ -10662,10 +10658,10 @@
         <v>64.248159319999999</v>
       </c>
       <c r="F121">
-        <v>250.55894612633901</v>
+        <v>30.531246177039449</v>
       </c>
       <c r="G121">
-        <v>633.82744938549195</v>
+        <v>633.82744938549183</v>
       </c>
       <c r="H121">
         <v>461.28438599041817</v>
@@ -10680,10 +10676,10 @@
         <v>275.11950180099666</v>
       </c>
       <c r="L121">
-        <v>250.55894612633901</v>
+        <v>250.55894612633904</v>
       </c>
       <c r="M121">
-        <v>742.04189196350285</v>
+        <v>742.04189196350262</v>
       </c>
       <c r="N121">
         <v>540.04025676927006</v>
@@ -10698,7 +10694,7 @@
         <v>322.09112405970342</v>
       </c>
       <c r="R121">
-        <v>293.33730278205542</v>
+        <v>293.33730278205547</v>
       </c>
       <c r="S121">
         <v>32.467974408428532</v>
@@ -10730,7 +10726,7 @@
         <v>63.539462960000002</v>
       </c>
       <c r="F122">
-        <v>246.63470435008983</v>
+        <v>30.053067315014406</v>
       </c>
       <c r="G122">
         <v>623.90047533700647</v>
@@ -10739,13 +10735,13 @@
         <v>454.05977283562663</v>
       </c>
       <c r="I122">
-        <v>361.01307218295688</v>
+        <v>361.01307218295682</v>
       </c>
       <c r="J122">
         <v>308.80127727523603</v>
       </c>
       <c r="K122">
-        <v>270.81059382098005</v>
+        <v>270.81059382097999</v>
       </c>
       <c r="L122">
         <v>246.63470435008983</v>
@@ -10757,19 +10753,19 @@
         <v>531.58217307585562</v>
       </c>
       <c r="O122">
-        <v>422.6494503605349</v>
+        <v>422.64945036053484</v>
       </c>
       <c r="P122">
         <v>361.52344656613002</v>
       </c>
       <c r="Q122">
-        <v>317.04654886358639</v>
+        <v>317.04654886358634</v>
       </c>
       <c r="R122">
         <v>288.74306850742227</v>
       </c>
       <c r="S122">
-        <v>32.620737226853997</v>
+        <v>32.620737226854004</v>
       </c>
       <c r="T122">
         <v>44.82249844459448</v>
@@ -10798,13 +10794,13 @@
         <v>62.674275279999996</v>
       </c>
       <c r="F123">
-        <v>242.14244052251959</v>
+        <v>29.505673518336323</v>
       </c>
       <c r="G123">
         <v>612.53660201372134</v>
       </c>
       <c r="H123">
-        <v>445.78941891913621</v>
+        <v>445.78941891913615</v>
       </c>
       <c r="I123">
         <v>354.43749325248541</v>
@@ -10822,7 +10818,7 @@
         <v>717.11602186972254</v>
       </c>
       <c r="N123">
-        <v>521.89980751508631</v>
+        <v>521.8998075150862</v>
       </c>
       <c r="O123">
         <v>414.95121161266587</v>
@@ -10837,7 +10833,7 @@
         <v>283.48383280685221</v>
       </c>
       <c r="S123">
-        <v>32.773500045279469</v>
+        <v>32.773500045279476</v>
       </c>
       <c r="T123">
         <v>45.032402075639048</v>
@@ -10866,19 +10862,19 @@
         <v>62.674275279999996</v>
       </c>
       <c r="F124">
-        <v>240.99750793730294</v>
+        <v>29.366160564774734</v>
       </c>
       <c r="G124">
-        <v>609.64031867830101</v>
+        <v>609.6403186783009</v>
       </c>
       <c r="H124">
         <v>443.68157350895552</v>
       </c>
       <c r="I124">
-        <v>352.76159110756782</v>
+        <v>352.76159110756777</v>
       </c>
       <c r="J124">
-        <v>301.74317303517341</v>
+        <v>301.74317303517336</v>
       </c>
       <c r="K124">
         <v>264.62082214203031</v>
@@ -10887,16 +10883,16 @@
         <v>240.99750793730294</v>
       </c>
       <c r="M124">
-        <v>713.72525113557197</v>
+        <v>713.72525113557185</v>
       </c>
       <c r="N124">
         <v>519.43208605926498</v>
       </c>
       <c r="O124">
-        <v>412.98917983325015</v>
+        <v>412.98917983325009</v>
       </c>
       <c r="P124">
-        <v>353.26030013873964</v>
+        <v>353.26030013873958</v>
       </c>
       <c r="Q124">
         <v>309.79998689798674</v>
@@ -10905,7 +10901,7 @@
         <v>282.14342392659859</v>
       </c>
       <c r="S124">
-        <v>32.92920061021313</v>
+        <v>32.929200610213123</v>
       </c>
       <c r="T124">
         <v>45.246342314972935</v>
@@ -10934,22 +10930,22 @@
         <v>61.965578919999999</v>
       </c>
       <c r="F125">
-        <v>237.17212956081408</v>
+        <v>28.900028459980465</v>
       </c>
       <c r="G125">
         <v>599.96343482805605</v>
       </c>
       <c r="H125">
-        <v>436.63896999046091</v>
+        <v>436.63896999046085</v>
       </c>
       <c r="I125">
-        <v>347.16216987608453</v>
+        <v>347.16216987608448</v>
       </c>
       <c r="J125">
         <v>296.95357243199129</v>
       </c>
       <c r="K125">
-        <v>260.4204684551608</v>
+        <v>260.42046845516074</v>
       </c>
       <c r="L125">
         <v>237.17212956081408</v>
@@ -10958,16 +10954,16 @@
         <v>702.39621638406561</v>
       </c>
       <c r="N125">
-        <v>511.18708681810062</v>
+        <v>511.18708681810051</v>
       </c>
       <c r="O125">
-        <v>406.43375985492827</v>
+        <v>406.43375985492821</v>
       </c>
       <c r="P125">
         <v>347.65296284720932</v>
       </c>
       <c r="Q125">
-        <v>304.88249965482242</v>
+        <v>304.88249965482237</v>
       </c>
       <c r="R125">
         <v>277.66493216875796</v>
@@ -11002,10 +10998,10 @@
         <v>61.409386840000003</v>
       </c>
       <c r="F126">
-        <v>233.9629421150955</v>
+        <v>28.508980790566604</v>
       </c>
       <c r="G126">
-        <v>591.84530085293113</v>
+        <v>591.84530085293102</v>
       </c>
       <c r="H126">
         <v>430.73078717235455</v>
@@ -11017,13 +11013,13 @@
         <v>292.93547941922998</v>
       </c>
       <c r="K126">
-        <v>256.89670662225893</v>
+        <v>256.89670662225888</v>
       </c>
       <c r="L126">
-        <v>233.9629421150955</v>
+        <v>233.96294211509553</v>
       </c>
       <c r="M126">
-        <v>692.89205953513897</v>
+        <v>692.89205953513874</v>
       </c>
       <c r="N126">
         <v>504.27018986031754</v>
@@ -11035,10 +11031,10 @@
         <v>342.94885395422045</v>
       </c>
       <c r="Q126">
-        <v>300.75711994801048</v>
+        <v>300.75711994801043</v>
       </c>
       <c r="R126">
-        <v>273.90783467133133</v>
+        <v>273.90783467133139</v>
       </c>
       <c r="S126">
         <v>33.234726247064067</v>
@@ -11070,34 +11066,34 @@
         <v>60.90901332</v>
       </c>
       <c r="F127">
-        <v>230.99481111486844</v>
+        <v>28.147306463408711</v>
       </c>
       <c r="G127">
         <v>584.33695628810631</v>
       </c>
       <c r="H127">
-        <v>425.26639443305675</v>
+        <v>425.2663944330568</v>
       </c>
       <c r="I127">
-        <v>338.12008183782632</v>
+        <v>338.12008183782638</v>
       </c>
       <c r="J127">
         <v>289.21920337281716</v>
       </c>
       <c r="K127">
-        <v>253.63763032629294</v>
+        <v>253.63763032629296</v>
       </c>
       <c r="L127">
-        <v>230.99481111486844</v>
+        <v>230.99481111486847</v>
       </c>
       <c r="M127">
         <v>684.10180248363667</v>
       </c>
       <c r="N127">
-        <v>497.87285201918843</v>
+        <v>497.87285201918849</v>
       </c>
       <c r="O127">
-        <v>395.84790068818694</v>
+        <v>395.847900688187</v>
       </c>
       <c r="P127">
         <v>338.59809175354206</v>
@@ -11141,46 +11137,46 @@
         <v>59.663063319999999</v>
       </c>
       <c r="F128">
-        <v>225.23902924387002</v>
+        <v>27.445949772851009</v>
       </c>
       <c r="G128">
-        <v>569.77681944639608</v>
+        <v>569.77681944639596</v>
       </c>
       <c r="H128">
-        <v>414.66987673809678</v>
+        <v>414.66987673809672</v>
       </c>
       <c r="I128">
-        <v>329.69502056536822</v>
+        <v>329.69502056536817</v>
       </c>
       <c r="J128">
-        <v>282.01262310599873</v>
+        <v>282.01262310599867</v>
       </c>
       <c r="K128">
-        <v>247.31764907914231</v>
+        <v>247.31764907914226</v>
       </c>
       <c r="L128">
-        <v>225.23902924387002</v>
+        <v>225.23902924386999</v>
       </c>
       <c r="M128">
-        <v>667.05578862017103</v>
+        <v>667.05578862017092</v>
       </c>
       <c r="N128">
-        <v>485.46717276655232</v>
+        <v>485.46717276655227</v>
       </c>
       <c r="O128">
-        <v>385.98441432043109</v>
+        <v>385.98441432043103</v>
       </c>
       <c r="P128">
-        <v>330.16111973385216</v>
+        <v>330.1611197338521</v>
       </c>
       <c r="Q128">
-        <v>289.54261355606906</v>
+        <v>289.542613556069</v>
       </c>
       <c r="R128">
         <v>263.69447326111612</v>
       </c>
       <c r="S128">
-        <v>33.540251883915005</v>
+        <v>33.540251883914998</v>
       </c>
       <c r="T128">
         <v>46.085956839151216</v>
@@ -11200,7 +11196,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/engine_data.xlsx
+++ b/engine_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxwe\Downloads\FSAE\2023-2024 Car\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4D5A10-955E-4EC5-B868-EDABD3073CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08D8D08-BE78-44D3-B3AB-BDAE72F973A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2819ED3D-E80A-4DFB-B512-B4F78C4B24A5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2323,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BAF9BE-4D21-4E54-A3DD-A372646D3216}">
   <dimension ref="B1:AO128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="57" zoomScaleNormal="36" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2447,75 +2447,75 @@
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2:G128">(F2:F128)*AL4*AK10</f>
-        <v>703.01655998063791</v>
+        <v>671.38081478150923</v>
       </c>
       <c r="H2" cm="1">
         <f t="array" ref="H2:H128">(F2:F128)*AL5*AK10</f>
-        <v>511.63855798004744</v>
+        <v>488.61482287094526</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2:I128">(F2:F128)*AL6*AK10</f>
-        <v>406.79271477876699</v>
+        <v>388.48704261372245</v>
       </c>
       <c r="J2" cm="1">
         <f t="array" ref="J2:J128">(F2:F128)*AL7*AK10</f>
-        <v>347.96000363743724</v>
+        <v>332.30180347375256</v>
       </c>
       <c r="K2" cm="1">
         <f t="array" ref="K2:K128">(F2:F128)*AL8*AK10</f>
-        <v>305.15176634783143</v>
+        <v>291.41993686217899</v>
       </c>
       <c r="L2" cm="1">
         <f t="array" ref="L2:L128">(F2:F128)*AL9*AK10</f>
-        <v>277.9101607999005</v>
+        <v>265.40420356390496</v>
       </c>
       <c r="M2" cm="1">
         <f t="array" ref="M2:M128">(G2:G128)/(AO4/12/2)</f>
-        <v>823.04377753830784</v>
+        <v>786.00680754908399</v>
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:N128">(H2:H128)/(AO4/12/2)</f>
-        <v>598.99148251322629</v>
+        <v>572.03686580013107</v>
       </c>
       <c r="O2" cm="1">
         <f t="array" ref="O2:O128">(I2:I128)/(AO4/12/2)</f>
-        <v>476.2451294970931</v>
+        <v>454.81409866972388</v>
       </c>
       <c r="P2" cm="1">
         <f t="array" ref="P2:P128">(J2:J128)/(AO4/12/2)</f>
-        <v>407.36780913651188</v>
+        <v>389.03625772536884</v>
       </c>
       <c r="Q2" cm="1">
         <f t="array" ref="Q2:Q128">(K2:K128)/(AO4/12/2)</f>
-        <v>357.25084840721729</v>
+        <v>341.17456022889246</v>
       </c>
       <c r="R2" cm="1">
         <f t="array" ref="R2:R128">(L2:L128)/(AO4/12/2)</f>
-        <v>325.35823703402986</v>
+        <v>310.71711636749848</v>
       </c>
       <c r="S2" cm="1">
         <f t="array" ref="S2:S128">(D2:D128)*AO4*0.002975/(AL4*AK10)</f>
-        <v>14.688732540910484</v>
+        <v>15.380871770586895</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" ref="T2:T128">(D2:D128)*AO4*0.002975/(AL5*AK10)</f>
-        <v>20.183041446593332</v>
+        <v>21.134074813186736</v>
       </c>
       <c r="U2" cm="1">
         <f t="array" ref="U2:U128">(D2:D128)*AO4*0.002975/(AL6*AK10)</f>
-        <v>25.384973344477267</v>
+        <v>26.581123920918603</v>
       </c>
       <c r="V2" cm="1">
         <f t="array" ref="V2:V128">(D2:D128)*AO4*0.002975/(AL7*AK10)</f>
-        <v>29.677037916536904</v>
+        <v>31.075432373337073</v>
       </c>
       <c r="W2" cm="1">
         <f t="array" ref="W2:W128">(D2:D128)*AO4*0.002975/(AL8*AK10)</f>
-        <v>33.840283295675988</v>
+        <v>35.434851618508887</v>
       </c>
       <c r="X2" cm="1">
         <f t="array" ref="X2:X128">(D2:D128)*AO4*0.002975/(AL9*AK10)</f>
-        <v>37.157411559420176</v>
+        <v>38.908284355413798</v>
       </c>
       <c r="AJ2" t="s">
         <v>18</v>
@@ -2538,58 +2538,58 @@
         <v>34.073004617599999</v>
       </c>
       <c r="G3">
-        <v>707.35421294119124</v>
+        <v>675.52327335883763</v>
       </c>
       <c r="H3">
-        <v>514.79539756547126</v>
+        <v>491.62960467502501</v>
       </c>
       <c r="I3">
-        <v>409.30264942901226</v>
+        <v>390.88403020470668</v>
       </c>
       <c r="J3">
-        <v>350.10693704676351</v>
+        <v>334.35212487965913</v>
       </c>
       <c r="K3">
-        <v>307.03457044956298</v>
+        <v>293.21801477933263</v>
       </c>
       <c r="L3">
-        <v>279.62488261498083</v>
+        <v>267.04176289730668</v>
       </c>
       <c r="M3">
-        <v>828.12200539456535</v>
+        <v>790.85651515180996</v>
       </c>
       <c r="N3">
-        <v>602.68729471079564</v>
+        <v>575.56636644880984</v>
       </c>
       <c r="O3">
-        <v>479.18358957542904</v>
+        <v>457.62032804453469</v>
       </c>
       <c r="P3">
-        <v>409.8812921523085</v>
+        <v>391.43663400545461</v>
       </c>
       <c r="Q3">
-        <v>359.45510686778107</v>
+        <v>343.27962705873091</v>
       </c>
       <c r="R3">
-        <v>327.3657162321727</v>
+        <v>312.6342590017249</v>
       </c>
       <c r="S3">
-        <v>14.835619866319588</v>
+        <v>15.534680488292764</v>
       </c>
       <c r="T3">
-        <v>20.384871861059267</v>
+        <v>21.345415561318603</v>
       </c>
       <c r="U3">
-        <v>25.638823077922037</v>
+        <v>26.846935160127789</v>
       </c>
       <c r="V3">
-        <v>29.973808295702273</v>
+        <v>31.386186697070443</v>
       </c>
       <c r="W3">
-        <v>34.178686128632748</v>
+        <v>35.789200134693978</v>
       </c>
       <c r="X3">
-        <v>37.528985675014376</v>
+        <v>39.297367198967933</v>
       </c>
       <c r="AJ3" t="s">
         <v>4</v>
@@ -2615,58 +2615,58 @@
         <v>34.320962544062745</v>
       </c>
       <c r="G4">
-        <v>712.50180957624082</v>
+        <v>680.43922814530993</v>
       </c>
       <c r="H4">
-        <v>518.5416946932263</v>
+        <v>495.20731843203112</v>
       </c>
       <c r="I4">
-        <v>412.28124897980456</v>
+        <v>393.72859277571331</v>
       </c>
       <c r="J4">
-        <v>352.6547543327535</v>
+        <v>336.78529038777958</v>
       </c>
       <c r="K4">
-        <v>309.26893916155291</v>
+        <v>295.351836899283</v>
       </c>
       <c r="L4">
-        <v>281.65978405260711</v>
+        <v>268.98509377023976</v>
       </c>
       <c r="M4">
-        <v>834.14845999169665</v>
+        <v>796.6117792920702</v>
       </c>
       <c r="N4">
-        <v>607.07320354328931</v>
+        <v>579.75490938384132</v>
       </c>
       <c r="O4">
-        <v>482.67073051294193</v>
+        <v>460.95054763985951</v>
       </c>
       <c r="P4">
-        <v>412.86410263346755</v>
+        <v>394.28521801496146</v>
       </c>
       <c r="Q4">
-        <v>362.07095316474488</v>
+        <v>345.77776027233131</v>
       </c>
       <c r="R4">
-        <v>329.74803986646685</v>
+        <v>314.90937807247582</v>
       </c>
       <c r="S4">
-        <v>14.982507191728693</v>
+        <v>15.688489205998632</v>
       </c>
       <c r="T4">
-        <v>20.586702275525198</v>
+        <v>21.556756309450471</v>
       </c>
       <c r="U4">
-        <v>25.892672811366811</v>
+        <v>27.112746399336974</v>
       </c>
       <c r="V4">
-        <v>30.270578674867643</v>
+        <v>31.696941020803813</v>
       </c>
       <c r="W4">
-        <v>34.517088961589508</v>
+        <v>36.143548650879069</v>
       </c>
       <c r="X4">
-        <v>37.900559790608582</v>
+        <v>39.686450042522075</v>
       </c>
       <c r="AJ4" t="s">
         <v>5</v>
@@ -2696,58 +2696,58 @@
         <v>34.594600803137865</v>
       </c>
       <c r="G5">
-        <v>718.1825288891099</v>
+        <v>685.86431508909993</v>
       </c>
       <c r="H5">
-        <v>522.67598569428867</v>
+        <v>499.15556633804567</v>
       </c>
       <c r="I5">
-        <v>415.56833403970961</v>
+        <v>396.86775900792264</v>
       </c>
       <c r="J5">
-        <v>355.4664421724022</v>
+        <v>339.47045227464406</v>
       </c>
       <c r="K5">
-        <v>311.73471540513953</v>
+        <v>297.70665321190825</v>
       </c>
       <c r="L5">
-        <v>283.90543473506335</v>
+        <v>271.12969017198549</v>
       </c>
       <c r="M5">
-        <v>840.79905821164095</v>
+        <v>802.96310059211703</v>
       </c>
       <c r="N5">
-        <v>611.9133491055087</v>
+        <v>584.37724839576083</v>
       </c>
       <c r="O5">
-        <v>486.51902521722104</v>
+        <v>464.62566908244605</v>
       </c>
       <c r="P5">
-        <v>416.15583473842213</v>
+        <v>397.42882217519309</v>
       </c>
       <c r="Q5">
-        <v>364.95771559626093</v>
+        <v>348.53461839442917</v>
       </c>
       <c r="R5">
-        <v>332.37709432397662</v>
+        <v>317.42012507939768</v>
       </c>
       <c r="S5">
-        <v>15.129394517137801</v>
+        <v>15.842297923704503</v>
       </c>
       <c r="T5">
-        <v>20.788532689991136</v>
+        <v>21.768097057582342</v>
       </c>
       <c r="U5">
-        <v>26.146522544811589</v>
+        <v>27.378557638546166</v>
       </c>
       <c r="V5">
-        <v>30.567349054033016</v>
+        <v>32.00769534453719</v>
       </c>
       <c r="W5">
-        <v>34.855491794546275</v>
+        <v>36.49789716706416</v>
       </c>
       <c r="X5">
-        <v>38.272133906202789</v>
+        <v>40.075532886076218</v>
       </c>
       <c r="AJ5" t="s">
         <v>6</v>
@@ -2773,58 +2773,58 @@
         <v>34.838815325600002</v>
       </c>
       <c r="G6">
-        <v>723.252412606843</v>
+        <v>690.70605403953505</v>
       </c>
       <c r="H6">
-        <v>526.36572522836013</v>
+        <v>502.67926759308392</v>
       </c>
       <c r="I6">
-        <v>418.50196587507651</v>
+        <v>399.66937741069808</v>
       </c>
       <c r="J6">
-        <v>357.97579523360514</v>
+        <v>341.86688444809289</v>
       </c>
       <c r="K6">
-        <v>313.93535200420769</v>
+        <v>299.80826116401835</v>
       </c>
       <c r="L6">
-        <v>285.90961540368198</v>
+        <v>273.04368271051629</v>
       </c>
       <c r="M6">
-        <v>846.73453183240156</v>
+        <v>808.63147789994355</v>
       </c>
       <c r="N6">
-        <v>616.23304416978749</v>
+        <v>588.50255718214703</v>
       </c>
       <c r="O6">
-        <v>489.95352102447981</v>
+        <v>467.90561257837828</v>
       </c>
       <c r="P6">
-        <v>419.09361393202556</v>
+        <v>400.23440130508436</v>
       </c>
       <c r="Q6">
-        <v>367.53407063907241</v>
+        <v>350.99503746031417</v>
       </c>
       <c r="R6">
-        <v>334.7234521799204</v>
+        <v>319.66089683182395</v>
       </c>
       <c r="S6">
-        <v>15.276281842546906</v>
+        <v>15.996106641410373</v>
       </c>
       <c r="T6">
-        <v>20.990363104457067</v>
+        <v>21.979437805714209</v>
       </c>
       <c r="U6">
-        <v>26.400372278256359</v>
+        <v>27.644368877755351</v>
       </c>
       <c r="V6">
-        <v>30.864119433198386</v>
+        <v>32.31844966827056</v>
       </c>
       <c r="W6">
-        <v>35.193894627503035</v>
+        <v>36.852245683249251</v>
       </c>
       <c r="X6">
-        <v>38.643708021796989</v>
+        <v>40.464615729630353</v>
       </c>
       <c r="AJ6" t="s">
         <v>7</v>
@@ -2850,58 +2850,58 @@
         <v>35.234929078613334</v>
       </c>
       <c r="G7">
-        <v>731.47571827484967</v>
+        <v>698.55931095248138</v>
       </c>
       <c r="H7">
-        <v>532.35044947713743</v>
+        <v>508.39467925066623</v>
       </c>
       <c r="I7">
-        <v>423.2602902554242</v>
+        <v>404.21357719393006</v>
       </c>
       <c r="J7">
-        <v>362.04594326856773</v>
+        <v>345.75387582148215</v>
       </c>
       <c r="K7">
-        <v>317.50476472171101</v>
+        <v>303.21705030923403</v>
       </c>
       <c r="L7">
-        <v>289.16037837371135</v>
+        <v>276.14816134689431</v>
       </c>
       <c r="M7">
-        <v>856.36181651689719</v>
+        <v>817.82553477363683</v>
       </c>
       <c r="N7">
-        <v>623.23955060738047</v>
+        <v>595.19377083004827</v>
       </c>
       <c r="O7">
-        <v>495.52424225025271</v>
+        <v>473.22565134899133</v>
       </c>
       <c r="P7">
-        <v>423.8586652900305</v>
+        <v>404.78502535197913</v>
       </c>
       <c r="Q7">
-        <v>371.71289528395437</v>
+        <v>354.98581499617643</v>
       </c>
       <c r="R7">
-        <v>338.52922346190599</v>
+        <v>323.2954084061202</v>
       </c>
       <c r="S7">
-        <v>15.42316916795601</v>
+        <v>16.149915359116243</v>
       </c>
       <c r="T7">
-        <v>21.192193518923002</v>
+        <v>22.190778553846076</v>
       </c>
       <c r="U7">
-        <v>26.654222011701133</v>
+        <v>27.910180116964536</v>
       </c>
       <c r="V7">
-        <v>31.160889812363756</v>
+        <v>32.62920399200393</v>
       </c>
       <c r="W7">
-        <v>35.532297460459795</v>
+        <v>37.206594199434342</v>
       </c>
       <c r="X7">
-        <v>39.015282137391189</v>
+        <v>40.853698573184495</v>
       </c>
       <c r="AJ7" t="s">
         <v>8</v>
@@ -2927,58 +2927,58 @@
         <v>35.623568987230193</v>
       </c>
       <c r="G8">
-        <v>739.54386723213929</v>
+        <v>706.26439320669294</v>
       </c>
       <c r="H8">
-        <v>538.22225440046611</v>
+        <v>514.00225295244513</v>
       </c>
       <c r="I8">
-        <v>427.92883493048237</v>
+        <v>408.67203735861062</v>
       </c>
       <c r="J8">
-        <v>366.03929605758771</v>
+        <v>349.56752773499625</v>
       </c>
       <c r="K8">
-        <v>321.00683002945021</v>
+        <v>306.56152267812496</v>
       </c>
       <c r="L8">
-        <v>292.34980619336278</v>
+        <v>279.19406491466145</v>
       </c>
       <c r="M8">
-        <v>865.80745432055335</v>
+        <v>826.84611887612834</v>
       </c>
       <c r="N8">
-        <v>630.11385881030185</v>
+        <v>601.7587351638382</v>
       </c>
       <c r="O8">
-        <v>500.98985552836962</v>
+        <v>478.44531202959297</v>
       </c>
       <c r="P8">
-        <v>428.53381001863926</v>
+        <v>409.24978856780052</v>
       </c>
       <c r="Q8">
-        <v>375.81287418081979</v>
+        <v>358.90129484268289</v>
       </c>
       <c r="R8">
-        <v>342.26318773857105</v>
+        <v>326.86134429033535</v>
       </c>
       <c r="S8">
-        <v>15.570056493365115</v>
+        <v>16.30372407682211</v>
       </c>
       <c r="T8">
-        <v>21.394023933388937</v>
+        <v>22.402119301977944</v>
       </c>
       <c r="U8">
-        <v>26.908071745145904</v>
+        <v>28.175991356173721</v>
       </c>
       <c r="V8">
-        <v>31.457660191529122</v>
+        <v>32.9399583157373</v>
       </c>
       <c r="W8">
-        <v>35.870700293416554</v>
+        <v>37.560942715619426</v>
       </c>
       <c r="X8">
-        <v>39.386856252985389</v>
+        <v>41.24278141673863</v>
       </c>
       <c r="AJ8" t="s">
         <v>9</v>
@@ -3004,58 +3004,58 @@
         <v>36.707508741921501</v>
       </c>
       <c r="G9">
-        <v>762.04641318194069</v>
+        <v>727.75432458875332</v>
       </c>
       <c r="H9">
-        <v>554.59906657819511</v>
+        <v>529.64210858217632</v>
       </c>
       <c r="I9">
-        <v>440.94968291250683</v>
+        <v>421.10694718144401</v>
       </c>
       <c r="J9">
-        <v>377.17699382499183</v>
+        <v>360.2040291028672</v>
       </c>
       <c r="K9">
-        <v>330.774297874154</v>
+        <v>315.88945446981705</v>
       </c>
       <c r="L9">
-        <v>301.24530954180267</v>
+        <v>287.68927061242152</v>
       </c>
       <c r="M9">
-        <v>892.1518983593453</v>
+        <v>852.0050629331746</v>
       </c>
       <c r="N9">
-        <v>649.2867120915455</v>
+        <v>620.06881004742593</v>
       </c>
       <c r="O9">
-        <v>516.23377511708122</v>
+        <v>493.00325523681255</v>
       </c>
       <c r="P9">
-        <v>441.57306594145388</v>
+        <v>421.70227797408842</v>
       </c>
       <c r="Q9">
-        <v>387.24795848681447</v>
+        <v>369.82180035490779</v>
       </c>
       <c r="R9">
-        <v>352.67743556113487</v>
+        <v>336.80695096088374</v>
       </c>
       <c r="S9">
-        <v>15.716943818774219</v>
+        <v>16.457532794527978</v>
       </c>
       <c r="T9">
-        <v>21.595854347854868</v>
+        <v>22.613460050109811</v>
       </c>
       <c r="U9">
-        <v>27.161921478590678</v>
+        <v>28.441802595382907</v>
       </c>
       <c r="V9">
-        <v>31.754430570694492</v>
+        <v>33.25071263947067</v>
       </c>
       <c r="W9">
-        <v>36.209103126373314</v>
+        <v>37.915291231804517</v>
       </c>
       <c r="X9">
-        <v>39.758430368579596</v>
+        <v>41.631864260292765</v>
       </c>
       <c r="AJ9" t="s">
         <v>10</v>
@@ -3081,64 +3081,64 @@
         <v>37.069499969955551</v>
       </c>
       <c r="G10">
-        <v>769.56133659627847</v>
+        <v>734.93107644944587</v>
       </c>
       <c r="H10">
-        <v>560.06824724607043</v>
+        <v>534.86517611999727</v>
       </c>
       <c r="I10">
-        <v>445.2981097790904</v>
+        <v>425.25969483903128</v>
       </c>
       <c r="J10">
-        <v>380.89652609128728</v>
+        <v>363.75618241717933</v>
       </c>
       <c r="K10">
-        <v>334.03622978926705</v>
+        <v>319.00459944875001</v>
       </c>
       <c r="L10">
-        <v>304.21604123343604</v>
+        <v>290.52631937793143</v>
       </c>
       <c r="M10">
-        <v>900.94985747856992</v>
+        <v>860.4071138920342</v>
       </c>
       <c r="N10">
-        <v>655.68965531247272</v>
+        <v>626.1836208234115</v>
       </c>
       <c r="O10">
-        <v>521.32461632673994</v>
+        <v>497.86500859203665</v>
       </c>
       <c r="P10">
-        <v>445.92764030199487</v>
+        <v>425.8608964884051</v>
       </c>
       <c r="Q10">
-        <v>391.06680560694679</v>
+        <v>373.4687993546342</v>
       </c>
       <c r="R10">
-        <v>356.15536534646174</v>
+        <v>340.12837390587094</v>
       </c>
       <c r="S10">
-        <v>15.863831144183324</v>
+        <v>16.611341512233849</v>
       </c>
       <c r="T10">
-        <v>21.797684762320802</v>
+        <v>22.824800798241679</v>
       </c>
       <c r="U10">
-        <v>27.415771212035448</v>
+        <v>28.707613834592095</v>
       </c>
       <c r="V10">
-        <v>32.051200949859862</v>
+        <v>33.56146696320404</v>
       </c>
       <c r="W10">
-        <v>36.547505959330074</v>
+        <v>38.269639747989608</v>
       </c>
       <c r="X10">
-        <v>40.130004484173796</v>
+        <v>42.020947103846908</v>
       </c>
       <c r="AJ10" t="s">
         <v>11</v>
       </c>
       <c r="AK10">
-        <v>4</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="11" spans="2:41" x14ac:dyDescent="0.35">
@@ -3155,58 +3155,58 @@
         <v>37.230818575266056</v>
       </c>
       <c r="G11">
-        <v>772.91030438978032</v>
+        <v>738.12934069224013</v>
       </c>
       <c r="H11">
-        <v>562.50554552626465</v>
+        <v>537.1927959775827</v>
       </c>
       <c r="I11">
-        <v>447.23595275175495</v>
+        <v>427.11033487792594</v>
       </c>
       <c r="J11">
-        <v>382.5541070245738</v>
+        <v>365.33917220846797</v>
       </c>
       <c r="K11">
-        <v>335.48988464720844</v>
+        <v>320.39283983808406</v>
       </c>
       <c r="L11">
-        <v>305.53992495252146</v>
+        <v>291.79062832965798</v>
       </c>
       <c r="M11">
-        <v>904.87060026120628</v>
+        <v>864.15142324945191</v>
       </c>
       <c r="N11">
-        <v>658.5430776892855</v>
+        <v>628.90863919326762</v>
       </c>
       <c r="O11">
-        <v>523.59331053863991</v>
+        <v>500.03161156440115</v>
       </c>
       <c r="P11">
-        <v>447.86822285803765</v>
+        <v>427.71415282942593</v>
       </c>
       <c r="Q11">
-        <v>392.76864544063432</v>
+        <v>375.09405639580575</v>
       </c>
       <c r="R11">
-        <v>357.70527799319586</v>
+        <v>341.60854048350205</v>
       </c>
       <c r="S11">
-        <v>16.01071846959243</v>
+        <v>16.765150229939717</v>
       </c>
       <c r="T11">
-        <v>21.999515176786733</v>
+        <v>23.036141546373546</v>
       </c>
       <c r="U11">
-        <v>27.669620945480222</v>
+        <v>28.97342507380128</v>
       </c>
       <c r="V11">
-        <v>32.347971329025228</v>
+        <v>33.87222128693741</v>
       </c>
       <c r="W11">
-        <v>36.885908792286834</v>
+        <v>38.623988264174692</v>
       </c>
       <c r="X11">
-        <v>40.501578599767996</v>
+        <v>42.410029947401043</v>
       </c>
       <c r="AJ11" t="s">
         <v>34</v>
@@ -3229,58 +3229,58 @@
         <v>37.910798836654536</v>
       </c>
       <c r="G12">
-        <v>787.02666741699466</v>
+        <v>751.61046738322989</v>
       </c>
       <c r="H12">
-        <v>572.7790953034787</v>
+        <v>547.00403601482208</v>
       </c>
       <c r="I12">
-        <v>455.40422924128927</v>
+        <v>434.91103892543123</v>
       </c>
       <c r="J12">
-        <v>389.54104020639267</v>
+        <v>372.01169339710498</v>
       </c>
       <c r="K12">
-        <v>341.61724118100096</v>
+        <v>326.24446532785589</v>
       </c>
       <c r="L12">
-        <v>311.1202781648426</v>
+        <v>297.11986564742466</v>
       </c>
       <c r="M12">
-        <v>921.39707404916453</v>
+        <v>879.93420571695208</v>
       </c>
       <c r="N12">
-        <v>670.57064816017021</v>
+        <v>640.3949689929625</v>
       </c>
       <c r="O12">
-        <v>533.15617081907044</v>
+        <v>509.16414313221219</v>
       </c>
       <c r="P12">
-        <v>456.04804707089875</v>
+        <v>435.52588495270828</v>
       </c>
       <c r="Q12">
-        <v>399.94213601678166</v>
+        <v>381.94473989602642</v>
       </c>
       <c r="R12">
-        <v>364.23837443688893</v>
+        <v>347.84764758722889</v>
       </c>
       <c r="S12">
-        <v>16.157605795001533</v>
+        <v>16.918958947645585</v>
       </c>
       <c r="T12">
-        <v>22.201345591252668</v>
+        <v>23.247482294505414</v>
       </c>
       <c r="U12">
-        <v>27.923470678924996</v>
+        <v>29.239236313010466</v>
       </c>
       <c r="V12">
-        <v>32.644741708190601</v>
+        <v>34.182975610670788</v>
       </c>
       <c r="W12">
-        <v>37.224311625243594</v>
+        <v>38.978336780359783</v>
       </c>
       <c r="X12">
-        <v>40.873152715362195</v>
+        <v>42.799112790955185</v>
       </c>
     </row>
     <row r="13" spans="2:41" x14ac:dyDescent="0.35">
@@ -3297,58 +3297,58 @@
         <v>38.230471540381977</v>
       </c>
       <c r="G13">
-        <v>793.66305995946823</v>
+        <v>757.94822226129213</v>
       </c>
       <c r="H13">
-        <v>577.60890231501514</v>
+        <v>551.61650171083943</v>
       </c>
       <c r="I13">
-        <v>459.24430398826922</v>
+        <v>438.57831030879709</v>
       </c>
       <c r="J13">
-        <v>392.82574117173289</v>
+        <v>375.1485828190049</v>
       </c>
       <c r="K13">
-        <v>344.49783748810523</v>
+        <v>328.9954348011405</v>
       </c>
       <c r="L13">
-        <v>313.74371696216036</v>
+        <v>299.62524969886312</v>
       </c>
       <c r="M13">
-        <v>929.16650922084091</v>
+        <v>887.35401630590297</v>
       </c>
       <c r="N13">
-        <v>676.22505636879828</v>
+        <v>645.79492883220223</v>
       </c>
       <c r="O13">
-        <v>537.65186808382737</v>
+        <v>513.45753402005516</v>
       </c>
       <c r="P13">
-        <v>459.89355064007754</v>
+        <v>439.19834086127406</v>
       </c>
       <c r="Q13">
-        <v>403.31454144948907</v>
+        <v>385.16538708426208</v>
       </c>
       <c r="R13">
-        <v>367.30971741911458</v>
+        <v>350.78078013525442</v>
       </c>
       <c r="S13">
-        <v>16.304493120410637</v>
+        <v>17.072767665351456</v>
       </c>
       <c r="T13">
-        <v>22.403176005718599</v>
+        <v>23.458823042637281</v>
       </c>
       <c r="U13">
-        <v>28.177320412369767</v>
+        <v>29.505047552219651</v>
       </c>
       <c r="V13">
-        <v>32.941512087355967</v>
+        <v>34.493729934404158</v>
       </c>
       <c r="W13">
-        <v>37.562714458200354</v>
+        <v>39.332685296544874</v>
       </c>
       <c r="X13">
-        <v>41.244726830956402</v>
+        <v>43.18819563450932</v>
       </c>
     </row>
     <row r="14" spans="2:41" x14ac:dyDescent="0.35">
@@ -3365,58 +3365,58 @@
         <v>38.571545539057141</v>
       </c>
       <c r="G14">
-        <v>800.74374252900463</v>
+        <v>764.71027411519935</v>
       </c>
       <c r="H14">
-        <v>582.76205293139867</v>
+        <v>556.53776054948571</v>
       </c>
       <c r="I14">
-        <v>463.34146221883464</v>
+        <v>442.49109641898707</v>
       </c>
       <c r="J14">
-        <v>396.3303447229199</v>
+        <v>378.49547921038851</v>
       </c>
       <c r="K14">
-        <v>347.57128257608701</v>
+        <v>331.93057486016306</v>
       </c>
       <c r="L14">
-        <v>316.54278848264789</v>
+        <v>302.2983630009287</v>
       </c>
       <c r="M14">
-        <v>937.45608881444446</v>
+        <v>895.27056481779437</v>
       </c>
       <c r="N14">
-        <v>682.25801318797892</v>
+        <v>651.55640259451991</v>
       </c>
       <c r="O14">
-        <v>542.44854113424549</v>
+        <v>518.03835678320445</v>
       </c>
       <c r="P14">
-        <v>463.99650113902823</v>
+        <v>443.11665858777195</v>
       </c>
       <c r="Q14">
-        <v>406.91272106468728</v>
+        <v>388.60164861677629</v>
       </c>
       <c r="R14">
-        <v>370.58667919919753</v>
+        <v>353.91027863523362</v>
       </c>
       <c r="S14">
-        <v>16.451380445819744</v>
+        <v>17.226576383057324</v>
       </c>
       <c r="T14">
-        <v>22.605006420184534</v>
+        <v>23.670163790769148</v>
       </c>
       <c r="U14">
-        <v>28.431170145814541</v>
+        <v>29.770858791428836</v>
       </c>
       <c r="V14">
-        <v>33.238282466521333</v>
+        <v>34.804484258137528</v>
       </c>
       <c r="W14">
-        <v>37.901117291157114</v>
+        <v>39.687033812729958</v>
       </c>
       <c r="X14">
-        <v>41.616300946550602</v>
+        <v>43.577278478063455</v>
       </c>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.35">
@@ -3433,58 +3433,58 @@
         <v>38.60267582190442</v>
       </c>
       <c r="G15">
-        <v>801.3900059557028</v>
+        <v>765.3274556876961</v>
       </c>
       <c r="H15">
-        <v>583.23238792282507</v>
+        <v>556.98693046629796</v>
       </c>
       <c r="I15">
-        <v>463.71541536414321</v>
+        <v>442.84822167275672</v>
       </c>
       <c r="J15">
-        <v>396.65021460523229</v>
+        <v>378.80095494799684</v>
       </c>
       <c r="K15">
-        <v>347.85180004524648</v>
+        <v>332.19846904321037</v>
       </c>
       <c r="L15">
-        <v>316.79826350707367</v>
+        <v>302.54234164925532</v>
       </c>
       <c r="M15">
-        <v>938.21268989935948</v>
+        <v>895.99311885388818</v>
       </c>
       <c r="N15">
-        <v>682.8086492755026</v>
+        <v>652.08226005810491</v>
       </c>
       <c r="O15">
-        <v>542.8863399385092</v>
+        <v>518.4564546412762</v>
       </c>
       <c r="P15">
-        <v>464.3709829524671</v>
+        <v>443.47428871960608</v>
       </c>
       <c r="Q15">
-        <v>407.24113176028857</v>
+        <v>388.91528083107556</v>
       </c>
       <c r="R15">
-        <v>370.88577191072039</v>
+        <v>354.19591217473794</v>
       </c>
       <c r="S15">
-        <v>16.598267771228848</v>
+        <v>17.380385100763192</v>
       </c>
       <c r="T15">
-        <v>22.806836834650468</v>
+        <v>23.881504538901012</v>
       </c>
       <c r="U15">
-        <v>28.685019879259311</v>
+        <v>30.036670030638025</v>
       </c>
       <c r="V15">
-        <v>33.535052845686707</v>
+        <v>35.115238581870898</v>
       </c>
       <c r="W15">
-        <v>38.239520124113874</v>
+        <v>40.041382328915049</v>
       </c>
       <c r="X15">
-        <v>41.987875062144802</v>
+        <v>43.966361321617597</v>
       </c>
     </row>
     <row r="16" spans="2:41" x14ac:dyDescent="0.35">
@@ -3501,58 +3501,58 @@
         <v>38.550602324912283</v>
       </c>
       <c r="G16">
-        <v>800.30896224108596</v>
+        <v>764.29505894023703</v>
       </c>
       <c r="H16">
-        <v>582.44563028616972</v>
+        <v>556.235576923292</v>
       </c>
       <c r="I16">
-        <v>463.08988144005525</v>
+        <v>442.25083677525276</v>
       </c>
       <c r="J16">
-        <v>396.11514900893872</v>
+        <v>378.28996730353646</v>
       </c>
       <c r="K16">
-        <v>347.38256159797055</v>
+        <v>331.75034632606184</v>
       </c>
       <c r="L16">
-        <v>316.37091506371814</v>
+        <v>302.13422388585082</v>
       </c>
       <c r="M16">
-        <v>936.94707774566166</v>
+        <v>894.78445924710684</v>
       </c>
       <c r="N16">
-        <v>681.88756716429623</v>
+        <v>651.20262664190284</v>
       </c>
       <c r="O16">
-        <v>542.15400753957692</v>
+        <v>517.75707720029595</v>
       </c>
       <c r="P16">
-        <v>463.74456469339168</v>
+        <v>442.87605928218903</v>
       </c>
       <c r="Q16">
-        <v>406.69177943177044</v>
+        <v>388.39064935734069</v>
       </c>
       <c r="R16">
-        <v>370.3854615380115</v>
+        <v>353.71811576880094</v>
       </c>
       <c r="S16">
-        <v>16.745155096637951</v>
+        <v>17.53419381846906</v>
       </c>
       <c r="T16">
-        <v>23.008667249116399</v>
+        <v>24.09284528703288</v>
       </c>
       <c r="U16">
-        <v>28.938869612704085</v>
+        <v>30.30248126984721</v>
       </c>
       <c r="V16">
-        <v>33.831823224852073</v>
+        <v>35.425992905604268</v>
       </c>
       <c r="W16">
-        <v>38.577922957070633</v>
+        <v>40.39573084510014</v>
       </c>
       <c r="X16">
-        <v>42.359449177739002</v>
+        <v>44.355444165171733</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.35">
@@ -3569,58 +3569,58 @@
         <v>38.407480830386085</v>
       </c>
       <c r="G17">
-        <v>797.33776573958187</v>
+        <v>761.45756628130061</v>
       </c>
       <c r="H17">
-        <v>580.28326487397112</v>
+        <v>554.17051795464238</v>
       </c>
       <c r="I17">
-        <v>461.37063162462937</v>
+        <v>440.60895320152105</v>
       </c>
       <c r="J17">
-        <v>394.6445470283831</v>
+        <v>376.88554241210585</v>
       </c>
       <c r="K17">
-        <v>346.09288236107545</v>
+        <v>330.51870265482705</v>
       </c>
       <c r="L17">
-        <v>315.19636848187969</v>
+        <v>301.01253190019509</v>
       </c>
       <c r="M17">
-        <v>933.46860379268128</v>
+        <v>891.46251662201053</v>
       </c>
       <c r="N17">
-        <v>679.35601741342964</v>
+        <v>648.78499662982529</v>
       </c>
       <c r="O17">
-        <v>540.14122726785877</v>
+        <v>515.83487204080518</v>
       </c>
       <c r="P17">
-        <v>462.02288432591195</v>
+        <v>441.23185453124592</v>
       </c>
       <c r="Q17">
-        <v>405.18191105686884</v>
+        <v>386.94872505930971</v>
       </c>
       <c r="R17">
-        <v>369.01038261293235</v>
+        <v>352.40491539535037</v>
       </c>
       <c r="S17">
-        <v>16.892042422047059</v>
+        <v>17.688002536174931</v>
       </c>
       <c r="T17">
-        <v>23.210497663582334</v>
+        <v>24.304186035164747</v>
       </c>
       <c r="U17">
-        <v>29.192719346148856</v>
+        <v>30.568292509056395</v>
       </c>
       <c r="V17">
-        <v>34.128593604017439</v>
+        <v>35.736747229337638</v>
       </c>
       <c r="W17">
-        <v>38.916325790027393</v>
+        <v>40.750079361285223</v>
       </c>
       <c r="X17">
-        <v>42.731023293333209</v>
+        <v>44.744527008725868</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.35">
@@ -3637,58 +3637,58 @@
         <v>38.253288197351722</v>
       </c>
       <c r="G18">
-        <v>794.13673284549384</v>
+        <v>758.4005798674466</v>
       </c>
       <c r="H18">
-        <v>577.95363005850822</v>
+        <v>551.94571670587538</v>
       </c>
       <c r="I18">
-        <v>459.51838953645148</v>
+        <v>438.84006200731113</v>
       </c>
       <c r="J18">
-        <v>393.06018688542844</v>
+        <v>375.37247847558416</v>
       </c>
       <c r="K18">
-        <v>344.70344020939217</v>
+        <v>329.19178539996949</v>
       </c>
       <c r="L18">
-        <v>313.93096505191454</v>
+        <v>299.8040716245784</v>
       </c>
       <c r="M18">
-        <v>929.72105308740743</v>
+        <v>887.88360569847407</v>
       </c>
       <c r="N18">
-        <v>676.62864006849748</v>
+        <v>646.18035126541508</v>
       </c>
       <c r="O18">
-        <v>537.97274872560172</v>
+        <v>513.76397503294959</v>
       </c>
       <c r="P18">
-        <v>460.16802367074553</v>
+        <v>439.46046260556199</v>
       </c>
       <c r="Q18">
-        <v>403.55524707441037</v>
+        <v>385.39526095606186</v>
       </c>
       <c r="R18">
-        <v>367.52893469492437</v>
+        <v>350.99013263365276</v>
       </c>
       <c r="S18">
-        <v>17.038929747456162</v>
+        <v>17.841811253880799</v>
       </c>
       <c r="T18">
-        <v>23.412328078048265</v>
+        <v>24.515526783296615</v>
       </c>
       <c r="U18">
-        <v>29.44656907959363</v>
+        <v>30.83410374826558</v>
       </c>
       <c r="V18">
-        <v>34.425363983182812</v>
+        <v>36.047501553071008</v>
       </c>
       <c r="W18">
-        <v>39.254728622984153</v>
+        <v>41.104427877470314</v>
       </c>
       <c r="X18">
-        <v>43.102597408927409</v>
+        <v>45.13360985228001</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.35">
@@ -3708,58 +3708,58 @@
         <v>38.047144328177787</v>
       </c>
       <c r="G19">
-        <v>789.85719436719774</v>
+        <v>754.31362062067376</v>
       </c>
       <c r="H19">
-        <v>574.83908479670686</v>
+        <v>548.971325980855</v>
       </c>
       <c r="I19">
-        <v>457.04208218512218</v>
+        <v>436.47518848679169</v>
       </c>
       <c r="J19">
-        <v>390.94201740089238</v>
+        <v>373.34962661785221</v>
       </c>
       <c r="K19">
-        <v>342.84586131275626</v>
+        <v>327.41779755368219</v>
       </c>
       <c r="L19">
-        <v>312.23921652939697</v>
+        <v>298.1884517855741</v>
       </c>
       <c r="M19">
-        <v>924.71086169818273</v>
+        <v>883.0988729217645</v>
       </c>
       <c r="N19">
-        <v>672.98234317663241</v>
+        <v>642.69813773368389</v>
       </c>
       <c r="O19">
-        <v>535.07365719233815</v>
+        <v>510.99534261868297</v>
       </c>
       <c r="P19">
-        <v>457.68821549372768</v>
+        <v>437.09224579650993</v>
       </c>
       <c r="Q19">
-        <v>401.38052056127566</v>
+        <v>383.31839713601818</v>
       </c>
       <c r="R19">
-        <v>365.54835105880625</v>
+        <v>349.09867526115994</v>
       </c>
       <c r="S19">
-        <v>17.185817072865266</v>
+        <v>17.995619971586667</v>
       </c>
       <c r="T19">
-        <v>23.6141584925142</v>
+        <v>24.726867531428482</v>
       </c>
       <c r="U19">
-        <v>29.7004188130384</v>
+        <v>31.099914987474765</v>
       </c>
       <c r="V19">
-        <v>34.722134362348179</v>
+        <v>36.358255876804378</v>
       </c>
       <c r="W19">
-        <v>39.593131455940913</v>
+        <v>41.458776393655405</v>
       </c>
       <c r="X19">
-        <v>43.474171524521608</v>
+        <v>45.522692695834145</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.35">
@@ -3779,58 +3779,58 @@
         <v>37.882647692610171</v>
       </c>
       <c r="G20">
-        <v>786.44225079267937</v>
+        <v>751.05234950700878</v>
       </c>
       <c r="H20">
-        <v>572.35377092857004</v>
+        <v>546.59785123678432</v>
       </c>
       <c r="I20">
-        <v>455.06606306043346</v>
+        <v>434.58809022271396</v>
       </c>
       <c r="J20">
-        <v>389.25178157110804</v>
+        <v>371.73545140040818</v>
       </c>
       <c r="K20">
-        <v>341.36356896992567</v>
+        <v>326.00220836627898</v>
       </c>
       <c r="L20">
-        <v>310.88925186008231</v>
+        <v>296.89923552637862</v>
       </c>
       <c r="M20">
-        <v>920.71287897679542</v>
+        <v>879.28079942283955</v>
       </c>
       <c r="N20">
-        <v>670.07270742856986</v>
+        <v>639.9194355942841</v>
       </c>
       <c r="O20">
-        <v>532.76026894880022</v>
+        <v>508.78605684610415</v>
       </c>
       <c r="P20">
-        <v>455.70940281495575</v>
+        <v>435.20247968828278</v>
       </c>
       <c r="Q20">
-        <v>399.64515391601054</v>
+        <v>381.66112198979005</v>
       </c>
       <c r="R20">
-        <v>363.96790461668172</v>
+        <v>347.58934890893107</v>
       </c>
       <c r="S20">
-        <v>17.332704398274373</v>
+        <v>18.149428689292538</v>
       </c>
       <c r="T20">
-        <v>23.815988906980134</v>
+        <v>24.938208279560349</v>
       </c>
       <c r="U20">
-        <v>29.954268546483174</v>
+        <v>31.36572622668395</v>
       </c>
       <c r="V20">
-        <v>35.018904741513552</v>
+        <v>36.669010200537748</v>
       </c>
       <c r="W20">
-        <v>39.931534288897673</v>
+        <v>41.813124909840489</v>
       </c>
       <c r="X20">
-        <v>43.845745640115808</v>
+        <v>45.91177553938828</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.35">
@@ -3847,58 +3847,58 @@
         <v>37.737632460477315</v>
       </c>
       <c r="G21">
-        <v>783.43174037421056</v>
+        <v>748.17731205737107</v>
       </c>
       <c r="H21">
-        <v>570.16279379236755</v>
+        <v>544.50546807171099</v>
       </c>
       <c r="I21">
-        <v>453.32406468413291</v>
+        <v>432.92448177334688</v>
       </c>
       <c r="J21">
-        <v>387.76172105789652</v>
+        <v>370.31244361029115</v>
       </c>
       <c r="K21">
-        <v>340.05682511195789</v>
+        <v>324.75426798191978</v>
       </c>
       <c r="L21">
-        <v>309.69916405545155</v>
+        <v>295.76270167295621</v>
       </c>
       <c r="M21">
-        <v>917.18837897468552</v>
+        <v>875.91490192082472</v>
       </c>
       <c r="N21">
-        <v>667.50766102521084</v>
+        <v>637.46981627907633</v>
       </c>
       <c r="O21">
-        <v>530.72085621557028</v>
+        <v>506.83841768586956</v>
       </c>
       <c r="P21">
-        <v>453.96494172631787</v>
+        <v>433.53651934863359</v>
       </c>
       <c r="Q21">
-        <v>398.11530744814581</v>
+        <v>380.20011861297928</v>
       </c>
       <c r="R21">
-        <v>362.57463108930915</v>
+        <v>346.25877269029019</v>
       </c>
       <c r="S21">
-        <v>17.479591723683477</v>
+        <v>18.303237406998406</v>
       </c>
       <c r="T21">
-        <v>24.017819321446066</v>
+        <v>25.149549027692217</v>
       </c>
       <c r="U21">
-        <v>30.208118279927948</v>
+        <v>31.631537465893139</v>
       </c>
       <c r="V21">
-        <v>35.315675120678918</v>
+        <v>36.979764524271118</v>
       </c>
       <c r="W21">
-        <v>40.269937121854433</v>
+        <v>42.16747342602558</v>
       </c>
       <c r="X21">
-        <v>44.217319755710008</v>
+        <v>46.300858382942423</v>
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.35">
@@ -3918,58 +3918,58 @@
         <v>37.588926668106666</v>
       </c>
       <c r="G22">
-        <v>780.34461407282765</v>
+        <v>745.22910643955038</v>
       </c>
       <c r="H22">
-        <v>567.91605745775632</v>
+        <v>542.35983487215731</v>
       </c>
       <c r="I22">
-        <v>451.53773337916465</v>
+        <v>431.21853537710223</v>
       </c>
       <c r="J22">
-        <v>386.23373930012963</v>
+        <v>368.85322103162378</v>
       </c>
       <c r="K22">
-        <v>338.71682532044258</v>
+        <v>323.47456818102268</v>
       </c>
       <c r="L22">
-        <v>308.47878915155087</v>
+        <v>294.59724363973106</v>
       </c>
       <c r="M22">
-        <v>913.57418232916416</v>
+        <v>872.46334412435169</v>
       </c>
       <c r="N22">
-        <v>664.87733556030014</v>
+        <v>634.95785546008665</v>
       </c>
       <c r="O22">
-        <v>528.62954151707083</v>
+        <v>504.84121214880264</v>
       </c>
       <c r="P22">
-        <v>452.17608503429813</v>
+        <v>431.8281612077547</v>
       </c>
       <c r="Q22">
-        <v>396.54652720442061</v>
+        <v>378.70193348022167</v>
       </c>
       <c r="R22">
-        <v>361.14589949449862</v>
+        <v>344.89433401724614</v>
       </c>
       <c r="S22">
-        <v>17.62647904909258</v>
+        <v>18.457046124704274</v>
       </c>
       <c r="T22">
-        <v>24.219649735912</v>
+        <v>25.360889775824084</v>
       </c>
       <c r="U22">
-        <v>30.461968013372719</v>
+        <v>31.897348705102324</v>
       </c>
       <c r="V22">
-        <v>35.612445499844284</v>
+        <v>37.290518848004488</v>
       </c>
       <c r="W22">
-        <v>40.608339954811193</v>
+        <v>42.521821942210671</v>
       </c>
       <c r="X22">
-        <v>44.588893871304215</v>
+        <v>46.689941226496558</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.35">
@@ -3990,58 +3990,58 @@
         <v>37.423642519008268</v>
       </c>
       <c r="G23">
-        <v>776.9133217489109</v>
+        <v>741.95222227020986</v>
       </c>
       <c r="H23">
-        <v>565.41884536268833</v>
+        <v>539.97499732136737</v>
       </c>
       <c r="I23">
-        <v>449.55225423243712</v>
+        <v>429.32240279197742</v>
       </c>
       <c r="J23">
-        <v>384.53541161131375</v>
+        <v>367.23131808880464</v>
       </c>
       <c r="K23">
-        <v>337.22743663018503</v>
+        <v>322.05220198182667</v>
       </c>
       <c r="L23">
-        <v>307.12236164219399</v>
+        <v>293.30185536829526</v>
       </c>
       <c r="M23">
-        <v>909.55705960848104</v>
+        <v>868.62699192609944</v>
       </c>
       <c r="N23">
-        <v>661.95377018070826</v>
+        <v>632.16585052257642</v>
       </c>
       <c r="O23">
-        <v>526.30507812578003</v>
+        <v>502.62134961011992</v>
       </c>
       <c r="P23">
-        <v>450.18779895958687</v>
+        <v>429.92934800640546</v>
       </c>
       <c r="Q23">
-        <v>394.80285264021666</v>
+        <v>377.03672427140685</v>
       </c>
       <c r="R23">
-        <v>359.55788680061738</v>
+        <v>343.37778189458959</v>
       </c>
       <c r="S23">
-        <v>17.773366374501684</v>
+        <v>18.610854842410141</v>
       </c>
       <c r="T23">
-        <v>24.421480150377931</v>
+        <v>25.572230523955952</v>
       </c>
       <c r="U23">
-        <v>30.715817746817493</v>
+        <v>32.163159944311509</v>
       </c>
       <c r="V23">
-        <v>35.909215879009658</v>
+        <v>37.601273171737859</v>
       </c>
       <c r="W23">
-        <v>40.946742787767953</v>
+        <v>42.876170458395755</v>
       </c>
       <c r="X23">
-        <v>44.960467986898415</v>
+        <v>47.0790240700507</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.35">
@@ -4058,58 +4058,58 @@
         <v>37.485056585259017</v>
       </c>
       <c r="G24">
-        <v>778.18827530771375</v>
+        <v>743.16980291886659</v>
       </c>
       <c r="H24">
-        <v>566.34672592404434</v>
+        <v>540.86112325746228</v>
       </c>
       <c r="I24">
-        <v>450.28999193155556</v>
+        <v>430.02694229463555</v>
       </c>
       <c r="J24">
-        <v>385.16645342485344</v>
+        <v>367.83396302073504</v>
       </c>
       <c r="K24">
-        <v>337.78084369429581</v>
+        <v>322.58070572805246</v>
       </c>
       <c r="L24">
-        <v>307.62636477485006</v>
+        <v>293.78317835998178</v>
       </c>
       <c r="M24">
-        <v>911.04968816512837</v>
+        <v>870.05245219769756</v>
       </c>
       <c r="N24">
-        <v>663.04006937449094</v>
+        <v>633.20326625263874</v>
       </c>
       <c r="O24">
-        <v>527.16877104182117</v>
+        <v>503.4461763449392</v>
       </c>
       <c r="P24">
-        <v>450.92657961934066</v>
+        <v>430.63488353647028</v>
       </c>
       <c r="Q24">
-        <v>395.45074383722437</v>
+        <v>377.65546036454924</v>
       </c>
       <c r="R24">
-        <v>360.14793924860498</v>
+        <v>343.94128198241771</v>
       </c>
       <c r="S24">
-        <v>17.920253699910791</v>
+        <v>18.764663560116013</v>
       </c>
       <c r="T24">
-        <v>24.623310564843866</v>
+        <v>25.783571272087819</v>
       </c>
       <c r="U24">
-        <v>30.969667480262263</v>
+        <v>32.428971183520694</v>
       </c>
       <c r="V24">
-        <v>36.205986258175024</v>
+        <v>37.912027495471229</v>
       </c>
       <c r="W24">
-        <v>41.285145620724713</v>
+        <v>43.230518974580846</v>
       </c>
       <c r="X24">
-        <v>45.332042102492615</v>
+        <v>47.468106913604835</v>
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.35">
@@ -4126,58 +4126,58 @@
         <v>37.72082271630569</v>
       </c>
       <c r="G25">
-        <v>783.08277075759747</v>
+        <v>747.84404607350552</v>
       </c>
       <c r="H25">
-        <v>569.9088220915761</v>
+        <v>544.2629250974552</v>
       </c>
       <c r="I25">
-        <v>453.1221372960764</v>
+        <v>432.73164111775293</v>
       </c>
       <c r="J25">
-        <v>387.5889975745842</v>
+        <v>370.14749268372788</v>
       </c>
       <c r="K25">
-        <v>339.90535116244786</v>
+        <v>324.60961036013771</v>
       </c>
       <c r="L25">
-        <v>309.56121253654294</v>
+        <v>295.63095797239851</v>
       </c>
       <c r="M25">
-        <v>916.7798291796264</v>
+        <v>875.52473686654309</v>
       </c>
       <c r="N25">
-        <v>667.21032830233298</v>
+        <v>637.18586352872808</v>
       </c>
       <c r="O25">
-        <v>530.48445341979675</v>
+        <v>506.61265301590589</v>
       </c>
       <c r="P25">
-        <v>453.76272886780589</v>
+        <v>433.34340606875463</v>
       </c>
       <c r="Q25">
-        <v>397.93797209262192</v>
+        <v>380.03076334845395</v>
       </c>
       <c r="R25">
-        <v>362.41312687205027</v>
+        <v>346.10453616280802</v>
       </c>
       <c r="S25">
-        <v>18.067141025319895</v>
+        <v>18.918472277821881</v>
       </c>
       <c r="T25">
-        <v>24.825140979309797</v>
+        <v>25.994912020219687</v>
       </c>
       <c r="U25">
-        <v>31.223517213707037</v>
+        <v>32.69478242272988</v>
       </c>
       <c r="V25">
-        <v>36.50275663734039</v>
+        <v>38.222781819204599</v>
       </c>
       <c r="W25">
-        <v>41.623548453681472</v>
+        <v>43.584867490765937</v>
       </c>
       <c r="X25">
-        <v>45.703616218086815</v>
+        <v>47.85718975715897</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.35">
@@ -4194,58 +4194,58 @@
         <v>37.964607098348381</v>
       </c>
       <c r="G26">
-        <v>788.14372477742847</v>
+        <v>752.67725716244411</v>
       </c>
       <c r="H26">
-        <v>573.59206280610636</v>
+        <v>547.78041997983155</v>
       </c>
       <c r="I26">
-        <v>456.05060206105185</v>
+        <v>435.5283249683045</v>
       </c>
       <c r="J26">
-        <v>390.09393085694927</v>
+        <v>372.53970396838656</v>
       </c>
       <c r="K26">
-        <v>342.1021117317851</v>
+        <v>326.70751670385476</v>
       </c>
       <c r="L26">
-        <v>311.56186319758979</v>
+        <v>297.54157935369824</v>
       </c>
       <c r="M26">
-        <v>922.70484851991625</v>
+        <v>881.18313033651998</v>
       </c>
       <c r="N26">
-        <v>671.52241499251477</v>
+        <v>641.30390631785156</v>
       </c>
       <c r="O26">
-        <v>533.91289997391436</v>
+        <v>509.8868194750882</v>
       </c>
       <c r="P26">
-        <v>456.69533368618454</v>
+        <v>436.14404367030625</v>
       </c>
       <c r="Q26">
-        <v>400.50978934452894</v>
+        <v>382.48684882402512</v>
       </c>
       <c r="R26">
-        <v>364.75535203620268</v>
+        <v>348.34136119457355</v>
       </c>
       <c r="S26">
-        <v>18.214028350728999</v>
+        <v>19.072280995527748</v>
       </c>
       <c r="T26">
-        <v>25.026971393775732</v>
+        <v>26.206252768351554</v>
       </c>
       <c r="U26">
-        <v>31.477366947151808</v>
+        <v>32.960593661939065</v>
       </c>
       <c r="V26">
-        <v>36.799527016505763</v>
+        <v>38.533536142937969</v>
       </c>
       <c r="W26">
-        <v>41.961951286638232</v>
+        <v>43.939216006951021</v>
       </c>
       <c r="X26">
-        <v>46.075190333681022</v>
+        <v>48.246272600713112</v>
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.35">
@@ -4262,58 +4262,58 @@
         <v>38.400488713267201</v>
       </c>
       <c r="G27">
-        <v>797.19260966787851</v>
+        <v>761.31894223282393</v>
       </c>
       <c r="H27">
-        <v>580.17762377326881</v>
+        <v>554.06963070347172</v>
       </c>
       <c r="I27">
-        <v>461.28663867789646</v>
+        <v>440.52873993739109</v>
       </c>
       <c r="J27">
-        <v>394.57270162656312</v>
+        <v>376.81693005336774</v>
       </c>
       <c r="K27">
-        <v>346.02987583434782</v>
+        <v>330.45853142180215</v>
       </c>
       <c r="L27">
-        <v>315.13898669384713</v>
+        <v>300.95773229262397</v>
       </c>
       <c r="M27">
-        <v>933.29866497702858</v>
+        <v>891.30022505306215</v>
       </c>
       <c r="N27">
-        <v>679.23234002724155</v>
+        <v>648.66688472601572</v>
       </c>
       <c r="O27">
-        <v>540.04289406192754</v>
+        <v>515.74096382914081</v>
       </c>
       <c r="P27">
-        <v>461.93877263597636</v>
+        <v>441.1515278673574</v>
       </c>
       <c r="Q27">
-        <v>405.10814731826088</v>
+        <v>386.87828068893913</v>
       </c>
       <c r="R27">
-        <v>368.94320393426005</v>
+        <v>352.34075975721834</v>
       </c>
       <c r="S27">
-        <v>18.360915676138106</v>
+        <v>19.22608971323362</v>
       </c>
       <c r="T27">
-        <v>25.228801808241666</v>
+        <v>26.417593516483421</v>
       </c>
       <c r="U27">
-        <v>31.731216680596582</v>
+        <v>33.22640490114825</v>
       </c>
       <c r="V27">
-        <v>37.096297395671129</v>
+        <v>38.844290466671339</v>
       </c>
       <c r="W27">
-        <v>42.300354119594992</v>
+        <v>44.293564523136112</v>
       </c>
       <c r="X27">
-        <v>46.446764449275221</v>
+        <v>48.635355444267248</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.35">
@@ -4330,58 +4330,58 @@
         <v>38.853549115580954</v>
       </c>
       <c r="G28">
-        <v>806.59812549749597</v>
+        <v>770.30120985010865</v>
       </c>
       <c r="H28">
-        <v>587.02273216766639</v>
+        <v>560.60670922012139</v>
       </c>
       <c r="I28">
-        <v>466.72903582189844</v>
+        <v>445.72622920991301</v>
       </c>
       <c r="J28">
-        <v>399.22798787241743</v>
+        <v>381.26272841815864</v>
       </c>
       <c r="K28">
-        <v>350.11243936442924</v>
+        <v>334.35737959302992</v>
       </c>
       <c r="L28">
-        <v>318.85709031389126</v>
+        <v>304.50852124976615</v>
       </c>
       <c r="M28">
-        <v>944.31000058243433</v>
+        <v>901.81605055622481</v>
       </c>
       <c r="N28">
-        <v>687.24612546458502</v>
+        <v>656.32004981867874</v>
       </c>
       <c r="O28">
-        <v>546.41448096222257</v>
+        <v>521.82582931892262</v>
       </c>
       <c r="P28">
-        <v>467.38886385063506</v>
+        <v>446.35636497735646</v>
       </c>
       <c r="Q28">
-        <v>409.88773389006349</v>
+        <v>391.44278586501065</v>
       </c>
       <c r="R28">
-        <v>373.29610573333611</v>
+        <v>356.49778097533601</v>
       </c>
       <c r="S28">
-        <v>18.507803001547213</v>
+        <v>19.379898430939491</v>
       </c>
       <c r="T28">
-        <v>25.430632222707601</v>
+        <v>26.628934264615292</v>
       </c>
       <c r="U28">
-        <v>31.985066414041359</v>
+        <v>33.492216140357442</v>
       </c>
       <c r="V28">
-        <v>37.393067774836503</v>
+        <v>39.155044790404716</v>
       </c>
       <c r="W28">
-        <v>42.638756952551752</v>
+        <v>44.64791303932121</v>
       </c>
       <c r="X28">
-        <v>46.818338564869428</v>
+        <v>49.02443828782139</v>
       </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.35">
@@ -4398,58 +4398,58 @@
         <v>39.512996083477169</v>
       </c>
       <c r="G29">
-        <v>820.2882181731427</v>
+        <v>783.37524835535123</v>
       </c>
       <c r="H29">
-        <v>596.98605262682315</v>
+        <v>570.12168025861604</v>
       </c>
       <c r="I29">
-        <v>474.6506557126911</v>
+        <v>453.29137620562</v>
       </c>
       <c r="J29">
-        <v>406.00393735694462</v>
+        <v>387.73376017588208</v>
       </c>
       <c r="K29">
-        <v>356.05476874789946</v>
+        <v>340.03230415424395</v>
       </c>
       <c r="L29">
-        <v>324.2689341785071</v>
+        <v>309.67683214047429</v>
       </c>
       <c r="M29">
-        <v>960.33742615392316</v>
+        <v>917.12224197699663</v>
       </c>
       <c r="N29">
-        <v>698.91050063628074</v>
+        <v>667.45952810764811</v>
       </c>
       <c r="O29">
-        <v>555.68857254168722</v>
+        <v>530.68258677731126</v>
       </c>
       <c r="P29">
-        <v>475.32168275934981</v>
+        <v>453.93220703517903</v>
       </c>
       <c r="Q29">
-        <v>416.844607314614</v>
+        <v>398.08659998545636</v>
       </c>
       <c r="R29">
-        <v>379.63192294069125</v>
+        <v>362.54848640836013</v>
       </c>
       <c r="S29">
-        <v>18.654690326956317</v>
+        <v>19.533707148645359</v>
       </c>
       <c r="T29">
-        <v>25.632462637173536</v>
+        <v>26.84027501274716</v>
       </c>
       <c r="U29">
-        <v>32.23891614748613</v>
+        <v>33.758027379566627</v>
       </c>
       <c r="V29">
-        <v>37.689838154001876</v>
+        <v>39.465799114138086</v>
       </c>
       <c r="W29">
-        <v>42.977159785508512</v>
+        <v>45.002261555506294</v>
       </c>
       <c r="X29">
-        <v>47.189912680463628</v>
+        <v>49.413521131375532</v>
       </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.35">
@@ -4466,58 +4466,58 @@
         <v>40.134328342549999</v>
       </c>
       <c r="G30">
-        <v>833.18705101820422</v>
+        <v>795.69363372238502</v>
       </c>
       <c r="H30">
-        <v>606.37351319625088</v>
+        <v>579.08670510241961</v>
       </c>
       <c r="I30">
-        <v>482.11442190144868</v>
+        <v>460.41927291588348</v>
       </c>
       <c r="J30">
-        <v>412.38825058536975</v>
+        <v>393.83077930902812</v>
       </c>
       <c r="K30">
-        <v>361.65364344098543</v>
+        <v>345.37922948614107</v>
       </c>
       <c r="L30">
-        <v>329.36798434910452</v>
+        <v>314.54642505339478</v>
       </c>
       <c r="M30">
-        <v>975.43849875301964</v>
+        <v>931.54376630913373</v>
       </c>
       <c r="N30">
-        <v>709.9006983760986</v>
+        <v>677.95516694917421</v>
       </c>
       <c r="O30">
-        <v>564.42664027486683</v>
+        <v>539.02744146249779</v>
       </c>
       <c r="P30">
-        <v>482.79600068531096</v>
+        <v>461.07018065447198</v>
       </c>
       <c r="Q30">
-        <v>423.3993874431049</v>
+        <v>404.3464150081652</v>
       </c>
       <c r="R30">
-        <v>385.60154265261019</v>
+        <v>368.24947323324267</v>
       </c>
       <c r="S30">
-        <v>18.80157765236542</v>
+        <v>19.687515866351227</v>
       </c>
       <c r="T30">
-        <v>25.834293051639467</v>
+        <v>27.051615760879027</v>
       </c>
       <c r="U30">
-        <v>32.492765880930904</v>
+        <v>34.023838618775812</v>
       </c>
       <c r="V30">
-        <v>37.986608533167242</v>
+        <v>39.776553437871456</v>
       </c>
       <c r="W30">
-        <v>43.315562618465272</v>
+        <v>45.356610071691385</v>
       </c>
       <c r="X30">
-        <v>47.561486796057828</v>
+        <v>49.802603974929667</v>
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.35">
@@ -4534,58 +4534,58 @@
         <v>40.528511949023255</v>
       </c>
       <c r="G31">
-        <v>841.37028692124477</v>
+        <v>803.50862400978872</v>
       </c>
       <c r="H31">
-        <v>612.32907563301274</v>
+        <v>584.77426722952714</v>
       </c>
       <c r="I31">
-        <v>486.84956035788076</v>
+        <v>464.94133014177612</v>
       </c>
       <c r="J31">
-        <v>416.43856597860372</v>
+        <v>397.69883050956656</v>
       </c>
       <c r="K31">
-        <v>365.20566345360447</v>
+        <v>348.77140859819224</v>
       </c>
       <c r="L31">
-        <v>332.60290730133221</v>
+        <v>317.63577647277225</v>
       </c>
       <c r="M31">
-        <v>985.01887249316462</v>
+        <v>940.69302323097224</v>
       </c>
       <c r="N31">
-        <v>716.8730641557222</v>
+        <v>684.61377626871479</v>
       </c>
       <c r="O31">
-        <v>569.97021700434823</v>
+        <v>544.32155723915253</v>
       </c>
       <c r="P31">
-        <v>487.53783334080435</v>
+        <v>465.59863084046822</v>
       </c>
       <c r="Q31">
-        <v>427.55784989690284</v>
+        <v>408.31774665154217</v>
       </c>
       <c r="R31">
-        <v>389.38876952351092</v>
+        <v>371.86627489495288</v>
       </c>
       <c r="S31">
-        <v>18.948464977774528</v>
+        <v>19.841324584057098</v>
       </c>
       <c r="T31">
-        <v>26.036123466105401</v>
+        <v>27.262956509010895</v>
       </c>
       <c r="U31">
-        <v>32.746615614375678</v>
+        <v>34.289649857984998</v>
       </c>
       <c r="V31">
-        <v>38.283378912332608</v>
+        <v>40.087307761604826</v>
       </c>
       <c r="W31">
-        <v>43.653965451422032</v>
+        <v>45.710958587876476</v>
       </c>
       <c r="X31">
-        <v>47.933060911652035</v>
+        <v>50.191686818483802</v>
       </c>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.35">
@@ -4602,58 +4602,58 @@
         <v>40.755554776320004</v>
       </c>
       <c r="G32">
-        <v>846.08368693421221</v>
+        <v>808.00992102217265</v>
       </c>
       <c r="H32">
-        <v>615.75937489350838</v>
+        <v>588.05020302330047</v>
       </c>
       <c r="I32">
-        <v>489.57691686163952</v>
+        <v>467.54595560286572</v>
       </c>
       <c r="J32">
-        <v>418.77147643764329</v>
+        <v>399.92675999794932</v>
       </c>
       <c r="K32">
-        <v>367.25156453380163</v>
+        <v>350.72524412978055</v>
       </c>
       <c r="L32">
-        <v>334.4661660495388</v>
+        <v>319.41518857730955</v>
       </c>
       <c r="M32">
-        <v>990.53699933761436</v>
+        <v>945.96283436742169</v>
       </c>
       <c r="N32">
-        <v>720.88902426557081</v>
+        <v>688.44901817362006</v>
       </c>
       <c r="O32">
-        <v>573.16321974045604</v>
+        <v>547.37087485213544</v>
       </c>
       <c r="P32">
-        <v>490.2690455855336</v>
+        <v>468.20693853418459</v>
       </c>
       <c r="Q32">
-        <v>429.95305116152389</v>
+        <v>410.6051638592553</v>
       </c>
       <c r="R32">
-        <v>391.57014561897228</v>
+        <v>373.94948906611853</v>
       </c>
       <c r="S32">
-        <v>19.095352303183631</v>
+        <v>19.995133301762966</v>
       </c>
       <c r="T32">
-        <v>26.237953880571336</v>
+        <v>27.474297257142762</v>
       </c>
       <c r="U32">
-        <v>33.000465347820452</v>
+        <v>34.55546109719419</v>
       </c>
       <c r="V32">
-        <v>38.580149291497982</v>
+        <v>40.398062085338204</v>
       </c>
       <c r="W32">
-        <v>43.992368284378792</v>
+        <v>46.06530710406156</v>
       </c>
       <c r="X32">
-        <v>48.304635027246235</v>
+        <v>50.580769662037945</v>
       </c>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.35">
@@ -4670,58 +4670,58 @@
         <v>40.996714451664126</v>
       </c>
       <c r="G33">
-        <v>851.09015214796921</v>
+        <v>812.79109530131052</v>
       </c>
       <c r="H33">
-        <v>619.40295996441262</v>
+        <v>591.52982676601403</v>
       </c>
       <c r="I33">
-        <v>492.4738522849043</v>
+        <v>470.31252893208358</v>
       </c>
       <c r="J33">
-        <v>421.24944033373924</v>
+        <v>402.29321551872096</v>
       </c>
       <c r="K33">
-        <v>369.42467366110156</v>
+        <v>352.80056334635196</v>
       </c>
       <c r="L33">
-        <v>336.44527668760486</v>
+        <v>321.3052392366626</v>
       </c>
       <c r="M33">
-        <v>996.39822690493963</v>
+        <v>951.56030669421727</v>
       </c>
       <c r="N33">
-        <v>725.15468483638551</v>
+        <v>692.52272401874814</v>
       </c>
       <c r="O33">
-        <v>576.55475389452215</v>
+        <v>550.6097899692686</v>
       </c>
       <c r="P33">
-        <v>493.17007648828013</v>
+        <v>470.97742304630748</v>
       </c>
       <c r="Q33">
-        <v>432.49717892031407</v>
+        <v>413.03480586889987</v>
       </c>
       <c r="R33">
-        <v>393.88715319524471</v>
+        <v>376.16223130145869</v>
       </c>
       <c r="S33">
-        <v>19.242239628592735</v>
+        <v>20.148942019468834</v>
       </c>
       <c r="T33">
-        <v>26.439784295037267</v>
+        <v>27.685638005274626</v>
       </c>
       <c r="U33">
-        <v>33.254315081265219</v>
+        <v>34.821272336403375</v>
       </c>
       <c r="V33">
-        <v>38.876919670663348</v>
+        <v>40.708816409071574</v>
       </c>
       <c r="W33">
-        <v>44.330771117335551</v>
+        <v>46.419655620246651</v>
       </c>
       <c r="X33">
-        <v>48.676209142840435</v>
+        <v>50.96985250559208</v>
       </c>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.35">
@@ -4738,58 +4738,58 @@
         <v>41.123968266884852</v>
       </c>
       <c r="G34">
-        <v>853.73193626179886</v>
+        <v>815.31399913001792</v>
       </c>
       <c r="H34">
-        <v>621.32558695705643</v>
+        <v>593.36593554398883</v>
       </c>
       <c r="I34">
-        <v>494.00249128531954</v>
+        <v>471.77237917748016</v>
       </c>
       <c r="J34">
-        <v>422.55699873589521</v>
+        <v>403.5419337927799</v>
       </c>
       <c r="K34">
-        <v>370.57136797036071</v>
+        <v>353.89565641169446</v>
       </c>
       <c r="L34">
-        <v>337.48960293774792</v>
+        <v>322.30257080554924</v>
       </c>
       <c r="M34">
-        <v>999.49104733088654</v>
+        <v>954.51395020099665</v>
       </c>
       <c r="N34">
-        <v>727.40556521801727</v>
+        <v>694.6723147832065</v>
       </c>
       <c r="O34">
-        <v>578.34438004134972</v>
+        <v>552.31888293948896</v>
       </c>
       <c r="P34">
-        <v>494.70087656885295</v>
+        <v>472.43933712325452</v>
       </c>
       <c r="Q34">
-        <v>433.83965030676376</v>
+        <v>414.31686604295936</v>
       </c>
       <c r="R34">
-        <v>395.10977904907077</v>
+        <v>377.32983899186252</v>
       </c>
       <c r="S34">
-        <v>19.389126954001842</v>
+        <v>20.302750737174701</v>
       </c>
       <c r="T34">
-        <v>26.641614709503202</v>
+        <v>27.896978753406493</v>
       </c>
       <c r="U34">
-        <v>33.508164814709993</v>
+        <v>35.08708357561256</v>
       </c>
       <c r="V34">
-        <v>39.173690049828721</v>
+        <v>41.019570732804944</v>
       </c>
       <c r="W34">
-        <v>44.669173950292311</v>
+        <v>46.774004136431742</v>
       </c>
       <c r="X34">
-        <v>49.047783258434634</v>
+        <v>51.358935349146215</v>
       </c>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.35">
@@ -4806,58 +4806,58 @@
         <v>40.964336455675188</v>
       </c>
       <c r="G35">
-        <v>850.41798624635862</v>
+        <v>812.14917686527247</v>
       </c>
       <c r="H35">
-        <v>618.91377377421406</v>
+        <v>591.06265395437435</v>
       </c>
       <c r="I35">
-        <v>492.08491096052722</v>
+        <v>469.94108996730347</v>
       </c>
       <c r="J35">
-        <v>420.91674994935369</v>
+        <v>401.97549620163278</v>
       </c>
       <c r="K35">
-        <v>369.13291294900557</v>
+        <v>352.52193186630029</v>
       </c>
       <c r="L35">
-        <v>336.17956213060222</v>
+        <v>321.05148183472511</v>
       </c>
       <c r="M35">
-        <v>995.61130097134674</v>
+        <v>950.80879242763615</v>
       </c>
       <c r="N35">
-        <v>724.58197905273846</v>
+        <v>691.97578999536518</v>
       </c>
       <c r="O35">
-        <v>576.09940795378805</v>
+        <v>550.17493459586751</v>
       </c>
       <c r="P35">
-        <v>492.78058530656045</v>
+        <v>470.60545896776523</v>
       </c>
       <c r="Q35">
-        <v>432.15560540371388</v>
+        <v>412.70860316054672</v>
       </c>
       <c r="R35">
-        <v>393.57607273826602</v>
+        <v>375.86514946504406</v>
       </c>
       <c r="S35">
-        <v>19.536014279410946</v>
+        <v>20.456559454880573</v>
       </c>
       <c r="T35">
-        <v>26.843445123969133</v>
+        <v>28.108319501538361</v>
       </c>
       <c r="U35">
-        <v>33.762014548154767</v>
+        <v>35.352894814821745</v>
       </c>
       <c r="V35">
-        <v>39.470460428994087</v>
+        <v>41.330325056538314</v>
       </c>
       <c r="W35">
-        <v>45.007576783249071</v>
+        <v>47.128352652616826</v>
       </c>
       <c r="X35">
-        <v>49.419357374028841</v>
+        <v>51.748018192700357</v>
       </c>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.35">
@@ -4874,58 +4874,58 @@
         <v>40.796929778101493</v>
       </c>
       <c r="G36">
-        <v>846.94263031619585</v>
+        <v>808.83021195196704</v>
       </c>
       <c r="H36">
-        <v>616.38449324542421</v>
+        <v>588.64719104938013</v>
       </c>
       <c r="I36">
-        <v>490.07393489803968</v>
+        <v>468.02060782762788</v>
       </c>
       <c r="J36">
-        <v>419.19661285594844</v>
+        <v>400.33276527743072</v>
       </c>
       <c r="K36">
-        <v>367.6243979848548</v>
+        <v>351.08130007553632</v>
       </c>
       <c r="L36">
-        <v>334.80571579415886</v>
+        <v>319.73945858342171</v>
       </c>
       <c r="M36">
-        <v>991.54259158969273</v>
+        <v>946.92317496815656</v>
       </c>
       <c r="N36">
-        <v>721.62087014098449</v>
+        <v>689.1479309846402</v>
       </c>
       <c r="O36">
-        <v>573.7450945147782</v>
+        <v>547.92656526161318</v>
       </c>
       <c r="P36">
-        <v>490.7667662703787</v>
+        <v>468.68226178821158</v>
       </c>
       <c r="Q36">
-        <v>430.38953910422026</v>
+        <v>411.02200984453032</v>
       </c>
       <c r="R36">
-        <v>391.96766727121036</v>
+        <v>374.32912224400593</v>
       </c>
       <c r="S36">
-        <v>19.682901604820049</v>
+        <v>20.61036817258644</v>
       </c>
       <c r="T36">
-        <v>27.045275538435067</v>
+        <v>28.319660249670228</v>
       </c>
       <c r="U36">
-        <v>34.015864281599541</v>
+        <v>35.61870605403093</v>
       </c>
       <c r="V36">
-        <v>39.767230808159454</v>
+        <v>41.641079380271684</v>
       </c>
       <c r="W36">
-        <v>45.345979616205831</v>
+        <v>47.482701168801917</v>
       </c>
       <c r="X36">
-        <v>49.790931489623041</v>
+        <v>52.137101036254492</v>
       </c>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.35">
@@ -4942,58 +4942,58 @@
         <v>40.597878862435557</v>
       </c>
       <c r="G37">
-        <v>842.81034126900761</v>
+        <v>804.88387591190224</v>
       </c>
       <c r="H37">
-        <v>613.37711258099387</v>
+        <v>585.77514251484911</v>
       </c>
       <c r="I37">
-        <v>487.6828317925843</v>
+        <v>465.737104361918</v>
       </c>
       <c r="J37">
-        <v>417.15132488729785</v>
+        <v>398.37951526736941</v>
       </c>
       <c r="K37">
-        <v>365.83073425971577</v>
+        <v>349.36835121802852</v>
       </c>
       <c r="L37">
-        <v>333.17217658761814</v>
+        <v>318.17942864117532</v>
       </c>
       <c r="M37">
-        <v>986.70478977835046</v>
+        <v>942.3030742383246</v>
       </c>
       <c r="N37">
-        <v>718.1000342411636</v>
+        <v>685.78553270031114</v>
       </c>
       <c r="O37">
-        <v>570.9457542937572</v>
+        <v>545.25319535053814</v>
       </c>
       <c r="P37">
-        <v>488.37228279488528</v>
+        <v>466.39553006911541</v>
       </c>
       <c r="Q37">
-        <v>428.28964010893554</v>
+        <v>409.01660630403342</v>
       </c>
       <c r="R37">
-        <v>390.05523112696761</v>
+        <v>372.50274572625403</v>
       </c>
       <c r="S37">
-        <v>19.829788930229153</v>
+        <v>20.764176890292308</v>
       </c>
       <c r="T37">
-        <v>27.247105952901002</v>
+        <v>28.531000997802096</v>
       </c>
       <c r="U37">
-        <v>34.269714015044308</v>
+        <v>35.884517293240116</v>
       </c>
       <c r="V37">
-        <v>40.064001187324827</v>
+        <v>41.951833704005054</v>
       </c>
       <c r="W37">
-        <v>45.684382449162591</v>
+        <v>47.837049684987008</v>
       </c>
       <c r="X37">
-        <v>50.162505605217241</v>
+        <v>52.526183879808634</v>
       </c>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.35">
@@ -5010,58 +5010,58 @@
         <v>40.370191294894113</v>
       </c>
       <c r="G38">
-        <v>838.08355647434996</v>
+        <v>800.36979643300413</v>
       </c>
       <c r="H38">
-        <v>609.93707219803719</v>
+        <v>582.48990394912551</v>
       </c>
       <c r="I38">
-        <v>484.94773033374139</v>
+        <v>463.12508246872301</v>
       </c>
       <c r="J38">
-        <v>414.811789593296</v>
+        <v>396.14525906159764</v>
       </c>
       <c r="K38">
-        <v>363.77902337359444</v>
+        <v>347.40896732178265</v>
       </c>
       <c r="L38">
-        <v>331.30362668832981</v>
+        <v>316.39496348735497</v>
       </c>
       <c r="M38">
-        <v>981.17099294558045</v>
+        <v>937.01829826302924</v>
       </c>
       <c r="N38">
-        <v>714.07266989038499</v>
+        <v>681.9393997453177</v>
       </c>
       <c r="O38">
-        <v>567.74368429316064</v>
+        <v>542.19521849996841</v>
       </c>
       <c r="P38">
-        <v>485.63331464580995</v>
+        <v>463.77981548674848</v>
       </c>
       <c r="Q38">
-        <v>425.88763712030573</v>
+        <v>406.72269344989189</v>
       </c>
       <c r="R38">
-        <v>387.86766051316664</v>
+        <v>370.41361579007412</v>
       </c>
       <c r="S38">
-        <v>19.97667625563826</v>
+        <v>20.91798560799818</v>
       </c>
       <c r="T38">
-        <v>27.448936367366933</v>
+        <v>28.742341745933963</v>
       </c>
       <c r="U38">
-        <v>34.523563748489082</v>
+        <v>36.150328532449301</v>
       </c>
       <c r="V38">
-        <v>40.360771566490193</v>
+        <v>42.262588027738424</v>
       </c>
       <c r="W38">
-        <v>46.022785282119351</v>
+        <v>48.191398201172092</v>
       </c>
       <c r="X38">
-        <v>50.534079720811441</v>
+        <v>52.91526672336277</v>
       </c>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.35">
@@ -5078,58 +5078,58 @@
         <v>40.270397314289049</v>
       </c>
       <c r="G39">
-        <v>836.01183742874809</v>
+        <v>798.39130474445437</v>
       </c>
       <c r="H39">
-        <v>608.4293248626675</v>
+        <v>581.05000524384741</v>
       </c>
       <c r="I39">
-        <v>483.74895314584342</v>
+        <v>461.98025025428046</v>
       </c>
       <c r="J39">
-        <v>413.78638648378285</v>
+        <v>395.16599909201261</v>
       </c>
       <c r="K39">
-        <v>362.87977183084377</v>
+        <v>346.55018209845576</v>
       </c>
       <c r="L39">
-        <v>330.48465341533711</v>
+        <v>315.61284401164693</v>
       </c>
       <c r="M39">
-        <v>978.74556577024168</v>
+        <v>934.7020153105808</v>
       </c>
       <c r="N39">
-        <v>712.3075022782449</v>
+        <v>680.25366467572383</v>
       </c>
       <c r="O39">
-        <v>566.34023782928011</v>
+        <v>540.85492712696248</v>
       </c>
       <c r="P39">
-        <v>484.43284271272142</v>
+        <v>462.63336479064895</v>
       </c>
       <c r="Q39">
-        <v>424.83485482635371</v>
+        <v>405.71728635916776</v>
       </c>
       <c r="R39">
-        <v>386.90886253502885</v>
+        <v>369.4979637209525</v>
       </c>
       <c r="S39">
-        <v>20.123563581047364</v>
+        <v>21.071794325704047</v>
       </c>
       <c r="T39">
-        <v>27.650766781832868</v>
+        <v>28.953682494065831</v>
       </c>
       <c r="U39">
-        <v>34.777413481933856</v>
+        <v>36.416139771658486</v>
       </c>
       <c r="V39">
-        <v>40.657541945655559</v>
+        <v>42.573342351471794</v>
       </c>
       <c r="W39">
-        <v>46.361188115076111</v>
+        <v>48.545746717357183</v>
       </c>
       <c r="X39">
-        <v>50.905653836405648</v>
+        <v>53.304349566916905</v>
       </c>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.35">
@@ -5146,58 +5146,58 @@
         <v>40.085558591188409</v>
       </c>
       <c r="G40">
-        <v>832.17459293072773</v>
+        <v>794.72673624884499</v>
       </c>
       <c r="H40">
-        <v>605.63667053082918</v>
+        <v>578.38302035694187</v>
       </c>
       <c r="I40">
-        <v>481.52857428782255</v>
+        <v>459.8597884448705</v>
       </c>
       <c r="J40">
-        <v>411.88713163617916</v>
+        <v>393.35221071255108</v>
       </c>
       <c r="K40">
-        <v>361.21417530988606</v>
+        <v>344.95953742094116</v>
       </c>
       <c r="L40">
-        <v>328.96774855679047</v>
+        <v>314.16419987173487</v>
       </c>
       <c r="M40">
-        <v>974.25318196768126</v>
+        <v>930.41178877913569</v>
       </c>
       <c r="N40">
-        <v>709.03805330438536</v>
+        <v>677.13134090568803</v>
       </c>
       <c r="O40">
-        <v>563.74076989793866</v>
+        <v>538.37243525253132</v>
       </c>
       <c r="P40">
-        <v>482.20932484235612</v>
+        <v>460.50990522445005</v>
       </c>
       <c r="Q40">
-        <v>422.88488816767148</v>
+        <v>403.85506820012625</v>
       </c>
       <c r="R40">
-        <v>385.13297392014493</v>
+        <v>367.80199009373837</v>
       </c>
       <c r="S40">
-        <v>20.270450906456468</v>
+        <v>21.225603043409915</v>
       </c>
       <c r="T40">
-        <v>27.852597196298799</v>
+        <v>29.165023242197698</v>
       </c>
       <c r="U40">
-        <v>35.03126321537863</v>
+        <v>36.681951010867671</v>
       </c>
       <c r="V40">
-        <v>40.954312324820933</v>
+        <v>42.884096675205164</v>
       </c>
       <c r="W40">
-        <v>46.699590948032871</v>
+        <v>48.900095233542274</v>
       </c>
       <c r="X40">
-        <v>51.277227951999848</v>
+        <v>53.693432410471047</v>
       </c>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.35">
@@ -5214,58 +5214,58 @@
         <v>39.983975567217264</v>
       </c>
       <c r="G41">
-        <v>830.06573341640774</v>
+        <v>792.71277541266932</v>
       </c>
       <c r="H41">
-        <v>604.10189325485874</v>
+        <v>576.91730805839006</v>
       </c>
       <c r="I41">
-        <v>480.30830618070866</v>
+        <v>458.69443240257675</v>
       </c>
       <c r="J41">
-        <v>410.84334574827085</v>
+        <v>392.35539518959865</v>
       </c>
       <c r="K41">
-        <v>360.29880255424013</v>
+        <v>344.08535643929929</v>
       </c>
       <c r="L41">
-        <v>328.13409324894792</v>
+        <v>313.36805905274525</v>
       </c>
       <c r="M41">
-        <v>971.78427326798953</v>
+        <v>928.05398097092996</v>
       </c>
       <c r="N41">
-        <v>707.24124088373708</v>
+        <v>675.41538504396885</v>
       </c>
       <c r="O41">
-        <v>562.31216333351256</v>
+        <v>537.00811598350447</v>
       </c>
       <c r="P41">
-        <v>480.98733160773173</v>
+        <v>459.34290168538382</v>
       </c>
       <c r="Q41">
-        <v>421.81323225862258</v>
+        <v>402.83163680698453</v>
       </c>
       <c r="R41">
-        <v>384.15698721828051</v>
+        <v>366.86992279345787</v>
       </c>
       <c r="S41">
-        <v>20.417338231865575</v>
+        <v>21.379411761115787</v>
       </c>
       <c r="T41">
-        <v>28.054427610764733</v>
+        <v>29.376363990329565</v>
       </c>
       <c r="U41">
-        <v>35.285112948823404</v>
+        <v>36.947762250076856</v>
       </c>
       <c r="V41">
-        <v>41.251082703986299</v>
+        <v>43.194850998938534</v>
       </c>
       <c r="W41">
-        <v>47.03799378098963</v>
+        <v>49.254443749727358</v>
       </c>
       <c r="X41">
-        <v>51.648802067594048</v>
+        <v>54.082515254025182</v>
       </c>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.35">
@@ -5285,58 +5285,58 @@
         <v>39.860660230857142</v>
       </c>
       <c r="G42">
-        <v>827.505711966185</v>
+        <v>790.26795492770668</v>
       </c>
       <c r="H42">
-        <v>602.23877116392816</v>
+        <v>575.13802646155136</v>
       </c>
       <c r="I42">
-        <v>478.82697823637596</v>
+        <v>457.27976421573902</v>
       </c>
       <c r="J42">
-        <v>409.5762560041033</v>
+        <v>391.14532448391861</v>
       </c>
       <c r="K42">
-        <v>359.18759819307218</v>
+        <v>343.02415627438393</v>
       </c>
       <c r="L42">
-        <v>327.12208867696148</v>
+        <v>312.40159468649819</v>
       </c>
       <c r="M42">
-        <v>968.78717498480205</v>
+        <v>925.19175211048594</v>
       </c>
       <c r="N42">
-        <v>705.0600247772818</v>
+        <v>673.33232366230402</v>
       </c>
       <c r="O42">
-        <v>560.57792574014752</v>
+        <v>535.35191908184083</v>
       </c>
       <c r="P42">
-        <v>479.50390946821852</v>
+        <v>457.92623354214862</v>
       </c>
       <c r="Q42">
-        <v>420.51231007969426</v>
+        <v>401.58925612610801</v>
       </c>
       <c r="R42">
-        <v>382.97220137790612</v>
+        <v>365.7384523159003</v>
       </c>
       <c r="S42">
-        <v>20.564225557274678</v>
+        <v>21.533220478821654</v>
       </c>
       <c r="T42">
-        <v>28.256258025230668</v>
+        <v>29.587704738461433</v>
       </c>
       <c r="U42">
-        <v>35.538962682268171</v>
+        <v>37.213573489286048</v>
       </c>
       <c r="V42">
-        <v>41.547853083151672</v>
+        <v>43.505605322671904</v>
       </c>
       <c r="W42">
-        <v>47.37639661394639</v>
+        <v>49.608792265912449</v>
       </c>
       <c r="X42">
-        <v>52.020376183188247</v>
+        <v>54.471598097579317</v>
       </c>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.35">
@@ -5354,58 +5354,58 @@
         <v>39.716074971733327</v>
       </c>
       <c r="G43">
-        <v>824.50412777018494</v>
+        <v>787.40144202052659</v>
       </c>
       <c r="H43">
-        <v>600.05429031793017</v>
+        <v>573.05184725362324</v>
       </c>
       <c r="I43">
-        <v>477.09014491944595</v>
+        <v>455.62108839807087</v>
       </c>
       <c r="J43">
-        <v>408.09061354955429</v>
+        <v>389.72653593982432</v>
       </c>
       <c r="K43">
-        <v>357.88472885628676</v>
+        <v>341.77991605775384</v>
       </c>
       <c r="L43">
-        <v>325.9355295060256</v>
+        <v>311.26843067825445</v>
       </c>
       <c r="M43">
-        <v>965.27312519436293</v>
+        <v>921.83583456061649</v>
       </c>
       <c r="N43">
-        <v>702.50258378684509</v>
+        <v>670.88996751643697</v>
       </c>
       <c r="O43">
-        <v>558.54455990569284</v>
+        <v>533.41005470993662</v>
       </c>
       <c r="P43">
-        <v>477.76462074094161</v>
+        <v>456.2652128075992</v>
       </c>
       <c r="Q43">
-        <v>418.98699963662841</v>
+        <v>400.13258465298014</v>
       </c>
       <c r="R43">
-        <v>381.58305893388365</v>
+        <v>364.41182128185886</v>
       </c>
       <c r="S43">
-        <v>20.711112882683782</v>
+        <v>21.687029196527522</v>
       </c>
       <c r="T43">
-        <v>28.458088439696599</v>
+        <v>29.7990454865933</v>
       </c>
       <c r="U43">
-        <v>35.792812415712945</v>
+        <v>37.479384728495234</v>
       </c>
       <c r="V43">
-        <v>41.844623462317038</v>
+        <v>43.816359646405274</v>
       </c>
       <c r="W43">
-        <v>47.71479944690315</v>
+        <v>49.96314078209754</v>
       </c>
       <c r="X43">
-        <v>52.391950298782454</v>
+        <v>54.860680941133459</v>
       </c>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.35">
@@ -5422,58 +5422,58 @@
         <v>39.561728978749294</v>
       </c>
       <c r="G44">
-        <v>821.29991112967616</v>
+        <v>784.34141512884071</v>
       </c>
       <c r="H44">
-        <v>597.72233844833158</v>
+        <v>570.82483321815664</v>
       </c>
       <c r="I44">
-        <v>475.23606059180543</v>
+        <v>453.85043786517417</v>
       </c>
       <c r="J44">
-        <v>406.50467760244476</v>
+        <v>388.21196711033474</v>
       </c>
       <c r="K44">
-        <v>356.49390476582818</v>
+        <v>340.45167905136589</v>
       </c>
       <c r="L44">
-        <v>324.66886750616311</v>
+        <v>310.05876846838578</v>
       </c>
       <c r="M44">
-        <v>961.52184717620628</v>
+        <v>918.25336405327698</v>
       </c>
       <c r="N44">
-        <v>699.77249379316868</v>
+        <v>668.28273157247611</v>
       </c>
       <c r="O44">
-        <v>556.37392459528439</v>
+        <v>531.33709798849657</v>
       </c>
       <c r="P44">
-        <v>475.90791524188654</v>
+        <v>454.49205905600166</v>
       </c>
       <c r="Q44">
-        <v>417.35871777462813</v>
+        <v>398.57757547476984</v>
       </c>
       <c r="R44">
-        <v>380.10013756819097</v>
+        <v>362.99563137762237</v>
       </c>
       <c r="S44">
-        <v>20.858000208092889</v>
+        <v>21.84083791423339</v>
       </c>
       <c r="T44">
-        <v>28.659918854162534</v>
+        <v>30.010386234725168</v>
       </c>
       <c r="U44">
-        <v>36.046662149157719</v>
+        <v>37.745195967704419</v>
       </c>
       <c r="V44">
-        <v>42.141393841482405</v>
+        <v>44.127113970138645</v>
       </c>
       <c r="W44">
-        <v>48.05320227985991</v>
+        <v>50.317489298282624</v>
       </c>
       <c r="X44">
-        <v>52.763524414376654</v>
+        <v>55.249763784687595</v>
       </c>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.35">
@@ -5490,58 +5490,58 @@
         <v>39.400755684654541</v>
       </c>
       <c r="G45">
-        <v>817.95811198320087</v>
+        <v>781.14999694395681</v>
       </c>
       <c r="H45">
-        <v>595.29025733717162</v>
+        <v>568.50219575699884</v>
       </c>
       <c r="I45">
-        <v>473.30236567702633</v>
+        <v>452.00375922156013</v>
       </c>
       <c r="J45">
-        <v>404.85064481096236</v>
+        <v>386.63236579446902</v>
       </c>
       <c r="K45">
-        <v>355.04336153487685</v>
+        <v>339.06641026580741</v>
       </c>
       <c r="L45">
-        <v>323.34781763191336</v>
+        <v>308.79716583847727</v>
       </c>
       <c r="M45">
-        <v>957.60949695594252</v>
+        <v>914.51706959292505</v>
       </c>
       <c r="N45">
-        <v>696.92517932156682</v>
+        <v>665.56354625209622</v>
       </c>
       <c r="O45">
-        <v>554.11008664627479</v>
+        <v>529.17513274719238</v>
       </c>
       <c r="P45">
-        <v>473.97148660795597</v>
+        <v>452.64276971059792</v>
       </c>
       <c r="Q45">
-        <v>415.66052082131927</v>
+        <v>396.95579738435993</v>
       </c>
       <c r="R45">
-        <v>378.55354259345955</v>
+        <v>361.51863317675389</v>
       </c>
       <c r="S45">
-        <v>21.004887533501993</v>
+        <v>21.994646631939261</v>
       </c>
       <c r="T45">
-        <v>28.861749268628465</v>
+        <v>30.221726982857035</v>
       </c>
       <c r="U45">
-        <v>36.300511882602493</v>
+        <v>38.011007206913604</v>
       </c>
       <c r="V45">
-        <v>42.438164220647778</v>
+        <v>44.437868293872015</v>
       </c>
       <c r="W45">
-        <v>48.39160511281667</v>
+        <v>50.671837814467715</v>
       </c>
       <c r="X45">
-        <v>53.135098529970854</v>
+        <v>55.63884662824173</v>
       </c>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.35">
@@ -5558,58 +5558,58 @@
         <v>39.206391159577777</v>
       </c>
       <c r="G46">
-        <v>813.92311221718819</v>
+        <v>777.29657216741464</v>
       </c>
       <c r="H46">
-        <v>592.35368147359679</v>
+        <v>565.6977658072849</v>
       </c>
       <c r="I46">
-        <v>470.96755793225117</v>
+        <v>449.77401782529984</v>
       </c>
       <c r="J46">
-        <v>402.85351044289359</v>
+        <v>384.72510247296339</v>
       </c>
       <c r="K46">
-        <v>353.29192725024808</v>
+        <v>337.39379052398692</v>
       </c>
       <c r="L46">
-        <v>321.7527379458374</v>
+        <v>307.27386473827471</v>
       </c>
       <c r="M46">
-        <v>952.8855947908545</v>
+        <v>910.00574302526593</v>
       </c>
       <c r="N46">
-        <v>693.48723684713775</v>
+        <v>662.28031118901652</v>
       </c>
       <c r="O46">
-        <v>551.376653188977</v>
+        <v>526.56470379547295</v>
       </c>
       <c r="P46">
-        <v>471.63337807948523</v>
+        <v>450.40987606590835</v>
       </c>
       <c r="Q46">
-        <v>413.61006117102215</v>
+        <v>394.99760841832619</v>
       </c>
       <c r="R46">
-        <v>376.68613222927308</v>
+        <v>359.73525627895577</v>
       </c>
       <c r="S46">
-        <v>21.151774858911097</v>
+        <v>22.148455349645129</v>
       </c>
       <c r="T46">
-        <v>29.0635796830944</v>
+        <v>30.433067730988903</v>
       </c>
       <c r="U46">
-        <v>36.55436161604726</v>
+        <v>38.276818446122789</v>
       </c>
       <c r="V46">
-        <v>42.734934599813144</v>
+        <v>44.748622617605385</v>
       </c>
       <c r="W46">
-        <v>48.73000794577343</v>
+        <v>51.026186330652806</v>
       </c>
       <c r="X46">
-        <v>53.506672645565054</v>
+        <v>56.027929471795872</v>
       </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.35">
@@ -5626,58 +5626,58 @@
         <v>39.052254992507592</v>
       </c>
       <c r="G47">
-        <v>810.7232515542579</v>
+        <v>774.24070523431624</v>
       </c>
       <c r="H47">
-        <v>590.02489977980019</v>
+        <v>563.47377928970911</v>
       </c>
       <c r="I47">
-        <v>469.11599414259723</v>
+        <v>448.00577440618036</v>
       </c>
       <c r="J47">
-        <v>401.26973049901403</v>
+        <v>383.21259262655838</v>
       </c>
       <c r="K47">
-        <v>351.90299391788528</v>
+        <v>336.06735919158041</v>
       </c>
       <c r="L47">
-        <v>320.48779791171251</v>
+        <v>306.06584700568544</v>
       </c>
       <c r="M47">
-        <v>949.13941645376542</v>
+        <v>906.42814271334589</v>
       </c>
       <c r="N47">
-        <v>690.76085827879047</v>
+        <v>659.67661965624484</v>
       </c>
       <c r="O47">
-        <v>549.20896875230903</v>
+        <v>524.49456515845509</v>
       </c>
       <c r="P47">
-        <v>469.77919668177253</v>
+        <v>448.63913283109275</v>
       </c>
       <c r="Q47">
-        <v>411.98399287947547</v>
+        <v>393.44471319989901</v>
       </c>
       <c r="R47">
-        <v>375.20522682346831</v>
+        <v>358.32099161641224</v>
       </c>
       <c r="S47">
-        <v>21.298662184320204</v>
+        <v>22.302264067350997</v>
       </c>
       <c r="T47">
-        <v>29.265410097560331</v>
+        <v>30.64440847912077</v>
       </c>
       <c r="U47">
-        <v>36.808211349492034</v>
+        <v>38.542629685331974</v>
       </c>
       <c r="V47">
-        <v>43.03170497897851</v>
+        <v>45.059376941338755</v>
       </c>
       <c r="W47">
-        <v>49.06841077873019</v>
+        <v>51.38053484683789</v>
       </c>
       <c r="X47">
-        <v>53.878246761159254</v>
+        <v>56.417012315350007</v>
       </c>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.35">
@@ -5694,58 +5694,58 @@
         <v>39.005647071210959</v>
       </c>
       <c r="G48">
-        <v>809.75567297245664</v>
+        <v>773.31666768869604</v>
       </c>
       <c r="H48">
-        <v>589.32071934009787</v>
+        <v>562.80128696979341</v>
       </c>
       <c r="I48">
-        <v>468.55611555586302</v>
+        <v>447.47109035584919</v>
       </c>
       <c r="J48">
-        <v>400.79082478610684</v>
+        <v>382.75523767073201</v>
       </c>
       <c r="K48">
-        <v>351.48300621044763</v>
+        <v>335.66627093097748</v>
       </c>
       <c r="L48">
-        <v>320.10530348048269</v>
+        <v>305.70056482386093</v>
       </c>
       <c r="M48">
-        <v>948.0066415287298</v>
+        <v>905.34634265993691</v>
       </c>
       <c r="N48">
-        <v>689.93645191035853</v>
+        <v>658.88931157439231</v>
       </c>
       <c r="O48">
-        <v>548.55350113857139</v>
+        <v>523.86859358733568</v>
       </c>
       <c r="P48">
-        <v>469.21852657885682</v>
+        <v>448.10369288280822</v>
       </c>
       <c r="Q48">
-        <v>411.49229995369478</v>
+        <v>392.97514645577854</v>
       </c>
       <c r="R48">
-        <v>374.75742846495535</v>
+        <v>357.89334418403234</v>
       </c>
       <c r="S48">
-        <v>21.445549509729307</v>
+        <v>22.456072785056868</v>
       </c>
       <c r="T48">
-        <v>29.467240512026265</v>
+        <v>30.855749227252637</v>
       </c>
       <c r="U48">
-        <v>37.062061082936808</v>
+        <v>38.808440924541159</v>
       </c>
       <c r="V48">
-        <v>43.328475358143884</v>
+        <v>45.370131265072125</v>
       </c>
       <c r="W48">
-        <v>49.40681361168695</v>
+        <v>51.734883363022981</v>
       </c>
       <c r="X48">
-        <v>54.249820876753461</v>
+        <v>56.806095158904142</v>
       </c>
     </row>
     <row r="49" spans="3:24" x14ac:dyDescent="0.35">
@@ -5762,58 +5762,58 @@
         <v>39.135597207270749</v>
       </c>
       <c r="G49">
-        <v>812.45343259905246</v>
+        <v>775.89302813209508</v>
       </c>
       <c r="H49">
-        <v>591.28408396577083</v>
+        <v>564.67630018731109</v>
       </c>
       <c r="I49">
-        <v>470.11714416428396</v>
+        <v>448.96187267689118</v>
       </c>
       <c r="J49">
-        <v>402.12608842414841</v>
+        <v>384.03041444506169</v>
       </c>
       <c r="K49">
-        <v>352.65399728249326</v>
+        <v>336.78456740478106</v>
       </c>
       <c r="L49">
-        <v>321.17175746507644</v>
+        <v>306.71902837914797</v>
       </c>
       <c r="M49">
-        <v>951.16499426230541</v>
+        <v>908.36256952050155</v>
       </c>
       <c r="N49">
-        <v>692.23502513065853</v>
+        <v>661.08444899977883</v>
       </c>
       <c r="O49">
-        <v>550.38104682647884</v>
+        <v>525.61389971928725</v>
       </c>
       <c r="P49">
-        <v>470.78176205753959</v>
+        <v>449.59658276495031</v>
       </c>
       <c r="Q49">
-        <v>412.86321633072384</v>
+        <v>394.28437159584126</v>
       </c>
       <c r="R49">
-        <v>376.00595995911391</v>
+        <v>359.08569176095375</v>
       </c>
       <c r="S49">
-        <v>21.592436835138411</v>
+        <v>22.609881502762736</v>
       </c>
       <c r="T49">
-        <v>29.6690709264922</v>
+        <v>31.067089975384501</v>
       </c>
       <c r="U49">
-        <v>37.315910816381582</v>
+        <v>39.074252163750344</v>
       </c>
       <c r="V49">
-        <v>43.62524573730925</v>
+        <v>45.680885588805502</v>
       </c>
       <c r="W49">
-        <v>49.74521644464371</v>
+        <v>52.089231879208072</v>
       </c>
       <c r="X49">
-        <v>54.62139499234766</v>
+        <v>57.195178002458285</v>
       </c>
     </row>
     <row r="50" spans="3:24" x14ac:dyDescent="0.35">
@@ -5830,58 +5830,58 @@
         <v>39.262376400000001</v>
       </c>
       <c r="G50">
-        <v>815.08536356894399</v>
+        <v>778.40652220834147</v>
       </c>
       <c r="H50">
-        <v>593.19954007703996</v>
+        <v>566.50556077357317</v>
       </c>
       <c r="I50">
-        <v>471.64008175252798</v>
+        <v>450.41627807366422</v>
       </c>
       <c r="J50">
-        <v>403.42876998527998</v>
+        <v>385.27447533594238</v>
       </c>
       <c r="K50">
-        <v>353.79641473051203</v>
+        <v>337.87557606763897</v>
       </c>
       <c r="L50">
-        <v>322.21218865929603</v>
+        <v>307.71264016962772</v>
       </c>
       <c r="M50">
-        <v>954.24627930022712</v>
+        <v>911.30519673171693</v>
       </c>
       <c r="N50">
-        <v>694.47751033409554</v>
+        <v>663.2260223690613</v>
       </c>
       <c r="O50">
-        <v>552.16399814930105</v>
+        <v>527.31661823258253</v>
       </c>
       <c r="P50">
-        <v>472.30685266569367</v>
+        <v>451.05304429573744</v>
       </c>
       <c r="Q50">
-        <v>414.20068066011169</v>
+        <v>395.56165003040661</v>
       </c>
       <c r="R50">
-        <v>377.22402574746854</v>
+        <v>360.24894458883244</v>
       </c>
       <c r="S50">
-        <v>21.739324160547515</v>
+        <v>22.763690220468604</v>
       </c>
       <c r="T50">
-        <v>29.870901340958131</v>
+        <v>31.278430723516369</v>
       </c>
       <c r="U50">
-        <v>37.569760549826356</v>
+        <v>39.34006340295953</v>
       </c>
       <c r="V50">
-        <v>43.922016116474616</v>
+        <v>45.991639912538872</v>
       </c>
       <c r="W50">
-        <v>50.083619277600469</v>
+        <v>52.443580395393155</v>
       </c>
       <c r="X50">
-        <v>54.99296910794186</v>
+        <v>57.58426084601242</v>
       </c>
     </row>
     <row r="51" spans="3:24" x14ac:dyDescent="0.35">
@@ -5898,58 +5898,58 @@
         <v>39.338266093981204</v>
       </c>
       <c r="G51">
-        <v>816.66083058040601</v>
+        <v>779.91109320428768</v>
       </c>
       <c r="H51">
-        <v>594.34612710752435</v>
+        <v>567.60055138768575</v>
       </c>
       <c r="I51">
-        <v>472.55170821927106</v>
+        <v>451.28688134940387</v>
       </c>
       <c r="J51">
-        <v>404.20855176887568</v>
+        <v>386.01916693927626</v>
       </c>
       <c r="K51">
-        <v>354.48026283415214</v>
+        <v>338.52865100661529</v>
       </c>
       <c r="L51">
-        <v>322.83498805750992</v>
+        <v>308.30741359492197</v>
       </c>
       <c r="M51">
-        <v>956.09072848437779</v>
+        <v>913.06664570258079</v>
       </c>
       <c r="N51">
-        <v>695.81985612588221</v>
+        <v>664.50796260021752</v>
       </c>
       <c r="O51">
-        <v>553.23126815914668</v>
+        <v>528.33586109198507</v>
       </c>
       <c r="P51">
-        <v>473.21976792453739</v>
+        <v>451.92487836793322</v>
       </c>
       <c r="Q51">
-        <v>415.00128331803177</v>
+        <v>396.32622556872036</v>
       </c>
       <c r="R51">
-        <v>377.95315675025552</v>
+        <v>360.94526469649401</v>
       </c>
       <c r="S51">
-        <v>21.886211485956622</v>
+        <v>22.917498938174475</v>
       </c>
       <c r="T51">
-        <v>30.072731755424069</v>
+        <v>31.48977147164824</v>
       </c>
       <c r="U51">
-        <v>37.82361028327113</v>
+        <v>39.605874642168722</v>
       </c>
       <c r="V51">
-        <v>44.218786495639996</v>
+        <v>46.302394236272242</v>
       </c>
       <c r="W51">
-        <v>50.422022110557236</v>
+        <v>52.797928911578254</v>
       </c>
       <c r="X51">
-        <v>55.364543223536067</v>
+        <v>57.973343689566569</v>
       </c>
     </row>
     <row r="52" spans="3:24" x14ac:dyDescent="0.35">
@@ -5966,58 +5966,58 @@
         <v>39.393599986901336</v>
       </c>
       <c r="G52">
-        <v>817.80955998407228</v>
+        <v>781.00812978478905</v>
       </c>
       <c r="H52">
-        <v>595.18214476209744</v>
+        <v>568.39894824780299</v>
       </c>
       <c r="I52">
-        <v>473.21640771465195</v>
+        <v>451.9216693674926</v>
       </c>
       <c r="J52">
-        <v>404.77711858540857</v>
+        <v>386.56214824906516</v>
       </c>
       <c r="K52">
-        <v>354.97888096996689</v>
+        <v>339.00483132631837</v>
       </c>
       <c r="L52">
-        <v>323.28909339650397</v>
+        <v>308.74108419366127</v>
       </c>
       <c r="M52">
-        <v>957.43558242037739</v>
+        <v>914.35098121146041</v>
       </c>
       <c r="N52">
-        <v>696.79860850196781</v>
+        <v>665.44267111937916</v>
       </c>
       <c r="O52">
-        <v>554.00945293422672</v>
+        <v>529.07902755218652</v>
       </c>
       <c r="P52">
-        <v>473.88540712438078</v>
+        <v>452.56056380378362</v>
       </c>
       <c r="Q52">
-        <v>415.58503137947343</v>
+        <v>396.88370496739714</v>
       </c>
       <c r="R52">
-        <v>378.48479226907784</v>
+        <v>361.45297661696929</v>
       </c>
       <c r="S52">
-        <v>22.033098811365729</v>
+        <v>23.071307655880346</v>
       </c>
       <c r="T52">
-        <v>30.27456216989</v>
+        <v>31.701112219780107</v>
       </c>
       <c r="U52">
-        <v>38.077460016715904</v>
+        <v>39.871685881377907</v>
       </c>
       <c r="V52">
-        <v>44.515556874805362</v>
+        <v>46.613148560005619</v>
       </c>
       <c r="W52">
-        <v>50.760424943513989</v>
+        <v>53.152277427763337</v>
       </c>
       <c r="X52">
-        <v>55.736117339130274</v>
+        <v>58.362426533120704</v>
       </c>
     </row>
     <row r="53" spans="3:24" x14ac:dyDescent="0.35">
@@ -6034,58 +6034,58 @@
         <v>39.264456525901991</v>
       </c>
       <c r="G53">
-        <v>815.12854689946425</v>
+        <v>778.44776228898832</v>
       </c>
       <c r="H53">
-        <v>593.23096786724284</v>
+        <v>566.5355743132169</v>
       </c>
       <c r="I53">
-        <v>471.66506930652815</v>
+        <v>450.44014118773435</v>
       </c>
       <c r="J53">
-        <v>403.45014369494811</v>
+        <v>385.29488722867541</v>
       </c>
       <c r="K53">
-        <v>353.81515891142493</v>
+        <v>337.89347676041081</v>
       </c>
       <c r="L53">
-        <v>322.22925950372831</v>
+        <v>307.72894282606052</v>
       </c>
       <c r="M53">
-        <v>954.29683539449479</v>
+        <v>911.35347780174243</v>
       </c>
       <c r="N53">
-        <v>694.51430384457706</v>
+        <v>663.26116017157108</v>
       </c>
       <c r="O53">
-        <v>552.19325187105733</v>
+        <v>527.34455553685973</v>
       </c>
       <c r="P53">
-        <v>472.33187554530514</v>
+        <v>451.07694114576634</v>
       </c>
       <c r="Q53">
-        <v>414.22262506703407</v>
+        <v>395.58260693901752</v>
       </c>
       <c r="R53">
-        <v>377.24401112631608</v>
+        <v>360.26803062563187</v>
       </c>
       <c r="S53">
-        <v>22.179986136774833</v>
+        <v>23.225116373586214</v>
       </c>
       <c r="T53">
-        <v>30.476392584355935</v>
+        <v>31.912452967911975</v>
       </c>
       <c r="U53">
-        <v>38.331309750160678</v>
+        <v>40.137497120587092</v>
       </c>
       <c r="V53">
-        <v>44.812327253970729</v>
+        <v>46.92390288373899</v>
       </c>
       <c r="W53">
-        <v>51.098827776470749</v>
+        <v>53.506625943948428</v>
       </c>
       <c r="X53">
-        <v>56.107691454724474</v>
+        <v>58.751509376674839</v>
       </c>
     </row>
     <row r="54" spans="3:24" x14ac:dyDescent="0.35">
@@ -6102,58 +6102,58 @@
         <v>39.154921475115792</v>
       </c>
       <c r="G54">
-        <v>812.85460362654487</v>
+        <v>776.2761464633503</v>
       </c>
       <c r="H54">
-        <v>591.57604659893445</v>
+        <v>564.95512450198237</v>
       </c>
       <c r="I54">
-        <v>470.34927731825792</v>
+        <v>449.18355983893628</v>
       </c>
       <c r="J54">
-        <v>402.32464914110977</v>
+        <v>384.22003992975982</v>
       </c>
       <c r="K54">
-        <v>352.82812980598641</v>
+        <v>336.95086396471703</v>
       </c>
       <c r="L54">
-        <v>321.33034477454424</v>
+        <v>306.87047925968972</v>
       </c>
       <c r="M54">
-        <v>951.63465790424766</v>
+        <v>908.81109829855654</v>
       </c>
       <c r="N54">
-        <v>692.57683504265503</v>
+        <v>661.41087746573544</v>
       </c>
       <c r="O54">
-        <v>550.6528124701556</v>
+        <v>525.87343590899854</v>
       </c>
       <c r="P54">
-        <v>471.01422338471389</v>
+        <v>449.81858333240177</v>
       </c>
       <c r="Q54">
-        <v>413.06707879725241</v>
+        <v>394.47906025137604</v>
       </c>
       <c r="R54">
-        <v>376.19162315068598</v>
+        <v>359.26300010890503</v>
       </c>
       <c r="S54">
-        <v>22.326873462183936</v>
+        <v>23.378925091292082</v>
       </c>
       <c r="T54">
-        <v>30.67822299882187</v>
+        <v>32.123793716043842</v>
       </c>
       <c r="U54">
-        <v>38.585159483605445</v>
+        <v>40.403308359796277</v>
       </c>
       <c r="V54">
-        <v>45.109097633136102</v>
+        <v>47.23465720747236</v>
       </c>
       <c r="W54">
-        <v>51.437230609427509</v>
+        <v>53.860974460133519</v>
       </c>
       <c r="X54">
-        <v>56.479265570318674</v>
+        <v>59.140592220228982</v>
       </c>
     </row>
     <row r="55" spans="3:24" x14ac:dyDescent="0.35">
@@ -6170,58 +6170,58 @@
         <v>39.072137783194769</v>
       </c>
       <c r="G55">
-        <v>811.13601749361203</v>
+        <v>774.63489670639945</v>
       </c>
       <c r="H55">
-        <v>590.32530091117644</v>
+        <v>563.76066237017346</v>
       </c>
       <c r="I55">
-        <v>469.35483656338278</v>
+        <v>448.23386891803051</v>
       </c>
       <c r="J55">
-        <v>401.47403014988288</v>
+        <v>383.40769879313814</v>
       </c>
       <c r="K55">
-        <v>352.08215933539071</v>
+        <v>336.23846216529813</v>
       </c>
       <c r="L55">
-        <v>320.65096881707751</v>
+        <v>306.22167522030901</v>
       </c>
       <c r="M55">
-        <v>949.62265462666778</v>
+        <v>906.88963516846763</v>
       </c>
       <c r="N55">
-        <v>691.11254740820664</v>
+        <v>660.01248277483728</v>
       </c>
       <c r="O55">
-        <v>549.48858914737502</v>
+        <v>524.76160263574309</v>
       </c>
       <c r="P55">
-        <v>470.01837676083852</v>
+        <v>448.86754980660078</v>
       </c>
       <c r="Q55">
-        <v>412.19374751460379</v>
+        <v>393.64502887644659</v>
       </c>
       <c r="R55">
-        <v>375.39625617609079</v>
+        <v>358.50342464816669</v>
       </c>
       <c r="S55">
-        <v>22.473760787593044</v>
+        <v>23.53273380899795</v>
       </c>
       <c r="T55">
-        <v>30.880053413287801</v>
+        <v>32.335134464175709</v>
       </c>
       <c r="U55">
-        <v>38.839009217050219</v>
+        <v>40.669119599005462</v>
       </c>
       <c r="V55">
-        <v>45.405868012301468</v>
+        <v>47.54541153120573</v>
       </c>
       <c r="W55">
-        <v>51.775633442384269</v>
+        <v>54.215322976318603</v>
       </c>
       <c r="X55">
-        <v>56.850839685912874</v>
+        <v>59.529675063783117</v>
       </c>
     </row>
     <row r="56" spans="3:24" x14ac:dyDescent="0.35">
@@ -6238,58 +6238,58 @@
         <v>39.103967158420787</v>
       </c>
       <c r="G56">
-        <v>811.79679405012917</v>
+        <v>775.26593831787329</v>
       </c>
       <c r="H56">
-        <v>590.80619820971629</v>
+        <v>564.21991929027899</v>
       </c>
       <c r="I56">
-        <v>469.73718756987279</v>
+        <v>448.59901412922852</v>
       </c>
       <c r="J56">
-        <v>401.80108334620525</v>
+        <v>383.72003459562598</v>
       </c>
       <c r="K56">
-        <v>352.36897638190237</v>
+        <v>336.51237244471673</v>
       </c>
       <c r="L56">
-        <v>320.91218104098238</v>
+        <v>306.47113289413818</v>
       </c>
       <c r="M56">
-        <v>950.39624669283421</v>
+        <v>907.62841559165656</v>
       </c>
       <c r="N56">
-        <v>691.67554912357036</v>
+        <v>660.55014941300954</v>
       </c>
       <c r="O56">
-        <v>549.93621959399741</v>
+        <v>525.18908971226756</v>
       </c>
       <c r="P56">
-        <v>470.4012683077525</v>
+        <v>449.2332112339036</v>
       </c>
       <c r="Q56">
-        <v>412.52953332515403</v>
+        <v>393.96570432552204</v>
       </c>
       <c r="R56">
-        <v>375.70206560895497</v>
+        <v>358.79547265655202</v>
       </c>
       <c r="S56">
-        <v>22.620648113002147</v>
+        <v>23.686542526703821</v>
       </c>
       <c r="T56">
-        <v>31.081883827753735</v>
+        <v>32.546475212307577</v>
       </c>
       <c r="U56">
-        <v>39.092858950494993</v>
+        <v>40.934930838214655</v>
       </c>
       <c r="V56">
-        <v>45.702638391466834</v>
+        <v>47.8561658549391</v>
       </c>
       <c r="W56">
-        <v>52.114036275341029</v>
+        <v>54.569671492503694</v>
       </c>
       <c r="X56">
-        <v>57.222413801507074</v>
+        <v>59.918757907337252</v>
       </c>
     </row>
     <row r="57" spans="3:24" x14ac:dyDescent="0.35">
@@ -6306,58 +6306,58 @@
         <v>39.152272875643874</v>
       </c>
       <c r="G57">
-        <v>812.79961880745179</v>
+        <v>776.22363596111643</v>
       </c>
       <c r="H57">
-        <v>591.53602996895302</v>
+        <v>564.91690862035011</v>
       </c>
       <c r="I57">
-        <v>470.31746096412951</v>
+        <v>449.15317522074366</v>
       </c>
       <c r="J57">
-        <v>402.2974342518159</v>
+        <v>384.19404971048419</v>
       </c>
       <c r="K57">
-        <v>352.80426306425699</v>
+        <v>336.92807122636543</v>
       </c>
       <c r="L57">
-        <v>321.30860867217405</v>
+        <v>306.84972128192618</v>
       </c>
       <c r="M57">
-        <v>951.57028543311435</v>
+        <v>908.74962258862411</v>
       </c>
       <c r="N57">
-        <v>692.52998630511581</v>
+        <v>661.36613692138553</v>
       </c>
       <c r="O57">
-        <v>550.61556405556632</v>
+        <v>525.83786367306573</v>
       </c>
       <c r="P57">
-        <v>470.98236205090643</v>
+        <v>449.78815575861569</v>
       </c>
       <c r="Q57">
-        <v>413.03913724595941</v>
+        <v>394.45237606989127</v>
       </c>
       <c r="R57">
-        <v>376.1661760064477</v>
+        <v>359.23869808615751</v>
       </c>
       <c r="S57">
-        <v>22.767535438411251</v>
+        <v>23.840351244409689</v>
       </c>
       <c r="T57">
-        <v>31.283714242219666</v>
+        <v>32.757815960439444</v>
       </c>
       <c r="U57">
-        <v>39.346708683939767</v>
+        <v>41.20074207742384</v>
       </c>
       <c r="V57">
-        <v>45.999408770632208</v>
+        <v>48.16692017867247</v>
       </c>
       <c r="W57">
-        <v>52.452439108297789</v>
+        <v>54.924020008688785</v>
       </c>
       <c r="X57">
-        <v>57.593987917101281</v>
+        <v>60.307840750891394</v>
       </c>
     </row>
     <row r="58" spans="3:24" x14ac:dyDescent="0.35">
@@ -6374,58 +6374,58 @@
         <v>39.272443676000002</v>
       </c>
       <c r="G58">
-        <v>815.29435981601296</v>
+        <v>778.60611362429233</v>
       </c>
       <c r="H58">
-        <v>593.35164252321363</v>
+        <v>566.65081860966905</v>
       </c>
       <c r="I58">
-        <v>471.76101510682349</v>
+        <v>450.5317694270164</v>
       </c>
       <c r="J58">
-        <v>403.53221325963523</v>
+        <v>385.37326366295162</v>
       </c>
       <c r="K58">
-        <v>353.88713175993007</v>
+        <v>337.96221083073323</v>
       </c>
       <c r="L58">
-        <v>322.29480716920864</v>
+        <v>307.79154084659422</v>
       </c>
       <c r="M58">
-        <v>954.49095783338112</v>
+        <v>911.53886473087891</v>
       </c>
       <c r="N58">
-        <v>694.65558149059154</v>
+        <v>663.39608032351498</v>
       </c>
       <c r="O58">
-        <v>552.30557866164702</v>
+        <v>527.45182762187289</v>
       </c>
       <c r="P58">
-        <v>472.42795698689002</v>
+        <v>451.16869892247996</v>
       </c>
       <c r="Q58">
-        <v>414.306885962845</v>
+        <v>395.66307609451695</v>
       </c>
       <c r="R58">
-        <v>377.32074985663451</v>
+        <v>360.34131611308595</v>
       </c>
       <c r="S58">
-        <v>22.914422763820358</v>
+        <v>23.994159962115557</v>
       </c>
       <c r="T58">
-        <v>31.485544656685601</v>
+        <v>32.969156708571312</v>
       </c>
       <c r="U58">
-        <v>39.600558417384541</v>
+        <v>41.466553316633025</v>
       </c>
       <c r="V58">
-        <v>46.296179149797574</v>
+        <v>48.47767450240584</v>
       </c>
       <c r="W58">
-        <v>52.790841941254548</v>
+        <v>55.278368524873869</v>
       </c>
       <c r="X58">
-        <v>57.96556203269548</v>
+        <v>60.696923594445529</v>
       </c>
     </row>
     <row r="59" spans="3:24" x14ac:dyDescent="0.35">
@@ -6442,58 +6442,58 @@
         <v>39.551134089701911</v>
       </c>
       <c r="G59">
-        <v>821.07996165684801</v>
+        <v>784.13136338228981</v>
       </c>
       <c r="H59">
-        <v>597.56226450767031</v>
+        <v>570.67196260482513</v>
       </c>
       <c r="I59">
-        <v>475.10878927522594</v>
+        <v>453.72889375784075</v>
       </c>
       <c r="J59">
-        <v>406.39581299850505</v>
+        <v>388.10800141357231</v>
       </c>
       <c r="K59">
-        <v>356.39843337303108</v>
+        <v>340.36050387124465</v>
       </c>
       <c r="L59">
-        <v>324.58191906591128</v>
+        <v>309.97573270794527</v>
       </c>
       <c r="M59">
-        <v>961.26434535435874</v>
+        <v>918.00744981341245</v>
       </c>
       <c r="N59">
-        <v>699.58509015532138</v>
+        <v>668.10376109833192</v>
       </c>
       <c r="O59">
-        <v>556.22492402953287</v>
+        <v>531.19480244820386</v>
       </c>
       <c r="P59">
-        <v>475.78046399824984</v>
+        <v>454.37034311832861</v>
       </c>
       <c r="Q59">
-        <v>417.24694638793886</v>
+        <v>398.47083380048156</v>
       </c>
       <c r="R59">
-        <v>379.99834427228637</v>
+        <v>362.89841878003352</v>
       </c>
       <c r="S59">
-        <v>23.061310089229462</v>
+        <v>24.147968679821428</v>
       </c>
       <c r="T59">
-        <v>31.687375071151536</v>
+        <v>33.180497456703179</v>
       </c>
       <c r="U59">
-        <v>39.854408150829308</v>
+        <v>41.73236455584221</v>
       </c>
       <c r="V59">
-        <v>46.592949528962947</v>
+        <v>48.78842882613921</v>
       </c>
       <c r="W59">
-        <v>53.129244774211308</v>
+        <v>55.63271704105896</v>
       </c>
       <c r="X59">
-        <v>58.33713614828968</v>
+        <v>61.086006437999664</v>
       </c>
     </row>
     <row r="60" spans="3:24" x14ac:dyDescent="0.35">
@@ -6510,58 +6510,58 @@
         <v>39.432016372293674</v>
       </c>
       <c r="G60">
-        <v>818.60708260816182</v>
+        <v>781.76976389079448</v>
       </c>
       <c r="H60">
-        <v>595.76256256243619</v>
+        <v>568.95324724712657</v>
       </c>
       <c r="I60">
-        <v>473.67788531250517</v>
+        <v>452.36238047344244</v>
       </c>
       <c r="J60">
-        <v>405.17185462859197</v>
+        <v>386.93912117030533</v>
       </c>
       <c r="K60">
-        <v>355.32505409204805</v>
+        <v>339.33542665790588</v>
       </c>
       <c r="L60">
-        <v>323.60436284152019</v>
+        <v>309.04216651365175</v>
       </c>
       <c r="M60">
-        <v>958.36926744370169</v>
+        <v>915.24265040873502</v>
       </c>
       <c r="N60">
-        <v>697.47812202431555</v>
+        <v>666.09160653322135</v>
       </c>
       <c r="O60">
-        <v>554.54971939024995</v>
+        <v>529.59498201768872</v>
       </c>
       <c r="P60">
-        <v>474.34753712615645</v>
+        <v>453.00189795547942</v>
       </c>
       <c r="Q60">
-        <v>415.9903072297148</v>
+        <v>397.27074340437764</v>
       </c>
       <c r="R60">
-        <v>378.85388820470655</v>
+        <v>361.80546323549476</v>
       </c>
       <c r="S60">
-        <v>23.208197414638565</v>
+        <v>24.301777397527296</v>
       </c>
       <c r="T60">
-        <v>31.889205485617467</v>
+        <v>33.391838204835047</v>
       </c>
       <c r="U60">
-        <v>40.108257884274082</v>
+        <v>41.998175795051395</v>
       </c>
       <c r="V60">
-        <v>46.889719908128313</v>
+        <v>49.09918314987258</v>
       </c>
       <c r="W60">
-        <v>53.467647607168068</v>
+        <v>55.987065557244051</v>
       </c>
       <c r="X60">
-        <v>58.70871026388388</v>
+        <v>61.475089281553807</v>
       </c>
     </row>
     <row r="61" spans="3:24" x14ac:dyDescent="0.35">
@@ -6578,58 +6578,58 @@
         <v>39.057557669779996</v>
       </c>
       <c r="G61">
-        <v>810.83333492232589</v>
+        <v>774.34583485082123</v>
       </c>
       <c r="H61">
-        <v>590.10501580963796</v>
+        <v>563.55029009820419</v>
       </c>
       <c r="I61">
-        <v>469.17969265938552</v>
+        <v>448.06660648971314</v>
       </c>
       <c r="J61">
-        <v>401.32421656852341</v>
+        <v>383.26462682293982</v>
       </c>
       <c r="K61">
-        <v>351.95077676700112</v>
+        <v>336.11299181248603</v>
       </c>
       <c r="L61">
-        <v>320.5313150751233</v>
+        <v>306.10740589674276</v>
       </c>
       <c r="M61">
-        <v>949.2682945432108</v>
+        <v>906.55122128876633</v>
       </c>
       <c r="N61">
-        <v>690.85465265518599</v>
+        <v>659.76619328570246</v>
       </c>
       <c r="O61">
-        <v>549.28354262562209</v>
+        <v>524.56578320746905</v>
       </c>
       <c r="P61">
-        <v>469.84298525095426</v>
+        <v>448.70005091466129</v>
       </c>
       <c r="Q61">
-        <v>412.03993377600131</v>
+        <v>393.49813675608124</v>
       </c>
       <c r="R61">
-        <v>375.25617374648584</v>
+        <v>358.369645927894</v>
       </c>
       <c r="S61">
-        <v>23.501972065456776</v>
+        <v>24.609394832939032</v>
       </c>
       <c r="T61">
-        <v>32.292866314549336</v>
+        <v>33.814519701098781</v>
       </c>
       <c r="U61">
-        <v>40.61595735116363</v>
+        <v>42.529798273469765</v>
       </c>
       <c r="V61">
-        <v>47.483260666459053</v>
+        <v>49.72069179733932</v>
       </c>
       <c r="W61">
-        <v>54.144453273081588</v>
+        <v>56.695762589614226</v>
       </c>
       <c r="X61">
-        <v>59.451858495072287</v>
+        <v>62.253254968662084</v>
       </c>
     </row>
     <row r="62" spans="3:24" x14ac:dyDescent="0.35">
@@ -6647,58 +6647,58 @@
         <v>39.110854516750315</v>
       </c>
       <c r="G62">
-        <v>811.93977533355587</v>
+        <v>775.40248544354586</v>
       </c>
       <c r="H62">
-        <v>590.91025655177373</v>
+        <v>564.31929500694389</v>
       </c>
       <c r="I62">
-        <v>469.81992209955342</v>
+        <v>448.67802560507351</v>
       </c>
       <c r="J62">
-        <v>401.87185233051281</v>
+        <v>383.7876189756397</v>
       </c>
       <c r="K62">
-        <v>352.43103891879844</v>
+        <v>336.57164216745247</v>
       </c>
       <c r="L62">
-        <v>320.96870311134381</v>
+        <v>306.52511147133333</v>
       </c>
       <c r="M62">
-        <v>950.56363941489474</v>
+        <v>907.78827564122446</v>
       </c>
       <c r="N62">
-        <v>691.79737352402776</v>
+        <v>660.66649171544657</v>
       </c>
       <c r="O62">
-        <v>550.03307953118451</v>
+        <v>525.28159095228125</v>
       </c>
       <c r="P62">
-        <v>470.48411980157601</v>
+        <v>449.31233441050506</v>
       </c>
       <c r="Q62">
-        <v>412.60219190493478</v>
+        <v>394.03509326921267</v>
       </c>
       <c r="R62">
-        <v>375.76823778889036</v>
+        <v>358.85866708839023</v>
       </c>
       <c r="S62">
-        <v>23.64885939086588</v>
+        <v>24.763203550644903</v>
       </c>
       <c r="T62">
-        <v>32.494696729015267</v>
+        <v>34.025860449230649</v>
       </c>
       <c r="U62">
-        <v>40.869807084608397</v>
+        <v>42.795609512678951</v>
       </c>
       <c r="V62">
-        <v>47.780031045624419</v>
+        <v>50.03144612107269</v>
       </c>
       <c r="W62">
-        <v>54.482856106038348</v>
+        <v>57.050111105799317</v>
       </c>
       <c r="X62">
-        <v>59.823432610666487</v>
+        <v>62.642337812216219</v>
       </c>
     </row>
     <row r="63" spans="3:24" x14ac:dyDescent="0.35">
@@ -6715,58 +6715,58 @@
         <v>39.082706595239507</v>
       </c>
       <c r="G63">
-        <v>811.35542560890838</v>
+        <v>774.84443145650744</v>
       </c>
       <c r="H63">
-        <v>590.48498086483562</v>
+        <v>563.91315672591804</v>
       </c>
       <c r="I63">
-        <v>469.48179462944643</v>
+        <v>448.35511387112132</v>
       </c>
       <c r="J63">
-        <v>401.58262680740501</v>
+        <v>383.51140860107176</v>
       </c>
       <c r="K63">
-        <v>352.17739574623079</v>
+        <v>336.32941293765037</v>
       </c>
       <c r="L63">
-        <v>320.73770325275638</v>
+        <v>306.30450660638235</v>
       </c>
       <c r="M63">
-        <v>949.87952266408786</v>
+        <v>907.13494414420381</v>
       </c>
       <c r="N63">
-        <v>691.29948979297831</v>
+        <v>660.19101275229434</v>
       </c>
       <c r="O63">
-        <v>549.63722298081541</v>
+        <v>524.9035479466786</v>
       </c>
       <c r="P63">
-        <v>470.14551431110834</v>
+        <v>448.9889661671084</v>
       </c>
       <c r="Q63">
-        <v>412.30524380046535</v>
+        <v>393.75150782944434</v>
       </c>
       <c r="R63">
-        <v>375.49779893005626</v>
+        <v>358.60039797820372</v>
       </c>
       <c r="S63">
-        <v>23.795746716274984</v>
+        <v>24.917012268350771</v>
       </c>
       <c r="T63">
-        <v>32.696527143481198</v>
+        <v>34.237201197362516</v>
       </c>
       <c r="U63">
-        <v>41.123656818053171</v>
+        <v>43.061420751888136</v>
       </c>
       <c r="V63">
-        <v>48.076801424789785</v>
+        <v>50.34220044480606</v>
       </c>
       <c r="W63">
-        <v>54.821258938995108</v>
+        <v>57.404459621984401</v>
       </c>
       <c r="X63">
-        <v>60.195006726260686</v>
+        <v>63.031420655770354</v>
       </c>
     </row>
     <row r="64" spans="3:24" x14ac:dyDescent="0.35">
@@ -6783,58 +6783,58 @@
         <v>39.180800583185274</v>
       </c>
       <c r="G64">
-        <v>813.39185287490295</v>
+        <v>776.78921949553228</v>
       </c>
       <c r="H64">
-        <v>591.96704369111296</v>
+        <v>565.32852672501281</v>
       </c>
       <c r="I64">
-        <v>470.66015062152474</v>
+        <v>449.48044384355609</v>
       </c>
       <c r="J64">
-        <v>402.59056215234534</v>
+        <v>384.47398685548978</v>
       </c>
       <c r="K64">
-        <v>353.06132851912918</v>
+        <v>337.17356873576836</v>
       </c>
       <c r="L64">
-        <v>321.54272529799158</v>
+        <v>307.07330265958194</v>
       </c>
       <c r="M64">
-        <v>952.26363263403277</v>
+        <v>909.41176916550125</v>
       </c>
       <c r="N64">
-        <v>693.03458773593718</v>
+        <v>661.84803128781994</v>
       </c>
       <c r="O64">
-        <v>551.01676170324845</v>
+        <v>526.22100742660223</v>
       </c>
       <c r="P64">
-        <v>471.32553617835555</v>
+        <v>450.11588705032955</v>
       </c>
       <c r="Q64">
-        <v>413.34009192483416</v>
+        <v>394.73978778821663</v>
       </c>
       <c r="R64">
-        <v>376.44026376350234</v>
+        <v>359.5004518941447</v>
       </c>
       <c r="S64">
-        <v>23.942634041684091</v>
+        <v>25.070820986056638</v>
       </c>
       <c r="T64">
-        <v>32.898357557947136</v>
+        <v>34.448541945494384</v>
       </c>
       <c r="U64">
-        <v>41.377506551497945</v>
+        <v>43.327231991097321</v>
       </c>
       <c r="V64">
-        <v>48.373571803955159</v>
+        <v>50.652954768539431</v>
       </c>
       <c r="W64">
-        <v>55.159661771951868</v>
+        <v>57.758808138169492</v>
       </c>
       <c r="X64">
-        <v>60.566580841854893</v>
+        <v>63.420503499324496</v>
       </c>
     </row>
     <row r="65" spans="3:24" x14ac:dyDescent="0.35">
@@ -6851,58 +6851,58 @@
         <v>39.289828142848776</v>
       </c>
       <c r="G65">
-        <v>815.65526065241488</v>
+        <v>778.9507739230562</v>
       </c>
       <c r="H65">
-        <v>593.61429747904504</v>
+        <v>566.901654092488</v>
       </c>
       <c r="I65">
-        <v>471.9698463625337</v>
+        <v>450.73120327621967</v>
       </c>
       <c r="J65">
-        <v>403.71084213339975</v>
+        <v>385.54385423739677</v>
       </c>
       <c r="K65">
-        <v>354.04378458146175</v>
+        <v>338.11181427529596</v>
       </c>
       <c r="L65">
-        <v>322.43747523022847</v>
+        <v>307.92778884486819</v>
       </c>
       <c r="M65">
-        <v>954.913475885754</v>
+        <v>911.94236947089507</v>
       </c>
       <c r="N65">
-        <v>694.96307997546739</v>
+        <v>663.68974137657131</v>
       </c>
       <c r="O65">
-        <v>552.55006403418577</v>
+        <v>527.6853111526475</v>
       </c>
       <c r="P65">
-        <v>472.63708347324854</v>
+        <v>451.36841471695232</v>
       </c>
       <c r="Q65">
-        <v>414.49028438805277</v>
+        <v>395.83822159059042</v>
       </c>
       <c r="R65">
-        <v>377.48777587929186</v>
+        <v>360.50082596472373</v>
       </c>
       <c r="S65">
-        <v>24.089521367093194</v>
+        <v>25.22462970376251</v>
       </c>
       <c r="T65">
-        <v>33.100187972413067</v>
+        <v>34.659882693626251</v>
       </c>
       <c r="U65">
-        <v>41.631356284942719</v>
+        <v>43.593043230306513</v>
       </c>
       <c r="V65">
-        <v>48.670342183120525</v>
+        <v>50.963709092272801</v>
       </c>
       <c r="W65">
-        <v>55.498064604908627</v>
+        <v>58.113156654354583</v>
       </c>
       <c r="X65">
-        <v>60.938154957449093</v>
+        <v>63.809586342878632</v>
       </c>
     </row>
     <row r="66" spans="3:24" x14ac:dyDescent="0.35">
@@ -6919,58 +6919,58 @@
         <v>39.447663089435153</v>
       </c>
       <c r="G66">
-        <v>818.93190783015018</v>
+        <v>782.07997197779343</v>
       </c>
       <c r="H66">
-        <v>595.99896255303997</v>
+        <v>569.17900923815318</v>
       </c>
       <c r="I66">
-        <v>473.86584181510153</v>
+        <v>452.54187893342197</v>
       </c>
       <c r="J66">
-        <v>405.3326277765641</v>
+        <v>387.09265952661872</v>
       </c>
       <c r="K66">
-        <v>355.46604791194733</v>
+        <v>339.4700757559097</v>
       </c>
       <c r="L66">
-        <v>323.73276981628209</v>
+        <v>309.1647951745494</v>
       </c>
       <c r="M66">
-        <v>958.74955063041978</v>
+        <v>915.6058208520509</v>
       </c>
       <c r="N66">
-        <v>697.75488298892492</v>
+        <v>666.35591325442329</v>
       </c>
       <c r="O66">
-        <v>554.76976602743594</v>
+        <v>529.80512655620134</v>
       </c>
       <c r="P66">
-        <v>474.53575934817263</v>
+        <v>453.18165017750488</v>
       </c>
       <c r="Q66">
-        <v>416.15537316520664</v>
+        <v>397.42838137277238</v>
       </c>
       <c r="R66">
-        <v>379.00421832150101</v>
+        <v>361.94902849703345</v>
       </c>
       <c r="S66">
-        <v>24.236408692502298</v>
+        <v>25.378438421468378</v>
       </c>
       <c r="T66">
-        <v>33.302018386878999</v>
+        <v>34.871223441758119</v>
       </c>
       <c r="U66">
-        <v>41.885206018387493</v>
+        <v>43.858854469515698</v>
       </c>
       <c r="V66">
-        <v>48.967112562285898</v>
+        <v>51.274463416006171</v>
       </c>
       <c r="W66">
-        <v>55.836467437865387</v>
+        <v>58.467505170539667</v>
       </c>
       <c r="X66">
-        <v>61.309729073043293</v>
+        <v>64.198669186432767</v>
       </c>
     </row>
     <row r="67" spans="3:24" x14ac:dyDescent="0.35">
@@ -6987,58 +6987,58 @@
         <v>39.53610927321445</v>
       </c>
       <c r="G67">
-        <v>820.76804706756104</v>
+        <v>783.83348494952077</v>
       </c>
       <c r="H67">
-        <v>597.33526056528785</v>
+        <v>570.45517383984986</v>
       </c>
       <c r="I67">
-        <v>474.92830336667396</v>
+        <v>453.55652971517361</v>
       </c>
       <c r="J67">
-        <v>406.24143000413312</v>
+        <v>387.96056565394713</v>
       </c>
       <c r="K67">
-        <v>356.26304354967726</v>
+        <v>340.23120658994179</v>
       </c>
       <c r="L67">
-        <v>324.45861580593265</v>
+        <v>309.85797809466567</v>
       </c>
       <c r="M67">
-        <v>960.89917705470566</v>
+        <v>917.65871408724388</v>
       </c>
       <c r="N67">
-        <v>699.31932944228822</v>
+        <v>667.84995961738525</v>
       </c>
       <c r="O67">
-        <v>556.01362345366715</v>
+        <v>530.99301039825207</v>
       </c>
       <c r="P67">
-        <v>475.59972293166805</v>
+        <v>454.19773539974301</v>
       </c>
       <c r="Q67">
-        <v>417.08844122889047</v>
+        <v>398.3194613735904</v>
       </c>
       <c r="R67">
-        <v>379.85398923621386</v>
+        <v>362.76055972058424</v>
       </c>
       <c r="S67">
-        <v>24.383296017911405</v>
+        <v>25.532247139174245</v>
       </c>
       <c r="T67">
-        <v>33.50384880134493</v>
+        <v>35.082564189889986</v>
       </c>
       <c r="U67">
-        <v>42.139055751832259</v>
+        <v>44.124665708724883</v>
       </c>
       <c r="V67">
-        <v>49.263882941451264</v>
+        <v>51.585217739739541</v>
       </c>
       <c r="W67">
-        <v>56.174870270822147</v>
+        <v>58.821853686724758</v>
       </c>
       <c r="X67">
-        <v>61.681303188637493</v>
+        <v>64.587752029986902</v>
       </c>
     </row>
     <row r="68" spans="3:24" x14ac:dyDescent="0.35">
@@ -7055,58 +7055,58 @@
         <v>39.595910679358084</v>
       </c>
       <c r="G68">
-        <v>822.0095218670466</v>
+        <v>785.01909338302949</v>
       </c>
       <c r="H68">
-        <v>598.23877609014949</v>
+        <v>571.31803116609274</v>
       </c>
       <c r="I68">
-        <v>475.64666895400251</v>
+        <v>454.24256885107235</v>
       </c>
       <c r="J68">
-        <v>406.85590141254016</v>
+        <v>388.54738584897586</v>
       </c>
       <c r="K68">
-        <v>356.80191880455004</v>
+        <v>340.74583245834526</v>
       </c>
       <c r="L68">
-        <v>324.94938441764725</v>
+        <v>310.32666211885311</v>
       </c>
       <c r="M68">
-        <v>962.35261096629847</v>
+        <v>919.04674347281502</v>
       </c>
       <c r="N68">
-        <v>700.37710371529704</v>
+        <v>668.86013404810865</v>
       </c>
       <c r="O68">
-        <v>556.85463682419811</v>
+        <v>531.79617816710913</v>
       </c>
       <c r="P68">
-        <v>476.31910409272996</v>
+        <v>454.88474440855714</v>
       </c>
       <c r="Q68">
-        <v>417.71931957605858</v>
+        <v>398.92195019513593</v>
       </c>
       <c r="R68">
-        <v>380.4285476109041</v>
+        <v>363.30926296841341</v>
       </c>
       <c r="S68">
-        <v>24.530183343320509</v>
+        <v>25.686055856880117</v>
       </c>
       <c r="T68">
-        <v>33.705679215810868</v>
+        <v>35.293904938021853</v>
       </c>
       <c r="U68">
-        <v>42.392905485277034</v>
+        <v>44.390476947934069</v>
       </c>
       <c r="V68">
-        <v>49.56065332061663</v>
+        <v>51.895972063472911</v>
       </c>
       <c r="W68">
-        <v>56.513273103778907</v>
+        <v>59.176202202909849</v>
       </c>
       <c r="X68">
-        <v>62.052877304231693</v>
+        <v>64.976834873541051</v>
       </c>
     </row>
     <row r="69" spans="3:24" x14ac:dyDescent="0.35">
@@ -7123,58 +7123,58 @@
         <v>39.655000164</v>
       </c>
       <c r="G69">
-        <v>823.23621720463348</v>
+        <v>786.1905874304249</v>
       </c>
       <c r="H69">
-        <v>599.13153547781042</v>
+        <v>572.17061638130895</v>
       </c>
       <c r="I69">
-        <v>476.35648257005323</v>
+        <v>454.92044085440079</v>
       </c>
       <c r="J69">
-        <v>407.46305768513281</v>
+        <v>389.12722008930183</v>
       </c>
       <c r="K69">
-        <v>357.33437887781713</v>
+        <v>341.25433182831534</v>
       </c>
       <c r="L69">
-        <v>325.43431054588899</v>
+        <v>310.78976657132398</v>
       </c>
       <c r="M69">
-        <v>963.78874209322953</v>
+        <v>920.41824869903405</v>
       </c>
       <c r="N69">
-        <v>701.42228543743659</v>
+        <v>669.85828259275195</v>
       </c>
       <c r="O69">
-        <v>557.68563813079402</v>
+        <v>532.58978441490831</v>
       </c>
       <c r="P69">
-        <v>477.02992119235063</v>
+        <v>455.56357473869485</v>
       </c>
       <c r="Q69">
-        <v>418.34268746671273</v>
+        <v>399.51726653071069</v>
       </c>
       <c r="R69">
-        <v>380.99626600494321</v>
+        <v>363.8514340347208</v>
       </c>
       <c r="S69">
-        <v>24.677070668729616</v>
+        <v>25.839864574585988</v>
       </c>
       <c r="T69">
-        <v>33.907509630276806</v>
+        <v>35.505245686153721</v>
       </c>
       <c r="U69">
-        <v>42.646755218721815</v>
+        <v>44.656288187143261</v>
       </c>
       <c r="V69">
-        <v>49.857423699782004</v>
+        <v>52.206726387206288</v>
       </c>
       <c r="W69">
-        <v>56.851675936735674</v>
+        <v>59.53055071909494</v>
       </c>
       <c r="X69">
-        <v>62.424451419825907</v>
+        <v>65.365917717095186</v>
       </c>
     </row>
     <row r="70" spans="3:24" x14ac:dyDescent="0.35">
@@ -7191,58 +7191,58 @@
         <v>39.492220055138461</v>
       </c>
       <c r="G70">
-        <v>819.85690865587219</v>
+        <v>782.96334776635786</v>
       </c>
       <c r="H70">
-        <v>596.67215592506489</v>
+        <v>569.82190890843697</v>
       </c>
       <c r="I70">
-        <v>474.4010832567518</v>
+        <v>453.05303451019796</v>
       </c>
       <c r="J70">
-        <v>405.79045951055872</v>
+        <v>387.52988883258354</v>
       </c>
       <c r="K70">
-        <v>355.86755429445708</v>
+        <v>339.85351435120651</v>
       </c>
       <c r="L70">
-        <v>324.09843279330153</v>
+        <v>309.51400331760294</v>
       </c>
       <c r="M70">
-        <v>959.83247842638696</v>
+        <v>916.64001689719953</v>
       </c>
       <c r="N70">
-        <v>698.5430118147101</v>
+        <v>667.10857628304814</v>
       </c>
       <c r="O70">
-        <v>555.39639015424609</v>
+        <v>530.40355259730495</v>
       </c>
       <c r="P70">
-        <v>475.07175747577611</v>
+        <v>453.69352838936612</v>
       </c>
       <c r="Q70">
-        <v>416.62542941790099</v>
+        <v>397.87728509409544</v>
       </c>
       <c r="R70">
-        <v>379.43231156288959</v>
+        <v>362.35785754255954</v>
       </c>
       <c r="S70">
-        <v>24.82395799413872</v>
+        <v>25.993673292291852</v>
       </c>
       <c r="T70">
-        <v>34.10934004474273</v>
+        <v>35.716586434285588</v>
       </c>
       <c r="U70">
-        <v>42.900604952166582</v>
+        <v>44.922099426352439</v>
       </c>
       <c r="V70">
-        <v>50.15419407894737</v>
+        <v>52.517480710939658</v>
       </c>
       <c r="W70">
-        <v>57.190078769692427</v>
+        <v>59.884899235280024</v>
       </c>
       <c r="X70">
-        <v>62.7960255354201</v>
+        <v>65.755000560649322</v>
       </c>
     </row>
     <row r="71" spans="3:24" x14ac:dyDescent="0.35">
@@ -7259,58 +7259,58 @@
         <v>39.386784243651761</v>
       </c>
       <c r="G71">
-        <v>817.66806542684083</v>
+        <v>780.87300248263296</v>
       </c>
       <c r="H71">
-        <v>595.07916842363693</v>
+        <v>568.30060584457328</v>
       </c>
       <c r="I71">
-        <v>473.13453346255159</v>
+        <v>451.84347945673676</v>
       </c>
       <c r="J71">
-        <v>404.70708546037059</v>
+        <v>386.49526661465387</v>
       </c>
       <c r="K71">
-        <v>354.91746376228548</v>
+        <v>338.94617789298263</v>
       </c>
       <c r="L71">
-        <v>323.23315904532228</v>
+        <v>308.68766688828276</v>
       </c>
       <c r="M71">
-        <v>957.26993025581373</v>
+        <v>914.19278339430207</v>
       </c>
       <c r="N71">
-        <v>696.6780508374286</v>
+        <v>665.3275385497443</v>
       </c>
       <c r="O71">
-        <v>553.91360015127998</v>
+        <v>528.98748814447231</v>
       </c>
       <c r="P71">
-        <v>473.80341712433631</v>
+        <v>452.48226335374113</v>
       </c>
       <c r="Q71">
-        <v>415.51312830706593</v>
+        <v>396.81503753324796</v>
       </c>
       <c r="R71">
-        <v>378.41930815062125</v>
+        <v>361.39043928384325</v>
       </c>
       <c r="S71">
-        <v>24.970845319547827</v>
+        <v>26.147482009997724</v>
       </c>
       <c r="T71">
-        <v>34.311170459208668</v>
+        <v>35.927927182417456</v>
       </c>
       <c r="U71">
-        <v>43.154454685611356</v>
+        <v>45.187910665561631</v>
       </c>
       <c r="V71">
-        <v>50.450964458112743</v>
+        <v>52.828235034673028</v>
       </c>
       <c r="W71">
-        <v>57.528481602649194</v>
+        <v>60.239247751465122</v>
       </c>
       <c r="X71">
-        <v>63.167599651014307</v>
+        <v>66.144083404203471</v>
       </c>
     </row>
     <row r="72" spans="3:24" x14ac:dyDescent="0.35">
@@ -7327,58 +7327,58 @@
         <v>39.292990338713444</v>
       </c>
       <c r="G72">
-        <v>815.72090771207752</v>
+        <v>779.01346686503405</v>
       </c>
       <c r="H72">
-        <v>593.66207383148594</v>
+        <v>566.94728050906906</v>
       </c>
       <c r="I72">
-        <v>472.00783230360196</v>
+        <v>450.76747984993983</v>
       </c>
       <c r="J72">
-        <v>403.7433343283484</v>
+        <v>385.57488428357271</v>
       </c>
       <c r="K72">
-        <v>354.07227938137396</v>
+        <v>338.13902680921211</v>
       </c>
       <c r="L72">
-        <v>322.46342623329929</v>
+        <v>307.9525720528008</v>
       </c>
       <c r="M72">
-        <v>954.99033097999325</v>
+        <v>912.01576608589357</v>
       </c>
       <c r="N72">
-        <v>695.01901326612995</v>
+        <v>663.74315766915402</v>
       </c>
       <c r="O72">
-        <v>552.59453537982665</v>
+        <v>527.7277812877345</v>
       </c>
       <c r="P72">
-        <v>472.67512311611523</v>
+        <v>451.40474257589005</v>
       </c>
       <c r="Q72">
-        <v>414.52364415380367</v>
+        <v>395.87008016688247</v>
       </c>
       <c r="R72">
-        <v>377.51815754142359</v>
+        <v>360.52984045205949</v>
       </c>
       <c r="S72">
-        <v>25.117732644956927</v>
+        <v>26.301290727703591</v>
       </c>
       <c r="T72">
-        <v>34.513000873674599</v>
+        <v>36.139267930549323</v>
       </c>
       <c r="U72">
-        <v>43.408304419056122</v>
+        <v>45.453721904770809</v>
       </c>
       <c r="V72">
-        <v>50.747734837278109</v>
+        <v>53.138989358406398</v>
       </c>
       <c r="W72">
-        <v>57.866884435605947</v>
+        <v>60.593596267650199</v>
       </c>
       <c r="X72">
-        <v>63.539173766608499</v>
+        <v>66.533166247757592</v>
       </c>
     </row>
     <row r="73" spans="3:24" x14ac:dyDescent="0.35">
@@ -7395,58 +7395,58 @@
         <v>39.180808052130232</v>
       </c>
       <c r="G73">
-        <v>813.39200792990152</v>
+        <v>776.78936757305587</v>
       </c>
       <c r="H73">
-        <v>591.96715653641479</v>
+        <v>565.32863449227614</v>
       </c>
       <c r="I73">
-        <v>470.6602403423754</v>
+        <v>449.4805295269685</v>
       </c>
       <c r="J73">
-        <v>402.59063889724854</v>
+        <v>384.47406014687232</v>
       </c>
       <c r="K73">
-        <v>353.06139582238967</v>
+        <v>337.1736330103821</v>
       </c>
       <c r="L73">
-        <v>321.54278659293402</v>
+        <v>307.07336119625199</v>
       </c>
       <c r="M73">
-        <v>952.26381416183597</v>
+        <v>909.4119425245533</v>
       </c>
       <c r="N73">
-        <v>693.03471984751002</v>
+        <v>661.84815745437209</v>
       </c>
       <c r="O73">
-        <v>551.01686674229313</v>
+        <v>526.22110773888994</v>
       </c>
       <c r="P73">
-        <v>471.32562602604708</v>
+        <v>450.11597285487494</v>
       </c>
       <c r="Q73">
-        <v>413.34017071889525</v>
+        <v>394.73986303654493</v>
       </c>
       <c r="R73">
-        <v>376.44033552343495</v>
+        <v>359.50052042488039</v>
       </c>
       <c r="S73">
-        <v>25.264619970366034</v>
+        <v>26.455099445409463</v>
       </c>
       <c r="T73">
-        <v>34.714831288140537</v>
+        <v>36.350608678681191</v>
       </c>
       <c r="U73">
-        <v>43.662154152500904</v>
+        <v>45.719533143980001</v>
       </c>
       <c r="V73">
-        <v>51.044505216443483</v>
+        <v>53.449743682139776</v>
       </c>
       <c r="W73">
-        <v>58.205287268562714</v>
+        <v>60.947944783835297</v>
       </c>
       <c r="X73">
-        <v>63.910747882202713</v>
+        <v>66.922249091311741</v>
       </c>
     </row>
     <row r="74" spans="3:24" x14ac:dyDescent="0.35">
@@ -7463,58 +7463,58 @@
         <v>39.069922670594217</v>
       </c>
       <c r="G74">
-        <v>811.09003184462904</v>
+        <v>774.59098041162065</v>
       </c>
       <c r="H74">
-        <v>590.2918336609398</v>
+        <v>563.72870114619752</v>
       </c>
       <c r="I74">
-        <v>469.32822747896637</v>
+        <v>448.20845724241286</v>
       </c>
       <c r="J74">
-        <v>401.45126942488969</v>
+        <v>383.38596230076962</v>
       </c>
       <c r="K74">
-        <v>352.06219877853812</v>
+        <v>336.21939983350387</v>
       </c>
       <c r="L74">
-        <v>320.63279018540533</v>
+        <v>306.20431462706205</v>
       </c>
       <c r="M74">
-        <v>949.56881776932187</v>
+        <v>906.83822096970221</v>
       </c>
       <c r="N74">
-        <v>691.07336623719789</v>
+        <v>659.97506475652392</v>
       </c>
       <c r="O74">
-        <v>549.45743704854601</v>
+        <v>524.73185238136148</v>
       </c>
       <c r="P74">
-        <v>469.99173005840748</v>
+        <v>448.8421022057791</v>
       </c>
       <c r="Q74">
-        <v>412.17037905780074</v>
+        <v>393.62271200019967</v>
       </c>
       <c r="R74">
-        <v>375.37497387559648</v>
+        <v>358.48310005119458</v>
       </c>
       <c r="S74">
-        <v>25.411507295775138</v>
+        <v>26.608908163115327</v>
       </c>
       <c r="T74">
-        <v>34.916661702606461</v>
+        <v>36.561949426813051</v>
       </c>
       <c r="U74">
-        <v>43.916003885945671</v>
+        <v>45.985344383189179</v>
       </c>
       <c r="V74">
-        <v>51.341275595608849</v>
+        <v>53.760498005873139</v>
       </c>
       <c r="W74">
-        <v>58.543690101519466</v>
+        <v>61.302293300020381</v>
       </c>
       <c r="X74">
-        <v>64.282321997796899</v>
+        <v>67.311331934865876</v>
       </c>
     </row>
     <row r="75" spans="3:24" x14ac:dyDescent="0.35">
@@ -7531,58 +7531,58 @@
         <v>39.041544336570112</v>
       </c>
       <c r="G75">
-        <v>810.50089876542199</v>
+        <v>774.02835832097799</v>
       </c>
       <c r="H75">
-        <v>589.86307676350316</v>
+        <v>563.31923830914548</v>
       </c>
       <c r="I75">
-        <v>468.98733217393516</v>
+        <v>447.88290222610806</v>
       </c>
       <c r="J75">
-        <v>401.1596763671252</v>
+        <v>383.10749093060457</v>
       </c>
       <c r="K75">
-        <v>351.80647934038018</v>
+        <v>335.97518777006303</v>
       </c>
       <c r="L75">
-        <v>320.39989941426973</v>
+        <v>305.9819039406276</v>
       </c>
       <c r="M75">
-        <v>948.87910099366479</v>
+        <v>906.17954144894986</v>
       </c>
       <c r="N75">
-        <v>690.57140694263785</v>
+        <v>659.49569363021908</v>
       </c>
       <c r="O75">
-        <v>549.05834010607043</v>
+        <v>524.35071480129727</v>
       </c>
       <c r="P75">
-        <v>469.65035282004902</v>
+        <v>448.51608694314683</v>
       </c>
       <c r="Q75">
-        <v>411.87100020337192</v>
+        <v>393.33680519422018</v>
       </c>
       <c r="R75">
-        <v>375.10232126548652</v>
+        <v>358.22271680853964</v>
       </c>
       <c r="S75">
-        <v>25.558394621184245</v>
+        <v>26.762716880821198</v>
       </c>
       <c r="T75">
-        <v>35.1184921170724</v>
+        <v>36.773290174944925</v>
       </c>
       <c r="U75">
-        <v>44.169853619390445</v>
+        <v>46.251155622398372</v>
       </c>
       <c r="V75">
-        <v>51.638045974774222</v>
+        <v>54.071252329606516</v>
       </c>
       <c r="W75">
-        <v>58.882092934476233</v>
+        <v>61.656641816205472</v>
       </c>
       <c r="X75">
-        <v>64.653896113391113</v>
+        <v>67.700414778420011</v>
       </c>
     </row>
     <row r="76" spans="3:24" x14ac:dyDescent="0.35">
@@ -7599,58 +7599,58 @@
         <v>39.00391778506971</v>
       </c>
       <c r="G76">
-        <v>809.71977306133579</v>
+        <v>773.28238327357565</v>
       </c>
       <c r="H76">
-        <v>589.29459224750417</v>
+        <v>562.77633559636649</v>
       </c>
       <c r="I76">
-        <v>468.53534247150554</v>
+        <v>447.4512520602878</v>
       </c>
       <c r="J76">
-        <v>400.77305602514826</v>
+        <v>382.73826850401656</v>
       </c>
       <c r="K76">
-        <v>351.46742347468597</v>
+        <v>335.6513894183251</v>
       </c>
       <c r="L76">
-        <v>320.09111185166449</v>
+        <v>305.68701181833956</v>
       </c>
       <c r="M76">
-        <v>947.96461236449068</v>
+        <v>905.30620480808864</v>
       </c>
       <c r="N76">
-        <v>689.90586409463901</v>
+        <v>658.86010021038032</v>
       </c>
       <c r="O76">
-        <v>548.52918143005525</v>
+        <v>523.84536826570286</v>
       </c>
       <c r="P76">
-        <v>469.19772412700286</v>
+        <v>448.08382654128769</v>
       </c>
       <c r="Q76">
-        <v>411.4740567508519</v>
+        <v>392.95772419706356</v>
       </c>
       <c r="R76">
-        <v>374.74081387511944</v>
+        <v>357.87747725073899</v>
       </c>
       <c r="S76">
-        <v>25.705281946593345</v>
+        <v>26.916525598527066</v>
       </c>
       <c r="T76">
-        <v>35.320322531538331</v>
+        <v>36.984630923076786</v>
       </c>
       <c r="U76">
-        <v>44.423703352835211</v>
+        <v>46.516966861607557</v>
       </c>
       <c r="V76">
-        <v>51.934816353939581</v>
+        <v>54.382006653339879</v>
       </c>
       <c r="W76">
-        <v>59.220495767432986</v>
+        <v>62.010990332390556</v>
       </c>
       <c r="X76">
-        <v>65.025470228985313</v>
+        <v>68.089497621974147</v>
       </c>
     </row>
     <row r="77" spans="3:24" x14ac:dyDescent="0.35">
@@ -7667,58 +7667,58 @@
         <v>38.863208906599993</v>
       </c>
       <c r="G77">
-        <v>806.79866237265958</v>
+        <v>770.49272256588984</v>
       </c>
       <c r="H77">
-        <v>587.16867808625659</v>
+        <v>560.74608757237502</v>
       </c>
       <c r="I77">
-        <v>466.84507425471048</v>
+        <v>445.83704591324852</v>
       </c>
       <c r="J77">
-        <v>399.32724415709623</v>
+        <v>381.35751817002688</v>
       </c>
       <c r="K77">
-        <v>350.19948451408504</v>
+        <v>334.44050771095118</v>
       </c>
       <c r="L77">
-        <v>318.93636474125975</v>
+        <v>304.58422832790308</v>
       </c>
       <c r="M77">
-        <v>944.54477546067471</v>
+        <v>902.04026056494422</v>
       </c>
       <c r="N77">
-        <v>687.41698897903211</v>
+        <v>656.48322447497571</v>
       </c>
       <c r="O77">
-        <v>546.55033083478304</v>
+        <v>521.95556594721779</v>
       </c>
       <c r="P77">
-        <v>467.50506633025901</v>
+        <v>446.46733834539737</v>
       </c>
       <c r="Q77">
-        <v>409.98964040673371</v>
+        <v>391.54010658843066</v>
       </c>
       <c r="R77">
-        <v>373.38891481903585</v>
+        <v>356.5864136521792</v>
       </c>
       <c r="S77">
-        <v>25.852169272002453</v>
+        <v>27.070334316232938</v>
       </c>
       <c r="T77">
-        <v>35.522152946004269</v>
+        <v>37.19597167120866</v>
       </c>
       <c r="U77">
-        <v>44.677553086279993</v>
+        <v>46.782778100816742</v>
       </c>
       <c r="V77">
-        <v>52.231586733104955</v>
+        <v>54.692760977073256</v>
       </c>
       <c r="W77">
-        <v>59.558898600389753</v>
+        <v>62.365338848575654</v>
       </c>
       <c r="X77">
-        <v>65.397044344579513</v>
+        <v>68.478580465528296</v>
       </c>
     </row>
     <row r="78" spans="3:24" x14ac:dyDescent="0.35">
@@ -7735,58 +7735,58 @@
         <v>38.870787802232762</v>
       </c>
       <c r="G78">
-        <v>806.95599994283998</v>
+        <v>770.64297994541209</v>
       </c>
       <c r="H78">
-        <v>587.28318458881392</v>
+        <v>560.85544128231732</v>
       </c>
       <c r="I78">
-        <v>466.93611589007702</v>
+        <v>445.92399067502356</v>
       </c>
       <c r="J78">
-        <v>399.40511882550209</v>
+        <v>381.43188847835449</v>
       </c>
       <c r="K78">
-        <v>350.26777854894357</v>
+        <v>334.50572851424107</v>
       </c>
       <c r="L78">
-        <v>318.99856200931549</v>
+        <v>304.64362671889626</v>
       </c>
       <c r="M78">
-        <v>944.72897554283713</v>
+        <v>902.21617164340933</v>
       </c>
       <c r="N78">
-        <v>687.55104537226998</v>
+        <v>656.61124833051781</v>
       </c>
       <c r="O78">
-        <v>546.65691616399261</v>
+        <v>522.05735493661302</v>
       </c>
       <c r="P78">
-        <v>467.59623667375854</v>
+        <v>446.55440602343941</v>
       </c>
       <c r="Q78">
-        <v>410.06959439876323</v>
+        <v>391.61646265081885</v>
       </c>
       <c r="R78">
-        <v>373.46173113285715</v>
+        <v>356.65595323187858</v>
       </c>
       <c r="S78">
-        <v>25.999056597411556</v>
+        <v>27.224143033938802</v>
       </c>
       <c r="T78">
-        <v>35.7239833604702</v>
+        <v>37.407312419340521</v>
       </c>
       <c r="U78">
-        <v>44.931402819724759</v>
+        <v>47.048589340025927</v>
       </c>
       <c r="V78">
-        <v>52.528357112270321</v>
+        <v>55.003515300806619</v>
       </c>
       <c r="W78">
-        <v>59.897301433346506</v>
+        <v>62.71968736476073</v>
       </c>
       <c r="X78">
-        <v>65.768618460173712</v>
+        <v>68.867663309082417</v>
       </c>
     </row>
     <row r="79" spans="3:24" x14ac:dyDescent="0.35">
@@ -7803,58 +7803,58 @@
         <v>38.79828628794607</v>
       </c>
       <c r="G79">
-        <v>805.45087140630892</v>
+        <v>769.20558219302495</v>
       </c>
       <c r="H79">
-        <v>586.18778821006197</v>
+        <v>559.80933774060918</v>
       </c>
       <c r="I79">
-        <v>466.06518999967784</v>
+        <v>445.09225644969234</v>
       </c>
       <c r="J79">
-        <v>398.66015126590344</v>
+        <v>380.72044445893778</v>
       </c>
       <c r="K79">
-        <v>349.61446160358508</v>
+        <v>333.88181083142376</v>
       </c>
       <c r="L79">
-        <v>318.40356818210972</v>
+        <v>304.07540761391476</v>
       </c>
       <c r="M79">
-        <v>942.96687384153245</v>
+        <v>900.53336451866335</v>
       </c>
       <c r="N79">
-        <v>686.26863009958481</v>
+        <v>655.3865417451035</v>
       </c>
       <c r="O79">
-        <v>545.63729560937895</v>
+        <v>521.08361730695697</v>
       </c>
       <c r="P79">
-        <v>466.72407953081381</v>
+        <v>445.72149595192718</v>
       </c>
       <c r="Q79">
-        <v>409.30473553590451</v>
+        <v>390.88602243678883</v>
       </c>
       <c r="R79">
-        <v>372.76515299368947</v>
+        <v>355.99072110897339</v>
       </c>
       <c r="S79">
-        <v>26.145943922820663</v>
+        <v>27.377951751644677</v>
       </c>
       <c r="T79">
-        <v>35.925813774936131</v>
+        <v>37.618653167472395</v>
       </c>
       <c r="U79">
-        <v>45.185252553169533</v>
+        <v>47.314400579235119</v>
       </c>
       <c r="V79">
-        <v>52.825127491435694</v>
+        <v>55.314269624539996</v>
       </c>
       <c r="W79">
-        <v>60.235704266303273</v>
+        <v>63.074035880945829</v>
       </c>
       <c r="X79">
-        <v>66.140192575767927</v>
+        <v>69.256746152636566</v>
       </c>
     </row>
     <row r="80" spans="3:24" x14ac:dyDescent="0.35">
@@ -7871,58 +7871,58 @@
         <v>38.654065465832396</v>
       </c>
       <c r="G80">
-        <v>802.45685290806193</v>
+        <v>766.34629452719912</v>
       </c>
       <c r="H80">
-        <v>584.00881349707527</v>
+        <v>557.72841688970686</v>
       </c>
       <c r="I80">
-        <v>464.33273448962092</v>
+        <v>443.43776143758794</v>
       </c>
       <c r="J80">
-        <v>397.17825347452106</v>
+        <v>379.30523206816758</v>
       </c>
       <c r="K80">
-        <v>348.31487623785296</v>
+        <v>332.64070680714957</v>
       </c>
       <c r="L80">
-        <v>317.21999981451876</v>
+        <v>302.94509982286542</v>
       </c>
       <c r="M80">
-        <v>939.46168145334082</v>
+        <v>897.18590578794044</v>
       </c>
       <c r="N80">
-        <v>683.71763531364911</v>
+        <v>652.95034172453484</v>
       </c>
       <c r="O80">
-        <v>543.6090550122392</v>
+        <v>519.14664753668831</v>
       </c>
       <c r="P80">
-        <v>464.9891747994393</v>
+        <v>444.06466193346449</v>
       </c>
       <c r="Q80">
-        <v>407.78326974187667</v>
+        <v>389.43302260349219</v>
       </c>
       <c r="R80">
-        <v>371.37951197797321</v>
+        <v>354.66743393896439</v>
       </c>
       <c r="S80">
-        <v>26.292831248229767</v>
+        <v>27.531760469350541</v>
       </c>
       <c r="T80">
-        <v>36.127644189402062</v>
+        <v>37.829993915604256</v>
       </c>
       <c r="U80">
-        <v>45.4391022866143</v>
+        <v>47.580211818444297</v>
       </c>
       <c r="V80">
-        <v>53.12189787060106</v>
+        <v>55.625023948273359</v>
       </c>
       <c r="W80">
-        <v>60.574107099260026</v>
+        <v>63.428384397130912</v>
       </c>
       <c r="X80">
-        <v>66.511766691362112</v>
+        <v>69.645828996190701</v>
       </c>
     </row>
     <row r="81" spans="3:24" x14ac:dyDescent="0.35">
@@ -7939,58 +7939,58 @@
         <v>38.534132025884453</v>
       </c>
       <c r="G81">
-        <v>799.96703949208018</v>
+        <v>763.96852271493651</v>
       </c>
       <c r="H81">
-        <v>582.19678712627785</v>
+        <v>555.99793170559531</v>
       </c>
       <c r="I81">
-        <v>462.89203164357747</v>
+        <v>442.06189021961649</v>
       </c>
       <c r="J81">
-        <v>395.94591339236791</v>
+        <v>378.12834728971131</v>
       </c>
       <c r="K81">
-        <v>347.23414641580689</v>
+        <v>331.60860982709556</v>
       </c>
       <c r="L81">
-        <v>316.23574924890437</v>
+        <v>302.00514053270365</v>
       </c>
       <c r="M81">
-        <v>936.54677794194754</v>
+        <v>894.40217293455987</v>
       </c>
       <c r="N81">
-        <v>681.59623858686189</v>
+        <v>650.92440785045312</v>
       </c>
       <c r="O81">
-        <v>541.92237850955416</v>
+        <v>517.53587147662415</v>
       </c>
       <c r="P81">
-        <v>463.54643519106492</v>
+        <v>442.68684560746692</v>
       </c>
       <c r="Q81">
-        <v>406.51802507216416</v>
+        <v>388.22471394391675</v>
       </c>
       <c r="R81">
-        <v>370.2272186328637</v>
+        <v>353.56699379438476</v>
       </c>
       <c r="S81">
-        <v>26.439718573638874</v>
+        <v>27.685569187056412</v>
       </c>
       <c r="T81">
-        <v>36.329474603868</v>
+        <v>38.04133466373613</v>
       </c>
       <c r="U81">
-        <v>45.692952020059082</v>
+        <v>47.84602305765349</v>
       </c>
       <c r="V81">
-        <v>53.418668249766434</v>
+        <v>55.935778272006736</v>
       </c>
       <c r="W81">
-        <v>60.912509932216786</v>
+        <v>63.782732913316003</v>
       </c>
       <c r="X81">
-        <v>66.883340806956326</v>
+        <v>70.034911839744836</v>
       </c>
     </row>
     <row r="82" spans="3:24" x14ac:dyDescent="0.35">
@@ -8007,58 +8007,58 @@
         <v>38.22694872035359</v>
       </c>
       <c r="G82">
-        <v>793.58992635659172</v>
+        <v>757.87837967054509</v>
       </c>
       <c r="H82">
-        <v>577.55567743633424</v>
+        <v>551.56567195169919</v>
       </c>
       <c r="I82">
-        <v>459.20198604222185</v>
+        <v>438.53789667032186</v>
       </c>
       <c r="J82">
-        <v>392.78954349137723</v>
+        <v>375.11401403426527</v>
       </c>
       <c r="K82">
-        <v>344.46609307500381</v>
+        <v>328.9651188866286</v>
       </c>
       <c r="L82">
-        <v>313.71480644640258</v>
+        <v>299.59764015631447</v>
       </c>
       <c r="M82">
-        <v>929.080889393083</v>
+        <v>887.27224937039432</v>
       </c>
       <c r="N82">
-        <v>676.16274431570844</v>
+        <v>645.73542082150152</v>
       </c>
       <c r="O82">
-        <v>537.6023251226012</v>
+        <v>513.41022049208414</v>
       </c>
       <c r="P82">
-        <v>459.85117286795384</v>
+        <v>439.15787008889595</v>
       </c>
       <c r="Q82">
-        <v>403.27737725854109</v>
+        <v>385.12989528190667</v>
       </c>
       <c r="R82">
-        <v>367.27587096164206</v>
+        <v>350.74845676836816</v>
       </c>
       <c r="S82">
-        <v>26.586605899047974</v>
+        <v>27.83937790476228</v>
       </c>
       <c r="T82">
-        <v>36.531305018333931</v>
+        <v>38.25267541186799</v>
       </c>
       <c r="U82">
-        <v>45.946801753503848</v>
+        <v>48.111834296862668</v>
       </c>
       <c r="V82">
-        <v>53.715438628931793</v>
+        <v>56.246532595740099</v>
       </c>
       <c r="W82">
-        <v>61.250912765173545</v>
+        <v>64.137081429501094</v>
       </c>
       <c r="X82">
-        <v>67.254914922550512</v>
+        <v>70.423994683298972</v>
       </c>
     </row>
     <row r="83" spans="3:24" x14ac:dyDescent="0.35">
@@ -8076,58 +8076,58 @@
         <v>37.994474896914291</v>
       </c>
       <c r="G83">
-        <v>788.7637790809448</v>
+        <v>753.26940902230228</v>
       </c>
       <c r="H83">
-        <v>574.04332342751923</v>
+        <v>548.21137387328088</v>
       </c>
       <c r="I83">
-        <v>456.40938958868082</v>
+        <v>435.87096705719017</v>
       </c>
       <c r="J83">
-        <v>390.40082846077371</v>
+        <v>372.8327911800389</v>
       </c>
       <c r="K83">
-        <v>342.37125285408644</v>
+        <v>326.96454647565253</v>
       </c>
       <c r="L83">
-        <v>311.80697746801269</v>
+        <v>297.77566348195211</v>
       </c>
       <c r="M83">
-        <v>923.43076575330122</v>
+        <v>881.87638129440268</v>
       </c>
       <c r="N83">
-        <v>672.05072011026641</v>
+        <v>641.80843770530441</v>
       </c>
       <c r="O83">
-        <v>534.33294390869958</v>
+        <v>510.287961432808</v>
       </c>
       <c r="P83">
-        <v>457.05462844188145</v>
+        <v>436.4871701619968</v>
       </c>
       <c r="Q83">
-        <v>400.82488139014998</v>
+        <v>382.78776172759319</v>
       </c>
       <c r="R83">
-        <v>365.04231508450266</v>
+        <v>348.61541090570006</v>
       </c>
       <c r="S83">
-        <v>26.733493224457082</v>
+        <v>27.993186622468151</v>
       </c>
       <c r="T83">
-        <v>36.73313543279987</v>
+        <v>38.464016159999865</v>
       </c>
       <c r="U83">
-        <v>46.200651486948622</v>
+        <v>48.37764553607186</v>
       </c>
       <c r="V83">
-        <v>54.012209008097173</v>
+        <v>56.557286919473476</v>
       </c>
       <c r="W83">
-        <v>61.589315598130305</v>
+        <v>64.491429945686178</v>
       </c>
       <c r="X83">
-        <v>67.626489038144726</v>
+        <v>70.813077526853121</v>
       </c>
     </row>
     <row r="84" spans="3:24" x14ac:dyDescent="0.35">
@@ -8144,58 +8144,58 @@
         <v>37.786854815510381</v>
       </c>
       <c r="G84">
-        <v>784.45359449580292</v>
+        <v>749.15318274349181</v>
       </c>
       <c r="H84">
-        <v>570.90647466562007</v>
+        <v>545.21568330566708</v>
       </c>
       <c r="I84">
-        <v>453.91534920841468</v>
+        <v>433.48915849403602</v>
       </c>
       <c r="J84">
-        <v>388.26749060033228</v>
+        <v>370.79545352331729</v>
       </c>
       <c r="K84">
-        <v>340.50037169094929</v>
+        <v>325.17785496485658</v>
       </c>
       <c r="L84">
-        <v>310.10311420316015</v>
+        <v>296.14847406401793</v>
       </c>
       <c r="M84">
-        <v>918.38469599508642</v>
+        <v>877.0573846753075</v>
       </c>
       <c r="N84">
-        <v>668.37831180365276</v>
+        <v>638.30128777248831</v>
       </c>
       <c r="O84">
-        <v>531.41309175619278</v>
+        <v>507.49950262716413</v>
       </c>
       <c r="P84">
-        <v>454.5570621662427</v>
+        <v>434.10199436876172</v>
       </c>
       <c r="Q84">
-        <v>398.63458149184311</v>
+        <v>380.69602532471015</v>
       </c>
       <c r="R84">
-        <v>363.04754833540704</v>
+        <v>346.7104086603137</v>
       </c>
       <c r="S84">
-        <v>26.880380549866189</v>
+        <v>28.146995340174023</v>
       </c>
       <c r="T84">
-        <v>36.934965847265801</v>
+        <v>38.675356908131732</v>
       </c>
       <c r="U84">
-        <v>46.454501220393404</v>
+        <v>48.643456775281052</v>
       </c>
       <c r="V84">
-        <v>54.308979387262546</v>
+        <v>56.868041243206854</v>
       </c>
       <c r="W84">
-        <v>61.927718431087072</v>
+        <v>64.845778461871276</v>
       </c>
       <c r="X84">
-        <v>67.99806315373894</v>
+        <v>71.202160370407256</v>
       </c>
     </row>
     <row r="85" spans="3:24" x14ac:dyDescent="0.35">
@@ -8212,58 +8212,58 @@
         <v>37.670827605930441</v>
       </c>
       <c r="G85">
-        <v>782.04487426601167</v>
+        <v>746.85285492404114</v>
       </c>
       <c r="H85">
-        <v>569.15346596696065</v>
+        <v>543.54155999844738</v>
       </c>
       <c r="I85">
-        <v>452.52157003279149</v>
+        <v>432.15809938131588</v>
       </c>
       <c r="J85">
-        <v>387.07528781645647</v>
+        <v>369.65689986471591</v>
       </c>
       <c r="K85">
-        <v>339.45484122324768</v>
+        <v>324.17937336820154</v>
       </c>
       <c r="L85">
-        <v>309.15092066393299</v>
+        <v>295.23912923405601</v>
       </c>
       <c r="M85">
-        <v>915.56473084801371</v>
+        <v>874.36431795985311</v>
       </c>
       <c r="N85">
-        <v>666.32600893692961</v>
+        <v>636.34133853476771</v>
       </c>
       <c r="O85">
-        <v>529.78135028229246</v>
+        <v>505.94118951958933</v>
       </c>
       <c r="P85">
-        <v>453.1613125656076</v>
+        <v>432.76905350015522</v>
       </c>
       <c r="Q85">
-        <v>397.41054582233875</v>
+        <v>379.52707126033351</v>
       </c>
       <c r="R85">
-        <v>361.93278516753134</v>
+        <v>345.64580983499241</v>
       </c>
       <c r="S85">
-        <v>27.027267875275292</v>
+        <v>28.300804057879887</v>
       </c>
       <c r="T85">
-        <v>37.136796261731732</v>
+        <v>38.8866976562636</v>
       </c>
       <c r="U85">
-        <v>46.70835095383817</v>
+        <v>48.90926801449023</v>
       </c>
       <c r="V85">
-        <v>54.605749766427905</v>
+        <v>57.178795566940217</v>
       </c>
       <c r="W85">
-        <v>62.266121264043825</v>
+        <v>65.20012697805636</v>
       </c>
       <c r="X85">
-        <v>68.369637269333126</v>
+        <v>71.591243213961391</v>
       </c>
     </row>
     <row r="86" spans="3:24" x14ac:dyDescent="0.35">
@@ -8280,58 +8280,58 @@
         <v>37.652265252497294</v>
       </c>
       <c r="G86">
-        <v>781.65952055123375</v>
+        <v>746.48484212642825</v>
       </c>
       <c r="H86">
-        <v>568.87301479388054</v>
+        <v>543.27372912815588</v>
       </c>
       <c r="I86">
-        <v>452.29858939092873</v>
+        <v>431.94515286833689</v>
       </c>
       <c r="J86">
-        <v>386.88455592246021</v>
+        <v>369.47475090594946</v>
       </c>
       <c r="K86">
-        <v>339.28757437147328</v>
+        <v>324.01963352475696</v>
       </c>
       <c r="L86">
-        <v>308.99858611175438</v>
+        <v>295.09364973672541</v>
       </c>
       <c r="M86">
-        <v>915.11358503559075</v>
+        <v>873.93347370898925</v>
       </c>
       <c r="N86">
-        <v>665.99767585625045</v>
+        <v>636.02778044271906</v>
       </c>
       <c r="O86">
-        <v>529.52029977474581</v>
+        <v>505.69188628488223</v>
       </c>
       <c r="P86">
-        <v>452.93801668970951</v>
+        <v>432.55580593867256</v>
       </c>
       <c r="Q86">
-        <v>397.21472121538335</v>
+        <v>379.34005876069108</v>
       </c>
       <c r="R86">
-        <v>361.75444227717588</v>
+        <v>345.47549237470292</v>
       </c>
       <c r="S86">
-        <v>27.1741552006844</v>
+        <v>28.454612775585758</v>
       </c>
       <c r="T86">
-        <v>37.33862667619767</v>
+        <v>39.098038404395467</v>
       </c>
       <c r="U86">
-        <v>46.962200687282952</v>
+        <v>49.175079253699423</v>
       </c>
       <c r="V86">
-        <v>54.902520145593286</v>
+        <v>57.489549890673594</v>
       </c>
       <c r="W86">
-        <v>62.604524097000592</v>
+        <v>65.554475494241458</v>
       </c>
       <c r="X86">
-        <v>68.74121138492734</v>
+        <v>71.980326057515541</v>
       </c>
     </row>
     <row r="87" spans="3:24" x14ac:dyDescent="0.35">
@@ -8348,58 +8348,58 @@
         <v>37.634465395716134</v>
       </c>
       <c r="G87">
-        <v>781.28999623645109</v>
+        <v>746.13194640581071</v>
       </c>
       <c r="H87">
-        <v>568.60408387771679</v>
+        <v>543.01690010321954</v>
       </c>
       <c r="I87">
-        <v>452.08476825534791</v>
+        <v>431.74095368385724</v>
       </c>
       <c r="J87">
-        <v>386.70165883406241</v>
+        <v>369.3000841865296</v>
       </c>
       <c r="K87">
-        <v>339.12717843802972</v>
+        <v>323.86645540831836</v>
       </c>
       <c r="L87">
-        <v>308.85250909509983</v>
+        <v>294.95414618582032</v>
       </c>
       <c r="M87">
-        <v>914.68097120365007</v>
+        <v>873.5203274994858</v>
       </c>
       <c r="N87">
-        <v>665.68282990561966</v>
+        <v>635.72710255986681</v>
       </c>
       <c r="O87">
-        <v>529.26997259162681</v>
+        <v>505.45282382500363</v>
       </c>
       <c r="P87">
-        <v>452.72389326914629</v>
+        <v>432.3513180720347</v>
       </c>
       <c r="Q87">
-        <v>397.02694061037624</v>
+        <v>379.1607282829093</v>
       </c>
       <c r="R87">
-        <v>361.58342528206811</v>
+        <v>345.31217114437504</v>
       </c>
       <c r="S87">
-        <v>27.3210425260935</v>
+        <v>28.608421493291626</v>
       </c>
       <c r="T87">
-        <v>37.540457090663601</v>
+        <v>39.309379152527335</v>
       </c>
       <c r="U87">
-        <v>47.216050420727719</v>
+        <v>49.440890492908601</v>
       </c>
       <c r="V87">
-        <v>55.199290524758645</v>
+        <v>57.800304214406957</v>
       </c>
       <c r="W87">
-        <v>62.942926929957345</v>
+        <v>65.908824010426542</v>
       </c>
       <c r="X87">
-        <v>69.112785500521525</v>
+        <v>72.369408901069662</v>
       </c>
     </row>
     <row r="88" spans="3:24" x14ac:dyDescent="0.35">
@@ -8416,58 +8416,58 @@
         <v>37.498718850481275</v>
       </c>
       <c r="G88">
-        <v>778.47190338723726</v>
+        <v>743.44066773481154</v>
       </c>
       <c r="H88">
-        <v>566.55314362438139</v>
+        <v>541.05825216128426</v>
       </c>
       <c r="I88">
-        <v>450.45411016578328</v>
+        <v>430.183675208323</v>
       </c>
       <c r="J88">
-        <v>385.30683593246522</v>
+        <v>367.96802831550428</v>
       </c>
       <c r="K88">
-        <v>337.90395545919478</v>
+        <v>322.69827746353099</v>
       </c>
       <c r="L88">
-        <v>307.73848606711368</v>
+        <v>293.89025419409353</v>
       </c>
       <c r="M88">
-        <v>911.3817405509119</v>
+        <v>870.36956222612082</v>
       </c>
       <c r="N88">
-        <v>663.28172912122704</v>
+        <v>633.43405131077179</v>
       </c>
       <c r="O88">
-        <v>527.36090946238039</v>
+        <v>503.62966853657326</v>
       </c>
       <c r="P88">
-        <v>451.09092987215445</v>
+        <v>430.79183802790749</v>
       </c>
       <c r="Q88">
-        <v>395.59487468393536</v>
+        <v>377.79310532315822</v>
       </c>
       <c r="R88">
-        <v>360.27920320052334</v>
+        <v>344.06663905649975</v>
       </c>
       <c r="S88">
-        <v>27.46792985150261</v>
+        <v>28.762230210997497</v>
       </c>
       <c r="T88">
-        <v>37.742287505129539</v>
+        <v>39.520719900659202</v>
       </c>
       <c r="U88">
-        <v>47.469900154172493</v>
+        <v>49.706701732117793</v>
       </c>
       <c r="V88">
-        <v>55.496060903924018</v>
+        <v>58.111058538140334</v>
       </c>
       <c r="W88">
-        <v>63.281329762914112</v>
+        <v>66.263172526611626</v>
       </c>
       <c r="X88">
-        <v>69.484359616115739</v>
+        <v>72.758491744623811</v>
       </c>
     </row>
     <row r="89" spans="3:24" x14ac:dyDescent="0.35">
@@ -8484,58 +8484,58 @@
         <v>37.299257579999995</v>
       </c>
       <c r="G89">
-        <v>774.33109539049667</v>
+        <v>739.48619609792433</v>
       </c>
       <c r="H89">
-        <v>563.53956307318788</v>
+        <v>538.18028273489438</v>
       </c>
       <c r="I89">
-        <v>448.05807766490148</v>
+        <v>427.89546416998087</v>
       </c>
       <c r="J89">
-        <v>383.25733148601597</v>
+        <v>366.01075156914521</v>
       </c>
       <c r="K89">
-        <v>336.10659399398634</v>
+        <v>320.98179726425695</v>
       </c>
       <c r="L89">
-        <v>306.10157922633118</v>
+        <v>292.32700816114624</v>
       </c>
       <c r="M89">
-        <v>906.53396533521561</v>
+        <v>865.739936895131</v>
       </c>
       <c r="N89">
-        <v>659.75363481739066</v>
+        <v>630.06472125060805</v>
       </c>
       <c r="O89">
-        <v>524.55579824183587</v>
+        <v>500.95078732095322</v>
       </c>
       <c r="P89">
-        <v>448.69151003240898</v>
+        <v>428.50039208095052</v>
       </c>
       <c r="Q89">
-        <v>393.49064662710595</v>
+        <v>375.78356752888618</v>
       </c>
       <c r="R89">
-        <v>358.36282446009506</v>
+        <v>342.23649735939074</v>
       </c>
       <c r="S89">
-        <v>27.614817176911711</v>
+        <v>28.916038928703362</v>
       </c>
       <c r="T89">
-        <v>37.944117919595463</v>
+        <v>39.732060648791069</v>
       </c>
       <c r="U89">
-        <v>47.723749887617259</v>
+        <v>49.972512971326978</v>
       </c>
       <c r="V89">
-        <v>55.792831283089384</v>
+        <v>58.421812861873704</v>
       </c>
       <c r="W89">
-        <v>63.619732595870865</v>
+        <v>66.61752104279671</v>
       </c>
       <c r="X89">
-        <v>69.855933731709939</v>
+        <v>73.147574588177946</v>
       </c>
     </row>
     <row r="90" spans="3:24" x14ac:dyDescent="0.35">
@@ -8552,58 +8552,58 @@
         <v>37.101907010793646</v>
       </c>
       <c r="G90">
-        <v>770.23410546779564</v>
+        <v>735.57357072174477</v>
       </c>
       <c r="H90">
-        <v>560.55787226327686</v>
+        <v>535.33276801142938</v>
       </c>
       <c r="I90">
-        <v>445.68740000529885</v>
+        <v>425.63146700506041</v>
       </c>
       <c r="J90">
-        <v>381.22951491730686</v>
+        <v>364.07418674602803</v>
       </c>
       <c r="K90">
-        <v>334.32825222682237</v>
+        <v>319.28348087661533</v>
       </c>
       <c r="L90">
-        <v>304.48199415105955</v>
+        <v>290.78030441426188</v>
       </c>
       <c r="M90">
-        <v>901.73748932815101</v>
+        <v>861.15930230838421</v>
       </c>
       <c r="N90">
-        <v>656.26287484481202</v>
+        <v>626.73104547679543</v>
       </c>
       <c r="O90">
-        <v>521.78037073791086</v>
+        <v>498.30025405470491</v>
       </c>
       <c r="P90">
-        <v>446.31748087879828</v>
+        <v>426.23319423925233</v>
       </c>
       <c r="Q90">
-        <v>391.40868553384087</v>
+        <v>373.79529468481797</v>
       </c>
       <c r="R90">
-        <v>356.46672485977706</v>
+        <v>340.4257222410871</v>
       </c>
       <c r="S90">
-        <v>27.761704502320818</v>
+        <v>29.069847646409237</v>
       </c>
       <c r="T90">
-        <v>38.145948334061401</v>
+        <v>39.943401396922937</v>
       </c>
       <c r="U90">
-        <v>47.977599621062041</v>
+        <v>50.238324210536163</v>
       </c>
       <c r="V90">
-        <v>56.089601662254758</v>
+        <v>58.732567185607074</v>
       </c>
       <c r="W90">
-        <v>63.958135428827632</v>
+        <v>66.971869558981808</v>
       </c>
       <c r="X90">
-        <v>70.227507847304139</v>
+        <v>73.536657431732081</v>
       </c>
     </row>
     <row r="91" spans="3:24" x14ac:dyDescent="0.35">
@@ -8620,58 +8620,58 @@
         <v>36.906633815999996</v>
       </c>
       <c r="G91">
-        <v>766.1802417548073</v>
+        <v>731.70213087584091</v>
       </c>
       <c r="H91">
-        <v>557.60756767241753</v>
+        <v>532.51522712715871</v>
       </c>
       <c r="I91">
-        <v>443.34167684737622</v>
+        <v>423.39130138924429</v>
       </c>
       <c r="J91">
-        <v>379.22304378616315</v>
+        <v>362.15800681578577</v>
       </c>
       <c r="K91">
-        <v>332.56862984668123</v>
+        <v>317.60304150358058</v>
       </c>
       <c r="L91">
-        <v>302.87945733973822</v>
+        <v>289.24988175944998</v>
       </c>
       <c r="M91">
-        <v>896.99150254221342</v>
+        <v>856.62688492781376</v>
       </c>
       <c r="N91">
-        <v>652.80885971404985</v>
+        <v>623.43246102691751</v>
       </c>
       <c r="O91">
-        <v>519.03415826034291</v>
+        <v>495.6776211386275</v>
       </c>
       <c r="P91">
-        <v>443.96844150575197</v>
+        <v>423.9898616379931</v>
       </c>
       <c r="Q91">
-        <v>389.3486398205049</v>
+        <v>371.82795102858216</v>
       </c>
       <c r="R91">
-        <v>354.59058420262039</v>
+        <v>338.63400791350244</v>
       </c>
       <c r="S91">
-        <v>27.908591827729921</v>
+        <v>29.223656364115101</v>
       </c>
       <c r="T91">
-        <v>38.347778748527332</v>
+        <v>40.154742145054797</v>
       </c>
       <c r="U91">
-        <v>48.231449354506807</v>
+        <v>50.504135449745348</v>
       </c>
       <c r="V91">
-        <v>56.386372041420124</v>
+        <v>59.043321509340444</v>
       </c>
       <c r="W91">
-        <v>64.296538261784391</v>
+        <v>67.326218075166892</v>
       </c>
       <c r="X91">
-        <v>70.599081962898339</v>
+        <v>73.925740275286216</v>
       </c>
     </row>
     <row r="92" spans="3:24" x14ac:dyDescent="0.35">
@@ -8688,58 +8688,58 @@
         <v>36.713405366701565</v>
       </c>
       <c r="G92">
-        <v>762.1688268765098</v>
+        <v>727.87122966706681</v>
       </c>
       <c r="H92">
-        <v>554.68815632334724</v>
+        <v>529.72718928879658</v>
       </c>
       <c r="I92">
-        <v>441.02051623560982</v>
+        <v>421.17459300500735</v>
       </c>
       <c r="J92">
-        <v>377.23758282393192</v>
+        <v>360.26189159685498</v>
       </c>
       <c r="K92">
-        <v>330.82743283177712</v>
+        <v>315.94019835434716</v>
       </c>
       <c r="L92">
-        <v>301.29370101858774</v>
+        <v>287.7354844727513</v>
       </c>
       <c r="M92">
-        <v>892.29521195298707</v>
+        <v>852.1419274151026</v>
       </c>
       <c r="N92">
-        <v>649.39101228099196</v>
+        <v>620.16841672834721</v>
       </c>
       <c r="O92">
-        <v>516.31670193437253</v>
+        <v>493.08245034732568</v>
       </c>
       <c r="P92">
-        <v>441.64399940362762</v>
+        <v>421.7700194304644</v>
       </c>
       <c r="Q92">
-        <v>387.31016526647079</v>
+        <v>369.88120782947959</v>
       </c>
       <c r="R92">
-        <v>352.73408899737103</v>
+        <v>336.86105499248936</v>
       </c>
       <c r="S92">
-        <v>28.055479153139029</v>
+        <v>29.377465081820972</v>
       </c>
       <c r="T92">
-        <v>38.549609162993271</v>
+        <v>40.366082893186672</v>
       </c>
       <c r="U92">
-        <v>48.485299087951581</v>
+        <v>50.769946688954533</v>
       </c>
       <c r="V92">
-        <v>56.683142420585497</v>
+        <v>59.354075833073821</v>
       </c>
       <c r="W92">
-        <v>64.634941094741151</v>
+        <v>67.68056659135199</v>
       </c>
       <c r="X92">
-        <v>70.970656078492553</v>
+        <v>74.314823118840366</v>
       </c>
     </row>
     <row r="93" spans="3:24" x14ac:dyDescent="0.35">
@@ -8756,58 +8756,58 @@
         <v>36.458388352100002</v>
       </c>
       <c r="G93">
-        <v>756.87468385406191</v>
+        <v>722.81532308062913</v>
       </c>
       <c r="H93">
-        <v>550.83520625653807</v>
+        <v>526.04762197499383</v>
       </c>
       <c r="I93">
-        <v>437.95711924736827</v>
+        <v>418.24904888123666</v>
       </c>
       <c r="J93">
-        <v>374.61723199549795</v>
+        <v>357.75945655570052</v>
       </c>
       <c r="K93">
-        <v>328.52945411184129</v>
+        <v>313.74562867680839</v>
       </c>
       <c r="L93">
-        <v>299.20086818587794</v>
+        <v>285.73682911751342</v>
       </c>
       <c r="M93">
-        <v>886.09719085353595</v>
+        <v>846.22281726512676</v>
       </c>
       <c r="N93">
-        <v>644.88024147106898</v>
+        <v>615.86063060487083</v>
       </c>
       <c r="O93">
-        <v>512.73028594813843</v>
+        <v>489.6574230804722</v>
       </c>
       <c r="P93">
-        <v>438.57627160448544</v>
+        <v>418.84033938228356</v>
       </c>
       <c r="Q93">
-        <v>384.61984871630199</v>
+        <v>367.31195552406837</v>
       </c>
       <c r="R93">
-        <v>350.28394324200343</v>
+        <v>334.52116579611328</v>
       </c>
       <c r="S93">
-        <v>28.202366478548129</v>
+        <v>29.53127379952684</v>
       </c>
       <c r="T93">
-        <v>38.751439577459202</v>
+        <v>40.577423641318532</v>
       </c>
       <c r="U93">
-        <v>48.739148821396348</v>
+        <v>51.035757928163719</v>
       </c>
       <c r="V93">
-        <v>56.979912799750856</v>
+        <v>59.664830156807184</v>
       </c>
       <c r="W93">
-        <v>64.973343927697911</v>
+        <v>68.034915107537074</v>
       </c>
       <c r="X93">
-        <v>71.342230194086738</v>
+        <v>74.703905962394501</v>
       </c>
     </row>
     <row r="94" spans="3:24" x14ac:dyDescent="0.35">
@@ -8824,58 +8824,58 @@
         <v>36.198961691456987</v>
       </c>
       <c r="G94">
-        <v>751.4889967561794</v>
+        <v>717.67199190215126</v>
       </c>
       <c r="H94">
-        <v>546.91563261154704</v>
+        <v>522.30442914402738</v>
       </c>
       <c r="I94">
-        <v>434.84075129786083</v>
+        <v>415.27291748945709</v>
       </c>
       <c r="J94">
-        <v>371.95157117205883</v>
+        <v>355.21375046931615</v>
       </c>
       <c r="K94">
-        <v>326.19173971865422</v>
+        <v>311.51311143131477</v>
       </c>
       <c r="L94">
-        <v>297.07184697557858</v>
+        <v>283.70361386167752</v>
       </c>
       <c r="M94">
-        <v>879.79199620235636</v>
+        <v>840.20135637325029</v>
       </c>
       <c r="N94">
-        <v>640.29147232571358</v>
+        <v>611.47835607105651</v>
       </c>
       <c r="O94">
-        <v>509.08185517798341</v>
+        <v>486.17317169497414</v>
       </c>
       <c r="P94">
-        <v>435.45549795753232</v>
+        <v>415.86000054944333</v>
       </c>
       <c r="Q94">
-        <v>381.88301235354641</v>
+        <v>364.69827679763682</v>
       </c>
       <c r="R94">
-        <v>347.79143060555543</v>
+        <v>332.14081622830543</v>
       </c>
       <c r="S94">
-        <v>28.349253803957236</v>
+        <v>29.685082517232711</v>
       </c>
       <c r="T94">
-        <v>38.953269991925133</v>
+        <v>40.788764389450407</v>
       </c>
       <c r="U94">
-        <v>48.99299855484113</v>
+        <v>51.301569167372911</v>
       </c>
       <c r="V94">
-        <v>57.27668317891623</v>
+        <v>59.975584480540562</v>
       </c>
       <c r="W94">
-        <v>65.311746760654671</v>
+        <v>68.389263623722158</v>
       </c>
       <c r="X94">
-        <v>71.713804309680953</v>
+        <v>75.092988805948636</v>
       </c>
     </row>
     <row r="95" spans="3:24" x14ac:dyDescent="0.35">
@@ -8892,58 +8892,58 @@
         <v>36.01236910541855</v>
       </c>
       <c r="G95">
-        <v>747.61534213372488</v>
+        <v>713.97265173770722</v>
       </c>
       <c r="H95">
-        <v>544.09647986612663</v>
+        <v>519.6121382721509</v>
       </c>
       <c r="I95">
-        <v>432.59930412622236</v>
+        <v>413.13233544054236</v>
       </c>
       <c r="J95">
-        <v>370.03429503199669</v>
+        <v>353.38275175555685</v>
       </c>
       <c r="K95">
-        <v>324.51033899845498</v>
+        <v>309.90737374352449</v>
       </c>
       <c r="L95">
-        <v>295.54054879529207</v>
+        <v>282.24122409950394</v>
       </c>
       <c r="M95">
-        <v>875.25698591265359</v>
+        <v>835.87042154658411</v>
       </c>
       <c r="N95">
-        <v>636.99100081888002</v>
+        <v>608.32640578203041</v>
       </c>
       <c r="O95">
-        <v>506.45772190387009</v>
+        <v>483.66712441819595</v>
       </c>
       <c r="P95">
-        <v>433.21088198867909</v>
+        <v>413.71639229918856</v>
       </c>
       <c r="Q95">
-        <v>379.9145432177034</v>
+        <v>362.81838877290676</v>
       </c>
       <c r="R95">
-        <v>345.99869127253709</v>
+        <v>330.4287501652729</v>
       </c>
       <c r="S95">
-        <v>28.49614112936634</v>
+        <v>29.838891234938576</v>
       </c>
       <c r="T95">
-        <v>39.155100406391064</v>
+        <v>41.000105137582267</v>
       </c>
       <c r="U95">
-        <v>49.246848288285896</v>
+        <v>51.567380406582089</v>
       </c>
       <c r="V95">
-        <v>57.573453558081596</v>
+        <v>60.286338804273925</v>
       </c>
       <c r="W95">
-        <v>65.650149593611431</v>
+        <v>68.743612139907242</v>
       </c>
       <c r="X95">
-        <v>72.085378425275138</v>
+        <v>75.482071649502771</v>
       </c>
     </row>
     <row r="96" spans="3:24" x14ac:dyDescent="0.35">
@@ -8960,58 +8960,58 @@
         <v>35.78258889301334</v>
       </c>
       <c r="G96">
-        <v>742.8451141154012</v>
+        <v>709.41708398020808</v>
       </c>
       <c r="H96">
-        <v>540.62482254898134</v>
+        <v>516.29670553427718</v>
       </c>
       <c r="I96">
-        <v>429.83906472910058</v>
+        <v>410.49630681629105</v>
       </c>
       <c r="J96">
-        <v>367.67325739349064</v>
+        <v>351.12796081078358</v>
       </c>
       <c r="K96">
-        <v>322.43977112205465</v>
+        <v>307.92998142156216</v>
       </c>
       <c r="L96">
-        <v>293.65482531295902</v>
+        <v>280.44035817387584</v>
       </c>
       <c r="M96">
-        <v>869.67232872046975</v>
+        <v>830.53707392804847</v>
       </c>
       <c r="N96">
-        <v>632.92662152075866</v>
+        <v>604.44492355232455</v>
       </c>
       <c r="O96">
-        <v>503.22622212187389</v>
+        <v>480.58104212638955</v>
       </c>
       <c r="P96">
-        <v>430.44674036311102</v>
+        <v>411.07663704677105</v>
       </c>
       <c r="Q96">
-        <v>377.49046375264936</v>
+        <v>360.50339288378012</v>
       </c>
       <c r="R96">
-        <v>343.79101500053741</v>
+        <v>328.32041932551317</v>
       </c>
       <c r="S96">
-        <v>28.643028454775447</v>
+        <v>29.992699952644447</v>
       </c>
       <c r="T96">
-        <v>39.356930820857002</v>
+        <v>41.211445885714141</v>
       </c>
       <c r="U96">
-        <v>49.50069802173067</v>
+        <v>51.833191645791281</v>
       </c>
       <c r="V96">
-        <v>57.870223937246969</v>
+        <v>60.597093128007302</v>
       </c>
       <c r="W96">
-        <v>65.988552426568191</v>
+        <v>69.09796065609234</v>
       </c>
       <c r="X96">
-        <v>72.456952540869352</v>
+        <v>75.87115449305692</v>
       </c>
     </row>
     <row r="97" spans="3:24" x14ac:dyDescent="0.35">
@@ -9028,58 +9028,58 @@
         <v>35.644895951281626</v>
       </c>
       <c r="G97">
-        <v>739.98661415276854</v>
+        <v>706.68721651589397</v>
       </c>
       <c r="H97">
-        <v>538.54447496953355</v>
+        <v>514.30997359590447</v>
       </c>
       <c r="I97">
-        <v>428.18502551268949</v>
+        <v>408.91669936461847</v>
       </c>
       <c r="J97">
-        <v>366.25843487860897</v>
+        <v>349.77680530907156</v>
       </c>
       <c r="K97">
-        <v>321.19900900867481</v>
+        <v>306.74505360328442</v>
       </c>
       <c r="L97">
-        <v>292.52482890962585</v>
+        <v>279.36121160869266</v>
       </c>
       <c r="M97">
-        <v>866.32579217885097</v>
+        <v>827.34113153080273</v>
       </c>
       <c r="N97">
-        <v>630.49109264725882</v>
+        <v>602.1189934781321</v>
       </c>
       <c r="O97">
-        <v>501.2897859660755</v>
+        <v>478.73174559760213</v>
       </c>
       <c r="P97">
-        <v>428.79036278471295</v>
+        <v>409.49479645940085</v>
       </c>
       <c r="Q97">
-        <v>376.03786420527786</v>
+        <v>359.11616031604029</v>
       </c>
       <c r="R97">
-        <v>342.46809238200103</v>
+        <v>327.05702822481095</v>
       </c>
       <c r="S97">
-        <v>28.789915780184547</v>
+        <v>30.146508670350315</v>
       </c>
       <c r="T97">
-        <v>39.558761235322933</v>
+        <v>41.422786633846002</v>
       </c>
       <c r="U97">
-        <v>49.754547755175437</v>
+        <v>52.099002885000459</v>
       </c>
       <c r="V97">
-        <v>58.166994316412335</v>
+        <v>60.907847451740665</v>
       </c>
       <c r="W97">
-        <v>66.326955259524937</v>
+        <v>69.452309172277424</v>
       </c>
       <c r="X97">
-        <v>72.828526656463552</v>
+        <v>76.260237336611041</v>
       </c>
     </row>
     <row r="98" spans="3:24" x14ac:dyDescent="0.35">
@@ -9096,58 +9096,58 @@
         <v>35.463957393153294</v>
       </c>
       <c r="G98">
-        <v>736.2303369235666</v>
+        <v>703.09997176200602</v>
       </c>
       <c r="H98">
-        <v>535.81074667019584</v>
+        <v>511.69926307003703</v>
       </c>
       <c r="I98">
-        <v>426.01149746440177</v>
+        <v>406.84098007850366</v>
       </c>
       <c r="J98">
-        <v>364.39925500612873</v>
+        <v>348.00128853085295</v>
       </c>
       <c r="K98">
-        <v>319.56855718629578</v>
+        <v>305.18797211291246</v>
       </c>
       <c r="L98">
-        <v>291.03993130094756</v>
+        <v>277.94313439240489</v>
       </c>
       <c r="M98">
-        <v>861.92819932515113</v>
+        <v>823.14143035551933</v>
       </c>
       <c r="N98">
-        <v>627.29063024803418</v>
+        <v>599.0625518868726</v>
       </c>
       <c r="O98">
-        <v>498.74516776320212</v>
+        <v>476.30163521385799</v>
       </c>
       <c r="P98">
-        <v>426.6137619583946</v>
+        <v>407.41614267026688</v>
       </c>
       <c r="Q98">
-        <v>374.12904255956579</v>
+        <v>357.29323564438533</v>
       </c>
       <c r="R98">
-        <v>340.72967566940201</v>
+        <v>325.39684026427892</v>
       </c>
       <c r="S98">
-        <v>28.936803105593658</v>
+        <v>30.300317388056186</v>
       </c>
       <c r="T98">
-        <v>39.760591649788871</v>
+        <v>41.634127381977876</v>
       </c>
       <c r="U98">
-        <v>50.008397488620218</v>
+        <v>52.364814124209651</v>
       </c>
       <c r="V98">
-        <v>58.463764695577709</v>
+        <v>61.218601775474042</v>
       </c>
       <c r="W98">
-        <v>66.665358092481711</v>
+        <v>69.806657688462522</v>
       </c>
       <c r="X98">
-        <v>73.200100772057752</v>
+        <v>76.649320180165191</v>
       </c>
     </row>
     <row r="99" spans="3:24" x14ac:dyDescent="0.35">
@@ -9164,58 +9164,58 @@
         <v>35.28484649722828</v>
       </c>
       <c r="G99">
-        <v>732.51200188859923</v>
+        <v>699.5489618036122</v>
       </c>
       <c r="H99">
-        <v>533.1046317880232</v>
+        <v>509.11492335756213</v>
       </c>
       <c r="I99">
-        <v>423.85992424488461</v>
+        <v>404.78622765386478</v>
       </c>
       <c r="J99">
-        <v>362.55885472832</v>
+        <v>346.2437062655456</v>
       </c>
       <c r="K99">
-        <v>317.95457457424379</v>
+        <v>303.64661871840281</v>
       </c>
       <c r="L99">
-        <v>289.57003265801347</v>
+        <v>276.53938118840284</v>
       </c>
       <c r="M99">
-        <v>857.57502660128694</v>
+        <v>818.9841504042289</v>
       </c>
       <c r="N99">
-        <v>624.12249575183205</v>
+        <v>596.0369834429996</v>
       </c>
       <c r="O99">
-        <v>496.22625277449907</v>
+        <v>473.89607139964659</v>
       </c>
       <c r="P99">
-        <v>424.45914699900879</v>
+        <v>405.35848538405338</v>
       </c>
       <c r="Q99">
-        <v>372.23950194057812</v>
+        <v>355.48872435325205</v>
       </c>
       <c r="R99">
-        <v>339.00881872157674</v>
+        <v>323.75342187910576</v>
       </c>
       <c r="S99">
-        <v>29.083690431002758</v>
+        <v>30.45412610576205</v>
       </c>
       <c r="T99">
-        <v>39.962422064254795</v>
+        <v>41.845468130109737</v>
       </c>
       <c r="U99">
-        <v>50.262247222064985</v>
+        <v>52.630625363418829</v>
       </c>
       <c r="V99">
-        <v>58.760535074743075</v>
+        <v>61.529356099207405</v>
       </c>
       <c r="W99">
-        <v>67.003760925438456</v>
+        <v>70.161006204647606</v>
       </c>
       <c r="X99">
-        <v>73.571674887651952</v>
+        <v>77.038403023719326</v>
       </c>
     </row>
     <row r="100" spans="3:24" x14ac:dyDescent="0.35">
@@ -9232,58 +9232,58 @@
         <v>35.107535710810048</v>
       </c>
       <c r="G100">
-        <v>728.83103705498809</v>
+        <v>696.03364038751363</v>
       </c>
       <c r="H100">
-        <v>530.4257140403447</v>
+        <v>506.55655690852916</v>
       </c>
       <c r="I100">
-        <v>421.72997487681988</v>
+        <v>402.75212600736296</v>
       </c>
       <c r="J100">
-        <v>360.73695093571541</v>
+        <v>344.50378814360823</v>
       </c>
       <c r="K100">
-        <v>316.35681289296622</v>
+        <v>302.1207563127827</v>
       </c>
       <c r="L100">
-        <v>288.11490686576218</v>
+        <v>275.14973605680285</v>
       </c>
       <c r="M100">
-        <v>853.26560435705926</v>
+        <v>814.86865216099159</v>
       </c>
       <c r="N100">
-        <v>620.98620180333046</v>
+        <v>593.04182272218054</v>
       </c>
       <c r="O100">
-        <v>493.73265351432576</v>
+        <v>471.51468410618105</v>
       </c>
       <c r="P100">
-        <v>422.32618646132539</v>
+        <v>403.32150807056576</v>
       </c>
       <c r="Q100">
-        <v>370.36895167957022</v>
+        <v>353.70234885398952</v>
       </c>
       <c r="R100">
-        <v>337.3052568184533</v>
+        <v>322.12652026162289</v>
       </c>
       <c r="S100">
-        <v>29.230577756411865</v>
+        <v>30.607934823467925</v>
       </c>
       <c r="T100">
-        <v>40.164252478720734</v>
+        <v>42.056808878241611</v>
       </c>
       <c r="U100">
-        <v>50.516096955509759</v>
+        <v>52.896436602628022</v>
       </c>
       <c r="V100">
-        <v>59.057305453908448</v>
+        <v>61.840110422940782</v>
       </c>
       <c r="W100">
-        <v>67.34216375839523</v>
+        <v>70.51535472083269</v>
       </c>
       <c r="X100">
-        <v>73.943249003246152</v>
+        <v>77.427485867273461</v>
       </c>
     </row>
     <row r="101" spans="3:24" x14ac:dyDescent="0.35">
@@ -9300,58 +9300,58 @@
         <v>34.888024170688006</v>
       </c>
       <c r="G101">
-        <v>724.27398626251613</v>
+        <v>691.68165688070292</v>
       </c>
       <c r="H101">
-        <v>527.10920198525673</v>
+        <v>503.38928789592018</v>
       </c>
       <c r="I101">
-        <v>419.09308811087305</v>
+        <v>400.23389914588375</v>
       </c>
       <c r="J101">
-        <v>358.4814259586534</v>
+        <v>342.34976179051398</v>
       </c>
       <c r="K101">
-        <v>314.37877684400326</v>
+        <v>300.23173188602311</v>
       </c>
       <c r="L101">
-        <v>286.31345468013501</v>
+        <v>273.42934921952894</v>
       </c>
       <c r="M101">
-        <v>847.93052050245797</v>
+        <v>809.77364707984736</v>
       </c>
       <c r="N101">
-        <v>617.10345598273966</v>
+        <v>589.33380046351635</v>
       </c>
       <c r="O101">
-        <v>490.64556656882701</v>
+        <v>468.56651607322976</v>
       </c>
       <c r="P101">
-        <v>419.6855718540333</v>
+        <v>400.79972112060176</v>
       </c>
       <c r="Q101">
-        <v>368.05320215883307</v>
+        <v>351.49080806168558</v>
       </c>
       <c r="R101">
-        <v>335.1962396255239</v>
+        <v>320.11240884237537</v>
       </c>
       <c r="S101">
-        <v>29.377465081820969</v>
+        <v>30.761743541173789</v>
       </c>
       <c r="T101">
-        <v>40.366082893186665</v>
+        <v>42.268149626373472</v>
       </c>
       <c r="U101">
-        <v>50.769946688954533</v>
+        <v>53.162247841837207</v>
       </c>
       <c r="V101">
-        <v>59.354075833073807</v>
+        <v>62.150864746674145</v>
       </c>
       <c r="W101">
-        <v>67.680566591351976</v>
+        <v>70.869703237017774</v>
       </c>
       <c r="X101">
-        <v>74.314823118840351</v>
+        <v>77.816568710827596</v>
       </c>
     </row>
     <row r="102" spans="3:24" x14ac:dyDescent="0.35">
@@ -9369,58 +9369,58 @@
         <v>34.714451911132343</v>
       </c>
       <c r="G102">
-        <v>720.67063309703099</v>
+        <v>688.24045460766456</v>
       </c>
       <c r="H102">
-        <v>524.48676814453404</v>
+        <v>500.88486357802998</v>
       </c>
       <c r="I102">
-        <v>417.00804787151543</v>
+        <v>398.24268571729721</v>
       </c>
       <c r="J102">
-        <v>356.69793627726705</v>
+        <v>340.64652914479001</v>
       </c>
       <c r="K102">
-        <v>312.81470332736643</v>
+        <v>298.73804167763495</v>
       </c>
       <c r="L102">
-        <v>284.88900963197511</v>
+        <v>272.06900419853622</v>
       </c>
       <c r="M102">
-        <v>843.71196069896314</v>
+        <v>805.74492246750981</v>
       </c>
       <c r="N102">
-        <v>614.03328953506423</v>
+        <v>586.40179150598635</v>
       </c>
       <c r="O102">
-        <v>488.20454384957907</v>
+        <v>466.23533937634795</v>
       </c>
       <c r="P102">
-        <v>417.59758393436147</v>
+        <v>398.80569265731515</v>
       </c>
       <c r="Q102">
-        <v>366.22209170033142</v>
+        <v>349.74209757381652</v>
       </c>
       <c r="R102">
-        <v>333.52859664231232</v>
+        <v>318.51980979340829</v>
       </c>
       <c r="S102">
-        <v>29.524352407230076</v>
+        <v>30.915552258879661</v>
       </c>
       <c r="T102">
-        <v>40.567913307652603</v>
+        <v>42.479490374505346</v>
       </c>
       <c r="U102">
-        <v>51.023796422399307</v>
+        <v>53.428059081046392</v>
       </c>
       <c r="V102">
-        <v>59.65084621223918</v>
+        <v>62.461619070407522</v>
       </c>
       <c r="W102">
-        <v>68.01896942430875</v>
+        <v>71.224051753202872</v>
       </c>
       <c r="X102">
-        <v>74.686397234434565</v>
+        <v>78.205651554381745</v>
       </c>
     </row>
     <row r="103" spans="3:24" x14ac:dyDescent="0.35">
@@ -9437,58 +9437,58 @@
         <v>34.586136665599994</v>
       </c>
       <c r="G103">
-        <v>718.00681373238922</v>
+        <v>685.69650711443171</v>
       </c>
       <c r="H103">
-        <v>522.54810442588405</v>
+        <v>499.03343972671922</v>
       </c>
       <c r="I103">
-        <v>415.46665841825319</v>
+        <v>396.77065878943176</v>
       </c>
       <c r="J103">
-        <v>355.37947146637305</v>
+        <v>339.38739525038625</v>
       </c>
       <c r="K103">
-        <v>311.65844438465479</v>
+        <v>297.6338143873453</v>
       </c>
       <c r="L103">
-        <v>283.83597260537954</v>
+        <v>271.06335383813746</v>
       </c>
       <c r="M103">
-        <v>840.59334290621177</v>
+        <v>802.76664247543226</v>
       </c>
       <c r="N103">
-        <v>611.76363444981553</v>
+        <v>584.23427089957374</v>
       </c>
       <c r="O103">
-        <v>486.39999034332084</v>
+        <v>464.51199077787135</v>
       </c>
       <c r="P103">
-        <v>416.05401537526603</v>
+        <v>397.33158468337905</v>
       </c>
       <c r="Q103">
-        <v>364.86842269422999</v>
+        <v>348.44934367298964</v>
       </c>
       <c r="R103">
-        <v>332.29577280629803</v>
+        <v>317.34246303001459</v>
       </c>
       <c r="S103">
-        <v>29.671239732639176</v>
+        <v>31.069360976585529</v>
       </c>
       <c r="T103">
-        <v>40.769743722118534</v>
+        <v>42.690831122637206</v>
       </c>
       <c r="U103">
-        <v>51.277646155844074</v>
+        <v>53.693870320255577</v>
       </c>
       <c r="V103">
-        <v>59.947616591404547</v>
+        <v>62.772373394140885</v>
       </c>
       <c r="W103">
-        <v>68.357372257265496</v>
+        <v>71.578400269387956</v>
       </c>
       <c r="X103">
-        <v>75.057971350028751</v>
+        <v>78.594734397935866</v>
       </c>
     </row>
     <row r="104" spans="3:24" x14ac:dyDescent="0.35">
@@ -9505,58 +9505,58 @@
         <v>34.415761608133984</v>
       </c>
       <c r="G104">
-        <v>714.46983435439711</v>
+        <v>682.31869180844922</v>
       </c>
       <c r="H104">
-        <v>519.97397583265308</v>
+        <v>496.57514692018367</v>
       </c>
       <c r="I104">
-        <v>413.42002463294159</v>
+        <v>394.81612352445921</v>
       </c>
       <c r="J104">
-        <v>353.62883367589831</v>
+        <v>337.71553616048288</v>
       </c>
       <c r="K104">
-        <v>310.12318111182395</v>
+        <v>296.16763796179185</v>
       </c>
       <c r="L104">
-        <v>282.43776584377667</v>
+        <v>269.72806638080669</v>
       </c>
       <c r="M104">
-        <v>836.45248900026979</v>
+        <v>798.8121269952577</v>
       </c>
       <c r="N104">
-        <v>608.75002048700856</v>
+        <v>581.35626956509316</v>
       </c>
       <c r="O104">
-        <v>484.0039312775902</v>
+        <v>462.22375437009862</v>
       </c>
       <c r="P104">
-        <v>414.00448820592976</v>
+        <v>395.3742862366629</v>
       </c>
       <c r="Q104">
-        <v>363.0710413016476</v>
+        <v>346.73284444307342</v>
       </c>
       <c r="R104">
-        <v>330.6588478171044</v>
+        <v>315.77919966533466</v>
       </c>
       <c r="S104">
-        <v>29.818127058048283</v>
+        <v>31.2231696942914</v>
       </c>
       <c r="T104">
-        <v>40.971574136584465</v>
+        <v>42.902171870769081</v>
       </c>
       <c r="U104">
-        <v>51.531495889288855</v>
+        <v>53.959681559464769</v>
       </c>
       <c r="V104">
-        <v>60.24438697056992</v>
+        <v>63.083127717874262</v>
       </c>
       <c r="W104">
-        <v>68.69577509022227</v>
+        <v>71.932748785573054</v>
       </c>
       <c r="X104">
-        <v>75.429545465622965</v>
+        <v>78.983817241490016</v>
       </c>
     </row>
     <row r="105" spans="3:24" x14ac:dyDescent="0.35">
@@ -9573,58 +9573,58 @@
         <v>34.203945265380398</v>
       </c>
       <c r="G105">
-        <v>710.07253555148645</v>
+        <v>678.11927145166953</v>
       </c>
       <c r="H105">
-        <v>516.7737274365262</v>
+        <v>493.51890970188248</v>
       </c>
       <c r="I105">
-        <v>410.87557657928727</v>
+        <v>392.38617563321935</v>
       </c>
       <c r="J105">
-        <v>351.45237839083666</v>
+        <v>335.637021363249</v>
       </c>
       <c r="K105">
-        <v>308.21448710196398</v>
+        <v>294.34483518237562</v>
       </c>
       <c r="L105">
-        <v>280.6994653726814</v>
+        <v>268.0679894309107</v>
       </c>
       <c r="M105">
-        <v>831.30443186515492</v>
+        <v>793.89573243122288</v>
       </c>
       <c r="N105">
-        <v>605.00338821837215</v>
+        <v>577.7782357485454</v>
       </c>
       <c r="O105">
-        <v>481.02506526355586</v>
+        <v>459.37893732669585</v>
       </c>
       <c r="P105">
-        <v>411.45644299415022</v>
+        <v>392.94090305941347</v>
       </c>
       <c r="Q105">
-        <v>360.83647270473836</v>
+        <v>344.59883143302511</v>
       </c>
       <c r="R105">
-        <v>328.62376433874897</v>
+        <v>313.83569494350525</v>
       </c>
       <c r="S105">
-        <v>29.965014383457387</v>
+        <v>31.376978411997264</v>
       </c>
       <c r="T105">
-        <v>41.173404551050396</v>
+        <v>43.113512618900941</v>
       </c>
       <c r="U105">
-        <v>51.785345622733622</v>
+        <v>54.225492798673947</v>
       </c>
       <c r="V105">
-        <v>60.541157349735286</v>
+        <v>63.393882041607625</v>
       </c>
       <c r="W105">
-        <v>69.034177923179016</v>
+        <v>72.287097301758138</v>
       </c>
       <c r="X105">
-        <v>75.801119581217165</v>
+        <v>79.372900085044151</v>
       </c>
     </row>
     <row r="106" spans="3:24" x14ac:dyDescent="0.35">
@@ -9641,58 +9641,58 @@
         <v>33.911967877510243</v>
       </c>
       <c r="G106">
-        <v>704.01109665839749</v>
+        <v>672.3305973087696</v>
       </c>
       <c r="H106">
-        <v>512.36235787415126</v>
+        <v>489.30605176981442</v>
       </c>
       <c r="I106">
-        <v>407.36819236794929</v>
+        <v>389.03662371139154</v>
       </c>
       <c r="J106">
-        <v>348.45225233499326</v>
+        <v>332.77190097991854</v>
       </c>
       <c r="K106">
-        <v>305.58345550167502</v>
+        <v>291.8322000040996</v>
       </c>
       <c r="L106">
-        <v>278.30331206229067</v>
+        <v>265.7796630194876</v>
       </c>
       <c r="M106">
-        <v>824.20811316105073</v>
+        <v>787.11874806880348</v>
       </c>
       <c r="N106">
-        <v>599.83885799900634</v>
+        <v>572.84610938905109</v>
       </c>
       <c r="O106">
-        <v>476.91885935759922</v>
+        <v>455.45751068650719</v>
       </c>
       <c r="P106">
-        <v>407.94410029462625</v>
+        <v>389.58661578136804</v>
       </c>
       <c r="Q106">
-        <v>357.75624058732689</v>
+        <v>341.6572097608971</v>
       </c>
       <c r="R106">
-        <v>325.81851168268179</v>
+        <v>311.15667865696111</v>
       </c>
       <c r="S106">
-        <v>30.111901708866494</v>
+        <v>31.530787129703135</v>
       </c>
       <c r="T106">
-        <v>41.375234965516334</v>
+        <v>43.324853367032816</v>
       </c>
       <c r="U106">
-        <v>52.039195356178396</v>
+        <v>54.49130403788314</v>
       </c>
       <c r="V106">
-        <v>60.837927728900659</v>
+        <v>63.704636365341003</v>
       </c>
       <c r="W106">
-        <v>69.37258075613579</v>
+        <v>72.641445817943222</v>
       </c>
       <c r="X106">
-        <v>76.172693696811365</v>
+        <v>79.761982928598286</v>
       </c>
     </row>
     <row r="107" spans="3:24" x14ac:dyDescent="0.35">
@@ -9709,58 +9709,58 @@
         <v>33.524732811914561</v>
       </c>
       <c r="G107">
-        <v>695.97211218603377</v>
+        <v>664.65336713766226</v>
       </c>
       <c r="H107">
-        <v>506.5117781620923</v>
+        <v>483.7187481447981</v>
       </c>
       <c r="I107">
-        <v>402.71652339777984</v>
+        <v>384.59427984487974</v>
       </c>
       <c r="J107">
-        <v>344.47333458898447</v>
+        <v>328.97203453248017</v>
       </c>
       <c r="K107">
-        <v>302.09404934678707</v>
+        <v>288.49981712618165</v>
       </c>
       <c r="L107">
-        <v>275.12541328357054</v>
+        <v>262.74476968580984</v>
       </c>
       <c r="M107">
-        <v>814.79661914462497</v>
+        <v>778.13077128311681</v>
       </c>
       <c r="N107">
-        <v>592.98939882391301</v>
+        <v>566.30487587683683</v>
       </c>
       <c r="O107">
-        <v>471.47300300227886</v>
+        <v>450.25671786717629</v>
       </c>
       <c r="P107">
-        <v>403.28585512856722</v>
+        <v>385.13799164778169</v>
       </c>
       <c r="Q107">
-        <v>353.6710821620922</v>
+        <v>337.75588346479805</v>
       </c>
       <c r="R107">
-        <v>322.09804481978989</v>
+        <v>307.60363280289937</v>
       </c>
       <c r="S107">
-        <v>30.258789034275601</v>
+        <v>31.684595847409007</v>
       </c>
       <c r="T107">
-        <v>41.577065379982272</v>
+        <v>43.536194115164683</v>
       </c>
       <c r="U107">
-        <v>52.293045089623178</v>
+        <v>54.757115277092332</v>
       </c>
       <c r="V107">
-        <v>61.134698108066033</v>
+        <v>64.01539068907438</v>
       </c>
       <c r="W107">
-        <v>69.71098358909255</v>
+        <v>72.99579433412832</v>
       </c>
       <c r="X107">
-        <v>76.544267812405579</v>
+        <v>80.151065772152435</v>
       </c>
     </row>
     <row r="108" spans="3:24" x14ac:dyDescent="0.35">
@@ -9777,58 +9777,58 @@
         <v>33.362777580939131</v>
       </c>
       <c r="G108">
-        <v>692.60992806919307</v>
+        <v>661.44248130607934</v>
       </c>
       <c r="H108">
-        <v>504.06486135937695</v>
+        <v>481.38194259820494</v>
       </c>
       <c r="I108">
-        <v>400.77103294658286</v>
+        <v>382.73633646398662</v>
       </c>
       <c r="J108">
-        <v>342.80921219966575</v>
+        <v>327.3827976506808</v>
       </c>
       <c r="K108">
-        <v>300.63465780404897</v>
+        <v>287.10609820286675</v>
       </c>
       <c r="L108">
-        <v>273.79630500683834</v>
+        <v>261.47547128153059</v>
       </c>
       <c r="M108">
-        <v>810.86040359320168</v>
+        <v>774.37168543150756</v>
       </c>
       <c r="N108">
-        <v>590.12471573780715</v>
+        <v>563.56910352960585</v>
       </c>
       <c r="O108">
-        <v>469.19535564477997</v>
+        <v>448.08156464076484</v>
       </c>
       <c r="P108">
-        <v>401.33761428253553</v>
+        <v>383.27742163982145</v>
       </c>
       <c r="Q108">
-        <v>351.96252620961832</v>
+        <v>336.12421253018545</v>
       </c>
       <c r="R108">
-        <v>320.54201561776199</v>
+        <v>306.11762491496268</v>
       </c>
       <c r="S108">
-        <v>30.405676359684705</v>
+        <v>31.838404565114875</v>
       </c>
       <c r="T108">
-        <v>41.778895794448204</v>
+        <v>43.747534863296551</v>
       </c>
       <c r="U108">
-        <v>52.546894823067944</v>
+        <v>55.02292651630151</v>
       </c>
       <c r="V108">
-        <v>61.431468487231399</v>
+        <v>64.326145012807743</v>
       </c>
       <c r="W108">
-        <v>70.049386422049309</v>
+        <v>73.350142850313404</v>
       </c>
       <c r="X108">
-        <v>76.915841927999764</v>
+        <v>80.54014861570657</v>
       </c>
     </row>
     <row r="109" spans="3:24" x14ac:dyDescent="0.35">
@@ -9845,58 +9845,58 @@
         <v>33.346845022400004</v>
       </c>
       <c r="G109">
-        <v>692.27916879122313</v>
+        <v>661.12660619561802</v>
       </c>
       <c r="H109">
-        <v>503.82414270543268</v>
+        <v>481.15205628368818</v>
       </c>
       <c r="I109">
-        <v>400.57964276848043</v>
+        <v>382.55355884389877</v>
       </c>
       <c r="J109">
-        <v>342.64550197416452</v>
+        <v>327.22645438532709</v>
       </c>
       <c r="K109">
-        <v>300.49108824444824</v>
+        <v>286.96898927344807</v>
       </c>
       <c r="L109">
-        <v>273.66555223462876</v>
+        <v>261.35060238407044</v>
       </c>
       <c r="M109">
-        <v>810.473173218993</v>
+        <v>774.00188042413822</v>
       </c>
       <c r="N109">
-        <v>589.84289877709193</v>
+        <v>563.29996833212283</v>
       </c>
       <c r="O109">
-        <v>468.97128909480637</v>
+        <v>447.86758108554005</v>
       </c>
       <c r="P109">
-        <v>401.14595353072923</v>
+        <v>383.09438562184636</v>
       </c>
       <c r="Q109">
-        <v>351.79444477398818</v>
+        <v>335.96369475915873</v>
       </c>
       <c r="R109">
-        <v>320.38893920151662</v>
+        <v>305.97143693744835</v>
       </c>
       <c r="S109">
-        <v>30.552563685093812</v>
+        <v>31.992213282820746</v>
       </c>
       <c r="T109">
-        <v>41.980726208914135</v>
+        <v>43.958875611428418</v>
       </c>
       <c r="U109">
-        <v>52.800744556512718</v>
+        <v>55.288737755510702</v>
       </c>
       <c r="V109">
-        <v>61.728238866396772</v>
+        <v>64.63689933654112</v>
       </c>
       <c r="W109">
-        <v>70.387789255006069</v>
+        <v>73.704491366498502</v>
       </c>
       <c r="X109">
-        <v>77.287416043593979</v>
+        <v>80.929231459260706</v>
       </c>
     </row>
     <row r="110" spans="3:24" x14ac:dyDescent="0.35">
@@ -9913,58 +9913,58 @@
         <v>33.187290739996179</v>
       </c>
       <c r="G110">
-        <v>688.96682827069105</v>
+        <v>657.96332099850997</v>
       </c>
       <c r="H110">
-        <v>501.41350087430624</v>
+        <v>478.84989333496242</v>
       </c>
       <c r="I110">
-        <v>398.66299376001888</v>
+        <v>380.72315904081802</v>
       </c>
       <c r="J110">
-        <v>341.00604981160876</v>
+        <v>325.66077757008634</v>
       </c>
       <c r="K110">
-        <v>299.05333184136475</v>
+        <v>285.5959319085033</v>
       </c>
       <c r="L110">
-        <v>272.35614767848227</v>
+        <v>260.10012103295054</v>
       </c>
       <c r="M110">
-        <v>806.59531114617494</v>
+        <v>770.29852214459709</v>
       </c>
       <c r="N110">
-        <v>587.02068395040737</v>
+        <v>560.60475317263899</v>
       </c>
       <c r="O110">
-        <v>466.7274073288026</v>
+        <v>445.72467399900648</v>
       </c>
       <c r="P110">
-        <v>399.22659490139563</v>
+        <v>381.26139813083279</v>
       </c>
       <c r="Q110">
-        <v>350.11121776550021</v>
+        <v>334.35621296605268</v>
       </c>
       <c r="R110">
-        <v>318.85597776993046</v>
+        <v>304.50745877028356</v>
       </c>
       <c r="S110">
-        <v>30.699451010502912</v>
+        <v>32.146022000526614</v>
       </c>
       <c r="T110">
-        <v>42.182556623380066</v>
+        <v>44.170216359560278</v>
       </c>
       <c r="U110">
-        <v>53.054594289957485</v>
+        <v>55.55454899471988</v>
       </c>
       <c r="V110">
-        <v>62.025009245562131</v>
+        <v>64.947653660274483</v>
       </c>
       <c r="W110">
-        <v>70.726192087962829</v>
+        <v>74.058839882683586</v>
       </c>
       <c r="X110">
-        <v>77.658990159188178</v>
+        <v>81.318314302814841</v>
       </c>
     </row>
     <row r="111" spans="3:24" x14ac:dyDescent="0.35">
@@ -9981,58 +9981,58 @@
         <v>32.928544910659049</v>
       </c>
       <c r="G111">
-        <v>683.59527520348547</v>
+        <v>652.83348781932864</v>
       </c>
       <c r="H111">
-        <v>497.50421363718328</v>
+        <v>475.11652402351001</v>
       </c>
       <c r="I111">
-        <v>395.55480431018998</v>
+        <v>377.75483811623144</v>
       </c>
       <c r="J111">
-        <v>338.34738466600385</v>
+        <v>323.12175235603365</v>
       </c>
       <c r="K111">
-        <v>296.72175247354153</v>
+        <v>283.36927361223212</v>
       </c>
       <c r="L111">
-        <v>270.23271380561096</v>
+        <v>258.07224168435846</v>
       </c>
       <c r="M111">
-        <v>800.30666365286106</v>
+        <v>764.29286378848235</v>
       </c>
       <c r="N111">
-        <v>582.44395742889753</v>
+        <v>556.23397934459706</v>
       </c>
       <c r="O111">
-        <v>463.0885513875395</v>
+        <v>442.24956657510023</v>
       </c>
       <c r="P111">
-        <v>396.11401131629719</v>
+        <v>378.28888080706383</v>
       </c>
       <c r="Q111">
-        <v>347.38156387146324</v>
+        <v>331.74939349724735</v>
       </c>
       <c r="R111">
-        <v>316.37000640656896</v>
+        <v>302.13335611827335</v>
       </c>
       <c r="S111">
-        <v>30.846338335912019</v>
+        <v>32.299830718232485</v>
       </c>
       <c r="T111">
-        <v>42.384387037846004</v>
+        <v>44.381557107692153</v>
       </c>
       <c r="U111">
-        <v>53.308444023402267</v>
+        <v>55.820360233929073</v>
       </c>
       <c r="V111">
-        <v>62.321779624727512</v>
+        <v>65.25840798400786</v>
       </c>
       <c r="W111">
-        <v>71.064594920919589</v>
+        <v>74.413188398868684</v>
       </c>
       <c r="X111">
-        <v>78.030564274782378</v>
+        <v>81.70739714636899</v>
       </c>
     </row>
     <row r="112" spans="3:24" x14ac:dyDescent="0.35">
@@ -10049,58 +10049,58 @@
         <v>32.607248535522267</v>
       </c>
       <c r="G112">
-        <v>676.92517530750081</v>
+        <v>646.46354241866322</v>
       </c>
       <c r="H112">
-        <v>492.6498752237917</v>
+        <v>470.48063083872103</v>
       </c>
       <c r="I112">
-        <v>391.69522517793189</v>
+        <v>374.06894004492494</v>
       </c>
       <c r="J112">
-        <v>335.04600015219842</v>
+        <v>319.96893014534947</v>
       </c>
       <c r="K112">
-        <v>293.82652513347398</v>
+        <v>280.60433150246763</v>
       </c>
       <c r="L112">
-        <v>267.59595012155847</v>
+        <v>255.55413236608834</v>
       </c>
       <c r="M112">
-        <v>792.49776621365947</v>
+        <v>756.83536673404478</v>
       </c>
       <c r="N112">
-        <v>576.76082953029277</v>
+        <v>550.80659220142957</v>
       </c>
       <c r="O112">
-        <v>458.57001972050563</v>
+        <v>437.93436883308289</v>
       </c>
       <c r="P112">
-        <v>392.24897578793963</v>
+        <v>374.59777187748233</v>
       </c>
       <c r="Q112">
-        <v>343.99202942455491</v>
+        <v>328.51238810044993</v>
       </c>
       <c r="R112">
-        <v>313.2830635569465</v>
+        <v>299.18532569688392</v>
       </c>
       <c r="S112">
-        <v>30.993225661321123</v>
+        <v>32.453639435938349</v>
       </c>
       <c r="T112">
-        <v>42.586217452311935</v>
+        <v>44.592897855824013</v>
       </c>
       <c r="U112">
-        <v>53.562293756847033</v>
+        <v>56.086171473138251</v>
       </c>
       <c r="V112">
-        <v>62.618550003892871</v>
+        <v>65.569162307741223</v>
       </c>
       <c r="W112">
-        <v>71.402997753876349</v>
+        <v>74.767536915053753</v>
       </c>
       <c r="X112">
-        <v>78.402138390376578</v>
+        <v>82.096479989923111</v>
       </c>
     </row>
     <row r="113" spans="2:24" x14ac:dyDescent="0.35">
@@ -10117,58 +10117,58 @@
         <v>32.331455766067926</v>
       </c>
       <c r="G113">
-        <v>671.19972844533947</v>
+        <v>640.99574066529919</v>
       </c>
       <c r="H113">
-        <v>488.48303258721381</v>
+        <v>466.50129612078916</v>
       </c>
       <c r="I113">
-        <v>388.38225901900626</v>
+        <v>370.90505736315095</v>
       </c>
       <c r="J113">
-        <v>332.21217428750117</v>
+        <v>317.26262644456358</v>
       </c>
       <c r="K113">
-        <v>291.34133442449934</v>
+        <v>278.23097437539684</v>
       </c>
       <c r="L113">
-        <v>265.33261814804371</v>
+        <v>253.39265033138173</v>
       </c>
       <c r="M113">
-        <v>785.7948040335682</v>
+        <v>750.4340378520576</v>
       </c>
       <c r="N113">
-        <v>571.88257473625038</v>
+        <v>546.14785887311905</v>
       </c>
       <c r="O113">
-        <v>454.69142519298293</v>
+        <v>434.23031105929869</v>
       </c>
       <c r="P113">
-        <v>388.93132599512336</v>
+        <v>371.42941632534274</v>
       </c>
       <c r="Q113">
-        <v>341.08253786282853</v>
+        <v>325.73382365900119</v>
       </c>
       <c r="R113">
-        <v>310.63330905136826</v>
+        <v>296.65481014405668</v>
       </c>
       <c r="S113">
-        <v>31.14011298673023</v>
+        <v>32.607448153644221</v>
       </c>
       <c r="T113">
-        <v>42.788047866777873</v>
+        <v>44.804238603955888</v>
       </c>
       <c r="U113">
-        <v>53.816143490291807</v>
+        <v>56.351982712347443</v>
       </c>
       <c r="V113">
-        <v>62.915320383058244</v>
+        <v>65.8799166314746</v>
       </c>
       <c r="W113">
-        <v>71.741400586833109</v>
+        <v>75.121885431238852</v>
       </c>
       <c r="X113">
-        <v>78.773712505970778</v>
+        <v>82.48556283347726</v>
       </c>
     </row>
     <row r="114" spans="2:24" x14ac:dyDescent="0.35">
@@ -10185,58 +10185,58 @@
         <v>32.345316485123</v>
       </c>
       <c r="G114">
-        <v>671.48747641849411</v>
+        <v>641.27053997966186</v>
       </c>
       <c r="H114">
-        <v>488.69244864712931</v>
+        <v>466.70128845800849</v>
       </c>
       <c r="I114">
-        <v>388.54876118386971</v>
+        <v>371.06406693059557</v>
       </c>
       <c r="J114">
-        <v>332.35459594793582</v>
+        <v>317.3986391302787</v>
       </c>
       <c r="K114">
-        <v>291.46623447276215</v>
+        <v>278.35025392148782</v>
       </c>
       <c r="L114">
-        <v>265.44636807946983</v>
+        <v>253.50128151589368</v>
       </c>
       <c r="M114">
-        <v>786.13167970945653</v>
+        <v>750.75575412253102</v>
       </c>
       <c r="N114">
-        <v>572.12774475761478</v>
+        <v>546.38199624352217</v>
       </c>
       <c r="O114">
-        <v>454.88635455672556</v>
+        <v>434.41646860167288</v>
       </c>
       <c r="P114">
-        <v>389.09806354880294</v>
+        <v>371.58865068910677</v>
       </c>
       <c r="Q114">
-        <v>341.22876230957525</v>
+        <v>325.87346800564427</v>
       </c>
       <c r="R114">
-        <v>310.76647970279396</v>
+        <v>296.78198811616824</v>
       </c>
       <c r="S114">
-        <v>31.28700031213933</v>
+        <v>32.761256871350085</v>
       </c>
       <c r="T114">
-        <v>42.989878281243797</v>
+        <v>45.015579352087748</v>
       </c>
       <c r="U114">
-        <v>54.069993223736574</v>
+        <v>56.617793951556628</v>
       </c>
       <c r="V114">
-        <v>63.21209076222361</v>
+        <v>66.190670955207963</v>
       </c>
       <c r="W114">
-        <v>72.079803419789869</v>
+        <v>75.476233947423935</v>
       </c>
       <c r="X114">
-        <v>79.145286621564978</v>
+        <v>82.874645677031396</v>
       </c>
     </row>
     <row r="115" spans="2:24" x14ac:dyDescent="0.35">
@@ -10253,58 +10253,58 @@
         <v>32.150137574743916</v>
       </c>
       <c r="G115">
-        <v>667.43557004618071</v>
+        <v>637.4009693941025</v>
       </c>
       <c r="H115">
-        <v>485.74356856177587</v>
+        <v>463.88510797649593</v>
       </c>
       <c r="I115">
-        <v>386.20417061936274</v>
+        <v>368.82498294149138</v>
       </c>
       <c r="J115">
-        <v>330.34909360800867</v>
+        <v>315.48338439564827</v>
       </c>
       <c r="K115">
-        <v>289.7074616970234</v>
+        <v>276.67062592065736</v>
       </c>
       <c r="L115">
-        <v>263.84460502639644</v>
+        <v>251.9715978002086</v>
       </c>
       <c r="M115">
-        <v>781.38798444430915</v>
+        <v>746.22552514431516</v>
       </c>
       <c r="N115">
-        <v>568.67539734061563</v>
+        <v>543.08500446028791</v>
       </c>
       <c r="O115">
-        <v>452.1414680421808</v>
+        <v>431.7951019802826</v>
       </c>
       <c r="P115">
-        <v>386.75015837035164</v>
+        <v>369.34640124368582</v>
       </c>
       <c r="Q115">
-        <v>339.16971125505182</v>
+        <v>323.90707424857447</v>
       </c>
       <c r="R115">
-        <v>308.89124490895193</v>
+        <v>294.99113888804908</v>
       </c>
       <c r="S115">
-        <v>31.433887637548438</v>
+        <v>32.915065589055956</v>
       </c>
       <c r="T115">
-        <v>43.191708695709735</v>
+        <v>45.226920100219623</v>
       </c>
       <c r="U115">
-        <v>54.323842957181355</v>
+        <v>56.883605190765813</v>
       </c>
       <c r="V115">
-        <v>63.508861141388984</v>
+        <v>66.50142527894134</v>
       </c>
       <c r="W115">
-        <v>72.418206252746629</v>
+        <v>75.830582463609034</v>
       </c>
       <c r="X115">
-        <v>79.516860737159192</v>
+        <v>83.263728520585531</v>
       </c>
     </row>
     <row r="116" spans="2:24" x14ac:dyDescent="0.35">
@@ -10321,58 +10321,58 @@
         <v>31.813603570053949</v>
       </c>
       <c r="G116">
-        <v>660.44913757017719</v>
+        <v>630.72892637951918</v>
       </c>
       <c r="H116">
-        <v>480.65901089851707</v>
+        <v>459.0293554080838</v>
       </c>
       <c r="I116">
-        <v>382.16154915734444</v>
+        <v>364.96427944526391</v>
       </c>
       <c r="J116">
-        <v>326.89113940301831</v>
+        <v>312.1810381298825</v>
       </c>
       <c r="K116">
-        <v>286.67492685804172</v>
+        <v>273.77455514942983</v>
       </c>
       <c r="L116">
-        <v>261.08279160214755</v>
+        <v>249.33406598005089</v>
       </c>
       <c r="M116">
-        <v>773.20874642362207</v>
+        <v>738.41435283455905</v>
       </c>
       <c r="N116">
-        <v>562.72274446655661</v>
+        <v>537.40022096556152</v>
       </c>
       <c r="O116">
-        <v>447.40864291591544</v>
+        <v>427.27525398469925</v>
       </c>
       <c r="P116">
-        <v>382.70182174011904</v>
+        <v>365.48023976181366</v>
       </c>
       <c r="Q116">
-        <v>335.61942656551224</v>
+        <v>320.51655237006423</v>
       </c>
       <c r="R116">
-        <v>305.65790236348982</v>
+        <v>291.90329675713275</v>
       </c>
       <c r="S116">
-        <v>31.580774962957541</v>
+        <v>33.068874306761828</v>
       </c>
       <c r="T116">
-        <v>43.393539110175666</v>
+        <v>45.438260848351483</v>
       </c>
       <c r="U116">
-        <v>54.577692690626122</v>
+        <v>57.149416429974998</v>
       </c>
       <c r="V116">
-        <v>63.80563152055435</v>
+        <v>66.812179602674703</v>
       </c>
       <c r="W116">
-        <v>72.756609085703388</v>
+        <v>76.184930979794117</v>
       </c>
       <c r="X116">
-        <v>79.888434852753377</v>
+        <v>83.652811364139666</v>
       </c>
     </row>
     <row r="117" spans="2:24" x14ac:dyDescent="0.35">
@@ -10389,58 +10389,58 @@
         <v>31.519932718059259</v>
       </c>
       <c r="G117">
-        <v>654.3525424296015</v>
+        <v>624.9066780202694</v>
       </c>
       <c r="H117">
-        <v>476.22205546407008</v>
+        <v>454.79206296818688</v>
       </c>
       <c r="I117">
-        <v>378.63382217434116</v>
+        <v>361.59530017649581</v>
       </c>
       <c r="J117">
-        <v>323.87361266460249</v>
+        <v>309.29930009469535</v>
       </c>
       <c r="K117">
-        <v>284.02863531704941</v>
+        <v>271.24734672778214</v>
       </c>
       <c r="L117">
-        <v>258.67274064133386</v>
+        <v>247.03246731247381</v>
       </c>
       <c r="M117">
-        <v>766.07126918587494</v>
+        <v>731.59806207251052</v>
       </c>
       <c r="N117">
-        <v>557.52826005549673</v>
+        <v>532.43948835299932</v>
       </c>
       <c r="O117">
-        <v>443.27862108215555</v>
+        <v>423.33108313345855</v>
       </c>
       <c r="P117">
-        <v>379.16910750977854</v>
+        <v>362.1064976718385</v>
       </c>
       <c r="Q117">
-        <v>332.5213291516676</v>
+        <v>317.55786933984251</v>
       </c>
       <c r="R117">
-        <v>302.83637928741524</v>
+        <v>289.20874221948156</v>
       </c>
       <c r="S117">
-        <v>31.727662288366648</v>
+        <v>33.222683024467699</v>
       </c>
       <c r="T117">
-        <v>43.595369524641605</v>
+        <v>45.649601596483357</v>
       </c>
       <c r="U117">
-        <v>54.831542424070896</v>
+        <v>57.415227669184191</v>
       </c>
       <c r="V117">
-        <v>64.102401899719723</v>
+        <v>67.122933926408081</v>
       </c>
       <c r="W117">
-        <v>73.095011918660148</v>
+        <v>76.539279495979216</v>
       </c>
       <c r="X117">
-        <v>80.260008968347591</v>
+        <v>84.041894207693815</v>
       </c>
     </row>
     <row r="118" spans="2:24" x14ac:dyDescent="0.35">
@@ -10457,58 +10457,58 @@
         <v>31.24537306651429</v>
       </c>
       <c r="G118">
-        <v>648.65269504591402</v>
+        <v>619.46332376884789</v>
       </c>
       <c r="H118">
-        <v>472.07384351273777</v>
+        <v>450.83052055466453</v>
       </c>
       <c r="I118">
-        <v>375.33566886896421</v>
+        <v>358.44556376986083</v>
       </c>
       <c r="J118">
-        <v>321.05245733304764</v>
+        <v>306.60509675306048</v>
       </c>
       <c r="K118">
-        <v>281.55455633220561</v>
+        <v>268.88460129725632</v>
       </c>
       <c r="L118">
-        <v>256.41952842257882</v>
+        <v>244.88064964356278</v>
       </c>
       <c r="M118">
-        <v>759.39827712692374</v>
+        <v>725.22535465621218</v>
       </c>
       <c r="N118">
-        <v>552.67181679540033</v>
+        <v>527.80158503960729</v>
       </c>
       <c r="O118">
-        <v>439.4173684319581</v>
+        <v>419.64358685252</v>
       </c>
       <c r="P118">
-        <v>375.86629151186065</v>
+        <v>358.95230839382691</v>
       </c>
       <c r="Q118">
-        <v>329.62484643770415</v>
+        <v>314.79172834800744</v>
       </c>
       <c r="R118">
-        <v>300.19847229960448</v>
+        <v>286.68954104612232</v>
       </c>
       <c r="S118">
-        <v>31.874549613775752</v>
+        <v>33.376491742173563</v>
       </c>
       <c r="T118">
-        <v>43.797199939107529</v>
+        <v>45.860942344615218</v>
       </c>
       <c r="U118">
-        <v>55.08539215751567</v>
+        <v>57.681038908393369</v>
       </c>
       <c r="V118">
-        <v>64.399172278885089</v>
+        <v>67.433688250141458</v>
       </c>
       <c r="W118">
-        <v>73.433414751616908</v>
+        <v>76.893628012164285</v>
       </c>
       <c r="X118">
-        <v>80.631583083941791</v>
+        <v>84.43097705124795</v>
       </c>
     </row>
     <row r="119" spans="2:24" x14ac:dyDescent="0.35">
@@ -10525,58 +10525,58 @@
         <v>31.005030376205504</v>
       </c>
       <c r="G119">
-        <v>643.66319040881115</v>
+        <v>614.69834684041462</v>
       </c>
       <c r="H119">
-        <v>468.44260194193845</v>
+        <v>447.36268485455122</v>
       </c>
       <c r="I119">
-        <v>372.44854749477611</v>
+        <v>355.68836285751115</v>
       </c>
       <c r="J119">
-        <v>318.58288812158679</v>
+        <v>304.24665815611536</v>
       </c>
       <c r="K119">
-        <v>279.38880912241791</v>
+        <v>266.81631271190912</v>
       </c>
       <c r="L119">
-        <v>254.44712248658314</v>
+        <v>242.9970019746869</v>
       </c>
       <c r="M119">
-        <v>753.55690584446188</v>
+        <v>719.64684508146104</v>
       </c>
       <c r="N119">
-        <v>548.42060715153775</v>
+        <v>523.74167982971858</v>
       </c>
       <c r="O119">
-        <v>436.03732389632324</v>
+        <v>416.41564432098869</v>
       </c>
       <c r="P119">
-        <v>372.97508853258944</v>
+        <v>356.19120954862285</v>
       </c>
       <c r="Q119">
-        <v>327.0893375091722</v>
+        <v>312.37031732125945</v>
       </c>
       <c r="R119">
-        <v>297.88931413063392</v>
+        <v>284.48429499475543</v>
       </c>
       <c r="S119">
-        <v>32.021436939184859</v>
+        <v>33.530300459879435</v>
       </c>
       <c r="T119">
-        <v>43.999030353573467</v>
+        <v>46.072283092747092</v>
       </c>
       <c r="U119">
-        <v>55.339241890960444</v>
+        <v>57.946850147602561</v>
       </c>
       <c r="V119">
-        <v>64.695942658050456</v>
+        <v>67.744442573874821</v>
       </c>
       <c r="W119">
-        <v>73.771817584573668</v>
+        <v>77.247976528349383</v>
       </c>
       <c r="X119">
-        <v>81.003157199535991</v>
+        <v>84.820059894802085</v>
       </c>
     </row>
     <row r="120" spans="2:24" x14ac:dyDescent="0.35">
@@ -10593,58 +10593,58 @@
         <v>30.675575704421817</v>
       </c>
       <c r="G120">
-        <v>636.82372460076874</v>
+        <v>608.16665699373414</v>
       </c>
       <c r="H120">
-        <v>463.46500308782743</v>
+        <v>442.60907794887515</v>
       </c>
       <c r="I120">
-        <v>368.4909666608811</v>
+        <v>351.90887316114146</v>
       </c>
       <c r="J120">
-        <v>315.19767547807504</v>
+        <v>301.01378008156166</v>
       </c>
       <c r="K120">
-        <v>276.42006671860133</v>
+        <v>263.98116371626423</v>
       </c>
       <c r="L120">
-        <v>251.74340659893628</v>
+        <v>240.41495330198413</v>
       </c>
       <c r="M120">
-        <v>745.54972636187563</v>
+        <v>711.99998867559123</v>
       </c>
       <c r="N120">
-        <v>542.59317434672482</v>
+        <v>518.17648150112211</v>
       </c>
       <c r="O120">
-        <v>431.40405852981206</v>
+        <v>411.99087589597053</v>
       </c>
       <c r="P120">
-        <v>369.0119127548196</v>
+        <v>352.4063766808527</v>
       </c>
       <c r="Q120">
-        <v>323.61373664616741</v>
+        <v>309.05111849708987</v>
       </c>
       <c r="R120">
-        <v>294.72398821338885</v>
+        <v>281.46140874378631</v>
       </c>
       <c r="S120">
-        <v>32.315211590003067</v>
+        <v>33.83791789529117</v>
       </c>
       <c r="T120">
-        <v>44.402691182505336</v>
+        <v>46.494964589010827</v>
       </c>
       <c r="U120">
-        <v>55.846941357849992</v>
+        <v>58.478472626020931</v>
       </c>
       <c r="V120">
-        <v>65.289483416381202</v>
+        <v>68.365951221341575</v>
       </c>
       <c r="W120">
-        <v>74.448623250487188</v>
+        <v>77.956673560719565</v>
       </c>
       <c r="X120">
-        <v>81.746305430724391</v>
+        <v>85.59822558191037</v>
       </c>
     </row>
     <row r="121" spans="2:24" x14ac:dyDescent="0.35">
@@ -10661,58 +10661,58 @@
         <v>30.531246177039449</v>
       </c>
       <c r="G121">
-        <v>633.82744938549183</v>
+        <v>605.30521416314468</v>
       </c>
       <c r="H121">
-        <v>461.28438599041817</v>
+        <v>440.52658862084934</v>
       </c>
       <c r="I121">
-        <v>366.75720532660989</v>
+        <v>350.25313108691245</v>
       </c>
       <c r="J121">
-        <v>313.71466071831577</v>
+        <v>299.59750098599153</v>
       </c>
       <c r="K121">
-        <v>275.11950180099666</v>
+        <v>262.7391242199518</v>
       </c>
       <c r="L121">
-        <v>250.55894612633904</v>
+        <v>239.28379355065377</v>
       </c>
       <c r="M121">
-        <v>742.04189196350262</v>
+        <v>708.65000682514506</v>
       </c>
       <c r="N121">
-        <v>540.04025676927006</v>
+        <v>515.73844521465287</v>
       </c>
       <c r="O121">
-        <v>429.37428916286041</v>
+        <v>410.05244615053164</v>
       </c>
       <c r="P121">
-        <v>367.27570035315017</v>
+        <v>350.74829383725842</v>
       </c>
       <c r="Q121">
-        <v>322.09112405970342</v>
+        <v>307.59702347701676</v>
       </c>
       <c r="R121">
-        <v>293.33730278205547</v>
+        <v>280.13712415686297</v>
       </c>
       <c r="S121">
-        <v>32.467974408428532</v>
+        <v>33.997878961705275</v>
       </c>
       <c r="T121">
-        <v>44.612594813549904</v>
+        <v>46.714758967067965</v>
       </c>
       <c r="U121">
-        <v>56.110945080632547</v>
+        <v>58.754916314798479</v>
       </c>
       <c r="V121">
-        <v>65.598124610713171</v>
+        <v>68.689135718024275</v>
       </c>
       <c r="W121">
-        <v>74.800562196762215</v>
+        <v>78.325196017552059</v>
       </c>
       <c r="X121">
-        <v>82.132742510942364</v>
+        <v>86.002871739206668</v>
       </c>
     </row>
     <row r="122" spans="2:24" x14ac:dyDescent="0.35">
@@ -10729,58 +10729,58 @@
         <v>30.053067315014406</v>
       </c>
       <c r="G122">
-        <v>623.90047533700647</v>
+        <v>595.82495394684111</v>
       </c>
       <c r="H122">
-        <v>454.05977283562663</v>
+        <v>433.6270830580234</v>
       </c>
       <c r="I122">
-        <v>361.01307218295682</v>
+        <v>344.76748393472377</v>
       </c>
       <c r="J122">
-        <v>308.80127727523603</v>
+        <v>294.90521979785041</v>
       </c>
       <c r="K122">
-        <v>270.81059382097999</v>
+        <v>258.62411709903586</v>
       </c>
       <c r="L122">
-        <v>246.63470435008983</v>
+        <v>235.53614265433578</v>
       </c>
       <c r="M122">
-        <v>730.42006868722717</v>
+        <v>697.55116559630176</v>
       </c>
       <c r="N122">
-        <v>531.58217307585562</v>
+        <v>507.66097528744206</v>
       </c>
       <c r="O122">
-        <v>422.64945036053484</v>
+        <v>403.63022509431079</v>
       </c>
       <c r="P122">
-        <v>361.52344656613002</v>
+        <v>345.25489147065417</v>
       </c>
       <c r="Q122">
-        <v>317.04654886358634</v>
+        <v>302.77945416472494</v>
       </c>
       <c r="R122">
-        <v>288.74306850742227</v>
+        <v>275.74963042458825</v>
       </c>
       <c r="S122">
-        <v>32.620737226854004</v>
+        <v>34.157840028119381</v>
       </c>
       <c r="T122">
-        <v>44.82249844459448</v>
+        <v>46.93455334512511</v>
       </c>
       <c r="U122">
-        <v>56.374948803415116</v>
+        <v>59.03136000357604</v>
       </c>
       <c r="V122">
-        <v>65.906765805045168</v>
+        <v>69.012320214706989</v>
       </c>
       <c r="W122">
-        <v>75.152501143037256</v>
+        <v>78.693718474384553</v>
       </c>
       <c r="X122">
-        <v>82.519179591160338</v>
+        <v>86.407517896502981</v>
       </c>
     </row>
     <row r="123" spans="2:24" x14ac:dyDescent="0.35">
@@ -10797,58 +10797,58 @@
         <v>29.505673518336323</v>
       </c>
       <c r="G123">
-        <v>612.53660201372134</v>
+        <v>584.9724549231039</v>
       </c>
       <c r="H123">
-        <v>445.78941891913615</v>
+        <v>425.728895067775</v>
       </c>
       <c r="I123">
-        <v>354.43749325248541</v>
+        <v>338.48780605612353</v>
       </c>
       <c r="J123">
-        <v>303.17669653560938</v>
+        <v>289.53374519150697</v>
       </c>
       <c r="K123">
-        <v>265.87798452761007</v>
+        <v>253.91347522386761</v>
       </c>
       <c r="L123">
-        <v>242.14244052251959</v>
+        <v>231.24603069900621</v>
       </c>
       <c r="M123">
-        <v>717.11602186972254</v>
+        <v>684.84580088558505</v>
       </c>
       <c r="N123">
-        <v>521.8998075150862</v>
+        <v>498.41431617690733</v>
       </c>
       <c r="O123">
-        <v>414.95121161266587</v>
+        <v>396.27840709009587</v>
       </c>
       <c r="P123">
-        <v>354.93857155388417</v>
+        <v>338.96633583395936</v>
       </c>
       <c r="Q123">
-        <v>311.27178676403133</v>
+        <v>297.26455635964987</v>
       </c>
       <c r="R123">
-        <v>283.48383280685221</v>
+        <v>270.72706033054385</v>
       </c>
       <c r="S123">
-        <v>32.773500045279476</v>
+        <v>34.317801094533486</v>
       </c>
       <c r="T123">
-        <v>45.032402075639048</v>
+        <v>47.154347723182248</v>
       </c>
       <c r="U123">
-        <v>56.638952526197677</v>
+        <v>59.307803692353588</v>
       </c>
       <c r="V123">
-        <v>66.215406999377151</v>
+        <v>69.335504711389689</v>
       </c>
       <c r="W123">
-        <v>75.504440089312283</v>
+        <v>79.062240931217048</v>
       </c>
       <c r="X123">
-        <v>82.905616671378311</v>
+        <v>86.812164053799279</v>
       </c>
     </row>
     <row r="124" spans="2:24" x14ac:dyDescent="0.35">
@@ -10865,58 +10865,58 @@
         <v>29.366160564774734</v>
       </c>
       <c r="G124">
-        <v>609.6403186783009</v>
+        <v>582.20650433777735</v>
       </c>
       <c r="H124">
-        <v>443.68157350895552</v>
+        <v>423.71590270105253</v>
       </c>
       <c r="I124">
-        <v>352.76159110756777</v>
+        <v>336.88731950772723</v>
       </c>
       <c r="J124">
-        <v>301.74317303517336</v>
+        <v>288.16473024859056</v>
       </c>
       <c r="K124">
-        <v>264.62082214203031</v>
+        <v>252.71288514563892</v>
       </c>
       <c r="L124">
-        <v>240.99750793730294</v>
+        <v>230.15262008012431</v>
       </c>
       <c r="M124">
-        <v>713.72525113557185</v>
+        <v>681.60761483447106</v>
       </c>
       <c r="N124">
-        <v>519.43208605926498</v>
+        <v>496.05764218659812</v>
       </c>
       <c r="O124">
-        <v>412.98917983325009</v>
+        <v>394.40466674075384</v>
       </c>
       <c r="P124">
-        <v>353.26030013873958</v>
+        <v>337.36358663249626</v>
       </c>
       <c r="Q124">
-        <v>309.79998689798674</v>
+        <v>295.85898748757728</v>
       </c>
       <c r="R124">
-        <v>282.14342392659859</v>
+        <v>269.44696984990162</v>
       </c>
       <c r="S124">
-        <v>32.929200610213123</v>
+        <v>34.480838335301705</v>
       </c>
       <c r="T124">
-        <v>45.246342314972935</v>
+        <v>47.378368916202028</v>
       </c>
       <c r="U124">
-        <v>56.908033243649136</v>
+        <v>59.589563605915323</v>
       </c>
       <c r="V124">
-        <v>66.529983601292443</v>
+        <v>69.664904294547057</v>
       </c>
       <c r="W124">
-        <v>75.863147092246436</v>
+        <v>79.43785035837324</v>
       </c>
       <c r="X124">
-        <v>83.299485233908158</v>
+        <v>87.224591867966652</v>
       </c>
     </row>
     <row r="125" spans="2:24" x14ac:dyDescent="0.35">
@@ -10933,58 +10933,58 @@
         <v>28.900028459980465</v>
       </c>
       <c r="G125">
-        <v>599.96343482805605</v>
+        <v>572.96508026079346</v>
       </c>
       <c r="H125">
-        <v>436.63896999046085</v>
+        <v>416.99021634089007</v>
       </c>
       <c r="I125">
-        <v>347.16216987608448</v>
+        <v>331.53987223166064</v>
       </c>
       <c r="J125">
-        <v>296.95357243199129</v>
+        <v>283.59066167255168</v>
       </c>
       <c r="K125">
-        <v>260.42046845516074</v>
+        <v>248.70154737467851</v>
       </c>
       <c r="L125">
-        <v>237.17212956081408</v>
+        <v>226.49938373057745</v>
       </c>
       <c r="M125">
-        <v>702.39621638406561</v>
+        <v>670.78838664678256</v>
       </c>
       <c r="N125">
-        <v>511.18708681810051</v>
+        <v>488.18366791128597</v>
       </c>
       <c r="O125">
-        <v>406.43375985492821</v>
+        <v>388.14424066145637</v>
       </c>
       <c r="P125">
-        <v>347.65296284720932</v>
+        <v>332.00857951908489</v>
       </c>
       <c r="Q125">
-        <v>304.88249965482237</v>
+        <v>291.16278717035533</v>
       </c>
       <c r="R125">
-        <v>277.66493216875796</v>
+        <v>265.17001022116386</v>
       </c>
       <c r="S125">
-        <v>33.081963428638595</v>
+        <v>34.640799401715803</v>
       </c>
       <c r="T125">
-        <v>45.456245946017503</v>
+        <v>47.598163294259166</v>
       </c>
       <c r="U125">
-        <v>57.172036966431698</v>
+        <v>59.866007294692878</v>
       </c>
       <c r="V125">
-        <v>66.838624795624412</v>
+        <v>69.988088791229757</v>
       </c>
       <c r="W125">
-        <v>76.215086038521463</v>
+        <v>79.806372815205719</v>
       </c>
       <c r="X125">
-        <v>83.685922314126117</v>
+        <v>87.62923802526295</v>
       </c>
     </row>
     <row r="126" spans="2:24" x14ac:dyDescent="0.35">
@@ -11001,58 +11001,58 @@
         <v>28.508980790566604</v>
       </c>
       <c r="G126">
-        <v>591.84530085293102</v>
+        <v>565.21226231454909</v>
       </c>
       <c r="H126">
-        <v>430.73078717235455</v>
+        <v>411.34790174959858</v>
       </c>
       <c r="I126">
-        <v>342.4647019262971</v>
+        <v>327.05379033961373</v>
       </c>
       <c r="J126">
-        <v>292.93547941922998</v>
+        <v>279.75338284536463</v>
       </c>
       <c r="K126">
-        <v>256.89670662225888</v>
+        <v>245.33635482425723</v>
       </c>
       <c r="L126">
-        <v>233.96294211509553</v>
+        <v>223.43460971991621</v>
       </c>
       <c r="M126">
-        <v>692.89205953513874</v>
+        <v>661.71191685605754</v>
       </c>
       <c r="N126">
-        <v>504.27018986031754</v>
+        <v>481.57803131660324</v>
       </c>
       <c r="O126">
-        <v>400.93428518200636</v>
+        <v>382.89224234881607</v>
       </c>
       <c r="P126">
-        <v>342.94885395422045</v>
+        <v>327.51615552628056</v>
       </c>
       <c r="Q126">
-        <v>300.75711994801043</v>
+        <v>287.22304955034991</v>
       </c>
       <c r="R126">
-        <v>273.90783467133139</v>
+        <v>261.58198211112142</v>
       </c>
       <c r="S126">
-        <v>33.234726247064067</v>
+        <v>34.800760468129909</v>
       </c>
       <c r="T126">
-        <v>45.666149577062079</v>
+        <v>47.817957672316318</v>
       </c>
       <c r="U126">
-        <v>57.436040689214266</v>
+        <v>60.142450983470432</v>
       </c>
       <c r="V126">
-        <v>67.147265989956409</v>
+        <v>70.311273287912471</v>
       </c>
       <c r="W126">
-        <v>76.567024984796504</v>
+        <v>80.174895272038228</v>
       </c>
       <c r="X126">
-        <v>84.072359394344105</v>
+        <v>88.033884182559262</v>
       </c>
     </row>
     <row r="127" spans="2:24" x14ac:dyDescent="0.35">
@@ -11069,58 +11069,58 @@
         <v>28.147306463408711</v>
       </c>
       <c r="G127">
-        <v>584.33695628810631</v>
+        <v>558.04179325514156</v>
       </c>
       <c r="H127">
-        <v>425.2663944330568</v>
+        <v>406.12940668356924</v>
       </c>
       <c r="I127">
-        <v>338.12008183782638</v>
+        <v>322.9046781551242</v>
       </c>
       <c r="J127">
-        <v>289.21920337281716</v>
+        <v>276.20433922104036</v>
       </c>
       <c r="K127">
-        <v>253.63763032629296</v>
+        <v>242.22393696160978</v>
       </c>
       <c r="L127">
-        <v>230.99481111486847</v>
+        <v>220.60004461469939</v>
       </c>
       <c r="M127">
-        <v>684.10180248363667</v>
+        <v>653.31722137187307</v>
       </c>
       <c r="N127">
-        <v>497.87285201918849</v>
+        <v>475.46857367832501</v>
       </c>
       <c r="O127">
-        <v>395.847900688187</v>
+        <v>378.03474515721859</v>
       </c>
       <c r="P127">
-        <v>338.59809175354206</v>
+        <v>323.3611776246326</v>
       </c>
       <c r="Q127">
-        <v>296.9416159917576</v>
+        <v>283.57924327212851</v>
       </c>
       <c r="R127">
-        <v>270.43294959789478</v>
+        <v>258.26346686598953</v>
       </c>
       <c r="S127">
-        <v>33.387489065489532</v>
+        <v>34.960721534544014</v>
       </c>
       <c r="T127">
-        <v>45.876053208106647</v>
+        <v>48.037752050373456</v>
       </c>
       <c r="U127">
-        <v>57.700044411996828</v>
+        <v>60.418894672247987</v>
       </c>
       <c r="V127">
-        <v>67.455907184288392</v>
+        <v>70.63445778459517</v>
       </c>
       <c r="W127">
-        <v>76.918963931071531</v>
+        <v>80.543417728870708</v>
       </c>
       <c r="X127">
-        <v>84.458796474562064</v>
+        <v>88.438530339855561</v>
       </c>
     </row>
     <row r="128" spans="2:24" x14ac:dyDescent="0.35">
@@ -11140,58 +11140,58 @@
         <v>27.445949772851009</v>
       </c>
       <c r="G128">
-        <v>569.77681944639596</v>
+        <v>544.13686257130814</v>
       </c>
       <c r="H128">
-        <v>414.66987673809672</v>
+        <v>396.00973228488238</v>
       </c>
       <c r="I128">
-        <v>329.69502056536817</v>
+        <v>314.85874463992661</v>
       </c>
       <c r="J128">
-        <v>282.01262310599867</v>
+        <v>269.3220550662287</v>
       </c>
       <c r="K128">
-        <v>247.31764907914226</v>
+        <v>236.18835487058084</v>
       </c>
       <c r="L128">
-        <v>225.23902924386999</v>
+        <v>215.10327292789583</v>
       </c>
       <c r="M128">
-        <v>667.05578862017092</v>
+        <v>637.03827813226326</v>
       </c>
       <c r="N128">
-        <v>485.46717276655227</v>
+        <v>463.62114999205744</v>
       </c>
       <c r="O128">
-        <v>385.98441432043103</v>
+        <v>368.61511567601167</v>
       </c>
       <c r="P128">
-        <v>330.1611197338521</v>
+        <v>315.30386934582873</v>
       </c>
       <c r="Q128">
-        <v>289.542613556069</v>
+        <v>276.51319594604587</v>
       </c>
       <c r="R128">
-        <v>263.69447326111612</v>
+        <v>251.82822196436587</v>
       </c>
       <c r="S128">
-        <v>33.540251883914998</v>
+        <v>35.120682600958112</v>
       </c>
       <c r="T128">
-        <v>46.085956839151216</v>
+        <v>48.257546428430594</v>
       </c>
       <c r="U128">
-        <v>57.964048134779389</v>
+        <v>60.695338361025534</v>
       </c>
       <c r="V128">
-        <v>67.764548378620361</v>
+        <v>70.95764228127787</v>
       </c>
       <c r="W128">
-        <v>77.270902877346558</v>
+        <v>80.911940185703202</v>
       </c>
       <c r="X128">
-        <v>84.845233554780023</v>
+        <v>88.843176497151859</v>
       </c>
     </row>
   </sheetData>
